--- a/guestLists.xlsx
+++ b/guestLists.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jhan/Creative Cloud Files/Projects/Personal/invitation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4982837F-CC0F-4147-BCB1-1408730D6CE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEDC6022-BF32-504C-8E62-27BF26B47450}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="27340" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="27340" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="정훈" sheetId="5" r:id="rId1"/>
     <sheet name="예원" sheetId="1" r:id="rId2"/>
-    <sheet name="values" sheetId="2" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
-    <sheet name="URLS" sheetId="4" r:id="rId5"/>
+    <sheet name="한국" sheetId="6" r:id="rId3"/>
+    <sheet name="values" sheetId="2" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId5"/>
+    <sheet name="URLS" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="199">
   <si>
     <t>name</t>
   </si>
@@ -1008,7 +1009,7 @@
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F38" sqref="F38"/>
+      <selection pane="bottomLeft" activeCell="A32" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10916,9 +10917,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L985"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M33" sqref="M33"/>
+      <selection pane="bottomLeft" activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -21324,6 +21325,9209 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F63BB0E4-D669-894E-AF89-C7B27B11336A}">
+  <dimension ref="A1:L985"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="19.1640625" customWidth="1"/>
+    <col min="2" max="4" width="10.5" customWidth="1"/>
+    <col min="5" max="8" width="10.83203125" customWidth="1"/>
+    <col min="9" max="9" width="10.5" customWidth="1"/>
+    <col min="10" max="11" width="10.83203125" customWidth="1"/>
+    <col min="12" max="12" width="44.1640625" customWidth="1"/>
+    <col min="13" max="26" width="10.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="13"/>
+      <c r="B2" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2" s="3">
+        <v>0</v>
+      </c>
+      <c r="I2" s="4">
+        <v>0</v>
+      </c>
+      <c r="J2" s="5">
+        <v>1000</v>
+      </c>
+      <c r="K2" s="6">
+        <v>1000</v>
+      </c>
+      <c r="L2" s="3" t="str">
+        <f t="shared" ref="L2:L30" si="0">_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J2,"&amp;pw=",K2)</f>
+        <v>https://yeweon-junghoon.com/?id=1000&amp;pw=1000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3" s="3">
+        <v>0</v>
+      </c>
+      <c r="I3" s="4">
+        <v>0</v>
+      </c>
+      <c r="J3" s="5">
+        <v>1001</v>
+      </c>
+      <c r="K3" s="6">
+        <v>1001</v>
+      </c>
+      <c r="L3" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>https://yeweon-junghoon.com/?id=1001&amp;pw=1001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="4"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="3"/>
+    </row>
+    <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="3"/>
+    </row>
+    <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="3"/>
+    </row>
+    <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="4"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="3"/>
+    </row>
+    <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="4"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="13"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="4"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="4"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="3"/>
+    </row>
+    <row r="26" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="3"/>
+    </row>
+    <row r="29" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="3"/>
+    </row>
+    <row r="30" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="6"/>
+      <c r="L30" s="3"/>
+    </row>
+    <row r="31" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="6"/>
+      <c r="L31" s="3"/>
+    </row>
+    <row r="32" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="6"/>
+      <c r="L32" s="3"/>
+    </row>
+    <row r="33" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="6"/>
+      <c r="L33" s="3"/>
+    </row>
+    <row r="34" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="11"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="6"/>
+      <c r="L34" s="3"/>
+    </row>
+    <row r="35" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="5"/>
+      <c r="K35" s="6"/>
+      <c r="L35" s="3"/>
+    </row>
+    <row r="36" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="5"/>
+      <c r="K36" s="6"/>
+      <c r="L36" s="3"/>
+    </row>
+    <row r="37" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="5"/>
+      <c r="K37" s="6"/>
+      <c r="L37" s="3"/>
+    </row>
+    <row r="38" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="5"/>
+      <c r="K38" s="6"/>
+      <c r="L38" s="3"/>
+    </row>
+    <row r="39" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="5"/>
+      <c r="K39" s="6"/>
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="5"/>
+      <c r="K40" s="6"/>
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="11"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="5"/>
+      <c r="K41" s="6"/>
+      <c r="L41" s="3"/>
+    </row>
+    <row r="42" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="4"/>
+      <c r="J42" s="5"/>
+      <c r="K42" s="6"/>
+      <c r="L42" s="3"/>
+    </row>
+    <row r="43" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="3"/>
+      <c r="I43" s="4"/>
+      <c r="J43" s="5"/>
+      <c r="K43" s="6"/>
+      <c r="L43" s="3"/>
+    </row>
+    <row r="44" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="4"/>
+      <c r="J44" s="5"/>
+      <c r="K44" s="6"/>
+      <c r="L44" s="3"/>
+    </row>
+    <row r="45" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="3"/>
+      <c r="I45" s="4"/>
+      <c r="J45" s="5"/>
+      <c r="K45" s="6"/>
+      <c r="L45" s="3"/>
+    </row>
+    <row r="46" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="3"/>
+      <c r="I46" s="4"/>
+      <c r="J46" s="5"/>
+      <c r="K46" s="6"/>
+      <c r="L46" s="3"/>
+    </row>
+    <row r="47" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="3"/>
+      <c r="I47" s="4"/>
+      <c r="J47" s="5"/>
+      <c r="K47" s="6"/>
+      <c r="L47" s="3"/>
+    </row>
+    <row r="48" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="3"/>
+      <c r="I48" s="4"/>
+      <c r="J48" s="5"/>
+      <c r="K48" s="6"/>
+      <c r="L48" s="3"/>
+    </row>
+    <row r="49" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="3"/>
+      <c r="I49" s="4"/>
+      <c r="J49" s="5"/>
+      <c r="K49" s="6"/>
+      <c r="L49" s="3"/>
+    </row>
+    <row r="50" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="3"/>
+      <c r="I50" s="4"/>
+      <c r="J50" s="5"/>
+      <c r="K50" s="6"/>
+      <c r="L50" s="3"/>
+    </row>
+    <row r="51" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E51" s="7"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="3"/>
+      <c r="H51" s="3"/>
+      <c r="J51" s="5"/>
+      <c r="K51" s="5"/>
+      <c r="L51" s="3"/>
+    </row>
+    <row r="52" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E52" s="7"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="3"/>
+      <c r="H52" s="3"/>
+      <c r="J52" s="5"/>
+      <c r="K52" s="5"/>
+      <c r="L52" s="3"/>
+    </row>
+    <row r="53" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E53" s="7"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="3"/>
+      <c r="H53" s="3"/>
+      <c r="J53" s="5"/>
+      <c r="K53" s="5"/>
+      <c r="L53" s="3"/>
+    </row>
+    <row r="54" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E54" s="7"/>
+      <c r="F54" s="7"/>
+      <c r="G54" s="3"/>
+      <c r="H54" s="3"/>
+      <c r="J54" s="5"/>
+      <c r="K54" s="5"/>
+      <c r="L54" s="3"/>
+    </row>
+    <row r="55" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E55" s="7"/>
+      <c r="F55" s="7"/>
+      <c r="G55" s="3"/>
+      <c r="H55" s="3"/>
+      <c r="J55" s="5"/>
+      <c r="K55" s="5"/>
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E56" s="7"/>
+      <c r="F56" s="7"/>
+      <c r="G56" s="3"/>
+      <c r="H56" s="3"/>
+      <c r="J56" s="5"/>
+      <c r="K56" s="5"/>
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E57" s="7"/>
+      <c r="F57" s="7"/>
+      <c r="G57" s="3"/>
+      <c r="H57" s="3"/>
+      <c r="J57" s="5"/>
+      <c r="K57" s="5"/>
+      <c r="L57" s="3"/>
+    </row>
+    <row r="58" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E58" s="7"/>
+      <c r="F58" s="7"/>
+      <c r="G58" s="3"/>
+      <c r="H58" s="3"/>
+      <c r="J58" s="5"/>
+      <c r="K58" s="5"/>
+      <c r="L58" s="3"/>
+    </row>
+    <row r="59" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E59" s="7"/>
+      <c r="F59" s="7"/>
+      <c r="G59" s="3"/>
+      <c r="H59" s="3"/>
+      <c r="J59" s="5"/>
+      <c r="K59" s="5"/>
+      <c r="L59" s="3"/>
+    </row>
+    <row r="60" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E60" s="7"/>
+      <c r="F60" s="7"/>
+      <c r="G60" s="3"/>
+      <c r="H60" s="3"/>
+      <c r="J60" s="5"/>
+      <c r="K60" s="5"/>
+      <c r="L60" s="3"/>
+    </row>
+    <row r="61" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E61" s="7"/>
+      <c r="F61" s="7"/>
+      <c r="G61" s="3"/>
+      <c r="H61" s="3"/>
+      <c r="J61" s="5"/>
+      <c r="K61" s="5"/>
+      <c r="L61" s="3"/>
+    </row>
+    <row r="62" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E62" s="7"/>
+      <c r="F62" s="7"/>
+      <c r="G62" s="3"/>
+      <c r="H62" s="3"/>
+      <c r="J62" s="5"/>
+      <c r="K62" s="5"/>
+      <c r="L62" s="3"/>
+    </row>
+    <row r="63" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E63" s="7"/>
+      <c r="F63" s="7"/>
+      <c r="G63" s="3"/>
+      <c r="H63" s="3"/>
+      <c r="J63" s="5"/>
+      <c r="K63" s="5"/>
+      <c r="L63" s="3"/>
+    </row>
+    <row r="64" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E64" s="7"/>
+      <c r="F64" s="7"/>
+      <c r="G64" s="3"/>
+      <c r="H64" s="3"/>
+      <c r="J64" s="5"/>
+      <c r="K64" s="5"/>
+      <c r="L64" s="3"/>
+    </row>
+    <row r="65" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E65" s="7"/>
+      <c r="F65" s="7"/>
+      <c r="G65" s="3"/>
+      <c r="H65" s="3"/>
+      <c r="J65" s="5"/>
+      <c r="K65" s="5"/>
+      <c r="L65" s="3"/>
+    </row>
+    <row r="66" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E66" s="7"/>
+      <c r="F66" s="7"/>
+      <c r="G66" s="3"/>
+      <c r="H66" s="3"/>
+      <c r="J66" s="5"/>
+      <c r="K66" s="5"/>
+      <c r="L66" s="3"/>
+    </row>
+    <row r="67" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E67" s="7"/>
+      <c r="F67" s="7"/>
+      <c r="G67" s="3"/>
+      <c r="H67" s="3"/>
+      <c r="J67" s="5"/>
+      <c r="K67" s="5"/>
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E68" s="7"/>
+      <c r="F68" s="7"/>
+      <c r="G68" s="3"/>
+      <c r="H68" s="3"/>
+      <c r="J68" s="5"/>
+      <c r="K68" s="5"/>
+      <c r="L68" s="3"/>
+    </row>
+    <row r="69" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E69" s="7"/>
+      <c r="F69" s="7"/>
+      <c r="G69" s="3"/>
+      <c r="H69" s="3"/>
+      <c r="J69" s="5"/>
+      <c r="K69" s="5"/>
+      <c r="L69" s="3"/>
+    </row>
+    <row r="70" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E70" s="7"/>
+      <c r="F70" s="7"/>
+      <c r="G70" s="3"/>
+      <c r="H70" s="3"/>
+      <c r="J70" s="5"/>
+      <c r="K70" s="5"/>
+      <c r="L70" s="3"/>
+    </row>
+    <row r="71" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E71" s="7"/>
+      <c r="F71" s="7"/>
+      <c r="G71" s="3"/>
+      <c r="H71" s="3"/>
+      <c r="J71" s="5"/>
+      <c r="K71" s="5"/>
+      <c r="L71" s="3"/>
+    </row>
+    <row r="72" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E72" s="7"/>
+      <c r="F72" s="7"/>
+      <c r="G72" s="3"/>
+      <c r="H72" s="3"/>
+      <c r="J72" s="5"/>
+      <c r="K72" s="5"/>
+      <c r="L72" s="3"/>
+    </row>
+    <row r="73" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E73" s="7"/>
+      <c r="F73" s="7"/>
+      <c r="G73" s="3"/>
+      <c r="H73" s="3"/>
+      <c r="J73" s="5"/>
+      <c r="K73" s="5"/>
+      <c r="L73" s="3"/>
+    </row>
+    <row r="74" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E74" s="7"/>
+      <c r="F74" s="7"/>
+      <c r="G74" s="3"/>
+      <c r="H74" s="3"/>
+      <c r="J74" s="5"/>
+      <c r="K74" s="5"/>
+      <c r="L74" s="3"/>
+    </row>
+    <row r="75" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E75" s="7"/>
+      <c r="F75" s="7"/>
+      <c r="G75" s="3"/>
+      <c r="H75" s="3"/>
+      <c r="J75" s="5"/>
+      <c r="K75" s="5"/>
+      <c r="L75" s="3"/>
+    </row>
+    <row r="76" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E76" s="7"/>
+      <c r="F76" s="7"/>
+      <c r="G76" s="3"/>
+      <c r="H76" s="3"/>
+      <c r="J76" s="5"/>
+      <c r="K76" s="5"/>
+      <c r="L76" s="3"/>
+    </row>
+    <row r="77" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E77" s="7"/>
+      <c r="F77" s="7"/>
+      <c r="G77" s="3"/>
+      <c r="H77" s="3"/>
+      <c r="J77" s="5"/>
+      <c r="K77" s="5"/>
+      <c r="L77" s="3"/>
+    </row>
+    <row r="78" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E78" s="7"/>
+      <c r="F78" s="7"/>
+      <c r="G78" s="3"/>
+      <c r="H78" s="3"/>
+      <c r="J78" s="5"/>
+      <c r="K78" s="5"/>
+      <c r="L78" s="3"/>
+    </row>
+    <row r="79" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E79" s="7"/>
+      <c r="F79" s="7"/>
+      <c r="G79" s="3"/>
+      <c r="H79" s="3"/>
+      <c r="J79" s="5"/>
+      <c r="K79" s="5"/>
+      <c r="L79" s="3"/>
+    </row>
+    <row r="80" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E80" s="7"/>
+      <c r="F80" s="7"/>
+      <c r="G80" s="3"/>
+      <c r="H80" s="3"/>
+      <c r="J80" s="5"/>
+      <c r="K80" s="5"/>
+      <c r="L80" s="3"/>
+    </row>
+    <row r="81" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E81" s="7"/>
+      <c r="F81" s="7"/>
+      <c r="G81" s="3"/>
+      <c r="H81" s="3"/>
+      <c r="J81" s="5"/>
+      <c r="K81" s="5"/>
+      <c r="L81" s="3"/>
+    </row>
+    <row r="82" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E82" s="7"/>
+      <c r="F82" s="7"/>
+      <c r="G82" s="3"/>
+      <c r="H82" s="3"/>
+      <c r="J82" s="5"/>
+      <c r="K82" s="5"/>
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E83" s="7"/>
+      <c r="F83" s="7"/>
+      <c r="G83" s="3"/>
+      <c r="H83" s="3"/>
+      <c r="J83" s="5"/>
+      <c r="K83" s="5"/>
+      <c r="L83" s="3"/>
+    </row>
+    <row r="84" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E84" s="7"/>
+      <c r="F84" s="7"/>
+      <c r="G84" s="3"/>
+      <c r="H84" s="3"/>
+      <c r="J84" s="5"/>
+      <c r="K84" s="5"/>
+      <c r="L84" s="3"/>
+    </row>
+    <row r="85" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E85" s="7"/>
+      <c r="F85" s="7"/>
+      <c r="G85" s="3"/>
+      <c r="H85" s="3"/>
+      <c r="J85" s="5"/>
+      <c r="K85" s="5"/>
+      <c r="L85" s="3"/>
+    </row>
+    <row r="86" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E86" s="7"/>
+      <c r="F86" s="7"/>
+      <c r="G86" s="3"/>
+      <c r="H86" s="3"/>
+      <c r="J86" s="5"/>
+      <c r="K86" s="5"/>
+      <c r="L86" s="3"/>
+    </row>
+    <row r="87" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E87" s="7"/>
+      <c r="F87" s="7"/>
+      <c r="G87" s="3"/>
+      <c r="H87" s="3"/>
+      <c r="J87" s="5"/>
+      <c r="K87" s="5"/>
+      <c r="L87" s="3"/>
+    </row>
+    <row r="88" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E88" s="7"/>
+      <c r="F88" s="7"/>
+      <c r="G88" s="3"/>
+      <c r="H88" s="3"/>
+      <c r="J88" s="5"/>
+      <c r="K88" s="5"/>
+      <c r="L88" s="3"/>
+    </row>
+    <row r="89" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E89" s="7"/>
+      <c r="F89" s="7"/>
+      <c r="G89" s="3"/>
+      <c r="H89" s="3"/>
+      <c r="J89" s="5"/>
+      <c r="K89" s="5"/>
+      <c r="L89" s="3"/>
+    </row>
+    <row r="90" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E90" s="7"/>
+      <c r="F90" s="7"/>
+      <c r="G90" s="3"/>
+      <c r="H90" s="3"/>
+      <c r="J90" s="5"/>
+      <c r="K90" s="5"/>
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E91" s="7"/>
+      <c r="F91" s="7"/>
+      <c r="G91" s="3"/>
+      <c r="H91" s="3"/>
+      <c r="J91" s="5"/>
+      <c r="K91" s="5"/>
+      <c r="L91" s="3"/>
+    </row>
+    <row r="92" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E92" s="7"/>
+      <c r="F92" s="7"/>
+      <c r="G92" s="3"/>
+      <c r="H92" s="3"/>
+      <c r="J92" s="5"/>
+      <c r="K92" s="5"/>
+      <c r="L92" s="3"/>
+    </row>
+    <row r="93" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E93" s="7"/>
+      <c r="F93" s="7"/>
+      <c r="G93" s="3"/>
+      <c r="H93" s="3"/>
+      <c r="J93" s="5"/>
+      <c r="K93" s="5"/>
+      <c r="L93" s="3"/>
+    </row>
+    <row r="94" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E94" s="7"/>
+      <c r="F94" s="7"/>
+      <c r="G94" s="3"/>
+      <c r="H94" s="3"/>
+      <c r="J94" s="5"/>
+      <c r="K94" s="5"/>
+      <c r="L94" s="3"/>
+    </row>
+    <row r="95" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E95" s="7"/>
+      <c r="F95" s="7"/>
+      <c r="G95" s="3"/>
+      <c r="H95" s="3"/>
+      <c r="J95" s="5"/>
+      <c r="K95" s="5"/>
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E96" s="7"/>
+      <c r="F96" s="7"/>
+      <c r="G96" s="3"/>
+      <c r="H96" s="3"/>
+      <c r="J96" s="5"/>
+      <c r="K96" s="5"/>
+      <c r="L96" s="3"/>
+    </row>
+    <row r="97" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E97" s="7"/>
+      <c r="F97" s="7"/>
+      <c r="G97" s="3"/>
+      <c r="H97" s="3"/>
+      <c r="J97" s="5"/>
+      <c r="K97" s="5"/>
+      <c r="L97" s="3"/>
+    </row>
+    <row r="98" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E98" s="7"/>
+      <c r="F98" s="7"/>
+      <c r="G98" s="3"/>
+      <c r="H98" s="3"/>
+      <c r="J98" s="5"/>
+      <c r="K98" s="5"/>
+      <c r="L98" s="3"/>
+    </row>
+    <row r="99" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E99" s="7"/>
+      <c r="F99" s="7"/>
+      <c r="G99" s="3"/>
+      <c r="H99" s="3"/>
+      <c r="J99" s="5"/>
+      <c r="K99" s="5"/>
+      <c r="L99" s="3"/>
+    </row>
+    <row r="100" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E100" s="7"/>
+      <c r="F100" s="7"/>
+      <c r="G100" s="3"/>
+      <c r="H100" s="3"/>
+      <c r="J100" s="5"/>
+      <c r="K100" s="5"/>
+      <c r="L100" s="3"/>
+    </row>
+    <row r="101" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E101" s="7"/>
+      <c r="F101" s="7"/>
+      <c r="G101" s="3"/>
+      <c r="H101" s="3"/>
+      <c r="J101" s="5"/>
+      <c r="K101" s="5"/>
+      <c r="L101" s="3"/>
+    </row>
+    <row r="102" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E102" s="7"/>
+      <c r="F102" s="7"/>
+      <c r="G102" s="3"/>
+      <c r="H102" s="3"/>
+      <c r="J102" s="5"/>
+      <c r="K102" s="5"/>
+      <c r="L102" s="3"/>
+    </row>
+    <row r="103" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E103" s="7"/>
+      <c r="F103" s="7"/>
+      <c r="G103" s="3"/>
+      <c r="H103" s="3"/>
+      <c r="J103" s="5"/>
+      <c r="K103" s="5"/>
+      <c r="L103" s="3"/>
+    </row>
+    <row r="104" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E104" s="7"/>
+      <c r="F104" s="7"/>
+      <c r="G104" s="3"/>
+      <c r="H104" s="3"/>
+      <c r="J104" s="5"/>
+      <c r="K104" s="5"/>
+      <c r="L104" s="3"/>
+    </row>
+    <row r="105" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E105" s="7"/>
+      <c r="F105" s="7"/>
+      <c r="G105" s="3"/>
+      <c r="H105" s="3"/>
+      <c r="J105" s="5"/>
+      <c r="K105" s="5"/>
+      <c r="L105" s="3"/>
+    </row>
+    <row r="106" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E106" s="7"/>
+      <c r="F106" s="7"/>
+      <c r="G106" s="3"/>
+      <c r="H106" s="3"/>
+      <c r="J106" s="5"/>
+      <c r="K106" s="5"/>
+      <c r="L106" s="3"/>
+    </row>
+    <row r="107" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E107" s="7"/>
+      <c r="F107" s="7"/>
+      <c r="G107" s="3"/>
+      <c r="H107" s="3"/>
+      <c r="J107" s="5"/>
+      <c r="K107" s="5"/>
+      <c r="L107" s="3"/>
+    </row>
+    <row r="108" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E108" s="7"/>
+      <c r="F108" s="7"/>
+      <c r="G108" s="3"/>
+      <c r="H108" s="3"/>
+      <c r="J108" s="5"/>
+      <c r="K108" s="5"/>
+      <c r="L108" s="3"/>
+    </row>
+    <row r="109" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E109" s="7"/>
+      <c r="F109" s="7"/>
+      <c r="G109" s="3"/>
+      <c r="H109" s="3"/>
+      <c r="J109" s="5"/>
+      <c r="K109" s="5"/>
+      <c r="L109" s="3"/>
+    </row>
+    <row r="110" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E110" s="7"/>
+      <c r="F110" s="7"/>
+      <c r="G110" s="3"/>
+      <c r="H110" s="3"/>
+      <c r="J110" s="5"/>
+      <c r="K110" s="5"/>
+      <c r="L110" s="3"/>
+    </row>
+    <row r="111" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E111" s="7"/>
+      <c r="F111" s="7"/>
+      <c r="G111" s="3"/>
+      <c r="H111" s="3"/>
+      <c r="J111" s="5"/>
+      <c r="K111" s="5"/>
+      <c r="L111" s="3"/>
+    </row>
+    <row r="112" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E112" s="7"/>
+      <c r="F112" s="7"/>
+      <c r="G112" s="3"/>
+      <c r="H112" s="3"/>
+      <c r="J112" s="5"/>
+      <c r="K112" s="5"/>
+      <c r="L112" s="3"/>
+    </row>
+    <row r="113" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E113" s="7"/>
+      <c r="F113" s="7"/>
+      <c r="G113" s="3"/>
+      <c r="H113" s="3"/>
+      <c r="J113" s="5"/>
+      <c r="K113" s="5"/>
+      <c r="L113" s="3"/>
+    </row>
+    <row r="114" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E114" s="7"/>
+      <c r="F114" s="7"/>
+      <c r="G114" s="3"/>
+      <c r="H114" s="3"/>
+      <c r="J114" s="5"/>
+      <c r="K114" s="5"/>
+      <c r="L114" s="3"/>
+    </row>
+    <row r="115" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E115" s="7"/>
+      <c r="F115" s="7"/>
+      <c r="G115" s="3"/>
+      <c r="H115" s="3"/>
+      <c r="J115" s="5"/>
+      <c r="K115" s="5"/>
+      <c r="L115" s="3"/>
+    </row>
+    <row r="116" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E116" s="7"/>
+      <c r="F116" s="7"/>
+      <c r="G116" s="3"/>
+      <c r="H116" s="3"/>
+      <c r="J116" s="5"/>
+      <c r="K116" s="5"/>
+      <c r="L116" s="3"/>
+    </row>
+    <row r="117" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E117" s="7"/>
+      <c r="F117" s="7"/>
+      <c r="G117" s="3"/>
+      <c r="H117" s="3"/>
+      <c r="J117" s="5"/>
+      <c r="K117" s="5"/>
+      <c r="L117" s="3"/>
+    </row>
+    <row r="118" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E118" s="7"/>
+      <c r="F118" s="7"/>
+      <c r="G118" s="3"/>
+      <c r="H118" s="3"/>
+      <c r="J118" s="5"/>
+      <c r="K118" s="5"/>
+      <c r="L118" s="3"/>
+    </row>
+    <row r="119" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E119" s="7"/>
+      <c r="F119" s="7"/>
+      <c r="G119" s="3"/>
+      <c r="H119" s="3"/>
+      <c r="J119" s="5"/>
+      <c r="K119" s="5"/>
+      <c r="L119" s="3"/>
+    </row>
+    <row r="120" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E120" s="7"/>
+      <c r="F120" s="7"/>
+      <c r="G120" s="3"/>
+      <c r="H120" s="3"/>
+      <c r="J120" s="5"/>
+      <c r="K120" s="5"/>
+      <c r="L120" s="3"/>
+    </row>
+    <row r="121" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E121" s="7"/>
+      <c r="F121" s="7"/>
+      <c r="G121" s="3"/>
+      <c r="H121" s="3"/>
+      <c r="J121" s="5"/>
+      <c r="K121" s="5"/>
+      <c r="L121" s="3"/>
+    </row>
+    <row r="122" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E122" s="7"/>
+      <c r="F122" s="7"/>
+      <c r="G122" s="3"/>
+      <c r="H122" s="3"/>
+      <c r="J122" s="5"/>
+      <c r="K122" s="5"/>
+      <c r="L122" s="3"/>
+    </row>
+    <row r="123" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E123" s="7"/>
+      <c r="F123" s="7"/>
+      <c r="G123" s="3"/>
+      <c r="H123" s="3"/>
+      <c r="J123" s="5"/>
+      <c r="K123" s="5"/>
+      <c r="L123" s="3"/>
+    </row>
+    <row r="124" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E124" s="7"/>
+      <c r="F124" s="7"/>
+      <c r="G124" s="3"/>
+      <c r="H124" s="3"/>
+      <c r="J124" s="5"/>
+      <c r="K124" s="5"/>
+      <c r="L124" s="3"/>
+    </row>
+    <row r="125" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E125" s="7"/>
+      <c r="F125" s="7"/>
+      <c r="G125" s="3"/>
+      <c r="H125" s="3"/>
+      <c r="J125" s="5"/>
+      <c r="K125" s="5"/>
+      <c r="L125" s="3"/>
+    </row>
+    <row r="126" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E126" s="7"/>
+      <c r="F126" s="7"/>
+      <c r="G126" s="3"/>
+      <c r="H126" s="3"/>
+      <c r="J126" s="5"/>
+      <c r="K126" s="5"/>
+      <c r="L126" s="3"/>
+    </row>
+    <row r="127" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E127" s="7"/>
+      <c r="F127" s="7"/>
+      <c r="G127" s="3"/>
+      <c r="H127" s="3"/>
+      <c r="J127" s="5"/>
+      <c r="K127" s="5"/>
+      <c r="L127" s="3"/>
+    </row>
+    <row r="128" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E128" s="7"/>
+      <c r="F128" s="7"/>
+      <c r="G128" s="3"/>
+      <c r="H128" s="3"/>
+      <c r="J128" s="5"/>
+      <c r="K128" s="5"/>
+      <c r="L128" s="3"/>
+    </row>
+    <row r="129" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E129" s="7"/>
+      <c r="F129" s="7"/>
+      <c r="G129" s="3"/>
+      <c r="H129" s="3"/>
+      <c r="J129" s="5"/>
+      <c r="K129" s="5"/>
+      <c r="L129" s="3"/>
+    </row>
+    <row r="130" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E130" s="7"/>
+      <c r="F130" s="7"/>
+      <c r="G130" s="3"/>
+      <c r="H130" s="3"/>
+      <c r="J130" s="5"/>
+      <c r="K130" s="5"/>
+      <c r="L130" s="3"/>
+    </row>
+    <row r="131" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E131" s="7"/>
+      <c r="F131" s="7"/>
+      <c r="G131" s="3"/>
+      <c r="H131" s="3"/>
+      <c r="J131" s="5"/>
+      <c r="K131" s="5"/>
+      <c r="L131" s="3"/>
+    </row>
+    <row r="132" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E132" s="7"/>
+      <c r="F132" s="7"/>
+      <c r="G132" s="3"/>
+      <c r="H132" s="3"/>
+      <c r="J132" s="5"/>
+      <c r="K132" s="5"/>
+      <c r="L132" s="3"/>
+    </row>
+    <row r="133" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E133" s="7"/>
+      <c r="F133" s="7"/>
+      <c r="G133" s="3"/>
+      <c r="H133" s="3"/>
+      <c r="J133" s="5"/>
+      <c r="K133" s="5"/>
+      <c r="L133" s="3"/>
+    </row>
+    <row r="134" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E134" s="7"/>
+      <c r="F134" s="7"/>
+      <c r="G134" s="3"/>
+      <c r="H134" s="3"/>
+      <c r="J134" s="5"/>
+      <c r="K134" s="5"/>
+      <c r="L134" s="3"/>
+    </row>
+    <row r="135" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E135" s="7"/>
+      <c r="F135" s="7"/>
+      <c r="G135" s="3"/>
+      <c r="H135" s="3"/>
+      <c r="J135" s="5"/>
+      <c r="K135" s="5"/>
+      <c r="L135" s="3"/>
+    </row>
+    <row r="136" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E136" s="7"/>
+      <c r="F136" s="7"/>
+      <c r="G136" s="3"/>
+      <c r="H136" s="3"/>
+      <c r="J136" s="5"/>
+      <c r="K136" s="5"/>
+      <c r="L136" s="3"/>
+    </row>
+    <row r="137" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E137" s="7"/>
+      <c r="F137" s="7"/>
+      <c r="G137" s="3"/>
+      <c r="H137" s="3"/>
+      <c r="J137" s="5"/>
+      <c r="K137" s="5"/>
+      <c r="L137" s="3"/>
+    </row>
+    <row r="138" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E138" s="7"/>
+      <c r="F138" s="7"/>
+      <c r="G138" s="3"/>
+      <c r="H138" s="3"/>
+      <c r="J138" s="5"/>
+      <c r="K138" s="5"/>
+      <c r="L138" s="3"/>
+    </row>
+    <row r="139" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E139" s="7"/>
+      <c r="F139" s="7"/>
+      <c r="G139" s="3"/>
+      <c r="H139" s="3"/>
+      <c r="J139" s="5"/>
+      <c r="K139" s="5"/>
+      <c r="L139" s="3"/>
+    </row>
+    <row r="140" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E140" s="7"/>
+      <c r="F140" s="7"/>
+      <c r="G140" s="3"/>
+      <c r="H140" s="3"/>
+      <c r="J140" s="5"/>
+      <c r="K140" s="5"/>
+      <c r="L140" s="3"/>
+    </row>
+    <row r="141" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E141" s="7"/>
+      <c r="F141" s="7"/>
+      <c r="G141" s="3"/>
+      <c r="H141" s="3"/>
+      <c r="J141" s="5"/>
+      <c r="K141" s="5"/>
+      <c r="L141" s="3"/>
+    </row>
+    <row r="142" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E142" s="7"/>
+      <c r="F142" s="7"/>
+      <c r="G142" s="3"/>
+      <c r="H142" s="3"/>
+      <c r="J142" s="5"/>
+      <c r="K142" s="5"/>
+      <c r="L142" s="3"/>
+    </row>
+    <row r="143" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E143" s="7"/>
+      <c r="F143" s="7"/>
+      <c r="G143" s="3"/>
+      <c r="H143" s="3"/>
+      <c r="J143" s="5"/>
+      <c r="K143" s="5"/>
+      <c r="L143" s="3"/>
+    </row>
+    <row r="144" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E144" s="7"/>
+      <c r="F144" s="7"/>
+      <c r="G144" s="3"/>
+      <c r="H144" s="3"/>
+      <c r="J144" s="5"/>
+      <c r="K144" s="5"/>
+      <c r="L144" s="3"/>
+    </row>
+    <row r="145" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E145" s="7"/>
+      <c r="F145" s="7"/>
+      <c r="G145" s="3"/>
+      <c r="H145" s="3"/>
+      <c r="J145" s="5"/>
+      <c r="K145" s="5"/>
+      <c r="L145" s="3"/>
+    </row>
+    <row r="146" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E146" s="7"/>
+      <c r="F146" s="7"/>
+      <c r="G146" s="3"/>
+      <c r="H146" s="3"/>
+      <c r="J146" s="5"/>
+      <c r="K146" s="5"/>
+      <c r="L146" s="3"/>
+    </row>
+    <row r="147" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E147" s="7"/>
+      <c r="F147" s="7"/>
+      <c r="G147" s="3"/>
+      <c r="H147" s="3"/>
+      <c r="J147" s="5"/>
+      <c r="K147" s="5"/>
+      <c r="L147" s="3"/>
+    </row>
+    <row r="148" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E148" s="7"/>
+      <c r="F148" s="7"/>
+      <c r="G148" s="3"/>
+      <c r="H148" s="3"/>
+      <c r="J148" s="5"/>
+      <c r="K148" s="5"/>
+      <c r="L148" s="3"/>
+    </row>
+    <row r="149" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E149" s="7"/>
+      <c r="F149" s="7"/>
+      <c r="G149" s="3"/>
+      <c r="H149" s="3"/>
+      <c r="J149" s="5"/>
+      <c r="K149" s="5"/>
+      <c r="L149" s="3"/>
+    </row>
+    <row r="150" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E150" s="7"/>
+      <c r="F150" s="7"/>
+      <c r="G150" s="3"/>
+      <c r="H150" s="3"/>
+      <c r="J150" s="5"/>
+      <c r="K150" s="5"/>
+      <c r="L150" s="3"/>
+    </row>
+    <row r="151" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E151" s="7"/>
+      <c r="F151" s="7"/>
+      <c r="G151" s="3"/>
+      <c r="H151" s="3"/>
+      <c r="J151" s="5"/>
+      <c r="K151" s="5"/>
+      <c r="L151" s="3"/>
+    </row>
+    <row r="152" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E152" s="7"/>
+      <c r="F152" s="7"/>
+      <c r="G152" s="3"/>
+      <c r="H152" s="3"/>
+      <c r="J152" s="5"/>
+      <c r="K152" s="5"/>
+      <c r="L152" s="3"/>
+    </row>
+    <row r="153" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E153" s="7"/>
+      <c r="F153" s="7"/>
+      <c r="G153" s="3"/>
+      <c r="H153" s="3"/>
+      <c r="J153" s="5"/>
+      <c r="K153" s="5"/>
+      <c r="L153" s="3"/>
+    </row>
+    <row r="154" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E154" s="7"/>
+      <c r="F154" s="7"/>
+      <c r="G154" s="3"/>
+      <c r="H154" s="3"/>
+      <c r="J154" s="5"/>
+      <c r="K154" s="5"/>
+      <c r="L154" s="3"/>
+    </row>
+    <row r="155" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E155" s="7"/>
+      <c r="F155" s="7"/>
+      <c r="G155" s="3"/>
+      <c r="H155" s="3"/>
+      <c r="J155" s="5"/>
+      <c r="K155" s="5"/>
+      <c r="L155" s="3"/>
+    </row>
+    <row r="156" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E156" s="7"/>
+      <c r="F156" s="7"/>
+      <c r="G156" s="3"/>
+      <c r="H156" s="3"/>
+      <c r="J156" s="5"/>
+      <c r="K156" s="5"/>
+      <c r="L156" s="3"/>
+    </row>
+    <row r="157" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E157" s="7"/>
+      <c r="F157" s="7"/>
+      <c r="G157" s="3"/>
+      <c r="H157" s="3"/>
+      <c r="J157" s="5"/>
+      <c r="K157" s="5"/>
+      <c r="L157" s="3"/>
+    </row>
+    <row r="158" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E158" s="7"/>
+      <c r="F158" s="7"/>
+      <c r="G158" s="3"/>
+      <c r="H158" s="3"/>
+      <c r="J158" s="5"/>
+      <c r="K158" s="5"/>
+      <c r="L158" s="3"/>
+    </row>
+    <row r="159" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E159" s="7"/>
+      <c r="F159" s="7"/>
+      <c r="G159" s="3"/>
+      <c r="H159" s="3"/>
+      <c r="J159" s="5"/>
+      <c r="K159" s="5"/>
+      <c r="L159" s="3"/>
+    </row>
+    <row r="160" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E160" s="7"/>
+      <c r="F160" s="7"/>
+      <c r="G160" s="3"/>
+      <c r="H160" s="3"/>
+      <c r="J160" s="5"/>
+      <c r="K160" s="5"/>
+      <c r="L160" s="3"/>
+    </row>
+    <row r="161" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E161" s="7"/>
+      <c r="F161" s="7"/>
+      <c r="G161" s="3"/>
+      <c r="H161" s="3"/>
+      <c r="J161" s="5"/>
+      <c r="K161" s="5"/>
+      <c r="L161" s="3"/>
+    </row>
+    <row r="162" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E162" s="7"/>
+      <c r="F162" s="7"/>
+      <c r="G162" s="3"/>
+      <c r="H162" s="3"/>
+      <c r="J162" s="5"/>
+      <c r="K162" s="5"/>
+      <c r="L162" s="3"/>
+    </row>
+    <row r="163" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E163" s="7"/>
+      <c r="F163" s="7"/>
+      <c r="G163" s="3"/>
+      <c r="H163" s="3"/>
+      <c r="J163" s="5"/>
+      <c r="K163" s="5"/>
+      <c r="L163" s="3"/>
+    </row>
+    <row r="164" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E164" s="7"/>
+      <c r="F164" s="7"/>
+      <c r="G164" s="3"/>
+      <c r="H164" s="3"/>
+      <c r="J164" s="5"/>
+      <c r="K164" s="5"/>
+      <c r="L164" s="3"/>
+    </row>
+    <row r="165" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E165" s="7"/>
+      <c r="F165" s="7"/>
+      <c r="G165" s="3"/>
+      <c r="H165" s="3"/>
+      <c r="J165" s="5"/>
+      <c r="K165" s="5"/>
+      <c r="L165" s="3"/>
+    </row>
+    <row r="166" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E166" s="7"/>
+      <c r="F166" s="7"/>
+      <c r="G166" s="3"/>
+      <c r="H166" s="3"/>
+      <c r="J166" s="5"/>
+      <c r="K166" s="5"/>
+      <c r="L166" s="3"/>
+    </row>
+    <row r="167" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E167" s="7"/>
+      <c r="F167" s="7"/>
+      <c r="G167" s="3"/>
+      <c r="H167" s="3"/>
+      <c r="J167" s="5"/>
+      <c r="K167" s="5"/>
+      <c r="L167" s="3"/>
+    </row>
+    <row r="168" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E168" s="7"/>
+      <c r="F168" s="7"/>
+      <c r="G168" s="3"/>
+      <c r="H168" s="3"/>
+      <c r="J168" s="5"/>
+      <c r="K168" s="5"/>
+      <c r="L168" s="3"/>
+    </row>
+    <row r="169" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E169" s="7"/>
+      <c r="F169" s="7"/>
+      <c r="G169" s="3"/>
+      <c r="H169" s="3"/>
+      <c r="J169" s="5"/>
+      <c r="K169" s="5"/>
+      <c r="L169" s="3"/>
+    </row>
+    <row r="170" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E170" s="7"/>
+      <c r="F170" s="7"/>
+      <c r="G170" s="3"/>
+      <c r="H170" s="3"/>
+      <c r="J170" s="5"/>
+      <c r="K170" s="5"/>
+      <c r="L170" s="3"/>
+    </row>
+    <row r="171" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E171" s="7"/>
+      <c r="F171" s="7"/>
+      <c r="G171" s="3"/>
+      <c r="H171" s="3"/>
+      <c r="J171" s="5"/>
+      <c r="K171" s="5"/>
+      <c r="L171" s="3"/>
+    </row>
+    <row r="172" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E172" s="7"/>
+      <c r="F172" s="7"/>
+      <c r="G172" s="3"/>
+      <c r="H172" s="3"/>
+      <c r="J172" s="5"/>
+      <c r="K172" s="5"/>
+      <c r="L172" s="3"/>
+    </row>
+    <row r="173" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E173" s="7"/>
+      <c r="F173" s="7"/>
+      <c r="G173" s="3"/>
+      <c r="H173" s="3"/>
+      <c r="J173" s="5"/>
+      <c r="K173" s="5"/>
+      <c r="L173" s="3"/>
+    </row>
+    <row r="174" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E174" s="7"/>
+      <c r="F174" s="7"/>
+      <c r="G174" s="3"/>
+      <c r="H174" s="3"/>
+      <c r="J174" s="5"/>
+      <c r="K174" s="5"/>
+      <c r="L174" s="3"/>
+    </row>
+    <row r="175" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E175" s="7"/>
+      <c r="F175" s="7"/>
+      <c r="G175" s="3"/>
+      <c r="H175" s="3"/>
+      <c r="J175" s="5"/>
+      <c r="K175" s="5"/>
+      <c r="L175" s="3"/>
+    </row>
+    <row r="176" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E176" s="7"/>
+      <c r="F176" s="7"/>
+      <c r="G176" s="3"/>
+      <c r="H176" s="3"/>
+      <c r="J176" s="5"/>
+      <c r="K176" s="5"/>
+      <c r="L176" s="3"/>
+    </row>
+    <row r="177" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E177" s="7"/>
+      <c r="F177" s="7"/>
+      <c r="G177" s="3"/>
+      <c r="H177" s="3"/>
+      <c r="J177" s="5"/>
+      <c r="K177" s="5"/>
+      <c r="L177" s="3"/>
+    </row>
+    <row r="178" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E178" s="7"/>
+      <c r="F178" s="7"/>
+      <c r="G178" s="3"/>
+      <c r="H178" s="3"/>
+      <c r="J178" s="5"/>
+      <c r="K178" s="5"/>
+      <c r="L178" s="3"/>
+    </row>
+    <row r="179" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E179" s="7"/>
+      <c r="F179" s="7"/>
+      <c r="G179" s="3"/>
+      <c r="H179" s="3"/>
+      <c r="J179" s="5"/>
+      <c r="K179" s="5"/>
+      <c r="L179" s="3"/>
+    </row>
+    <row r="180" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E180" s="7"/>
+      <c r="F180" s="7"/>
+      <c r="G180" s="3"/>
+      <c r="H180" s="3"/>
+      <c r="J180" s="5"/>
+      <c r="K180" s="5"/>
+      <c r="L180" s="3"/>
+    </row>
+    <row r="181" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E181" s="7"/>
+      <c r="F181" s="7"/>
+      <c r="G181" s="3"/>
+      <c r="H181" s="3"/>
+      <c r="J181" s="5"/>
+      <c r="K181" s="5"/>
+      <c r="L181" s="3"/>
+    </row>
+    <row r="182" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E182" s="7"/>
+      <c r="F182" s="7"/>
+      <c r="G182" s="3"/>
+      <c r="H182" s="3"/>
+      <c r="J182" s="5"/>
+      <c r="K182" s="5"/>
+      <c r="L182" s="3"/>
+    </row>
+    <row r="183" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E183" s="7"/>
+      <c r="F183" s="7"/>
+      <c r="G183" s="3"/>
+      <c r="H183" s="3"/>
+      <c r="J183" s="5"/>
+      <c r="K183" s="5"/>
+      <c r="L183" s="3"/>
+    </row>
+    <row r="184" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E184" s="7"/>
+      <c r="F184" s="7"/>
+      <c r="G184" s="3"/>
+      <c r="H184" s="3"/>
+      <c r="J184" s="5"/>
+      <c r="K184" s="5"/>
+      <c r="L184" s="3"/>
+    </row>
+    <row r="185" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E185" s="7"/>
+      <c r="F185" s="7"/>
+      <c r="G185" s="3"/>
+      <c r="H185" s="3"/>
+      <c r="J185" s="5"/>
+      <c r="K185" s="5"/>
+      <c r="L185" s="3"/>
+    </row>
+    <row r="186" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E186" s="7"/>
+      <c r="F186" s="7"/>
+      <c r="G186" s="3"/>
+      <c r="H186" s="3"/>
+      <c r="J186" s="5"/>
+      <c r="K186" s="5"/>
+      <c r="L186" s="3"/>
+    </row>
+    <row r="187" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E187" s="7"/>
+      <c r="F187" s="7"/>
+      <c r="G187" s="3"/>
+      <c r="H187" s="3"/>
+      <c r="J187" s="5"/>
+      <c r="K187" s="5"/>
+      <c r="L187" s="3"/>
+    </row>
+    <row r="188" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E188" s="7"/>
+      <c r="F188" s="7"/>
+      <c r="G188" s="3"/>
+      <c r="H188" s="3"/>
+      <c r="J188" s="5"/>
+      <c r="K188" s="5"/>
+      <c r="L188" s="3"/>
+    </row>
+    <row r="189" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E189" s="7"/>
+      <c r="F189" s="7"/>
+      <c r="G189" s="3"/>
+      <c r="H189" s="3"/>
+      <c r="J189" s="5"/>
+      <c r="K189" s="5"/>
+      <c r="L189" s="3"/>
+    </row>
+    <row r="190" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E190" s="7"/>
+      <c r="F190" s="7"/>
+      <c r="G190" s="3"/>
+      <c r="H190" s="3"/>
+      <c r="J190" s="5"/>
+      <c r="K190" s="5"/>
+      <c r="L190" s="3"/>
+    </row>
+    <row r="191" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E191" s="7"/>
+      <c r="F191" s="7"/>
+      <c r="G191" s="3"/>
+      <c r="H191" s="3"/>
+      <c r="J191" s="5"/>
+      <c r="K191" s="5"/>
+      <c r="L191" s="3"/>
+    </row>
+    <row r="192" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E192" s="7"/>
+      <c r="F192" s="7"/>
+      <c r="G192" s="3"/>
+      <c r="H192" s="3"/>
+      <c r="J192" s="5"/>
+      <c r="K192" s="5"/>
+      <c r="L192" s="3"/>
+    </row>
+    <row r="193" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E193" s="7"/>
+      <c r="F193" s="7"/>
+      <c r="G193" s="3"/>
+      <c r="H193" s="3"/>
+      <c r="J193" s="5"/>
+      <c r="K193" s="5"/>
+      <c r="L193" s="3"/>
+    </row>
+    <row r="194" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E194" s="7"/>
+      <c r="F194" s="7"/>
+      <c r="G194" s="3"/>
+      <c r="H194" s="3"/>
+      <c r="J194" s="5"/>
+      <c r="K194" s="5"/>
+      <c r="L194" s="3"/>
+    </row>
+    <row r="195" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E195" s="7"/>
+      <c r="F195" s="7"/>
+      <c r="G195" s="3"/>
+      <c r="H195" s="3"/>
+      <c r="J195" s="5"/>
+      <c r="K195" s="5"/>
+      <c r="L195" s="3"/>
+    </row>
+    <row r="196" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E196" s="7"/>
+      <c r="F196" s="7"/>
+      <c r="G196" s="3"/>
+      <c r="H196" s="3"/>
+      <c r="J196" s="5"/>
+      <c r="K196" s="5"/>
+      <c r="L196" s="3"/>
+    </row>
+    <row r="197" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E197" s="7"/>
+      <c r="F197" s="7"/>
+      <c r="G197" s="3"/>
+      <c r="H197" s="3"/>
+      <c r="J197" s="5"/>
+      <c r="K197" s="5"/>
+      <c r="L197" s="3"/>
+    </row>
+    <row r="198" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E198" s="7"/>
+      <c r="F198" s="7"/>
+      <c r="G198" s="3"/>
+      <c r="H198" s="3"/>
+      <c r="J198" s="5"/>
+      <c r="K198" s="5"/>
+      <c r="L198" s="3"/>
+    </row>
+    <row r="199" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E199" s="7"/>
+      <c r="F199" s="7"/>
+      <c r="G199" s="3"/>
+      <c r="H199" s="3"/>
+      <c r="J199" s="5"/>
+      <c r="K199" s="5"/>
+      <c r="L199" s="3"/>
+    </row>
+    <row r="200" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E200" s="7"/>
+      <c r="F200" s="7"/>
+      <c r="G200" s="3"/>
+      <c r="H200" s="3"/>
+      <c r="J200" s="5"/>
+      <c r="K200" s="5"/>
+      <c r="L200" s="3"/>
+    </row>
+    <row r="201" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E201" s="7"/>
+      <c r="F201" s="7"/>
+      <c r="G201" s="3"/>
+      <c r="H201" s="3"/>
+      <c r="J201" s="5"/>
+      <c r="K201" s="5"/>
+      <c r="L201" s="3"/>
+    </row>
+    <row r="202" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E202" s="7"/>
+      <c r="F202" s="7"/>
+      <c r="G202" s="3"/>
+      <c r="H202" s="3"/>
+      <c r="J202" s="5"/>
+      <c r="K202" s="5"/>
+      <c r="L202" s="3"/>
+    </row>
+    <row r="203" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E203" s="7"/>
+      <c r="F203" s="7"/>
+      <c r="G203" s="3"/>
+      <c r="H203" s="3"/>
+      <c r="J203" s="5"/>
+      <c r="K203" s="5"/>
+      <c r="L203" s="3"/>
+    </row>
+    <row r="204" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E204" s="7"/>
+      <c r="F204" s="7"/>
+      <c r="G204" s="3"/>
+      <c r="H204" s="3"/>
+      <c r="J204" s="5"/>
+      <c r="K204" s="5"/>
+      <c r="L204" s="3"/>
+    </row>
+    <row r="205" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E205" s="7"/>
+      <c r="F205" s="7"/>
+      <c r="G205" s="3"/>
+      <c r="H205" s="3"/>
+      <c r="J205" s="5"/>
+      <c r="K205" s="5"/>
+      <c r="L205" s="3"/>
+    </row>
+    <row r="206" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E206" s="7"/>
+      <c r="F206" s="7"/>
+      <c r="G206" s="3"/>
+      <c r="H206" s="3"/>
+      <c r="J206" s="5"/>
+      <c r="K206" s="5"/>
+      <c r="L206" s="3"/>
+    </row>
+    <row r="207" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E207" s="7"/>
+      <c r="F207" s="7"/>
+      <c r="G207" s="3"/>
+      <c r="H207" s="3"/>
+      <c r="J207" s="5"/>
+      <c r="K207" s="5"/>
+      <c r="L207" s="3"/>
+    </row>
+    <row r="208" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E208" s="7"/>
+      <c r="F208" s="7"/>
+      <c r="G208" s="3"/>
+      <c r="H208" s="3"/>
+      <c r="J208" s="5"/>
+      <c r="K208" s="5"/>
+      <c r="L208" s="3"/>
+    </row>
+    <row r="209" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E209" s="7"/>
+      <c r="F209" s="7"/>
+      <c r="G209" s="3"/>
+      <c r="H209" s="3"/>
+      <c r="J209" s="5"/>
+      <c r="K209" s="5"/>
+      <c r="L209" s="3"/>
+    </row>
+    <row r="210" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E210" s="7"/>
+      <c r="F210" s="7"/>
+      <c r="G210" s="3"/>
+      <c r="H210" s="3"/>
+      <c r="J210" s="5"/>
+      <c r="K210" s="5"/>
+      <c r="L210" s="3"/>
+    </row>
+    <row r="211" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E211" s="7"/>
+      <c r="F211" s="7"/>
+      <c r="G211" s="3"/>
+      <c r="H211" s="3"/>
+      <c r="J211" s="5"/>
+      <c r="K211" s="5"/>
+      <c r="L211" s="3"/>
+    </row>
+    <row r="212" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E212" s="7"/>
+      <c r="F212" s="7"/>
+      <c r="G212" s="3"/>
+      <c r="H212" s="3"/>
+      <c r="J212" s="5"/>
+      <c r="K212" s="5"/>
+      <c r="L212" s="3"/>
+    </row>
+    <row r="213" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E213" s="7"/>
+      <c r="F213" s="7"/>
+      <c r="G213" s="3"/>
+      <c r="H213" s="3"/>
+      <c r="J213" s="5"/>
+      <c r="K213" s="5"/>
+      <c r="L213" s="3"/>
+    </row>
+    <row r="214" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E214" s="7"/>
+      <c r="F214" s="7"/>
+      <c r="G214" s="3"/>
+      <c r="H214" s="3"/>
+      <c r="J214" s="5"/>
+      <c r="K214" s="5"/>
+      <c r="L214" s="3"/>
+    </row>
+    <row r="215" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E215" s="7"/>
+      <c r="F215" s="7"/>
+      <c r="G215" s="3"/>
+      <c r="H215" s="3"/>
+      <c r="J215" s="5"/>
+      <c r="K215" s="5"/>
+      <c r="L215" s="3"/>
+    </row>
+    <row r="216" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E216" s="7"/>
+      <c r="F216" s="7"/>
+      <c r="G216" s="3"/>
+      <c r="H216" s="3"/>
+      <c r="J216" s="5"/>
+      <c r="K216" s="5"/>
+      <c r="L216" s="3"/>
+    </row>
+    <row r="217" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E217" s="7"/>
+      <c r="F217" s="7"/>
+      <c r="G217" s="3"/>
+      <c r="H217" s="3"/>
+      <c r="J217" s="5"/>
+      <c r="K217" s="5"/>
+      <c r="L217" s="3"/>
+    </row>
+    <row r="218" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E218" s="7"/>
+      <c r="F218" s="7"/>
+      <c r="G218" s="3"/>
+      <c r="H218" s="3"/>
+      <c r="J218" s="5"/>
+      <c r="K218" s="5"/>
+      <c r="L218" s="3"/>
+    </row>
+    <row r="219" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E219" s="7"/>
+      <c r="F219" s="7"/>
+      <c r="G219" s="3"/>
+      <c r="H219" s="3"/>
+      <c r="J219" s="5"/>
+      <c r="K219" s="5"/>
+      <c r="L219" s="3"/>
+    </row>
+    <row r="220" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E220" s="7"/>
+      <c r="F220" s="7"/>
+      <c r="G220" s="3"/>
+      <c r="H220" s="3"/>
+      <c r="J220" s="5"/>
+      <c r="K220" s="5"/>
+      <c r="L220" s="3"/>
+    </row>
+    <row r="221" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E221" s="7"/>
+      <c r="F221" s="7"/>
+      <c r="G221" s="3"/>
+      <c r="H221" s="3"/>
+      <c r="J221" s="5"/>
+      <c r="K221" s="5"/>
+      <c r="L221" s="3"/>
+    </row>
+    <row r="222" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E222" s="7"/>
+      <c r="F222" s="7"/>
+      <c r="G222" s="3"/>
+      <c r="H222" s="3"/>
+      <c r="J222" s="5"/>
+      <c r="K222" s="5"/>
+      <c r="L222" s="3"/>
+    </row>
+    <row r="223" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E223" s="7"/>
+      <c r="F223" s="7"/>
+      <c r="G223" s="3"/>
+      <c r="H223" s="3"/>
+      <c r="J223" s="5"/>
+      <c r="K223" s="5"/>
+      <c r="L223" s="3"/>
+    </row>
+    <row r="224" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E224" s="7"/>
+      <c r="F224" s="7"/>
+      <c r="G224" s="3"/>
+      <c r="H224" s="3"/>
+      <c r="J224" s="5"/>
+      <c r="K224" s="5"/>
+      <c r="L224" s="3"/>
+    </row>
+    <row r="225" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E225" s="7"/>
+      <c r="F225" s="7"/>
+      <c r="G225" s="3"/>
+      <c r="H225" s="3"/>
+      <c r="J225" s="5"/>
+      <c r="K225" s="5"/>
+      <c r="L225" s="3"/>
+    </row>
+    <row r="226" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E226" s="7"/>
+      <c r="F226" s="7"/>
+      <c r="G226" s="3"/>
+      <c r="H226" s="3"/>
+      <c r="J226" s="5"/>
+      <c r="K226" s="5"/>
+      <c r="L226" s="3"/>
+    </row>
+    <row r="227" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E227" s="7"/>
+      <c r="F227" s="7"/>
+      <c r="G227" s="3"/>
+      <c r="H227" s="3"/>
+      <c r="J227" s="5"/>
+      <c r="K227" s="5"/>
+      <c r="L227" s="3"/>
+    </row>
+    <row r="228" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E228" s="7"/>
+      <c r="F228" s="7"/>
+      <c r="G228" s="3"/>
+      <c r="H228" s="3"/>
+      <c r="J228" s="5"/>
+      <c r="K228" s="5"/>
+      <c r="L228" s="3"/>
+    </row>
+    <row r="229" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E229" s="7"/>
+      <c r="F229" s="7"/>
+      <c r="G229" s="3"/>
+      <c r="H229" s="3"/>
+      <c r="J229" s="5"/>
+      <c r="K229" s="5"/>
+      <c r="L229" s="3"/>
+    </row>
+    <row r="230" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E230" s="7"/>
+      <c r="F230" s="7"/>
+      <c r="G230" s="3"/>
+      <c r="H230" s="3"/>
+      <c r="J230" s="5"/>
+      <c r="K230" s="5"/>
+      <c r="L230" s="3"/>
+    </row>
+    <row r="231" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E231" s="7"/>
+      <c r="F231" s="7"/>
+      <c r="G231" s="3"/>
+      <c r="H231" s="3"/>
+      <c r="J231" s="5"/>
+      <c r="K231" s="5"/>
+      <c r="L231" s="3"/>
+    </row>
+    <row r="232" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E232" s="7"/>
+      <c r="F232" s="7"/>
+      <c r="G232" s="3"/>
+      <c r="H232" s="3"/>
+      <c r="J232" s="5"/>
+      <c r="K232" s="5"/>
+      <c r="L232" s="3"/>
+    </row>
+    <row r="233" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E233" s="7"/>
+      <c r="F233" s="7"/>
+      <c r="G233" s="3"/>
+      <c r="H233" s="3"/>
+      <c r="J233" s="5"/>
+      <c r="K233" s="5"/>
+      <c r="L233" s="3"/>
+    </row>
+    <row r="234" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E234" s="7"/>
+      <c r="F234" s="7"/>
+      <c r="G234" s="3"/>
+      <c r="H234" s="3"/>
+      <c r="J234" s="5"/>
+      <c r="K234" s="5"/>
+      <c r="L234" s="3"/>
+    </row>
+    <row r="235" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E235" s="7"/>
+      <c r="F235" s="7"/>
+      <c r="G235" s="3"/>
+      <c r="H235" s="3"/>
+      <c r="J235" s="5"/>
+      <c r="K235" s="5"/>
+      <c r="L235" s="3"/>
+    </row>
+    <row r="236" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E236" s="7"/>
+      <c r="F236" s="7"/>
+      <c r="G236" s="3"/>
+      <c r="H236" s="3"/>
+      <c r="J236" s="5"/>
+      <c r="K236" s="5"/>
+      <c r="L236" s="3"/>
+    </row>
+    <row r="237" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E237" s="7"/>
+      <c r="F237" s="7"/>
+      <c r="G237" s="3"/>
+      <c r="H237" s="3"/>
+      <c r="J237" s="5"/>
+      <c r="K237" s="5"/>
+      <c r="L237" s="3"/>
+    </row>
+    <row r="238" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E238" s="7"/>
+      <c r="F238" s="7"/>
+      <c r="G238" s="3"/>
+      <c r="H238" s="3"/>
+      <c r="J238" s="5"/>
+      <c r="K238" s="5"/>
+      <c r="L238" s="3"/>
+    </row>
+    <row r="239" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E239" s="7"/>
+      <c r="F239" s="7"/>
+      <c r="G239" s="3"/>
+      <c r="H239" s="3"/>
+      <c r="J239" s="5"/>
+      <c r="K239" s="5"/>
+      <c r="L239" s="3"/>
+    </row>
+    <row r="240" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E240" s="7"/>
+      <c r="F240" s="7"/>
+      <c r="G240" s="3"/>
+      <c r="H240" s="3"/>
+      <c r="J240" s="5"/>
+      <c r="K240" s="5"/>
+      <c r="L240" s="3"/>
+    </row>
+    <row r="241" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E241" s="7"/>
+      <c r="F241" s="7"/>
+      <c r="G241" s="3"/>
+      <c r="H241" s="3"/>
+      <c r="J241" s="5"/>
+      <c r="K241" s="5"/>
+      <c r="L241" s="3"/>
+    </row>
+    <row r="242" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E242" s="7"/>
+      <c r="F242" s="7"/>
+      <c r="G242" s="3"/>
+      <c r="H242" s="3"/>
+      <c r="J242" s="5"/>
+      <c r="K242" s="5"/>
+      <c r="L242" s="3"/>
+    </row>
+    <row r="243" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E243" s="7"/>
+      <c r="F243" s="7"/>
+      <c r="G243" s="3"/>
+      <c r="H243" s="3"/>
+      <c r="J243" s="5"/>
+      <c r="K243" s="5"/>
+      <c r="L243" s="3"/>
+    </row>
+    <row r="244" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E244" s="7"/>
+      <c r="F244" s="7"/>
+      <c r="G244" s="3"/>
+      <c r="H244" s="3"/>
+      <c r="J244" s="5"/>
+      <c r="K244" s="5"/>
+      <c r="L244" s="3"/>
+    </row>
+    <row r="245" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E245" s="7"/>
+      <c r="F245" s="7"/>
+      <c r="G245" s="3"/>
+      <c r="H245" s="3"/>
+      <c r="J245" s="5"/>
+      <c r="K245" s="5"/>
+      <c r="L245" s="3"/>
+    </row>
+    <row r="246" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E246" s="7"/>
+      <c r="F246" s="7"/>
+      <c r="G246" s="3"/>
+      <c r="H246" s="3"/>
+      <c r="J246" s="5"/>
+      <c r="K246" s="5"/>
+      <c r="L246" s="3"/>
+    </row>
+    <row r="247" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E247" s="7"/>
+      <c r="F247" s="7"/>
+      <c r="G247" s="3"/>
+      <c r="H247" s="3"/>
+      <c r="J247" s="5"/>
+      <c r="K247" s="5"/>
+      <c r="L247" s="3"/>
+    </row>
+    <row r="248" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E248" s="7"/>
+      <c r="F248" s="7"/>
+      <c r="G248" s="3"/>
+      <c r="H248" s="3"/>
+      <c r="J248" s="5"/>
+      <c r="K248" s="5"/>
+      <c r="L248" s="3"/>
+    </row>
+    <row r="249" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E249" s="7"/>
+      <c r="F249" s="7"/>
+      <c r="G249" s="3"/>
+      <c r="H249" s="3"/>
+      <c r="J249" s="5"/>
+      <c r="K249" s="5"/>
+      <c r="L249" s="3"/>
+    </row>
+    <row r="250" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E250" s="7"/>
+      <c r="F250" s="7"/>
+      <c r="G250" s="3"/>
+      <c r="H250" s="3"/>
+      <c r="J250" s="5"/>
+      <c r="K250" s="5"/>
+      <c r="L250" s="3"/>
+    </row>
+    <row r="251" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E251" s="7"/>
+      <c r="F251" s="7"/>
+      <c r="G251" s="3"/>
+      <c r="H251" s="3"/>
+      <c r="J251" s="5"/>
+      <c r="K251" s="5"/>
+      <c r="L251" s="3"/>
+    </row>
+    <row r="252" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E252" s="7"/>
+      <c r="F252" s="7"/>
+      <c r="G252" s="3"/>
+      <c r="H252" s="3"/>
+      <c r="J252" s="5"/>
+      <c r="K252" s="5"/>
+      <c r="L252" s="3"/>
+    </row>
+    <row r="253" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E253" s="7"/>
+      <c r="F253" s="7"/>
+      <c r="G253" s="3"/>
+      <c r="H253" s="3"/>
+      <c r="J253" s="5"/>
+      <c r="K253" s="5"/>
+      <c r="L253" s="3"/>
+    </row>
+    <row r="254" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E254" s="7"/>
+      <c r="F254" s="7"/>
+      <c r="G254" s="3"/>
+      <c r="H254" s="3"/>
+      <c r="J254" s="5"/>
+      <c r="K254" s="5"/>
+      <c r="L254" s="3"/>
+    </row>
+    <row r="255" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E255" s="7"/>
+      <c r="F255" s="7"/>
+      <c r="G255" s="3"/>
+      <c r="H255" s="3"/>
+      <c r="J255" s="5"/>
+      <c r="K255" s="5"/>
+      <c r="L255" s="3"/>
+    </row>
+    <row r="256" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E256" s="7"/>
+      <c r="F256" s="7"/>
+      <c r="G256" s="3"/>
+      <c r="H256" s="3"/>
+      <c r="J256" s="5"/>
+      <c r="K256" s="5"/>
+      <c r="L256" s="3"/>
+    </row>
+    <row r="257" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E257" s="7"/>
+      <c r="F257" s="7"/>
+      <c r="G257" s="3"/>
+      <c r="H257" s="3"/>
+      <c r="J257" s="5"/>
+      <c r="K257" s="5"/>
+      <c r="L257" s="3"/>
+    </row>
+    <row r="258" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E258" s="7"/>
+      <c r="F258" s="7"/>
+      <c r="G258" s="3"/>
+      <c r="H258" s="3"/>
+      <c r="J258" s="5"/>
+      <c r="K258" s="5"/>
+      <c r="L258" s="3"/>
+    </row>
+    <row r="259" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E259" s="7"/>
+      <c r="F259" s="7"/>
+      <c r="G259" s="3"/>
+      <c r="H259" s="3"/>
+      <c r="J259" s="5"/>
+      <c r="K259" s="5"/>
+      <c r="L259" s="3"/>
+    </row>
+    <row r="260" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E260" s="7"/>
+      <c r="F260" s="7"/>
+      <c r="G260" s="3"/>
+      <c r="H260" s="3"/>
+      <c r="J260" s="5"/>
+      <c r="K260" s="5"/>
+      <c r="L260" s="3"/>
+    </row>
+    <row r="261" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E261" s="7"/>
+      <c r="F261" s="7"/>
+      <c r="G261" s="3"/>
+      <c r="H261" s="3"/>
+      <c r="J261" s="5"/>
+      <c r="K261" s="5"/>
+      <c r="L261" s="3"/>
+    </row>
+    <row r="262" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E262" s="7"/>
+      <c r="F262" s="7"/>
+      <c r="G262" s="3"/>
+      <c r="H262" s="3"/>
+      <c r="J262" s="5"/>
+      <c r="K262" s="5"/>
+      <c r="L262" s="3"/>
+    </row>
+    <row r="263" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E263" s="7"/>
+      <c r="F263" s="7"/>
+      <c r="G263" s="3"/>
+      <c r="H263" s="3"/>
+      <c r="J263" s="5"/>
+      <c r="K263" s="5"/>
+      <c r="L263" s="3"/>
+    </row>
+    <row r="264" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E264" s="7"/>
+      <c r="F264" s="7"/>
+      <c r="G264" s="3"/>
+      <c r="H264" s="3"/>
+      <c r="J264" s="5"/>
+      <c r="K264" s="5"/>
+      <c r="L264" s="3"/>
+    </row>
+    <row r="265" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E265" s="7"/>
+      <c r="F265" s="7"/>
+      <c r="G265" s="3"/>
+      <c r="H265" s="3"/>
+      <c r="J265" s="5"/>
+      <c r="K265" s="5"/>
+      <c r="L265" s="3"/>
+    </row>
+    <row r="266" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E266" s="7"/>
+      <c r="F266" s="7"/>
+      <c r="G266" s="3"/>
+      <c r="H266" s="3"/>
+      <c r="J266" s="5"/>
+      <c r="K266" s="5"/>
+      <c r="L266" s="3"/>
+    </row>
+    <row r="267" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E267" s="7"/>
+      <c r="F267" s="7"/>
+      <c r="G267" s="3"/>
+      <c r="H267" s="3"/>
+      <c r="J267" s="5"/>
+      <c r="K267" s="5"/>
+      <c r="L267" s="3"/>
+    </row>
+    <row r="268" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E268" s="7"/>
+      <c r="F268" s="7"/>
+      <c r="G268" s="3"/>
+      <c r="H268" s="3"/>
+      <c r="J268" s="5"/>
+      <c r="K268" s="5"/>
+      <c r="L268" s="3"/>
+    </row>
+    <row r="269" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E269" s="7"/>
+      <c r="F269" s="7"/>
+      <c r="G269" s="3"/>
+      <c r="H269" s="3"/>
+      <c r="J269" s="5"/>
+      <c r="K269" s="5"/>
+      <c r="L269" s="3"/>
+    </row>
+    <row r="270" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E270" s="7"/>
+      <c r="F270" s="7"/>
+      <c r="G270" s="3"/>
+      <c r="H270" s="3"/>
+      <c r="J270" s="5"/>
+      <c r="K270" s="5"/>
+      <c r="L270" s="3"/>
+    </row>
+    <row r="271" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E271" s="7"/>
+      <c r="F271" s="7"/>
+      <c r="G271" s="3"/>
+      <c r="H271" s="3"/>
+      <c r="J271" s="5"/>
+      <c r="K271" s="5"/>
+      <c r="L271" s="3"/>
+    </row>
+    <row r="272" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E272" s="7"/>
+      <c r="F272" s="7"/>
+      <c r="G272" s="3"/>
+      <c r="H272" s="3"/>
+      <c r="J272" s="5"/>
+      <c r="K272" s="5"/>
+      <c r="L272" s="3"/>
+    </row>
+    <row r="273" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E273" s="7"/>
+      <c r="F273" s="7"/>
+      <c r="G273" s="3"/>
+      <c r="H273" s="3"/>
+      <c r="J273" s="5"/>
+      <c r="K273" s="5"/>
+      <c r="L273" s="3"/>
+    </row>
+    <row r="274" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E274" s="7"/>
+      <c r="F274" s="7"/>
+      <c r="G274" s="3"/>
+      <c r="H274" s="3"/>
+      <c r="J274" s="5"/>
+      <c r="K274" s="5"/>
+      <c r="L274" s="3"/>
+    </row>
+    <row r="275" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E275" s="7"/>
+      <c r="F275" s="7"/>
+      <c r="G275" s="3"/>
+      <c r="H275" s="3"/>
+      <c r="J275" s="5"/>
+      <c r="K275" s="5"/>
+      <c r="L275" s="3"/>
+    </row>
+    <row r="276" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E276" s="7"/>
+      <c r="F276" s="7"/>
+      <c r="G276" s="3"/>
+      <c r="H276" s="3"/>
+      <c r="J276" s="5"/>
+      <c r="K276" s="5"/>
+      <c r="L276" s="3"/>
+    </row>
+    <row r="277" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E277" s="7"/>
+      <c r="F277" s="7"/>
+      <c r="G277" s="3"/>
+      <c r="H277" s="3"/>
+      <c r="J277" s="5"/>
+      <c r="K277" s="5"/>
+      <c r="L277" s="3"/>
+    </row>
+    <row r="278" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E278" s="7"/>
+      <c r="F278" s="7"/>
+      <c r="G278" s="3"/>
+      <c r="H278" s="3"/>
+      <c r="J278" s="5"/>
+      <c r="K278" s="5"/>
+      <c r="L278" s="3"/>
+    </row>
+    <row r="279" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E279" s="7"/>
+      <c r="F279" s="7"/>
+      <c r="G279" s="3"/>
+      <c r="H279" s="3"/>
+      <c r="J279" s="5"/>
+      <c r="K279" s="5"/>
+      <c r="L279" s="3"/>
+    </row>
+    <row r="280" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E280" s="7"/>
+      <c r="F280" s="7"/>
+      <c r="G280" s="3"/>
+      <c r="H280" s="3"/>
+      <c r="J280" s="5"/>
+      <c r="K280" s="5"/>
+      <c r="L280" s="3"/>
+    </row>
+    <row r="281" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E281" s="7"/>
+      <c r="F281" s="7"/>
+      <c r="G281" s="3"/>
+      <c r="H281" s="3"/>
+      <c r="J281" s="5"/>
+      <c r="K281" s="5"/>
+      <c r="L281" s="3"/>
+    </row>
+    <row r="282" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E282" s="7"/>
+      <c r="F282" s="7"/>
+      <c r="G282" s="3"/>
+      <c r="H282" s="3"/>
+      <c r="J282" s="5"/>
+      <c r="K282" s="5"/>
+      <c r="L282" s="3"/>
+    </row>
+    <row r="283" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E283" s="7"/>
+      <c r="F283" s="7"/>
+      <c r="G283" s="3"/>
+      <c r="H283" s="3"/>
+      <c r="J283" s="5"/>
+      <c r="K283" s="5"/>
+      <c r="L283" s="3"/>
+    </row>
+    <row r="284" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E284" s="7"/>
+      <c r="F284" s="7"/>
+      <c r="G284" s="3"/>
+      <c r="H284" s="3"/>
+      <c r="J284" s="5"/>
+      <c r="K284" s="5"/>
+      <c r="L284" s="3"/>
+    </row>
+    <row r="285" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E285" s="7"/>
+      <c r="F285" s="7"/>
+      <c r="G285" s="3"/>
+      <c r="H285" s="3"/>
+      <c r="J285" s="5"/>
+      <c r="K285" s="5"/>
+      <c r="L285" s="3"/>
+    </row>
+    <row r="286" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E286" s="7"/>
+      <c r="F286" s="7"/>
+      <c r="G286" s="3"/>
+      <c r="H286" s="3"/>
+      <c r="J286" s="5"/>
+      <c r="K286" s="5"/>
+      <c r="L286" s="3"/>
+    </row>
+    <row r="287" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E287" s="7"/>
+      <c r="F287" s="7"/>
+      <c r="G287" s="3"/>
+      <c r="H287" s="3"/>
+      <c r="J287" s="5"/>
+      <c r="K287" s="5"/>
+      <c r="L287" s="3"/>
+    </row>
+    <row r="288" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E288" s="7"/>
+      <c r="F288" s="7"/>
+      <c r="G288" s="3"/>
+      <c r="H288" s="3"/>
+      <c r="J288" s="5"/>
+      <c r="K288" s="5"/>
+      <c r="L288" s="3"/>
+    </row>
+    <row r="289" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E289" s="7"/>
+      <c r="F289" s="7"/>
+      <c r="G289" s="3"/>
+      <c r="H289" s="3"/>
+      <c r="J289" s="5"/>
+      <c r="K289" s="5"/>
+      <c r="L289" s="3"/>
+    </row>
+    <row r="290" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E290" s="7"/>
+      <c r="F290" s="7"/>
+      <c r="G290" s="3"/>
+      <c r="H290" s="3"/>
+      <c r="J290" s="5"/>
+      <c r="K290" s="5"/>
+      <c r="L290" s="3"/>
+    </row>
+    <row r="291" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E291" s="7"/>
+      <c r="F291" s="7"/>
+      <c r="G291" s="3"/>
+      <c r="H291" s="3"/>
+      <c r="J291" s="5"/>
+      <c r="K291" s="5"/>
+      <c r="L291" s="3"/>
+    </row>
+    <row r="292" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E292" s="7"/>
+      <c r="F292" s="7"/>
+      <c r="G292" s="3"/>
+      <c r="H292" s="3"/>
+      <c r="J292" s="5"/>
+      <c r="K292" s="5"/>
+      <c r="L292" s="3"/>
+    </row>
+    <row r="293" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E293" s="7"/>
+      <c r="F293" s="7"/>
+      <c r="G293" s="3"/>
+      <c r="H293" s="3"/>
+      <c r="J293" s="5"/>
+      <c r="K293" s="5"/>
+      <c r="L293" s="3"/>
+    </row>
+    <row r="294" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E294" s="7"/>
+      <c r="F294" s="7"/>
+      <c r="G294" s="3"/>
+      <c r="H294" s="3"/>
+      <c r="J294" s="5"/>
+      <c r="K294" s="5"/>
+      <c r="L294" s="3"/>
+    </row>
+    <row r="295" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E295" s="7"/>
+      <c r="F295" s="7"/>
+      <c r="G295" s="3"/>
+      <c r="H295" s="3"/>
+      <c r="J295" s="5"/>
+      <c r="K295" s="5"/>
+      <c r="L295" s="3"/>
+    </row>
+    <row r="296" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E296" s="7"/>
+      <c r="F296" s="7"/>
+      <c r="G296" s="3"/>
+      <c r="H296" s="3"/>
+      <c r="J296" s="5"/>
+      <c r="K296" s="5"/>
+      <c r="L296" s="3"/>
+    </row>
+    <row r="297" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E297" s="7"/>
+      <c r="F297" s="7"/>
+      <c r="G297" s="3"/>
+      <c r="H297" s="3"/>
+      <c r="J297" s="5"/>
+      <c r="K297" s="5"/>
+      <c r="L297" s="3"/>
+    </row>
+    <row r="298" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E298" s="7"/>
+      <c r="F298" s="7"/>
+      <c r="G298" s="3"/>
+      <c r="H298" s="3"/>
+      <c r="J298" s="5"/>
+      <c r="K298" s="5"/>
+      <c r="L298" s="3"/>
+    </row>
+    <row r="299" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E299" s="7"/>
+      <c r="F299" s="7"/>
+      <c r="G299" s="3"/>
+      <c r="H299" s="3"/>
+      <c r="J299" s="5"/>
+      <c r="K299" s="5"/>
+      <c r="L299" s="3"/>
+    </row>
+    <row r="300" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E300" s="7"/>
+      <c r="F300" s="7"/>
+      <c r="G300" s="3"/>
+      <c r="H300" s="3"/>
+      <c r="J300" s="5"/>
+      <c r="K300" s="5"/>
+      <c r="L300" s="3"/>
+    </row>
+    <row r="301" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E301" s="7"/>
+      <c r="F301" s="7"/>
+      <c r="G301" s="3"/>
+      <c r="H301" s="3"/>
+      <c r="J301" s="5"/>
+      <c r="K301" s="5"/>
+      <c r="L301" s="3"/>
+    </row>
+    <row r="302" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E302" s="7"/>
+      <c r="F302" s="7"/>
+      <c r="G302" s="3"/>
+      <c r="H302" s="3"/>
+      <c r="J302" s="5"/>
+      <c r="K302" s="5"/>
+      <c r="L302" s="3"/>
+    </row>
+    <row r="303" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E303" s="7"/>
+      <c r="F303" s="7"/>
+      <c r="G303" s="3"/>
+      <c r="H303" s="3"/>
+      <c r="J303" s="5"/>
+      <c r="K303" s="5"/>
+      <c r="L303" s="3"/>
+    </row>
+    <row r="304" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E304" s="7"/>
+      <c r="F304" s="7"/>
+      <c r="G304" s="3"/>
+      <c r="H304" s="3"/>
+      <c r="J304" s="5"/>
+      <c r="K304" s="5"/>
+      <c r="L304" s="3"/>
+    </row>
+    <row r="305" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E305" s="7"/>
+      <c r="F305" s="7"/>
+      <c r="G305" s="3"/>
+      <c r="H305" s="3"/>
+      <c r="J305" s="5"/>
+      <c r="K305" s="5"/>
+      <c r="L305" s="3"/>
+    </row>
+    <row r="306" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E306" s="7"/>
+      <c r="F306" s="7"/>
+      <c r="G306" s="3"/>
+      <c r="H306" s="3"/>
+      <c r="J306" s="5"/>
+      <c r="K306" s="5"/>
+      <c r="L306" s="3"/>
+    </row>
+    <row r="307" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E307" s="7"/>
+      <c r="F307" s="7"/>
+      <c r="G307" s="3"/>
+      <c r="H307" s="3"/>
+      <c r="J307" s="5"/>
+      <c r="K307" s="5"/>
+      <c r="L307" s="3"/>
+    </row>
+    <row r="308" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E308" s="7"/>
+      <c r="F308" s="7"/>
+      <c r="G308" s="3"/>
+      <c r="H308" s="3"/>
+      <c r="J308" s="5"/>
+      <c r="K308" s="5"/>
+      <c r="L308" s="3"/>
+    </row>
+    <row r="309" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E309" s="7"/>
+      <c r="F309" s="7"/>
+      <c r="G309" s="3"/>
+      <c r="H309" s="3"/>
+      <c r="J309" s="5"/>
+      <c r="K309" s="5"/>
+      <c r="L309" s="3"/>
+    </row>
+    <row r="310" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E310" s="7"/>
+      <c r="F310" s="7"/>
+      <c r="G310" s="3"/>
+      <c r="H310" s="3"/>
+      <c r="J310" s="5"/>
+      <c r="K310" s="5"/>
+      <c r="L310" s="3"/>
+    </row>
+    <row r="311" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E311" s="7"/>
+      <c r="F311" s="7"/>
+      <c r="G311" s="3"/>
+      <c r="H311" s="3"/>
+      <c r="J311" s="5"/>
+      <c r="K311" s="5"/>
+      <c r="L311" s="3"/>
+    </row>
+    <row r="312" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E312" s="7"/>
+      <c r="F312" s="7"/>
+      <c r="G312" s="3"/>
+      <c r="H312" s="3"/>
+      <c r="J312" s="5"/>
+      <c r="K312" s="5"/>
+      <c r="L312" s="3"/>
+    </row>
+    <row r="313" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E313" s="7"/>
+      <c r="F313" s="7"/>
+      <c r="G313" s="3"/>
+      <c r="H313" s="3"/>
+      <c r="J313" s="5"/>
+      <c r="K313" s="5"/>
+      <c r="L313" s="3"/>
+    </row>
+    <row r="314" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E314" s="7"/>
+      <c r="F314" s="7"/>
+      <c r="G314" s="3"/>
+      <c r="H314" s="3"/>
+      <c r="J314" s="5"/>
+      <c r="K314" s="5"/>
+      <c r="L314" s="3"/>
+    </row>
+    <row r="315" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E315" s="7"/>
+      <c r="F315" s="7"/>
+      <c r="G315" s="3"/>
+      <c r="H315" s="3"/>
+      <c r="J315" s="5"/>
+      <c r="K315" s="5"/>
+      <c r="L315" s="3"/>
+    </row>
+    <row r="316" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E316" s="7"/>
+      <c r="F316" s="7"/>
+      <c r="G316" s="3"/>
+      <c r="H316" s="3"/>
+      <c r="J316" s="5"/>
+      <c r="K316" s="5"/>
+      <c r="L316" s="3"/>
+    </row>
+    <row r="317" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E317" s="7"/>
+      <c r="F317" s="7"/>
+      <c r="G317" s="3"/>
+      <c r="H317" s="3"/>
+      <c r="J317" s="5"/>
+      <c r="K317" s="5"/>
+      <c r="L317" s="3"/>
+    </row>
+    <row r="318" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E318" s="7"/>
+      <c r="F318" s="7"/>
+      <c r="G318" s="3"/>
+      <c r="H318" s="3"/>
+      <c r="J318" s="5"/>
+      <c r="K318" s="5"/>
+      <c r="L318" s="3"/>
+    </row>
+    <row r="319" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E319" s="7"/>
+      <c r="F319" s="7"/>
+      <c r="G319" s="3"/>
+      <c r="H319" s="3"/>
+      <c r="J319" s="5"/>
+      <c r="K319" s="5"/>
+      <c r="L319" s="3"/>
+    </row>
+    <row r="320" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E320" s="7"/>
+      <c r="F320" s="7"/>
+      <c r="G320" s="3"/>
+      <c r="H320" s="3"/>
+      <c r="J320" s="5"/>
+      <c r="K320" s="5"/>
+      <c r="L320" s="3"/>
+    </row>
+    <row r="321" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E321" s="7"/>
+      <c r="F321" s="7"/>
+      <c r="G321" s="3"/>
+      <c r="H321" s="3"/>
+      <c r="J321" s="5"/>
+      <c r="K321" s="5"/>
+      <c r="L321" s="3"/>
+    </row>
+    <row r="322" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E322" s="7"/>
+      <c r="F322" s="7"/>
+      <c r="G322" s="3"/>
+      <c r="H322" s="3"/>
+      <c r="J322" s="5"/>
+      <c r="K322" s="5"/>
+      <c r="L322" s="3"/>
+    </row>
+    <row r="323" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E323" s="7"/>
+      <c r="F323" s="7"/>
+      <c r="G323" s="3"/>
+      <c r="H323" s="3"/>
+      <c r="J323" s="5"/>
+      <c r="K323" s="5"/>
+      <c r="L323" s="3"/>
+    </row>
+    <row r="324" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E324" s="7"/>
+      <c r="F324" s="7"/>
+      <c r="G324" s="3"/>
+      <c r="H324" s="3"/>
+      <c r="J324" s="5"/>
+      <c r="K324" s="5"/>
+      <c r="L324" s="3"/>
+    </row>
+    <row r="325" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E325" s="7"/>
+      <c r="F325" s="7"/>
+      <c r="G325" s="3"/>
+      <c r="H325" s="3"/>
+      <c r="J325" s="5"/>
+      <c r="K325" s="5"/>
+      <c r="L325" s="3"/>
+    </row>
+    <row r="326" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E326" s="7"/>
+      <c r="F326" s="7"/>
+      <c r="G326" s="3"/>
+      <c r="H326" s="3"/>
+      <c r="J326" s="5"/>
+      <c r="K326" s="5"/>
+      <c r="L326" s="3"/>
+    </row>
+    <row r="327" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E327" s="7"/>
+      <c r="F327" s="7"/>
+      <c r="G327" s="3"/>
+      <c r="H327" s="3"/>
+      <c r="J327" s="5"/>
+      <c r="K327" s="5"/>
+      <c r="L327" s="3"/>
+    </row>
+    <row r="328" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E328" s="7"/>
+      <c r="F328" s="7"/>
+      <c r="G328" s="3"/>
+      <c r="H328" s="3"/>
+      <c r="J328" s="5"/>
+      <c r="K328" s="5"/>
+      <c r="L328" s="3"/>
+    </row>
+    <row r="329" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E329" s="7"/>
+      <c r="F329" s="7"/>
+      <c r="G329" s="3"/>
+      <c r="H329" s="3"/>
+      <c r="J329" s="5"/>
+      <c r="K329" s="5"/>
+      <c r="L329" s="3"/>
+    </row>
+    <row r="330" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E330" s="7"/>
+      <c r="F330" s="7"/>
+      <c r="G330" s="3"/>
+      <c r="H330" s="3"/>
+      <c r="J330" s="5"/>
+      <c r="K330" s="5"/>
+      <c r="L330" s="3"/>
+    </row>
+    <row r="331" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E331" s="7"/>
+      <c r="F331" s="7"/>
+      <c r="G331" s="3"/>
+      <c r="H331" s="3"/>
+      <c r="J331" s="5"/>
+      <c r="K331" s="5"/>
+      <c r="L331" s="3"/>
+    </row>
+    <row r="332" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E332" s="7"/>
+      <c r="F332" s="7"/>
+      <c r="G332" s="3"/>
+      <c r="H332" s="3"/>
+      <c r="J332" s="5"/>
+      <c r="K332" s="5"/>
+      <c r="L332" s="3"/>
+    </row>
+    <row r="333" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E333" s="7"/>
+      <c r="F333" s="7"/>
+      <c r="G333" s="3"/>
+      <c r="H333" s="3"/>
+      <c r="J333" s="5"/>
+      <c r="K333" s="5"/>
+      <c r="L333" s="3"/>
+    </row>
+    <row r="334" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E334" s="7"/>
+      <c r="F334" s="7"/>
+      <c r="G334" s="3"/>
+      <c r="H334" s="3"/>
+      <c r="J334" s="5"/>
+      <c r="K334" s="5"/>
+      <c r="L334" s="3"/>
+    </row>
+    <row r="335" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E335" s="7"/>
+      <c r="F335" s="7"/>
+      <c r="G335" s="3"/>
+      <c r="H335" s="3"/>
+      <c r="J335" s="5"/>
+      <c r="K335" s="5"/>
+      <c r="L335" s="3"/>
+    </row>
+    <row r="336" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E336" s="7"/>
+      <c r="F336" s="7"/>
+      <c r="G336" s="3"/>
+      <c r="H336" s="3"/>
+      <c r="J336" s="5"/>
+      <c r="K336" s="5"/>
+      <c r="L336" s="3"/>
+    </row>
+    <row r="337" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E337" s="7"/>
+      <c r="F337" s="7"/>
+      <c r="G337" s="3"/>
+      <c r="H337" s="3"/>
+      <c r="J337" s="5"/>
+      <c r="K337" s="5"/>
+      <c r="L337" s="3"/>
+    </row>
+    <row r="338" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E338" s="7"/>
+      <c r="F338" s="7"/>
+      <c r="G338" s="3"/>
+      <c r="H338" s="3"/>
+      <c r="J338" s="5"/>
+      <c r="K338" s="5"/>
+      <c r="L338" s="3"/>
+    </row>
+    <row r="339" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E339" s="7"/>
+      <c r="F339" s="7"/>
+      <c r="G339" s="3"/>
+      <c r="H339" s="3"/>
+      <c r="J339" s="5"/>
+      <c r="K339" s="5"/>
+      <c r="L339" s="3"/>
+    </row>
+    <row r="340" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E340" s="7"/>
+      <c r="F340" s="7"/>
+      <c r="G340" s="3"/>
+      <c r="H340" s="3"/>
+      <c r="J340" s="5"/>
+      <c r="K340" s="5"/>
+      <c r="L340" s="3"/>
+    </row>
+    <row r="341" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E341" s="7"/>
+      <c r="F341" s="7"/>
+      <c r="G341" s="3"/>
+      <c r="H341" s="3"/>
+      <c r="J341" s="5"/>
+      <c r="K341" s="5"/>
+      <c r="L341" s="3"/>
+    </row>
+    <row r="342" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E342" s="7"/>
+      <c r="F342" s="7"/>
+      <c r="G342" s="3"/>
+      <c r="H342" s="3"/>
+      <c r="J342" s="5"/>
+      <c r="K342" s="5"/>
+      <c r="L342" s="3"/>
+    </row>
+    <row r="343" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E343" s="7"/>
+      <c r="F343" s="7"/>
+      <c r="G343" s="3"/>
+      <c r="H343" s="3"/>
+      <c r="J343" s="5"/>
+      <c r="K343" s="5"/>
+      <c r="L343" s="3"/>
+    </row>
+    <row r="344" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E344" s="7"/>
+      <c r="F344" s="7"/>
+      <c r="G344" s="3"/>
+      <c r="H344" s="3"/>
+      <c r="J344" s="5"/>
+      <c r="K344" s="5"/>
+      <c r="L344" s="3"/>
+    </row>
+    <row r="345" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E345" s="7"/>
+      <c r="F345" s="7"/>
+      <c r="G345" s="3"/>
+      <c r="H345" s="3"/>
+      <c r="J345" s="5"/>
+      <c r="K345" s="5"/>
+      <c r="L345" s="3"/>
+    </row>
+    <row r="346" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E346" s="7"/>
+      <c r="F346" s="7"/>
+      <c r="G346" s="3"/>
+      <c r="H346" s="3"/>
+      <c r="J346" s="5"/>
+      <c r="K346" s="5"/>
+      <c r="L346" s="3"/>
+    </row>
+    <row r="347" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E347" s="7"/>
+      <c r="F347" s="7"/>
+      <c r="G347" s="3"/>
+      <c r="H347" s="3"/>
+      <c r="J347" s="5"/>
+      <c r="K347" s="5"/>
+      <c r="L347" s="3"/>
+    </row>
+    <row r="348" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E348" s="7"/>
+      <c r="F348" s="7"/>
+      <c r="G348" s="3"/>
+      <c r="H348" s="3"/>
+      <c r="J348" s="5"/>
+      <c r="K348" s="5"/>
+      <c r="L348" s="3"/>
+    </row>
+    <row r="349" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E349" s="7"/>
+      <c r="F349" s="7"/>
+      <c r="G349" s="3"/>
+      <c r="H349" s="3"/>
+      <c r="J349" s="5"/>
+      <c r="K349" s="5"/>
+      <c r="L349" s="3"/>
+    </row>
+    <row r="350" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E350" s="7"/>
+      <c r="F350" s="7"/>
+      <c r="G350" s="3"/>
+      <c r="H350" s="3"/>
+      <c r="J350" s="5"/>
+      <c r="K350" s="5"/>
+      <c r="L350" s="3"/>
+    </row>
+    <row r="351" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E351" s="7"/>
+      <c r="F351" s="7"/>
+      <c r="G351" s="3"/>
+      <c r="H351" s="3"/>
+      <c r="J351" s="5"/>
+      <c r="K351" s="5"/>
+      <c r="L351" s="3"/>
+    </row>
+    <row r="352" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E352" s="7"/>
+      <c r="F352" s="7"/>
+      <c r="G352" s="3"/>
+      <c r="H352" s="3"/>
+      <c r="J352" s="5"/>
+      <c r="K352" s="5"/>
+      <c r="L352" s="3"/>
+    </row>
+    <row r="353" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E353" s="7"/>
+      <c r="F353" s="7"/>
+      <c r="G353" s="3"/>
+      <c r="H353" s="3"/>
+      <c r="J353" s="5"/>
+      <c r="K353" s="5"/>
+      <c r="L353" s="3"/>
+    </row>
+    <row r="354" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E354" s="7"/>
+      <c r="F354" s="7"/>
+      <c r="G354" s="3"/>
+      <c r="H354" s="3"/>
+      <c r="J354" s="5"/>
+      <c r="K354" s="5"/>
+      <c r="L354" s="3"/>
+    </row>
+    <row r="355" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E355" s="7"/>
+      <c r="F355" s="7"/>
+      <c r="G355" s="3"/>
+      <c r="H355" s="3"/>
+      <c r="J355" s="5"/>
+      <c r="K355" s="5"/>
+      <c r="L355" s="3"/>
+    </row>
+    <row r="356" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E356" s="7"/>
+      <c r="F356" s="7"/>
+      <c r="G356" s="3"/>
+      <c r="H356" s="3"/>
+      <c r="J356" s="5"/>
+      <c r="K356" s="5"/>
+      <c r="L356" s="3"/>
+    </row>
+    <row r="357" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E357" s="7"/>
+      <c r="F357" s="7"/>
+      <c r="G357" s="3"/>
+      <c r="H357" s="3"/>
+      <c r="J357" s="5"/>
+      <c r="K357" s="5"/>
+      <c r="L357" s="3"/>
+    </row>
+    <row r="358" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E358" s="7"/>
+      <c r="F358" s="7"/>
+      <c r="G358" s="3"/>
+      <c r="H358" s="3"/>
+      <c r="J358" s="5"/>
+      <c r="K358" s="5"/>
+      <c r="L358" s="3"/>
+    </row>
+    <row r="359" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E359" s="7"/>
+      <c r="F359" s="7"/>
+      <c r="G359" s="3"/>
+      <c r="H359" s="3"/>
+      <c r="J359" s="5"/>
+      <c r="K359" s="5"/>
+      <c r="L359" s="3"/>
+    </row>
+    <row r="360" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E360" s="7"/>
+      <c r="F360" s="7"/>
+      <c r="G360" s="3"/>
+      <c r="H360" s="3"/>
+      <c r="J360" s="5"/>
+      <c r="K360" s="5"/>
+      <c r="L360" s="3"/>
+    </row>
+    <row r="361" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E361" s="7"/>
+      <c r="F361" s="7"/>
+      <c r="G361" s="3"/>
+      <c r="H361" s="3"/>
+      <c r="J361" s="5"/>
+      <c r="K361" s="5"/>
+      <c r="L361" s="3"/>
+    </row>
+    <row r="362" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E362" s="7"/>
+      <c r="F362" s="7"/>
+      <c r="G362" s="3"/>
+      <c r="H362" s="3"/>
+      <c r="J362" s="5"/>
+      <c r="K362" s="5"/>
+      <c r="L362" s="3"/>
+    </row>
+    <row r="363" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E363" s="7"/>
+      <c r="F363" s="7"/>
+      <c r="G363" s="3"/>
+      <c r="H363" s="3"/>
+      <c r="J363" s="5"/>
+      <c r="K363" s="5"/>
+      <c r="L363" s="3"/>
+    </row>
+    <row r="364" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E364" s="7"/>
+      <c r="F364" s="7"/>
+      <c r="G364" s="3"/>
+      <c r="H364" s="3"/>
+      <c r="J364" s="5"/>
+      <c r="K364" s="5"/>
+      <c r="L364" s="3"/>
+    </row>
+    <row r="365" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E365" s="7"/>
+      <c r="F365" s="7"/>
+      <c r="G365" s="3"/>
+      <c r="H365" s="3"/>
+      <c r="J365" s="5"/>
+      <c r="K365" s="5"/>
+      <c r="L365" s="3"/>
+    </row>
+    <row r="366" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E366" s="7"/>
+      <c r="F366" s="7"/>
+      <c r="G366" s="3"/>
+      <c r="H366" s="3"/>
+      <c r="J366" s="5"/>
+      <c r="K366" s="5"/>
+      <c r="L366" s="3"/>
+    </row>
+    <row r="367" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E367" s="7"/>
+      <c r="F367" s="7"/>
+      <c r="G367" s="3"/>
+      <c r="H367" s="3"/>
+      <c r="J367" s="5"/>
+      <c r="K367" s="5"/>
+      <c r="L367" s="3"/>
+    </row>
+    <row r="368" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E368" s="7"/>
+      <c r="F368" s="7"/>
+      <c r="G368" s="3"/>
+      <c r="H368" s="3"/>
+      <c r="J368" s="5"/>
+      <c r="K368" s="5"/>
+      <c r="L368" s="3"/>
+    </row>
+    <row r="369" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E369" s="7"/>
+      <c r="F369" s="7"/>
+      <c r="G369" s="3"/>
+      <c r="H369" s="3"/>
+      <c r="J369" s="5"/>
+      <c r="K369" s="5"/>
+      <c r="L369" s="3"/>
+    </row>
+    <row r="370" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E370" s="7"/>
+      <c r="F370" s="7"/>
+      <c r="G370" s="3"/>
+      <c r="H370" s="3"/>
+      <c r="J370" s="5"/>
+      <c r="K370" s="5"/>
+      <c r="L370" s="3"/>
+    </row>
+    <row r="371" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E371" s="7"/>
+      <c r="F371" s="7"/>
+      <c r="G371" s="3"/>
+      <c r="H371" s="3"/>
+      <c r="J371" s="5"/>
+      <c r="K371" s="5"/>
+      <c r="L371" s="3"/>
+    </row>
+    <row r="372" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E372" s="7"/>
+      <c r="F372" s="7"/>
+      <c r="G372" s="3"/>
+      <c r="H372" s="3"/>
+      <c r="J372" s="5"/>
+      <c r="K372" s="5"/>
+      <c r="L372" s="3"/>
+    </row>
+    <row r="373" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E373" s="7"/>
+      <c r="F373" s="7"/>
+      <c r="G373" s="3"/>
+      <c r="H373" s="3"/>
+      <c r="J373" s="5"/>
+      <c r="K373" s="5"/>
+      <c r="L373" s="3"/>
+    </row>
+    <row r="374" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E374" s="7"/>
+      <c r="F374" s="7"/>
+      <c r="G374" s="3"/>
+      <c r="H374" s="3"/>
+      <c r="J374" s="5"/>
+      <c r="K374" s="5"/>
+      <c r="L374" s="3"/>
+    </row>
+    <row r="375" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E375" s="7"/>
+      <c r="F375" s="7"/>
+      <c r="G375" s="3"/>
+      <c r="H375" s="3"/>
+      <c r="J375" s="5"/>
+      <c r="K375" s="5"/>
+      <c r="L375" s="3"/>
+    </row>
+    <row r="376" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E376" s="7"/>
+      <c r="F376" s="7"/>
+      <c r="G376" s="3"/>
+      <c r="H376" s="3"/>
+      <c r="J376" s="5"/>
+      <c r="K376" s="5"/>
+      <c r="L376" s="3"/>
+    </row>
+    <row r="377" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E377" s="7"/>
+      <c r="F377" s="7"/>
+      <c r="G377" s="3"/>
+      <c r="H377" s="3"/>
+      <c r="J377" s="5"/>
+      <c r="K377" s="5"/>
+      <c r="L377" s="3"/>
+    </row>
+    <row r="378" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E378" s="7"/>
+      <c r="F378" s="7"/>
+      <c r="G378" s="3"/>
+      <c r="H378" s="3"/>
+      <c r="J378" s="5"/>
+      <c r="K378" s="5"/>
+      <c r="L378" s="3"/>
+    </row>
+    <row r="379" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E379" s="7"/>
+      <c r="F379" s="7"/>
+      <c r="G379" s="3"/>
+      <c r="H379" s="3"/>
+      <c r="J379" s="5"/>
+      <c r="K379" s="5"/>
+      <c r="L379" s="3"/>
+    </row>
+    <row r="380" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E380" s="7"/>
+      <c r="F380" s="7"/>
+      <c r="G380" s="3"/>
+      <c r="H380" s="3"/>
+      <c r="J380" s="5"/>
+      <c r="K380" s="5"/>
+      <c r="L380" s="3"/>
+    </row>
+    <row r="381" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E381" s="7"/>
+      <c r="F381" s="7"/>
+      <c r="G381" s="3"/>
+      <c r="H381" s="3"/>
+      <c r="J381" s="5"/>
+      <c r="K381" s="5"/>
+      <c r="L381" s="3"/>
+    </row>
+    <row r="382" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E382" s="7"/>
+      <c r="F382" s="7"/>
+      <c r="G382" s="3"/>
+      <c r="H382" s="3"/>
+      <c r="J382" s="5"/>
+      <c r="K382" s="5"/>
+      <c r="L382" s="3"/>
+    </row>
+    <row r="383" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E383" s="7"/>
+      <c r="F383" s="7"/>
+      <c r="G383" s="3"/>
+      <c r="H383" s="3"/>
+      <c r="J383" s="5"/>
+      <c r="K383" s="5"/>
+      <c r="L383" s="3"/>
+    </row>
+    <row r="384" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E384" s="7"/>
+      <c r="F384" s="7"/>
+      <c r="G384" s="3"/>
+      <c r="H384" s="3"/>
+      <c r="J384" s="5"/>
+      <c r="K384" s="5"/>
+      <c r="L384" s="3"/>
+    </row>
+    <row r="385" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E385" s="7"/>
+      <c r="F385" s="7"/>
+      <c r="G385" s="3"/>
+      <c r="H385" s="3"/>
+      <c r="J385" s="5"/>
+      <c r="K385" s="5"/>
+      <c r="L385" s="3"/>
+    </row>
+    <row r="386" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E386" s="7"/>
+      <c r="F386" s="7"/>
+      <c r="G386" s="3"/>
+      <c r="H386" s="3"/>
+      <c r="J386" s="5"/>
+      <c r="K386" s="5"/>
+      <c r="L386" s="3"/>
+    </row>
+    <row r="387" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E387" s="7"/>
+      <c r="F387" s="7"/>
+      <c r="G387" s="3"/>
+      <c r="H387" s="3"/>
+      <c r="J387" s="5"/>
+      <c r="K387" s="5"/>
+      <c r="L387" s="3"/>
+    </row>
+    <row r="388" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E388" s="7"/>
+      <c r="F388" s="7"/>
+      <c r="G388" s="3"/>
+      <c r="H388" s="3"/>
+      <c r="J388" s="5"/>
+      <c r="K388" s="5"/>
+      <c r="L388" s="3"/>
+    </row>
+    <row r="389" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E389" s="7"/>
+      <c r="F389" s="7"/>
+      <c r="G389" s="3"/>
+      <c r="H389" s="3"/>
+      <c r="J389" s="5"/>
+      <c r="K389" s="5"/>
+      <c r="L389" s="3"/>
+    </row>
+    <row r="390" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E390" s="7"/>
+      <c r="F390" s="7"/>
+      <c r="G390" s="3"/>
+      <c r="H390" s="3"/>
+      <c r="J390" s="5"/>
+      <c r="K390" s="5"/>
+      <c r="L390" s="3"/>
+    </row>
+    <row r="391" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E391" s="7"/>
+      <c r="F391" s="7"/>
+      <c r="G391" s="3"/>
+      <c r="H391" s="3"/>
+      <c r="J391" s="5"/>
+      <c r="K391" s="5"/>
+      <c r="L391" s="3"/>
+    </row>
+    <row r="392" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E392" s="7"/>
+      <c r="F392" s="7"/>
+      <c r="G392" s="3"/>
+      <c r="H392" s="3"/>
+      <c r="J392" s="5"/>
+      <c r="K392" s="5"/>
+      <c r="L392" s="3"/>
+    </row>
+    <row r="393" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E393" s="7"/>
+      <c r="F393" s="7"/>
+      <c r="G393" s="3"/>
+      <c r="H393" s="3"/>
+      <c r="J393" s="5"/>
+      <c r="K393" s="5"/>
+      <c r="L393" s="3"/>
+    </row>
+    <row r="394" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E394" s="7"/>
+      <c r="F394" s="7"/>
+      <c r="G394" s="3"/>
+      <c r="H394" s="3"/>
+      <c r="J394" s="5"/>
+      <c r="K394" s="5"/>
+      <c r="L394" s="3"/>
+    </row>
+    <row r="395" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E395" s="7"/>
+      <c r="F395" s="7"/>
+      <c r="G395" s="3"/>
+      <c r="H395" s="3"/>
+      <c r="J395" s="5"/>
+      <c r="K395" s="5"/>
+      <c r="L395" s="3"/>
+    </row>
+    <row r="396" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E396" s="7"/>
+      <c r="F396" s="7"/>
+      <c r="G396" s="3"/>
+      <c r="H396" s="3"/>
+      <c r="J396" s="5"/>
+      <c r="K396" s="5"/>
+      <c r="L396" s="3"/>
+    </row>
+    <row r="397" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E397" s="7"/>
+      <c r="F397" s="7"/>
+      <c r="G397" s="3"/>
+      <c r="H397" s="3"/>
+      <c r="J397" s="5"/>
+      <c r="K397" s="5"/>
+      <c r="L397" s="3"/>
+    </row>
+    <row r="398" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E398" s="7"/>
+      <c r="F398" s="7"/>
+      <c r="G398" s="3"/>
+      <c r="H398" s="3"/>
+      <c r="J398" s="5"/>
+      <c r="K398" s="5"/>
+      <c r="L398" s="3"/>
+    </row>
+    <row r="399" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E399" s="7"/>
+      <c r="F399" s="7"/>
+      <c r="G399" s="3"/>
+      <c r="H399" s="3"/>
+      <c r="J399" s="5"/>
+      <c r="K399" s="5"/>
+      <c r="L399" s="3"/>
+    </row>
+    <row r="400" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E400" s="7"/>
+      <c r="F400" s="7"/>
+      <c r="G400" s="3"/>
+      <c r="H400" s="3"/>
+      <c r="J400" s="5"/>
+      <c r="K400" s="5"/>
+      <c r="L400" s="3"/>
+    </row>
+    <row r="401" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E401" s="7"/>
+      <c r="F401" s="7"/>
+      <c r="G401" s="3"/>
+      <c r="H401" s="3"/>
+      <c r="J401" s="5"/>
+      <c r="K401" s="5"/>
+      <c r="L401" s="3"/>
+    </row>
+    <row r="402" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E402" s="7"/>
+      <c r="F402" s="7"/>
+      <c r="G402" s="3"/>
+      <c r="H402" s="3"/>
+      <c r="J402" s="5"/>
+      <c r="K402" s="5"/>
+      <c r="L402" s="3"/>
+    </row>
+    <row r="403" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E403" s="7"/>
+      <c r="F403" s="7"/>
+      <c r="G403" s="3"/>
+      <c r="H403" s="3"/>
+      <c r="J403" s="5"/>
+      <c r="K403" s="5"/>
+      <c r="L403" s="3"/>
+    </row>
+    <row r="404" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E404" s="7"/>
+      <c r="F404" s="7"/>
+      <c r="G404" s="3"/>
+      <c r="H404" s="3"/>
+      <c r="J404" s="5"/>
+      <c r="K404" s="5"/>
+      <c r="L404" s="3"/>
+    </row>
+    <row r="405" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E405" s="7"/>
+      <c r="F405" s="7"/>
+      <c r="G405" s="3"/>
+      <c r="H405" s="3"/>
+      <c r="J405" s="5"/>
+      <c r="K405" s="5"/>
+      <c r="L405" s="3"/>
+    </row>
+    <row r="406" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E406" s="7"/>
+      <c r="F406" s="7"/>
+      <c r="G406" s="3"/>
+      <c r="H406" s="3"/>
+      <c r="J406" s="5"/>
+      <c r="K406" s="5"/>
+      <c r="L406" s="3"/>
+    </row>
+    <row r="407" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E407" s="7"/>
+      <c r="F407" s="7"/>
+      <c r="G407" s="3"/>
+      <c r="H407" s="3"/>
+      <c r="J407" s="5"/>
+      <c r="K407" s="5"/>
+      <c r="L407" s="3"/>
+    </row>
+    <row r="408" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E408" s="7"/>
+      <c r="F408" s="7"/>
+      <c r="G408" s="3"/>
+      <c r="H408" s="3"/>
+      <c r="J408" s="5"/>
+      <c r="K408" s="5"/>
+      <c r="L408" s="3"/>
+    </row>
+    <row r="409" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E409" s="7"/>
+      <c r="F409" s="7"/>
+      <c r="G409" s="3"/>
+      <c r="H409" s="3"/>
+      <c r="J409" s="5"/>
+      <c r="K409" s="5"/>
+      <c r="L409" s="3"/>
+    </row>
+    <row r="410" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E410" s="7"/>
+      <c r="F410" s="7"/>
+      <c r="G410" s="3"/>
+      <c r="H410" s="3"/>
+      <c r="J410" s="5"/>
+      <c r="K410" s="5"/>
+      <c r="L410" s="3"/>
+    </row>
+    <row r="411" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E411" s="7"/>
+      <c r="F411" s="7"/>
+      <c r="G411" s="3"/>
+      <c r="H411" s="3"/>
+      <c r="J411" s="5"/>
+      <c r="K411" s="5"/>
+      <c r="L411" s="3"/>
+    </row>
+    <row r="412" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E412" s="7"/>
+      <c r="F412" s="7"/>
+      <c r="G412" s="3"/>
+      <c r="H412" s="3"/>
+      <c r="J412" s="5"/>
+      <c r="K412" s="5"/>
+      <c r="L412" s="3"/>
+    </row>
+    <row r="413" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E413" s="7"/>
+      <c r="F413" s="7"/>
+      <c r="G413" s="3"/>
+      <c r="H413" s="3"/>
+      <c r="J413" s="5"/>
+      <c r="K413" s="5"/>
+      <c r="L413" s="3"/>
+    </row>
+    <row r="414" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E414" s="7"/>
+      <c r="F414" s="7"/>
+      <c r="G414" s="3"/>
+      <c r="H414" s="3"/>
+      <c r="J414" s="5"/>
+      <c r="K414" s="5"/>
+      <c r="L414" s="3"/>
+    </row>
+    <row r="415" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E415" s="7"/>
+      <c r="F415" s="7"/>
+      <c r="G415" s="3"/>
+      <c r="H415" s="3"/>
+      <c r="J415" s="5"/>
+      <c r="K415" s="5"/>
+      <c r="L415" s="3"/>
+    </row>
+    <row r="416" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E416" s="7"/>
+      <c r="F416" s="7"/>
+      <c r="G416" s="3"/>
+      <c r="H416" s="3"/>
+      <c r="J416" s="5"/>
+      <c r="K416" s="5"/>
+      <c r="L416" s="3"/>
+    </row>
+    <row r="417" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E417" s="7"/>
+      <c r="F417" s="7"/>
+      <c r="G417" s="3"/>
+      <c r="H417" s="3"/>
+      <c r="J417" s="5"/>
+      <c r="K417" s="5"/>
+      <c r="L417" s="3"/>
+    </row>
+    <row r="418" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E418" s="7"/>
+      <c r="F418" s="7"/>
+      <c r="G418" s="3"/>
+      <c r="H418" s="3"/>
+      <c r="J418" s="5"/>
+      <c r="K418" s="5"/>
+      <c r="L418" s="3"/>
+    </row>
+    <row r="419" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E419" s="7"/>
+      <c r="F419" s="7"/>
+      <c r="G419" s="3"/>
+      <c r="H419" s="3"/>
+      <c r="J419" s="5"/>
+      <c r="K419" s="5"/>
+      <c r="L419" s="3"/>
+    </row>
+    <row r="420" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E420" s="7"/>
+      <c r="F420" s="7"/>
+      <c r="G420" s="3"/>
+      <c r="H420" s="3"/>
+      <c r="J420" s="5"/>
+      <c r="K420" s="5"/>
+      <c r="L420" s="3"/>
+    </row>
+    <row r="421" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E421" s="7"/>
+      <c r="F421" s="7"/>
+      <c r="G421" s="3"/>
+      <c r="H421" s="3"/>
+      <c r="J421" s="5"/>
+      <c r="K421" s="5"/>
+      <c r="L421" s="3"/>
+    </row>
+    <row r="422" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E422" s="7"/>
+      <c r="F422" s="7"/>
+      <c r="G422" s="3"/>
+      <c r="H422" s="3"/>
+      <c r="J422" s="5"/>
+      <c r="K422" s="5"/>
+      <c r="L422" s="3"/>
+    </row>
+    <row r="423" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E423" s="7"/>
+      <c r="F423" s="7"/>
+      <c r="G423" s="3"/>
+      <c r="H423" s="3"/>
+      <c r="J423" s="5"/>
+      <c r="K423" s="5"/>
+      <c r="L423" s="3"/>
+    </row>
+    <row r="424" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E424" s="7"/>
+      <c r="F424" s="7"/>
+      <c r="G424" s="3"/>
+      <c r="H424" s="3"/>
+      <c r="J424" s="5"/>
+      <c r="K424" s="5"/>
+      <c r="L424" s="3"/>
+    </row>
+    <row r="425" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E425" s="7"/>
+      <c r="F425" s="7"/>
+      <c r="G425" s="3"/>
+      <c r="H425" s="3"/>
+      <c r="J425" s="5"/>
+      <c r="K425" s="5"/>
+      <c r="L425" s="3"/>
+    </row>
+    <row r="426" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E426" s="7"/>
+      <c r="F426" s="7"/>
+      <c r="G426" s="3"/>
+      <c r="H426" s="3"/>
+      <c r="J426" s="5"/>
+      <c r="K426" s="5"/>
+      <c r="L426" s="3"/>
+    </row>
+    <row r="427" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E427" s="7"/>
+      <c r="F427" s="7"/>
+      <c r="G427" s="3"/>
+      <c r="H427" s="3"/>
+      <c r="J427" s="5"/>
+      <c r="K427" s="5"/>
+      <c r="L427" s="3"/>
+    </row>
+    <row r="428" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E428" s="7"/>
+      <c r="F428" s="7"/>
+      <c r="G428" s="3"/>
+      <c r="H428" s="3"/>
+      <c r="J428" s="5"/>
+      <c r="K428" s="5"/>
+      <c r="L428" s="3"/>
+    </row>
+    <row r="429" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E429" s="7"/>
+      <c r="F429" s="7"/>
+      <c r="G429" s="3"/>
+      <c r="H429" s="3"/>
+      <c r="J429" s="5"/>
+      <c r="K429" s="5"/>
+      <c r="L429" s="3"/>
+    </row>
+    <row r="430" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E430" s="7"/>
+      <c r="F430" s="7"/>
+      <c r="G430" s="3"/>
+      <c r="H430" s="3"/>
+      <c r="J430" s="5"/>
+      <c r="K430" s="5"/>
+      <c r="L430" s="3"/>
+    </row>
+    <row r="431" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E431" s="7"/>
+      <c r="F431" s="7"/>
+      <c r="G431" s="3"/>
+      <c r="H431" s="3"/>
+      <c r="J431" s="5"/>
+      <c r="K431" s="5"/>
+      <c r="L431" s="3"/>
+    </row>
+    <row r="432" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E432" s="7"/>
+      <c r="F432" s="7"/>
+      <c r="G432" s="3"/>
+      <c r="H432" s="3"/>
+      <c r="J432" s="5"/>
+      <c r="K432" s="5"/>
+      <c r="L432" s="3"/>
+    </row>
+    <row r="433" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E433" s="7"/>
+      <c r="F433" s="7"/>
+      <c r="G433" s="3"/>
+      <c r="H433" s="3"/>
+      <c r="J433" s="5"/>
+      <c r="K433" s="5"/>
+      <c r="L433" s="3"/>
+    </row>
+    <row r="434" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E434" s="7"/>
+      <c r="F434" s="7"/>
+      <c r="G434" s="3"/>
+      <c r="H434" s="3"/>
+      <c r="J434" s="5"/>
+      <c r="K434" s="5"/>
+      <c r="L434" s="3"/>
+    </row>
+    <row r="435" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E435" s="7"/>
+      <c r="F435" s="7"/>
+      <c r="G435" s="3"/>
+      <c r="H435" s="3"/>
+      <c r="J435" s="5"/>
+      <c r="K435" s="5"/>
+      <c r="L435" s="3"/>
+    </row>
+    <row r="436" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E436" s="7"/>
+      <c r="F436" s="7"/>
+      <c r="G436" s="3"/>
+      <c r="H436" s="3"/>
+      <c r="J436" s="5"/>
+      <c r="K436" s="5"/>
+      <c r="L436" s="3"/>
+    </row>
+    <row r="437" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E437" s="7"/>
+      <c r="F437" s="7"/>
+      <c r="G437" s="3"/>
+      <c r="H437" s="3"/>
+      <c r="J437" s="5"/>
+      <c r="K437" s="5"/>
+      <c r="L437" s="3"/>
+    </row>
+    <row r="438" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E438" s="7"/>
+      <c r="F438" s="7"/>
+      <c r="G438" s="3"/>
+      <c r="H438" s="3"/>
+      <c r="J438" s="5"/>
+      <c r="K438" s="5"/>
+      <c r="L438" s="3"/>
+    </row>
+    <row r="439" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E439" s="7"/>
+      <c r="F439" s="7"/>
+      <c r="G439" s="3"/>
+      <c r="H439" s="3"/>
+      <c r="J439" s="5"/>
+      <c r="K439" s="5"/>
+      <c r="L439" s="3"/>
+    </row>
+    <row r="440" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E440" s="7"/>
+      <c r="F440" s="7"/>
+      <c r="G440" s="3"/>
+      <c r="H440" s="3"/>
+      <c r="J440" s="5"/>
+      <c r="K440" s="5"/>
+      <c r="L440" s="3"/>
+    </row>
+    <row r="441" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E441" s="7"/>
+      <c r="F441" s="7"/>
+      <c r="G441" s="3"/>
+      <c r="H441" s="3"/>
+      <c r="J441" s="5"/>
+      <c r="K441" s="5"/>
+      <c r="L441" s="3"/>
+    </row>
+    <row r="442" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E442" s="7"/>
+      <c r="F442" s="7"/>
+      <c r="G442" s="3"/>
+      <c r="H442" s="3"/>
+      <c r="J442" s="5"/>
+      <c r="K442" s="5"/>
+      <c r="L442" s="3"/>
+    </row>
+    <row r="443" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E443" s="7"/>
+      <c r="F443" s="7"/>
+      <c r="G443" s="3"/>
+      <c r="H443" s="3"/>
+      <c r="J443" s="5"/>
+      <c r="K443" s="5"/>
+      <c r="L443" s="3"/>
+    </row>
+    <row r="444" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E444" s="7"/>
+      <c r="F444" s="7"/>
+      <c r="G444" s="3"/>
+      <c r="H444" s="3"/>
+      <c r="J444" s="5"/>
+      <c r="K444" s="5"/>
+      <c r="L444" s="3"/>
+    </row>
+    <row r="445" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E445" s="7"/>
+      <c r="F445" s="7"/>
+      <c r="G445" s="3"/>
+      <c r="H445" s="3"/>
+      <c r="J445" s="5"/>
+      <c r="K445" s="5"/>
+      <c r="L445" s="3"/>
+    </row>
+    <row r="446" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E446" s="7"/>
+      <c r="F446" s="7"/>
+      <c r="G446" s="3"/>
+      <c r="H446" s="3"/>
+      <c r="J446" s="5"/>
+      <c r="K446" s="5"/>
+      <c r="L446" s="3"/>
+    </row>
+    <row r="447" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E447" s="7"/>
+      <c r="F447" s="7"/>
+      <c r="G447" s="3"/>
+      <c r="H447" s="3"/>
+      <c r="J447" s="5"/>
+      <c r="K447" s="5"/>
+      <c r="L447" s="3"/>
+    </row>
+    <row r="448" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E448" s="7"/>
+      <c r="F448" s="7"/>
+      <c r="G448" s="3"/>
+      <c r="H448" s="3"/>
+      <c r="J448" s="5"/>
+      <c r="K448" s="5"/>
+      <c r="L448" s="3"/>
+    </row>
+    <row r="449" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E449" s="7"/>
+      <c r="F449" s="7"/>
+      <c r="G449" s="3"/>
+      <c r="H449" s="3"/>
+      <c r="J449" s="5"/>
+      <c r="K449" s="5"/>
+      <c r="L449" s="3"/>
+    </row>
+    <row r="450" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E450" s="7"/>
+      <c r="F450" s="7"/>
+      <c r="G450" s="3"/>
+      <c r="H450" s="3"/>
+      <c r="J450" s="5"/>
+      <c r="K450" s="5"/>
+      <c r="L450" s="3"/>
+    </row>
+    <row r="451" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E451" s="7"/>
+      <c r="F451" s="7"/>
+      <c r="G451" s="3"/>
+      <c r="H451" s="3"/>
+      <c r="J451" s="5"/>
+      <c r="K451" s="5"/>
+      <c r="L451" s="3"/>
+    </row>
+    <row r="452" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E452" s="7"/>
+      <c r="F452" s="7"/>
+      <c r="G452" s="3"/>
+      <c r="H452" s="3"/>
+      <c r="J452" s="5"/>
+      <c r="K452" s="5"/>
+      <c r="L452" s="3"/>
+    </row>
+    <row r="453" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E453" s="7"/>
+      <c r="F453" s="7"/>
+      <c r="G453" s="3"/>
+      <c r="H453" s="3"/>
+      <c r="J453" s="5"/>
+      <c r="K453" s="5"/>
+      <c r="L453" s="3"/>
+    </row>
+    <row r="454" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E454" s="7"/>
+      <c r="F454" s="7"/>
+      <c r="G454" s="3"/>
+      <c r="H454" s="3"/>
+      <c r="J454" s="5"/>
+      <c r="K454" s="5"/>
+      <c r="L454" s="3"/>
+    </row>
+    <row r="455" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E455" s="7"/>
+      <c r="F455" s="7"/>
+      <c r="G455" s="3"/>
+      <c r="H455" s="3"/>
+      <c r="J455" s="5"/>
+      <c r="K455" s="5"/>
+      <c r="L455" s="3"/>
+    </row>
+    <row r="456" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E456" s="7"/>
+      <c r="F456" s="7"/>
+      <c r="G456" s="3"/>
+      <c r="H456" s="3"/>
+      <c r="J456" s="5"/>
+      <c r="K456" s="5"/>
+      <c r="L456" s="3"/>
+    </row>
+    <row r="457" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E457" s="7"/>
+      <c r="F457" s="7"/>
+      <c r="G457" s="3"/>
+      <c r="H457" s="3"/>
+      <c r="J457" s="5"/>
+      <c r="K457" s="5"/>
+      <c r="L457" s="3"/>
+    </row>
+    <row r="458" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E458" s="7"/>
+      <c r="F458" s="7"/>
+      <c r="G458" s="3"/>
+      <c r="H458" s="3"/>
+      <c r="J458" s="5"/>
+      <c r="K458" s="5"/>
+      <c r="L458" s="3"/>
+    </row>
+    <row r="459" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E459" s="7"/>
+      <c r="F459" s="7"/>
+      <c r="G459" s="3"/>
+      <c r="H459" s="3"/>
+      <c r="J459" s="5"/>
+      <c r="K459" s="5"/>
+      <c r="L459" s="3"/>
+    </row>
+    <row r="460" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E460" s="7"/>
+      <c r="F460" s="7"/>
+      <c r="G460" s="3"/>
+      <c r="H460" s="3"/>
+      <c r="J460" s="5"/>
+      <c r="K460" s="5"/>
+      <c r="L460" s="3"/>
+    </row>
+    <row r="461" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E461" s="7"/>
+      <c r="F461" s="7"/>
+      <c r="G461" s="3"/>
+      <c r="H461" s="3"/>
+      <c r="J461" s="5"/>
+      <c r="K461" s="5"/>
+      <c r="L461" s="3"/>
+    </row>
+    <row r="462" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E462" s="7"/>
+      <c r="F462" s="7"/>
+      <c r="G462" s="3"/>
+      <c r="H462" s="3"/>
+      <c r="J462" s="5"/>
+      <c r="K462" s="5"/>
+      <c r="L462" s="3"/>
+    </row>
+    <row r="463" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E463" s="7"/>
+      <c r="F463" s="7"/>
+      <c r="G463" s="3"/>
+      <c r="H463" s="3"/>
+      <c r="J463" s="5"/>
+      <c r="K463" s="5"/>
+      <c r="L463" s="3"/>
+    </row>
+    <row r="464" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E464" s="7"/>
+      <c r="F464" s="7"/>
+      <c r="G464" s="3"/>
+      <c r="H464" s="3"/>
+      <c r="J464" s="5"/>
+      <c r="K464" s="5"/>
+      <c r="L464" s="3"/>
+    </row>
+    <row r="465" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E465" s="7"/>
+      <c r="F465" s="7"/>
+      <c r="G465" s="3"/>
+      <c r="H465" s="3"/>
+      <c r="J465" s="5"/>
+      <c r="K465" s="5"/>
+      <c r="L465" s="3"/>
+    </row>
+    <row r="466" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E466" s="7"/>
+      <c r="F466" s="7"/>
+      <c r="G466" s="3"/>
+      <c r="H466" s="3"/>
+      <c r="J466" s="5"/>
+      <c r="K466" s="5"/>
+      <c r="L466" s="3"/>
+    </row>
+    <row r="467" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E467" s="7"/>
+      <c r="F467" s="7"/>
+      <c r="G467" s="3"/>
+      <c r="H467" s="3"/>
+      <c r="J467" s="5"/>
+      <c r="K467" s="5"/>
+      <c r="L467" s="3"/>
+    </row>
+    <row r="468" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E468" s="7"/>
+      <c r="F468" s="7"/>
+      <c r="G468" s="3"/>
+      <c r="H468" s="3"/>
+      <c r="J468" s="5"/>
+      <c r="K468" s="5"/>
+      <c r="L468" s="3"/>
+    </row>
+    <row r="469" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E469" s="7"/>
+      <c r="F469" s="7"/>
+      <c r="G469" s="3"/>
+      <c r="H469" s="3"/>
+      <c r="J469" s="5"/>
+      <c r="K469" s="5"/>
+      <c r="L469" s="3"/>
+    </row>
+    <row r="470" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E470" s="7"/>
+      <c r="F470" s="7"/>
+      <c r="G470" s="3"/>
+      <c r="H470" s="3"/>
+      <c r="J470" s="5"/>
+      <c r="K470" s="5"/>
+      <c r="L470" s="3"/>
+    </row>
+    <row r="471" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E471" s="7"/>
+      <c r="F471" s="7"/>
+      <c r="G471" s="3"/>
+      <c r="H471" s="3"/>
+      <c r="J471" s="5"/>
+      <c r="K471" s="5"/>
+      <c r="L471" s="3"/>
+    </row>
+    <row r="472" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E472" s="7"/>
+      <c r="F472" s="7"/>
+      <c r="G472" s="3"/>
+      <c r="H472" s="3"/>
+      <c r="J472" s="5"/>
+      <c r="K472" s="5"/>
+      <c r="L472" s="3"/>
+    </row>
+    <row r="473" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E473" s="7"/>
+      <c r="F473" s="7"/>
+      <c r="G473" s="3"/>
+      <c r="H473" s="3"/>
+      <c r="J473" s="5"/>
+      <c r="K473" s="5"/>
+      <c r="L473" s="3"/>
+    </row>
+    <row r="474" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E474" s="7"/>
+      <c r="F474" s="7"/>
+      <c r="G474" s="3"/>
+      <c r="H474" s="3"/>
+      <c r="J474" s="5"/>
+      <c r="K474" s="5"/>
+      <c r="L474" s="3"/>
+    </row>
+    <row r="475" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E475" s="7"/>
+      <c r="F475" s="7"/>
+      <c r="G475" s="3"/>
+      <c r="H475" s="3"/>
+      <c r="J475" s="5"/>
+      <c r="K475" s="5"/>
+      <c r="L475" s="3"/>
+    </row>
+    <row r="476" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E476" s="7"/>
+      <c r="F476" s="7"/>
+      <c r="G476" s="3"/>
+      <c r="H476" s="3"/>
+      <c r="J476" s="5"/>
+      <c r="K476" s="5"/>
+      <c r="L476" s="3"/>
+    </row>
+    <row r="477" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E477" s="7"/>
+      <c r="F477" s="7"/>
+      <c r="G477" s="3"/>
+      <c r="H477" s="3"/>
+      <c r="J477" s="5"/>
+      <c r="K477" s="5"/>
+      <c r="L477" s="3"/>
+    </row>
+    <row r="478" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E478" s="7"/>
+      <c r="F478" s="7"/>
+      <c r="G478" s="3"/>
+      <c r="H478" s="3"/>
+      <c r="J478" s="5"/>
+      <c r="K478" s="5"/>
+      <c r="L478" s="3"/>
+    </row>
+    <row r="479" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E479" s="7"/>
+      <c r="F479" s="7"/>
+      <c r="G479" s="3"/>
+      <c r="H479" s="3"/>
+      <c r="J479" s="5"/>
+      <c r="K479" s="5"/>
+      <c r="L479" s="3"/>
+    </row>
+    <row r="480" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E480" s="7"/>
+      <c r="F480" s="7"/>
+      <c r="G480" s="3"/>
+      <c r="H480" s="3"/>
+      <c r="J480" s="5"/>
+      <c r="K480" s="5"/>
+      <c r="L480" s="3"/>
+    </row>
+    <row r="481" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E481" s="7"/>
+      <c r="F481" s="7"/>
+      <c r="G481" s="3"/>
+      <c r="H481" s="3"/>
+      <c r="J481" s="5"/>
+      <c r="K481" s="5"/>
+      <c r="L481" s="3"/>
+    </row>
+    <row r="482" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E482" s="7"/>
+      <c r="F482" s="7"/>
+      <c r="G482" s="3"/>
+      <c r="H482" s="3"/>
+      <c r="J482" s="5"/>
+      <c r="K482" s="5"/>
+      <c r="L482" s="3"/>
+    </row>
+    <row r="483" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E483" s="7"/>
+      <c r="F483" s="7"/>
+      <c r="G483" s="3"/>
+      <c r="H483" s="3"/>
+      <c r="J483" s="5"/>
+      <c r="K483" s="5"/>
+      <c r="L483" s="3"/>
+    </row>
+    <row r="484" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E484" s="7"/>
+      <c r="F484" s="7"/>
+      <c r="G484" s="3"/>
+      <c r="H484" s="3"/>
+      <c r="J484" s="5"/>
+      <c r="K484" s="5"/>
+      <c r="L484" s="3"/>
+    </row>
+    <row r="485" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E485" s="7"/>
+      <c r="F485" s="7"/>
+      <c r="G485" s="3"/>
+      <c r="H485" s="3"/>
+      <c r="J485" s="5"/>
+      <c r="K485" s="5"/>
+      <c r="L485" s="3"/>
+    </row>
+    <row r="486" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E486" s="7"/>
+      <c r="F486" s="7"/>
+      <c r="G486" s="3"/>
+      <c r="H486" s="3"/>
+      <c r="J486" s="5"/>
+      <c r="K486" s="5"/>
+      <c r="L486" s="3"/>
+    </row>
+    <row r="487" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E487" s="7"/>
+      <c r="F487" s="7"/>
+      <c r="G487" s="3"/>
+      <c r="H487" s="3"/>
+      <c r="J487" s="5"/>
+      <c r="K487" s="5"/>
+      <c r="L487" s="3"/>
+    </row>
+    <row r="488" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E488" s="7"/>
+      <c r="F488" s="7"/>
+      <c r="G488" s="3"/>
+      <c r="H488" s="3"/>
+      <c r="J488" s="5"/>
+      <c r="K488" s="5"/>
+      <c r="L488" s="3"/>
+    </row>
+    <row r="489" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E489" s="7"/>
+      <c r="F489" s="7"/>
+      <c r="G489" s="3"/>
+      <c r="H489" s="3"/>
+      <c r="J489" s="5"/>
+      <c r="K489" s="5"/>
+      <c r="L489" s="3"/>
+    </row>
+    <row r="490" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E490" s="7"/>
+      <c r="F490" s="7"/>
+      <c r="G490" s="3"/>
+      <c r="H490" s="3"/>
+      <c r="J490" s="5"/>
+      <c r="K490" s="5"/>
+      <c r="L490" s="3"/>
+    </row>
+    <row r="491" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E491" s="7"/>
+      <c r="F491" s="7"/>
+      <c r="G491" s="3"/>
+      <c r="H491" s="3"/>
+      <c r="J491" s="5"/>
+      <c r="K491" s="5"/>
+      <c r="L491" s="3"/>
+    </row>
+    <row r="492" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E492" s="7"/>
+      <c r="F492" s="7"/>
+      <c r="G492" s="3"/>
+      <c r="H492" s="3"/>
+      <c r="J492" s="5"/>
+      <c r="K492" s="5"/>
+      <c r="L492" s="3"/>
+    </row>
+    <row r="493" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E493" s="7"/>
+      <c r="F493" s="7"/>
+      <c r="G493" s="3"/>
+      <c r="H493" s="3"/>
+      <c r="J493" s="5"/>
+      <c r="K493" s="5"/>
+      <c r="L493" s="3"/>
+    </row>
+    <row r="494" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E494" s="7"/>
+      <c r="F494" s="7"/>
+      <c r="G494" s="3"/>
+      <c r="H494" s="3"/>
+      <c r="J494" s="5"/>
+      <c r="K494" s="5"/>
+      <c r="L494" s="3"/>
+    </row>
+    <row r="495" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E495" s="7"/>
+      <c r="F495" s="7"/>
+      <c r="G495" s="3"/>
+      <c r="H495" s="3"/>
+      <c r="J495" s="5"/>
+      <c r="K495" s="5"/>
+      <c r="L495" s="3"/>
+    </row>
+    <row r="496" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E496" s="7"/>
+      <c r="F496" s="7"/>
+      <c r="G496" s="3"/>
+      <c r="H496" s="3"/>
+      <c r="J496" s="5"/>
+      <c r="K496" s="5"/>
+      <c r="L496" s="3"/>
+    </row>
+    <row r="497" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E497" s="7"/>
+      <c r="F497" s="7"/>
+      <c r="G497" s="3"/>
+      <c r="H497" s="3"/>
+      <c r="J497" s="5"/>
+      <c r="K497" s="5"/>
+      <c r="L497" s="3"/>
+    </row>
+    <row r="498" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E498" s="7"/>
+      <c r="F498" s="7"/>
+      <c r="G498" s="3"/>
+      <c r="H498" s="3"/>
+      <c r="J498" s="5"/>
+      <c r="K498" s="5"/>
+      <c r="L498" s="3"/>
+    </row>
+    <row r="499" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E499" s="7"/>
+      <c r="F499" s="7"/>
+      <c r="G499" s="3"/>
+      <c r="H499" s="3"/>
+      <c r="J499" s="5"/>
+      <c r="K499" s="5"/>
+      <c r="L499" s="3"/>
+    </row>
+    <row r="500" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E500" s="7"/>
+      <c r="F500" s="7"/>
+      <c r="G500" s="3"/>
+      <c r="H500" s="3"/>
+      <c r="J500" s="5"/>
+      <c r="K500" s="5"/>
+      <c r="L500" s="3"/>
+    </row>
+    <row r="501" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E501" s="7"/>
+      <c r="F501" s="7"/>
+      <c r="G501" s="3"/>
+      <c r="H501" s="3"/>
+      <c r="J501" s="5"/>
+      <c r="K501" s="5"/>
+      <c r="L501" s="3"/>
+    </row>
+    <row r="502" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E502" s="7"/>
+      <c r="F502" s="7"/>
+      <c r="G502" s="3"/>
+      <c r="H502" s="3"/>
+      <c r="J502" s="5"/>
+      <c r="K502" s="5"/>
+      <c r="L502" s="3"/>
+    </row>
+    <row r="503" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E503" s="7"/>
+      <c r="F503" s="7"/>
+      <c r="G503" s="3"/>
+      <c r="H503" s="3"/>
+      <c r="J503" s="5"/>
+      <c r="K503" s="5"/>
+      <c r="L503" s="3"/>
+    </row>
+    <row r="504" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E504" s="7"/>
+      <c r="F504" s="7"/>
+      <c r="G504" s="3"/>
+      <c r="H504" s="3"/>
+      <c r="J504" s="5"/>
+      <c r="K504" s="5"/>
+      <c r="L504" s="3"/>
+    </row>
+    <row r="505" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E505" s="7"/>
+      <c r="F505" s="7"/>
+      <c r="G505" s="3"/>
+      <c r="H505" s="3"/>
+      <c r="J505" s="5"/>
+      <c r="K505" s="5"/>
+      <c r="L505" s="3"/>
+    </row>
+    <row r="506" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E506" s="7"/>
+      <c r="F506" s="7"/>
+      <c r="G506" s="3"/>
+      <c r="H506" s="3"/>
+      <c r="J506" s="5"/>
+      <c r="K506" s="5"/>
+      <c r="L506" s="3"/>
+    </row>
+    <row r="507" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E507" s="7"/>
+      <c r="F507" s="7"/>
+      <c r="G507" s="3"/>
+      <c r="H507" s="3"/>
+      <c r="J507" s="5"/>
+      <c r="K507" s="5"/>
+      <c r="L507" s="3"/>
+    </row>
+    <row r="508" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E508" s="7"/>
+      <c r="F508" s="7"/>
+      <c r="G508" s="3"/>
+      <c r="H508" s="3"/>
+      <c r="J508" s="5"/>
+      <c r="K508" s="5"/>
+      <c r="L508" s="3"/>
+    </row>
+    <row r="509" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E509" s="7"/>
+      <c r="F509" s="7"/>
+      <c r="G509" s="3"/>
+      <c r="H509" s="3"/>
+      <c r="J509" s="5"/>
+      <c r="K509" s="5"/>
+      <c r="L509" s="3"/>
+    </row>
+    <row r="510" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E510" s="7"/>
+      <c r="F510" s="7"/>
+      <c r="G510" s="3"/>
+      <c r="H510" s="3"/>
+      <c r="J510" s="5"/>
+      <c r="K510" s="5"/>
+      <c r="L510" s="3"/>
+    </row>
+    <row r="511" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E511" s="7"/>
+      <c r="F511" s="7"/>
+      <c r="G511" s="3"/>
+      <c r="H511" s="3"/>
+      <c r="J511" s="5"/>
+      <c r="K511" s="5"/>
+      <c r="L511" s="3"/>
+    </row>
+    <row r="512" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E512" s="7"/>
+      <c r="F512" s="7"/>
+      <c r="G512" s="3"/>
+      <c r="H512" s="3"/>
+      <c r="J512" s="5"/>
+      <c r="K512" s="5"/>
+      <c r="L512" s="3"/>
+    </row>
+    <row r="513" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E513" s="7"/>
+      <c r="F513" s="7"/>
+      <c r="G513" s="3"/>
+      <c r="H513" s="3"/>
+      <c r="J513" s="5"/>
+      <c r="K513" s="5"/>
+      <c r="L513" s="3"/>
+    </row>
+    <row r="514" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E514" s="7"/>
+      <c r="F514" s="7"/>
+      <c r="G514" s="3"/>
+      <c r="H514" s="3"/>
+      <c r="J514" s="5"/>
+      <c r="K514" s="5"/>
+      <c r="L514" s="3"/>
+    </row>
+    <row r="515" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E515" s="7"/>
+      <c r="F515" s="7"/>
+      <c r="G515" s="3"/>
+      <c r="H515" s="3"/>
+      <c r="J515" s="5"/>
+      <c r="K515" s="5"/>
+      <c r="L515" s="3"/>
+    </row>
+    <row r="516" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E516" s="7"/>
+      <c r="F516" s="7"/>
+      <c r="G516" s="3"/>
+      <c r="H516" s="3"/>
+      <c r="J516" s="5"/>
+      <c r="K516" s="5"/>
+      <c r="L516" s="3"/>
+    </row>
+    <row r="517" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E517" s="7"/>
+      <c r="F517" s="7"/>
+      <c r="G517" s="3"/>
+      <c r="H517" s="3"/>
+      <c r="J517" s="5"/>
+      <c r="K517" s="5"/>
+      <c r="L517" s="3"/>
+    </row>
+    <row r="518" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E518" s="7"/>
+      <c r="F518" s="7"/>
+      <c r="G518" s="3"/>
+      <c r="H518" s="3"/>
+      <c r="J518" s="5"/>
+      <c r="K518" s="5"/>
+      <c r="L518" s="3"/>
+    </row>
+    <row r="519" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E519" s="7"/>
+      <c r="F519" s="7"/>
+      <c r="G519" s="3"/>
+      <c r="H519" s="3"/>
+      <c r="J519" s="5"/>
+      <c r="K519" s="5"/>
+      <c r="L519" s="3"/>
+    </row>
+    <row r="520" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E520" s="7"/>
+      <c r="F520" s="7"/>
+      <c r="G520" s="3"/>
+      <c r="H520" s="3"/>
+      <c r="J520" s="5"/>
+      <c r="K520" s="5"/>
+      <c r="L520" s="3"/>
+    </row>
+    <row r="521" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E521" s="7"/>
+      <c r="F521" s="7"/>
+      <c r="G521" s="3"/>
+      <c r="H521" s="3"/>
+      <c r="J521" s="5"/>
+      <c r="K521" s="5"/>
+      <c r="L521" s="3"/>
+    </row>
+    <row r="522" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E522" s="7"/>
+      <c r="F522" s="7"/>
+      <c r="G522" s="3"/>
+      <c r="H522" s="3"/>
+      <c r="J522" s="5"/>
+      <c r="K522" s="5"/>
+      <c r="L522" s="3"/>
+    </row>
+    <row r="523" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E523" s="7"/>
+      <c r="F523" s="7"/>
+      <c r="G523" s="3"/>
+      <c r="H523" s="3"/>
+      <c r="J523" s="5"/>
+      <c r="K523" s="5"/>
+      <c r="L523" s="3"/>
+    </row>
+    <row r="524" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E524" s="7"/>
+      <c r="F524" s="7"/>
+      <c r="G524" s="3"/>
+      <c r="H524" s="3"/>
+      <c r="J524" s="5"/>
+      <c r="K524" s="5"/>
+      <c r="L524" s="3"/>
+    </row>
+    <row r="525" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E525" s="7"/>
+      <c r="F525" s="7"/>
+      <c r="G525" s="3"/>
+      <c r="H525" s="3"/>
+      <c r="J525" s="5"/>
+      <c r="K525" s="5"/>
+      <c r="L525" s="3"/>
+    </row>
+    <row r="526" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E526" s="7"/>
+      <c r="F526" s="7"/>
+      <c r="G526" s="3"/>
+      <c r="H526" s="3"/>
+      <c r="J526" s="5"/>
+      <c r="K526" s="5"/>
+      <c r="L526" s="3"/>
+    </row>
+    <row r="527" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E527" s="7"/>
+      <c r="F527" s="7"/>
+      <c r="G527" s="3"/>
+      <c r="H527" s="3"/>
+      <c r="J527" s="5"/>
+      <c r="K527" s="5"/>
+      <c r="L527" s="3"/>
+    </row>
+    <row r="528" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E528" s="7"/>
+      <c r="F528" s="7"/>
+      <c r="G528" s="3"/>
+      <c r="H528" s="3"/>
+      <c r="J528" s="5"/>
+      <c r="K528" s="5"/>
+      <c r="L528" s="3"/>
+    </row>
+    <row r="529" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E529" s="7"/>
+      <c r="F529" s="7"/>
+      <c r="G529" s="3"/>
+      <c r="H529" s="3"/>
+      <c r="J529" s="5"/>
+      <c r="K529" s="5"/>
+      <c r="L529" s="3"/>
+    </row>
+    <row r="530" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E530" s="7"/>
+      <c r="F530" s="7"/>
+      <c r="G530" s="3"/>
+      <c r="H530" s="3"/>
+      <c r="J530" s="5"/>
+      <c r="K530" s="5"/>
+      <c r="L530" s="3"/>
+    </row>
+    <row r="531" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E531" s="7"/>
+      <c r="F531" s="7"/>
+      <c r="G531" s="3"/>
+      <c r="H531" s="3"/>
+      <c r="J531" s="5"/>
+      <c r="K531" s="5"/>
+      <c r="L531" s="3"/>
+    </row>
+    <row r="532" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E532" s="7"/>
+      <c r="F532" s="7"/>
+      <c r="G532" s="3"/>
+      <c r="H532" s="3"/>
+      <c r="J532" s="5"/>
+      <c r="K532" s="5"/>
+      <c r="L532" s="3"/>
+    </row>
+    <row r="533" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E533" s="7"/>
+      <c r="F533" s="7"/>
+      <c r="G533" s="3"/>
+      <c r="H533" s="3"/>
+      <c r="J533" s="5"/>
+      <c r="K533" s="5"/>
+      <c r="L533" s="3"/>
+    </row>
+    <row r="534" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E534" s="7"/>
+      <c r="F534" s="7"/>
+      <c r="G534" s="3"/>
+      <c r="H534" s="3"/>
+      <c r="J534" s="5"/>
+      <c r="K534" s="5"/>
+      <c r="L534" s="3"/>
+    </row>
+    <row r="535" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E535" s="7"/>
+      <c r="F535" s="7"/>
+      <c r="G535" s="3"/>
+      <c r="H535" s="3"/>
+      <c r="J535" s="5"/>
+      <c r="K535" s="5"/>
+      <c r="L535" s="3"/>
+    </row>
+    <row r="536" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E536" s="7"/>
+      <c r="F536" s="7"/>
+      <c r="G536" s="3"/>
+      <c r="H536" s="3"/>
+      <c r="J536" s="5"/>
+      <c r="K536" s="5"/>
+      <c r="L536" s="3"/>
+    </row>
+    <row r="537" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E537" s="7"/>
+      <c r="F537" s="7"/>
+      <c r="G537" s="3"/>
+      <c r="H537" s="3"/>
+      <c r="J537" s="5"/>
+      <c r="K537" s="5"/>
+      <c r="L537" s="3"/>
+    </row>
+    <row r="538" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E538" s="7"/>
+      <c r="F538" s="7"/>
+      <c r="G538" s="3"/>
+      <c r="H538" s="3"/>
+      <c r="J538" s="5"/>
+      <c r="K538" s="5"/>
+      <c r="L538" s="3"/>
+    </row>
+    <row r="539" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E539" s="7"/>
+      <c r="F539" s="7"/>
+      <c r="G539" s="3"/>
+      <c r="H539" s="3"/>
+      <c r="J539" s="5"/>
+      <c r="K539" s="5"/>
+      <c r="L539" s="3"/>
+    </row>
+    <row r="540" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E540" s="7"/>
+      <c r="F540" s="7"/>
+      <c r="G540" s="3"/>
+      <c r="H540" s="3"/>
+      <c r="J540" s="5"/>
+      <c r="K540" s="5"/>
+      <c r="L540" s="3"/>
+    </row>
+    <row r="541" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E541" s="7"/>
+      <c r="F541" s="7"/>
+      <c r="G541" s="3"/>
+      <c r="H541" s="3"/>
+      <c r="J541" s="5"/>
+      <c r="K541" s="5"/>
+      <c r="L541" s="3"/>
+    </row>
+    <row r="542" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E542" s="7"/>
+      <c r="F542" s="7"/>
+      <c r="G542" s="3"/>
+      <c r="H542" s="3"/>
+      <c r="J542" s="5"/>
+      <c r="K542" s="5"/>
+      <c r="L542" s="3"/>
+    </row>
+    <row r="543" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E543" s="7"/>
+      <c r="F543" s="7"/>
+      <c r="G543" s="3"/>
+      <c r="H543" s="3"/>
+      <c r="J543" s="5"/>
+      <c r="K543" s="5"/>
+      <c r="L543" s="3"/>
+    </row>
+    <row r="544" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E544" s="7"/>
+      <c r="F544" s="7"/>
+      <c r="G544" s="3"/>
+      <c r="H544" s="3"/>
+      <c r="J544" s="5"/>
+      <c r="K544" s="5"/>
+      <c r="L544" s="3"/>
+    </row>
+    <row r="545" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E545" s="7"/>
+      <c r="F545" s="7"/>
+      <c r="G545" s="3"/>
+      <c r="H545" s="3"/>
+      <c r="J545" s="5"/>
+      <c r="K545" s="5"/>
+      <c r="L545" s="3"/>
+    </row>
+    <row r="546" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E546" s="7"/>
+      <c r="F546" s="7"/>
+      <c r="G546" s="3"/>
+      <c r="H546" s="3"/>
+      <c r="J546" s="5"/>
+      <c r="K546" s="5"/>
+      <c r="L546" s="3"/>
+    </row>
+    <row r="547" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E547" s="7"/>
+      <c r="F547" s="7"/>
+      <c r="G547" s="3"/>
+      <c r="H547" s="3"/>
+      <c r="J547" s="5"/>
+      <c r="K547" s="5"/>
+      <c r="L547" s="3"/>
+    </row>
+    <row r="548" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E548" s="7"/>
+      <c r="F548" s="7"/>
+      <c r="G548" s="3"/>
+      <c r="H548" s="3"/>
+      <c r="J548" s="5"/>
+      <c r="K548" s="5"/>
+      <c r="L548" s="3"/>
+    </row>
+    <row r="549" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E549" s="7"/>
+      <c r="F549" s="7"/>
+      <c r="G549" s="3"/>
+      <c r="H549" s="3"/>
+      <c r="J549" s="5"/>
+      <c r="K549" s="5"/>
+      <c r="L549" s="3"/>
+    </row>
+    <row r="550" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E550" s="7"/>
+      <c r="F550" s="7"/>
+      <c r="G550" s="3"/>
+      <c r="H550" s="3"/>
+      <c r="J550" s="5"/>
+      <c r="K550" s="5"/>
+      <c r="L550" s="3"/>
+    </row>
+    <row r="551" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E551" s="7"/>
+      <c r="F551" s="7"/>
+      <c r="G551" s="3"/>
+      <c r="H551" s="3"/>
+      <c r="J551" s="5"/>
+      <c r="K551" s="5"/>
+      <c r="L551" s="3"/>
+    </row>
+    <row r="552" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E552" s="7"/>
+      <c r="F552" s="7"/>
+      <c r="G552" s="3"/>
+      <c r="H552" s="3"/>
+      <c r="J552" s="5"/>
+      <c r="K552" s="5"/>
+      <c r="L552" s="3"/>
+    </row>
+    <row r="553" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E553" s="7"/>
+      <c r="F553" s="7"/>
+      <c r="G553" s="3"/>
+      <c r="H553" s="3"/>
+      <c r="J553" s="5"/>
+      <c r="K553" s="5"/>
+      <c r="L553" s="3"/>
+    </row>
+    <row r="554" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E554" s="7"/>
+      <c r="F554" s="7"/>
+      <c r="G554" s="3"/>
+      <c r="H554" s="3"/>
+      <c r="J554" s="5"/>
+      <c r="K554" s="5"/>
+      <c r="L554" s="3"/>
+    </row>
+    <row r="555" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E555" s="7"/>
+      <c r="F555" s="7"/>
+      <c r="G555" s="3"/>
+      <c r="H555" s="3"/>
+      <c r="J555" s="5"/>
+      <c r="K555" s="5"/>
+      <c r="L555" s="3"/>
+    </row>
+    <row r="556" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E556" s="7"/>
+      <c r="F556" s="7"/>
+      <c r="G556" s="3"/>
+      <c r="H556" s="3"/>
+      <c r="J556" s="5"/>
+      <c r="K556" s="5"/>
+      <c r="L556" s="3"/>
+    </row>
+    <row r="557" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E557" s="7"/>
+      <c r="F557" s="7"/>
+      <c r="G557" s="3"/>
+      <c r="H557" s="3"/>
+      <c r="J557" s="5"/>
+      <c r="K557" s="5"/>
+      <c r="L557" s="3"/>
+    </row>
+    <row r="558" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E558" s="7"/>
+      <c r="F558" s="7"/>
+      <c r="G558" s="3"/>
+      <c r="H558" s="3"/>
+      <c r="J558" s="5"/>
+      <c r="K558" s="5"/>
+      <c r="L558" s="3"/>
+    </row>
+    <row r="559" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E559" s="7"/>
+      <c r="F559" s="7"/>
+      <c r="G559" s="3"/>
+      <c r="H559" s="3"/>
+      <c r="J559" s="5"/>
+      <c r="K559" s="5"/>
+      <c r="L559" s="3"/>
+    </row>
+    <row r="560" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E560" s="7"/>
+      <c r="F560" s="7"/>
+      <c r="G560" s="3"/>
+      <c r="H560" s="3"/>
+      <c r="J560" s="5"/>
+      <c r="K560" s="5"/>
+      <c r="L560" s="3"/>
+    </row>
+    <row r="561" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E561" s="7"/>
+      <c r="F561" s="7"/>
+      <c r="G561" s="3"/>
+      <c r="H561" s="3"/>
+      <c r="J561" s="5"/>
+      <c r="K561" s="5"/>
+      <c r="L561" s="3"/>
+    </row>
+    <row r="562" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E562" s="7"/>
+      <c r="F562" s="7"/>
+      <c r="G562" s="3"/>
+      <c r="H562" s="3"/>
+      <c r="J562" s="5"/>
+      <c r="K562" s="5"/>
+      <c r="L562" s="3"/>
+    </row>
+    <row r="563" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E563" s="7"/>
+      <c r="F563" s="7"/>
+      <c r="G563" s="3"/>
+      <c r="H563" s="3"/>
+      <c r="J563" s="5"/>
+      <c r="K563" s="5"/>
+      <c r="L563" s="3"/>
+    </row>
+    <row r="564" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E564" s="7"/>
+      <c r="F564" s="7"/>
+      <c r="G564" s="3"/>
+      <c r="H564" s="3"/>
+      <c r="J564" s="5"/>
+      <c r="K564" s="5"/>
+      <c r="L564" s="3"/>
+    </row>
+    <row r="565" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E565" s="7"/>
+      <c r="F565" s="7"/>
+      <c r="G565" s="3"/>
+      <c r="H565" s="3"/>
+      <c r="J565" s="5"/>
+      <c r="K565" s="5"/>
+      <c r="L565" s="3"/>
+    </row>
+    <row r="566" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E566" s="7"/>
+      <c r="F566" s="7"/>
+      <c r="G566" s="3"/>
+      <c r="H566" s="3"/>
+      <c r="J566" s="5"/>
+      <c r="K566" s="5"/>
+      <c r="L566" s="3"/>
+    </row>
+    <row r="567" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E567" s="7"/>
+      <c r="F567" s="7"/>
+      <c r="G567" s="3"/>
+      <c r="H567" s="3"/>
+      <c r="J567" s="5"/>
+      <c r="K567" s="5"/>
+      <c r="L567" s="3"/>
+    </row>
+    <row r="568" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E568" s="7"/>
+      <c r="F568" s="7"/>
+      <c r="G568" s="3"/>
+      <c r="H568" s="3"/>
+      <c r="J568" s="5"/>
+      <c r="K568" s="5"/>
+      <c r="L568" s="3"/>
+    </row>
+    <row r="569" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E569" s="7"/>
+      <c r="F569" s="7"/>
+      <c r="G569" s="3"/>
+      <c r="H569" s="3"/>
+      <c r="J569" s="5"/>
+      <c r="K569" s="5"/>
+      <c r="L569" s="3"/>
+    </row>
+    <row r="570" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E570" s="7"/>
+      <c r="F570" s="7"/>
+      <c r="G570" s="3"/>
+      <c r="H570" s="3"/>
+      <c r="J570" s="5"/>
+      <c r="K570" s="5"/>
+      <c r="L570" s="3"/>
+    </row>
+    <row r="571" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E571" s="7"/>
+      <c r="F571" s="7"/>
+      <c r="G571" s="3"/>
+      <c r="H571" s="3"/>
+      <c r="J571" s="5"/>
+      <c r="K571" s="5"/>
+      <c r="L571" s="3"/>
+    </row>
+    <row r="572" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E572" s="7"/>
+      <c r="F572" s="7"/>
+      <c r="G572" s="3"/>
+      <c r="H572" s="3"/>
+      <c r="J572" s="5"/>
+      <c r="K572" s="5"/>
+      <c r="L572" s="3"/>
+    </row>
+    <row r="573" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E573" s="7"/>
+      <c r="F573" s="7"/>
+      <c r="G573" s="3"/>
+      <c r="H573" s="3"/>
+      <c r="J573" s="5"/>
+      <c r="K573" s="5"/>
+      <c r="L573" s="3"/>
+    </row>
+    <row r="574" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E574" s="7"/>
+      <c r="F574" s="7"/>
+      <c r="G574" s="3"/>
+      <c r="H574" s="3"/>
+      <c r="J574" s="5"/>
+      <c r="K574" s="5"/>
+      <c r="L574" s="3"/>
+    </row>
+    <row r="575" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E575" s="7"/>
+      <c r="F575" s="7"/>
+      <c r="G575" s="3"/>
+      <c r="H575" s="3"/>
+      <c r="J575" s="5"/>
+      <c r="K575" s="5"/>
+      <c r="L575" s="3"/>
+    </row>
+    <row r="576" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E576" s="7"/>
+      <c r="F576" s="7"/>
+      <c r="G576" s="3"/>
+      <c r="H576" s="3"/>
+      <c r="J576" s="5"/>
+      <c r="K576" s="5"/>
+      <c r="L576" s="3"/>
+    </row>
+    <row r="577" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E577" s="7"/>
+      <c r="F577" s="7"/>
+      <c r="G577" s="3"/>
+      <c r="H577" s="3"/>
+      <c r="J577" s="5"/>
+      <c r="K577" s="5"/>
+      <c r="L577" s="3"/>
+    </row>
+    <row r="578" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E578" s="7"/>
+      <c r="F578" s="7"/>
+      <c r="G578" s="3"/>
+      <c r="H578" s="3"/>
+      <c r="J578" s="5"/>
+      <c r="K578" s="5"/>
+      <c r="L578" s="3"/>
+    </row>
+    <row r="579" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E579" s="7"/>
+      <c r="F579" s="7"/>
+      <c r="G579" s="3"/>
+      <c r="H579" s="3"/>
+      <c r="J579" s="5"/>
+      <c r="K579" s="5"/>
+      <c r="L579" s="3"/>
+    </row>
+    <row r="580" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E580" s="7"/>
+      <c r="F580" s="7"/>
+      <c r="G580" s="3"/>
+      <c r="H580" s="3"/>
+      <c r="J580" s="5"/>
+      <c r="K580" s="5"/>
+      <c r="L580" s="3"/>
+    </row>
+    <row r="581" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E581" s="7"/>
+      <c r="F581" s="7"/>
+      <c r="G581" s="3"/>
+      <c r="H581" s="3"/>
+      <c r="J581" s="5"/>
+      <c r="K581" s="5"/>
+      <c r="L581" s="3"/>
+    </row>
+    <row r="582" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E582" s="7"/>
+      <c r="F582" s="7"/>
+      <c r="G582" s="3"/>
+      <c r="H582" s="3"/>
+      <c r="J582" s="5"/>
+      <c r="K582" s="5"/>
+      <c r="L582" s="3"/>
+    </row>
+    <row r="583" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E583" s="7"/>
+      <c r="F583" s="7"/>
+      <c r="G583" s="3"/>
+      <c r="H583" s="3"/>
+      <c r="J583" s="5"/>
+      <c r="K583" s="5"/>
+      <c r="L583" s="3"/>
+    </row>
+    <row r="584" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E584" s="7"/>
+      <c r="F584" s="7"/>
+      <c r="G584" s="3"/>
+      <c r="H584" s="3"/>
+      <c r="J584" s="5"/>
+      <c r="K584" s="5"/>
+      <c r="L584" s="3"/>
+    </row>
+    <row r="585" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E585" s="7"/>
+      <c r="F585" s="7"/>
+      <c r="G585" s="3"/>
+      <c r="H585" s="3"/>
+      <c r="J585" s="5"/>
+      <c r="K585" s="5"/>
+      <c r="L585" s="3"/>
+    </row>
+    <row r="586" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E586" s="7"/>
+      <c r="F586" s="7"/>
+      <c r="G586" s="3"/>
+      <c r="H586" s="3"/>
+      <c r="J586" s="5"/>
+      <c r="K586" s="5"/>
+      <c r="L586" s="3"/>
+    </row>
+    <row r="587" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E587" s="7"/>
+      <c r="F587" s="7"/>
+      <c r="G587" s="3"/>
+      <c r="H587" s="3"/>
+      <c r="J587" s="5"/>
+      <c r="K587" s="5"/>
+      <c r="L587" s="3"/>
+    </row>
+    <row r="588" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E588" s="7"/>
+      <c r="F588" s="7"/>
+      <c r="G588" s="3"/>
+      <c r="H588" s="3"/>
+      <c r="J588" s="5"/>
+      <c r="K588" s="5"/>
+      <c r="L588" s="3"/>
+    </row>
+    <row r="589" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E589" s="7"/>
+      <c r="F589" s="7"/>
+      <c r="G589" s="3"/>
+      <c r="H589" s="3"/>
+      <c r="J589" s="5"/>
+      <c r="K589" s="5"/>
+      <c r="L589" s="3"/>
+    </row>
+    <row r="590" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E590" s="7"/>
+      <c r="F590" s="7"/>
+      <c r="G590" s="3"/>
+      <c r="H590" s="3"/>
+      <c r="J590" s="5"/>
+      <c r="K590" s="5"/>
+      <c r="L590" s="3"/>
+    </row>
+    <row r="591" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E591" s="7"/>
+      <c r="F591" s="7"/>
+      <c r="G591" s="3"/>
+      <c r="H591" s="3"/>
+      <c r="J591" s="5"/>
+      <c r="K591" s="5"/>
+      <c r="L591" s="3"/>
+    </row>
+    <row r="592" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E592" s="7"/>
+      <c r="F592" s="7"/>
+      <c r="G592" s="3"/>
+      <c r="H592" s="3"/>
+      <c r="J592" s="5"/>
+      <c r="K592" s="5"/>
+      <c r="L592" s="3"/>
+    </row>
+    <row r="593" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E593" s="7"/>
+      <c r="F593" s="7"/>
+      <c r="G593" s="3"/>
+      <c r="H593" s="3"/>
+      <c r="J593" s="5"/>
+      <c r="K593" s="5"/>
+      <c r="L593" s="3"/>
+    </row>
+    <row r="594" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E594" s="7"/>
+      <c r="F594" s="7"/>
+      <c r="G594" s="3"/>
+      <c r="H594" s="3"/>
+      <c r="J594" s="5"/>
+      <c r="K594" s="5"/>
+      <c r="L594" s="3"/>
+    </row>
+    <row r="595" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E595" s="7"/>
+      <c r="F595" s="7"/>
+      <c r="G595" s="3"/>
+      <c r="H595" s="3"/>
+      <c r="J595" s="5"/>
+      <c r="K595" s="5"/>
+      <c r="L595" s="3"/>
+    </row>
+    <row r="596" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E596" s="7"/>
+      <c r="F596" s="7"/>
+      <c r="G596" s="3"/>
+      <c r="H596" s="3"/>
+      <c r="J596" s="5"/>
+      <c r="K596" s="5"/>
+      <c r="L596" s="3"/>
+    </row>
+    <row r="597" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E597" s="7"/>
+      <c r="F597" s="7"/>
+      <c r="G597" s="3"/>
+      <c r="H597" s="3"/>
+      <c r="J597" s="5"/>
+      <c r="K597" s="5"/>
+      <c r="L597" s="3"/>
+    </row>
+    <row r="598" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E598" s="7"/>
+      <c r="F598" s="7"/>
+      <c r="G598" s="3"/>
+      <c r="H598" s="3"/>
+      <c r="J598" s="5"/>
+      <c r="K598" s="5"/>
+      <c r="L598" s="3"/>
+    </row>
+    <row r="599" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E599" s="7"/>
+      <c r="F599" s="7"/>
+      <c r="G599" s="3"/>
+      <c r="H599" s="3"/>
+      <c r="J599" s="5"/>
+      <c r="K599" s="5"/>
+      <c r="L599" s="3"/>
+    </row>
+    <row r="600" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E600" s="7"/>
+      <c r="F600" s="7"/>
+      <c r="G600" s="3"/>
+      <c r="H600" s="3"/>
+      <c r="J600" s="5"/>
+      <c r="K600" s="5"/>
+      <c r="L600" s="3"/>
+    </row>
+    <row r="601" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E601" s="7"/>
+      <c r="F601" s="7"/>
+      <c r="G601" s="3"/>
+      <c r="H601" s="3"/>
+      <c r="J601" s="5"/>
+      <c r="K601" s="5"/>
+      <c r="L601" s="3"/>
+    </row>
+    <row r="602" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E602" s="7"/>
+      <c r="F602" s="7"/>
+      <c r="G602" s="3"/>
+      <c r="H602" s="3"/>
+      <c r="J602" s="5"/>
+      <c r="K602" s="5"/>
+      <c r="L602" s="3"/>
+    </row>
+    <row r="603" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E603" s="7"/>
+      <c r="F603" s="7"/>
+      <c r="G603" s="3"/>
+      <c r="H603" s="3"/>
+      <c r="J603" s="5"/>
+      <c r="K603" s="5"/>
+      <c r="L603" s="3"/>
+    </row>
+    <row r="604" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E604" s="7"/>
+      <c r="F604" s="7"/>
+      <c r="G604" s="3"/>
+      <c r="H604" s="3"/>
+      <c r="J604" s="5"/>
+      <c r="K604" s="5"/>
+      <c r="L604" s="3"/>
+    </row>
+    <row r="605" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E605" s="7"/>
+      <c r="F605" s="7"/>
+      <c r="G605" s="3"/>
+      <c r="H605" s="3"/>
+      <c r="J605" s="5"/>
+      <c r="K605" s="5"/>
+      <c r="L605" s="3"/>
+    </row>
+    <row r="606" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E606" s="7"/>
+      <c r="F606" s="7"/>
+      <c r="G606" s="3"/>
+      <c r="H606" s="3"/>
+      <c r="J606" s="5"/>
+      <c r="K606" s="5"/>
+      <c r="L606" s="3"/>
+    </row>
+    <row r="607" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E607" s="7"/>
+      <c r="F607" s="7"/>
+      <c r="G607" s="3"/>
+      <c r="H607" s="3"/>
+      <c r="J607" s="5"/>
+      <c r="K607" s="5"/>
+      <c r="L607" s="3"/>
+    </row>
+    <row r="608" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E608" s="7"/>
+      <c r="F608" s="7"/>
+      <c r="G608" s="3"/>
+      <c r="H608" s="3"/>
+      <c r="J608" s="5"/>
+      <c r="K608" s="5"/>
+      <c r="L608" s="3"/>
+    </row>
+    <row r="609" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E609" s="7"/>
+      <c r="F609" s="7"/>
+      <c r="G609" s="3"/>
+      <c r="H609" s="3"/>
+      <c r="J609" s="5"/>
+      <c r="K609" s="5"/>
+      <c r="L609" s="3"/>
+    </row>
+    <row r="610" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E610" s="7"/>
+      <c r="F610" s="7"/>
+      <c r="G610" s="3"/>
+      <c r="H610" s="3"/>
+      <c r="J610" s="5"/>
+      <c r="K610" s="5"/>
+      <c r="L610" s="3"/>
+    </row>
+    <row r="611" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E611" s="7"/>
+      <c r="F611" s="7"/>
+      <c r="G611" s="3"/>
+      <c r="H611" s="3"/>
+      <c r="J611" s="5"/>
+      <c r="K611" s="5"/>
+      <c r="L611" s="3"/>
+    </row>
+    <row r="612" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E612" s="7"/>
+      <c r="F612" s="7"/>
+      <c r="G612" s="3"/>
+      <c r="H612" s="3"/>
+      <c r="J612" s="5"/>
+      <c r="K612" s="5"/>
+      <c r="L612" s="3"/>
+    </row>
+    <row r="613" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E613" s="7"/>
+      <c r="F613" s="7"/>
+      <c r="G613" s="3"/>
+      <c r="H613" s="3"/>
+      <c r="J613" s="5"/>
+      <c r="K613" s="5"/>
+      <c r="L613" s="3"/>
+    </row>
+    <row r="614" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E614" s="7"/>
+      <c r="F614" s="7"/>
+      <c r="G614" s="3"/>
+      <c r="H614" s="3"/>
+      <c r="J614" s="5"/>
+      <c r="K614" s="5"/>
+      <c r="L614" s="3"/>
+    </row>
+    <row r="615" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E615" s="7"/>
+      <c r="F615" s="7"/>
+      <c r="G615" s="3"/>
+      <c r="H615" s="3"/>
+      <c r="J615" s="5"/>
+      <c r="K615" s="5"/>
+      <c r="L615" s="3"/>
+    </row>
+    <row r="616" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E616" s="7"/>
+      <c r="F616" s="7"/>
+      <c r="G616" s="3"/>
+      <c r="H616" s="3"/>
+      <c r="J616" s="5"/>
+      <c r="K616" s="5"/>
+      <c r="L616" s="3"/>
+    </row>
+    <row r="617" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E617" s="7"/>
+      <c r="F617" s="7"/>
+      <c r="G617" s="3"/>
+      <c r="H617" s="3"/>
+      <c r="J617" s="5"/>
+      <c r="K617" s="5"/>
+      <c r="L617" s="3"/>
+    </row>
+    <row r="618" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E618" s="7"/>
+      <c r="F618" s="7"/>
+      <c r="G618" s="3"/>
+      <c r="H618" s="3"/>
+      <c r="J618" s="5"/>
+      <c r="K618" s="5"/>
+      <c r="L618" s="3"/>
+    </row>
+    <row r="619" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E619" s="7"/>
+      <c r="F619" s="7"/>
+      <c r="G619" s="3"/>
+      <c r="H619" s="3"/>
+      <c r="J619" s="5"/>
+      <c r="K619" s="5"/>
+      <c r="L619" s="3"/>
+    </row>
+    <row r="620" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E620" s="7"/>
+      <c r="F620" s="7"/>
+      <c r="G620" s="3"/>
+      <c r="H620" s="3"/>
+      <c r="J620" s="5"/>
+      <c r="K620" s="5"/>
+      <c r="L620" s="3"/>
+    </row>
+    <row r="621" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E621" s="7"/>
+      <c r="F621" s="7"/>
+      <c r="G621" s="3"/>
+      <c r="H621" s="3"/>
+      <c r="J621" s="5"/>
+      <c r="K621" s="5"/>
+      <c r="L621" s="3"/>
+    </row>
+    <row r="622" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E622" s="7"/>
+      <c r="F622" s="7"/>
+      <c r="G622" s="3"/>
+      <c r="H622" s="3"/>
+      <c r="J622" s="5"/>
+      <c r="K622" s="5"/>
+      <c r="L622" s="3"/>
+    </row>
+    <row r="623" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E623" s="7"/>
+      <c r="F623" s="7"/>
+      <c r="G623" s="3"/>
+      <c r="H623" s="3"/>
+      <c r="J623" s="5"/>
+      <c r="K623" s="5"/>
+      <c r="L623" s="3"/>
+    </row>
+    <row r="624" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E624" s="7"/>
+      <c r="F624" s="7"/>
+      <c r="G624" s="3"/>
+      <c r="H624" s="3"/>
+      <c r="J624" s="5"/>
+      <c r="K624" s="5"/>
+      <c r="L624" s="3"/>
+    </row>
+    <row r="625" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E625" s="7"/>
+      <c r="F625" s="7"/>
+      <c r="G625" s="3"/>
+      <c r="H625" s="3"/>
+      <c r="J625" s="5"/>
+      <c r="K625" s="5"/>
+      <c r="L625" s="3"/>
+    </row>
+    <row r="626" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E626" s="7"/>
+      <c r="F626" s="7"/>
+      <c r="G626" s="3"/>
+      <c r="H626" s="3"/>
+      <c r="J626" s="5"/>
+      <c r="K626" s="5"/>
+      <c r="L626" s="3"/>
+    </row>
+    <row r="627" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E627" s="7"/>
+      <c r="F627" s="7"/>
+      <c r="G627" s="3"/>
+      <c r="H627" s="3"/>
+      <c r="J627" s="5"/>
+      <c r="K627" s="5"/>
+      <c r="L627" s="3"/>
+    </row>
+    <row r="628" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E628" s="7"/>
+      <c r="F628" s="7"/>
+      <c r="G628" s="3"/>
+      <c r="H628" s="3"/>
+      <c r="J628" s="5"/>
+      <c r="K628" s="5"/>
+      <c r="L628" s="3"/>
+    </row>
+    <row r="629" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E629" s="7"/>
+      <c r="F629" s="7"/>
+      <c r="G629" s="3"/>
+      <c r="H629" s="3"/>
+      <c r="J629" s="5"/>
+      <c r="K629" s="5"/>
+      <c r="L629" s="3"/>
+    </row>
+    <row r="630" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E630" s="7"/>
+      <c r="F630" s="7"/>
+      <c r="G630" s="3"/>
+      <c r="H630" s="3"/>
+      <c r="J630" s="5"/>
+      <c r="K630" s="5"/>
+      <c r="L630" s="3"/>
+    </row>
+    <row r="631" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E631" s="7"/>
+      <c r="F631" s="7"/>
+      <c r="G631" s="3"/>
+      <c r="H631" s="3"/>
+      <c r="J631" s="5"/>
+      <c r="K631" s="5"/>
+      <c r="L631" s="3"/>
+    </row>
+    <row r="632" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E632" s="7"/>
+      <c r="F632" s="7"/>
+      <c r="G632" s="3"/>
+      <c r="H632" s="3"/>
+      <c r="J632" s="5"/>
+      <c r="K632" s="5"/>
+      <c r="L632" s="3"/>
+    </row>
+    <row r="633" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E633" s="7"/>
+      <c r="F633" s="7"/>
+      <c r="G633" s="3"/>
+      <c r="H633" s="3"/>
+      <c r="J633" s="5"/>
+      <c r="K633" s="5"/>
+      <c r="L633" s="3"/>
+    </row>
+    <row r="634" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E634" s="7"/>
+      <c r="F634" s="7"/>
+      <c r="G634" s="3"/>
+      <c r="H634" s="3"/>
+      <c r="J634" s="5"/>
+      <c r="K634" s="5"/>
+      <c r="L634" s="3"/>
+    </row>
+    <row r="635" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E635" s="7"/>
+      <c r="F635" s="7"/>
+      <c r="G635" s="3"/>
+      <c r="H635" s="3"/>
+      <c r="J635" s="5"/>
+      <c r="K635" s="5"/>
+      <c r="L635" s="3"/>
+    </row>
+    <row r="636" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E636" s="7"/>
+      <c r="F636" s="7"/>
+      <c r="G636" s="3"/>
+      <c r="H636" s="3"/>
+      <c r="J636" s="5"/>
+      <c r="K636" s="5"/>
+      <c r="L636" s="3"/>
+    </row>
+    <row r="637" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E637" s="7"/>
+      <c r="F637" s="7"/>
+      <c r="G637" s="3"/>
+      <c r="H637" s="3"/>
+      <c r="J637" s="5"/>
+      <c r="K637" s="5"/>
+      <c r="L637" s="3"/>
+    </row>
+    <row r="638" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E638" s="7"/>
+      <c r="F638" s="7"/>
+      <c r="G638" s="3"/>
+      <c r="H638" s="3"/>
+      <c r="J638" s="5"/>
+      <c r="K638" s="5"/>
+      <c r="L638" s="3"/>
+    </row>
+    <row r="639" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E639" s="7"/>
+      <c r="F639" s="7"/>
+      <c r="G639" s="3"/>
+      <c r="H639" s="3"/>
+      <c r="J639" s="5"/>
+      <c r="K639" s="5"/>
+      <c r="L639" s="3"/>
+    </row>
+    <row r="640" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E640" s="7"/>
+      <c r="F640" s="7"/>
+      <c r="G640" s="3"/>
+      <c r="H640" s="3"/>
+      <c r="J640" s="5"/>
+      <c r="K640" s="5"/>
+      <c r="L640" s="3"/>
+    </row>
+    <row r="641" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E641" s="7"/>
+      <c r="F641" s="7"/>
+      <c r="G641" s="3"/>
+      <c r="H641" s="3"/>
+      <c r="J641" s="5"/>
+      <c r="K641" s="5"/>
+      <c r="L641" s="3"/>
+    </row>
+    <row r="642" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E642" s="7"/>
+      <c r="F642" s="7"/>
+      <c r="G642" s="3"/>
+      <c r="H642" s="3"/>
+      <c r="J642" s="5"/>
+      <c r="K642" s="5"/>
+      <c r="L642" s="3"/>
+    </row>
+    <row r="643" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E643" s="7"/>
+      <c r="F643" s="7"/>
+      <c r="G643" s="3"/>
+      <c r="H643" s="3"/>
+      <c r="J643" s="5"/>
+      <c r="K643" s="5"/>
+      <c r="L643" s="3"/>
+    </row>
+    <row r="644" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E644" s="7"/>
+      <c r="F644" s="7"/>
+      <c r="G644" s="3"/>
+      <c r="H644" s="3"/>
+      <c r="J644" s="5"/>
+      <c r="K644" s="5"/>
+      <c r="L644" s="3"/>
+    </row>
+    <row r="645" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E645" s="7"/>
+      <c r="F645" s="7"/>
+      <c r="G645" s="3"/>
+      <c r="H645" s="3"/>
+      <c r="J645" s="5"/>
+      <c r="K645" s="5"/>
+      <c r="L645" s="3"/>
+    </row>
+    <row r="646" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E646" s="7"/>
+      <c r="F646" s="7"/>
+      <c r="G646" s="3"/>
+      <c r="H646" s="3"/>
+      <c r="J646" s="5"/>
+      <c r="K646" s="5"/>
+      <c r="L646" s="3"/>
+    </row>
+    <row r="647" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E647" s="7"/>
+      <c r="F647" s="7"/>
+      <c r="G647" s="3"/>
+      <c r="H647" s="3"/>
+      <c r="J647" s="5"/>
+      <c r="K647" s="5"/>
+      <c r="L647" s="3"/>
+    </row>
+    <row r="648" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E648" s="7"/>
+      <c r="F648" s="7"/>
+      <c r="G648" s="3"/>
+      <c r="H648" s="3"/>
+      <c r="J648" s="5"/>
+      <c r="K648" s="5"/>
+      <c r="L648" s="3"/>
+    </row>
+    <row r="649" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E649" s="7"/>
+      <c r="F649" s="7"/>
+      <c r="G649" s="3"/>
+      <c r="H649" s="3"/>
+      <c r="J649" s="5"/>
+      <c r="K649" s="5"/>
+      <c r="L649" s="3"/>
+    </row>
+    <row r="650" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E650" s="7"/>
+      <c r="F650" s="7"/>
+      <c r="G650" s="3"/>
+      <c r="H650" s="3"/>
+      <c r="J650" s="5"/>
+      <c r="K650" s="5"/>
+      <c r="L650" s="3"/>
+    </row>
+    <row r="651" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E651" s="7"/>
+      <c r="F651" s="7"/>
+      <c r="G651" s="3"/>
+      <c r="H651" s="3"/>
+      <c r="J651" s="5"/>
+      <c r="K651" s="5"/>
+      <c r="L651" s="3"/>
+    </row>
+    <row r="652" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E652" s="7"/>
+      <c r="F652" s="7"/>
+      <c r="G652" s="3"/>
+      <c r="H652" s="3"/>
+      <c r="J652" s="5"/>
+      <c r="K652" s="5"/>
+      <c r="L652" s="3"/>
+    </row>
+    <row r="653" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E653" s="7"/>
+      <c r="F653" s="7"/>
+      <c r="G653" s="3"/>
+      <c r="H653" s="3"/>
+      <c r="J653" s="5"/>
+      <c r="K653" s="5"/>
+      <c r="L653" s="3"/>
+    </row>
+    <row r="654" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E654" s="7"/>
+      <c r="F654" s="7"/>
+      <c r="G654" s="3"/>
+      <c r="H654" s="3"/>
+      <c r="J654" s="5"/>
+      <c r="K654" s="5"/>
+      <c r="L654" s="3"/>
+    </row>
+    <row r="655" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E655" s="7"/>
+      <c r="F655" s="7"/>
+      <c r="G655" s="3"/>
+      <c r="H655" s="3"/>
+      <c r="J655" s="5"/>
+      <c r="K655" s="5"/>
+      <c r="L655" s="3"/>
+    </row>
+    <row r="656" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E656" s="7"/>
+      <c r="F656" s="7"/>
+      <c r="G656" s="3"/>
+      <c r="H656" s="3"/>
+      <c r="J656" s="5"/>
+      <c r="K656" s="5"/>
+      <c r="L656" s="3"/>
+    </row>
+    <row r="657" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E657" s="7"/>
+      <c r="F657" s="7"/>
+      <c r="G657" s="3"/>
+      <c r="H657" s="3"/>
+      <c r="J657" s="5"/>
+      <c r="K657" s="5"/>
+      <c r="L657" s="3"/>
+    </row>
+    <row r="658" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E658" s="7"/>
+      <c r="F658" s="7"/>
+      <c r="G658" s="3"/>
+      <c r="H658" s="3"/>
+      <c r="J658" s="5"/>
+      <c r="K658" s="5"/>
+      <c r="L658" s="3"/>
+    </row>
+    <row r="659" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E659" s="7"/>
+      <c r="F659" s="7"/>
+      <c r="G659" s="3"/>
+      <c r="H659" s="3"/>
+      <c r="J659" s="5"/>
+      <c r="K659" s="5"/>
+      <c r="L659" s="3"/>
+    </row>
+    <row r="660" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E660" s="7"/>
+      <c r="F660" s="7"/>
+      <c r="G660" s="3"/>
+      <c r="H660" s="3"/>
+      <c r="J660" s="5"/>
+      <c r="K660" s="5"/>
+      <c r="L660" s="3"/>
+    </row>
+    <row r="661" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E661" s="7"/>
+      <c r="F661" s="7"/>
+      <c r="G661" s="3"/>
+      <c r="H661" s="3"/>
+      <c r="J661" s="5"/>
+      <c r="K661" s="5"/>
+      <c r="L661" s="3"/>
+    </row>
+    <row r="662" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E662" s="7"/>
+      <c r="F662" s="7"/>
+      <c r="G662" s="3"/>
+      <c r="H662" s="3"/>
+      <c r="J662" s="5"/>
+      <c r="K662" s="5"/>
+      <c r="L662" s="3"/>
+    </row>
+    <row r="663" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E663" s="7"/>
+      <c r="F663" s="7"/>
+      <c r="G663" s="3"/>
+      <c r="H663" s="3"/>
+      <c r="J663" s="5"/>
+      <c r="K663" s="5"/>
+      <c r="L663" s="3"/>
+    </row>
+    <row r="664" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E664" s="7"/>
+      <c r="F664" s="7"/>
+      <c r="G664" s="3"/>
+      <c r="H664" s="3"/>
+      <c r="J664" s="5"/>
+      <c r="K664" s="5"/>
+      <c r="L664" s="3"/>
+    </row>
+    <row r="665" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E665" s="7"/>
+      <c r="F665" s="7"/>
+      <c r="G665" s="3"/>
+      <c r="H665" s="3"/>
+      <c r="J665" s="5"/>
+      <c r="K665" s="5"/>
+      <c r="L665" s="3"/>
+    </row>
+    <row r="666" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E666" s="7"/>
+      <c r="F666" s="7"/>
+      <c r="G666" s="3"/>
+      <c r="H666" s="3"/>
+      <c r="J666" s="5"/>
+      <c r="K666" s="5"/>
+      <c r="L666" s="3"/>
+    </row>
+    <row r="667" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E667" s="7"/>
+      <c r="F667" s="7"/>
+      <c r="G667" s="3"/>
+      <c r="H667" s="3"/>
+      <c r="J667" s="5"/>
+      <c r="K667" s="5"/>
+      <c r="L667" s="3"/>
+    </row>
+    <row r="668" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E668" s="7"/>
+      <c r="F668" s="7"/>
+      <c r="G668" s="3"/>
+      <c r="H668" s="3"/>
+      <c r="J668" s="5"/>
+      <c r="K668" s="5"/>
+      <c r="L668" s="3"/>
+    </row>
+    <row r="669" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E669" s="7"/>
+      <c r="F669" s="7"/>
+      <c r="G669" s="3"/>
+      <c r="H669" s="3"/>
+      <c r="J669" s="5"/>
+      <c r="K669" s="5"/>
+      <c r="L669" s="3"/>
+    </row>
+    <row r="670" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E670" s="7"/>
+      <c r="F670" s="7"/>
+      <c r="G670" s="3"/>
+      <c r="H670" s="3"/>
+      <c r="J670" s="5"/>
+      <c r="K670" s="5"/>
+      <c r="L670" s="3"/>
+    </row>
+    <row r="671" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E671" s="7"/>
+      <c r="F671" s="7"/>
+      <c r="G671" s="3"/>
+      <c r="H671" s="3"/>
+      <c r="J671" s="5"/>
+      <c r="K671" s="5"/>
+      <c r="L671" s="3"/>
+    </row>
+    <row r="672" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E672" s="7"/>
+      <c r="F672" s="7"/>
+      <c r="G672" s="3"/>
+      <c r="H672" s="3"/>
+      <c r="J672" s="5"/>
+      <c r="K672" s="5"/>
+      <c r="L672" s="3"/>
+    </row>
+    <row r="673" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E673" s="7"/>
+      <c r="F673" s="7"/>
+      <c r="G673" s="3"/>
+      <c r="H673" s="3"/>
+      <c r="J673" s="5"/>
+      <c r="K673" s="5"/>
+      <c r="L673" s="3"/>
+    </row>
+    <row r="674" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E674" s="7"/>
+      <c r="F674" s="7"/>
+      <c r="G674" s="3"/>
+      <c r="H674" s="3"/>
+      <c r="J674" s="5"/>
+      <c r="K674" s="5"/>
+      <c r="L674" s="3"/>
+    </row>
+    <row r="675" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E675" s="7"/>
+      <c r="F675" s="7"/>
+      <c r="G675" s="3"/>
+      <c r="H675" s="3"/>
+      <c r="J675" s="5"/>
+      <c r="K675" s="5"/>
+      <c r="L675" s="3"/>
+    </row>
+    <row r="676" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E676" s="7"/>
+      <c r="F676" s="7"/>
+      <c r="G676" s="3"/>
+      <c r="H676" s="3"/>
+      <c r="J676" s="5"/>
+      <c r="K676" s="5"/>
+      <c r="L676" s="3"/>
+    </row>
+    <row r="677" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E677" s="7"/>
+      <c r="F677" s="7"/>
+      <c r="G677" s="3"/>
+      <c r="H677" s="3"/>
+      <c r="J677" s="5"/>
+      <c r="K677" s="5"/>
+      <c r="L677" s="3"/>
+    </row>
+    <row r="678" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E678" s="7"/>
+      <c r="F678" s="7"/>
+      <c r="G678" s="3"/>
+      <c r="H678" s="3"/>
+      <c r="J678" s="5"/>
+      <c r="K678" s="5"/>
+      <c r="L678" s="3"/>
+    </row>
+    <row r="679" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E679" s="7"/>
+      <c r="F679" s="7"/>
+      <c r="G679" s="3"/>
+      <c r="H679" s="3"/>
+      <c r="J679" s="5"/>
+      <c r="K679" s="5"/>
+      <c r="L679" s="3"/>
+    </row>
+    <row r="680" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E680" s="7"/>
+      <c r="F680" s="7"/>
+      <c r="G680" s="3"/>
+      <c r="H680" s="3"/>
+      <c r="J680" s="5"/>
+      <c r="K680" s="5"/>
+      <c r="L680" s="3"/>
+    </row>
+    <row r="681" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E681" s="7"/>
+      <c r="F681" s="7"/>
+      <c r="G681" s="3"/>
+      <c r="H681" s="3"/>
+      <c r="J681" s="5"/>
+      <c r="K681" s="5"/>
+      <c r="L681" s="3"/>
+    </row>
+    <row r="682" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E682" s="7"/>
+      <c r="F682" s="7"/>
+      <c r="G682" s="3"/>
+      <c r="H682" s="3"/>
+      <c r="J682" s="5"/>
+      <c r="K682" s="5"/>
+      <c r="L682" s="3"/>
+    </row>
+    <row r="683" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E683" s="7"/>
+      <c r="F683" s="7"/>
+      <c r="G683" s="3"/>
+      <c r="H683" s="3"/>
+      <c r="J683" s="5"/>
+      <c r="K683" s="5"/>
+      <c r="L683" s="3"/>
+    </row>
+    <row r="684" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E684" s="7"/>
+      <c r="F684" s="7"/>
+      <c r="G684" s="3"/>
+      <c r="H684" s="3"/>
+      <c r="J684" s="5"/>
+      <c r="K684" s="5"/>
+      <c r="L684" s="3"/>
+    </row>
+    <row r="685" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E685" s="7"/>
+      <c r="F685" s="7"/>
+      <c r="G685" s="3"/>
+      <c r="H685" s="3"/>
+      <c r="J685" s="5"/>
+      <c r="K685" s="5"/>
+      <c r="L685" s="3"/>
+    </row>
+    <row r="686" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E686" s="7"/>
+      <c r="F686" s="7"/>
+      <c r="G686" s="3"/>
+      <c r="H686" s="3"/>
+      <c r="J686" s="5"/>
+      <c r="K686" s="5"/>
+      <c r="L686" s="3"/>
+    </row>
+    <row r="687" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E687" s="7"/>
+      <c r="F687" s="7"/>
+      <c r="G687" s="3"/>
+      <c r="H687" s="3"/>
+      <c r="J687" s="5"/>
+      <c r="K687" s="5"/>
+      <c r="L687" s="3"/>
+    </row>
+    <row r="688" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E688" s="7"/>
+      <c r="F688" s="7"/>
+      <c r="G688" s="3"/>
+      <c r="H688" s="3"/>
+      <c r="J688" s="5"/>
+      <c r="K688" s="5"/>
+      <c r="L688" s="3"/>
+    </row>
+    <row r="689" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E689" s="7"/>
+      <c r="F689" s="7"/>
+      <c r="G689" s="3"/>
+      <c r="H689" s="3"/>
+      <c r="J689" s="5"/>
+      <c r="K689" s="5"/>
+      <c r="L689" s="3"/>
+    </row>
+    <row r="690" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E690" s="7"/>
+      <c r="F690" s="7"/>
+      <c r="G690" s="3"/>
+      <c r="H690" s="3"/>
+      <c r="J690" s="5"/>
+      <c r="K690" s="5"/>
+      <c r="L690" s="3"/>
+    </row>
+    <row r="691" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E691" s="7"/>
+      <c r="F691" s="7"/>
+      <c r="G691" s="3"/>
+      <c r="H691" s="3"/>
+      <c r="J691" s="5"/>
+      <c r="K691" s="5"/>
+      <c r="L691" s="3"/>
+    </row>
+    <row r="692" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E692" s="7"/>
+      <c r="F692" s="7"/>
+      <c r="G692" s="3"/>
+      <c r="H692" s="3"/>
+      <c r="J692" s="5"/>
+      <c r="K692" s="5"/>
+      <c r="L692" s="3"/>
+    </row>
+    <row r="693" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E693" s="7"/>
+      <c r="F693" s="7"/>
+      <c r="G693" s="3"/>
+      <c r="H693" s="3"/>
+      <c r="J693" s="5"/>
+      <c r="K693" s="5"/>
+      <c r="L693" s="3"/>
+    </row>
+    <row r="694" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E694" s="7"/>
+      <c r="F694" s="7"/>
+      <c r="G694" s="3"/>
+      <c r="H694" s="3"/>
+      <c r="J694" s="5"/>
+      <c r="K694" s="5"/>
+      <c r="L694" s="3"/>
+    </row>
+    <row r="695" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E695" s="7"/>
+      <c r="F695" s="7"/>
+      <c r="G695" s="3"/>
+      <c r="H695" s="3"/>
+      <c r="J695" s="5"/>
+      <c r="K695" s="5"/>
+      <c r="L695" s="3"/>
+    </row>
+    <row r="696" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E696" s="7"/>
+      <c r="F696" s="7"/>
+      <c r="G696" s="3"/>
+      <c r="H696" s="3"/>
+      <c r="J696" s="5"/>
+      <c r="K696" s="5"/>
+      <c r="L696" s="3"/>
+    </row>
+    <row r="697" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E697" s="7"/>
+      <c r="F697" s="7"/>
+      <c r="G697" s="3"/>
+      <c r="H697" s="3"/>
+      <c r="J697" s="5"/>
+      <c r="K697" s="5"/>
+      <c r="L697" s="3"/>
+    </row>
+    <row r="698" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E698" s="7"/>
+      <c r="F698" s="7"/>
+      <c r="G698" s="3"/>
+      <c r="H698" s="3"/>
+      <c r="J698" s="5"/>
+      <c r="K698" s="5"/>
+      <c r="L698" s="3"/>
+    </row>
+    <row r="699" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E699" s="7"/>
+      <c r="F699" s="7"/>
+      <c r="G699" s="3"/>
+      <c r="H699" s="3"/>
+      <c r="J699" s="5"/>
+      <c r="K699" s="5"/>
+      <c r="L699" s="3"/>
+    </row>
+    <row r="700" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E700" s="7"/>
+      <c r="F700" s="7"/>
+      <c r="G700" s="3"/>
+      <c r="H700" s="3"/>
+      <c r="J700" s="5"/>
+      <c r="K700" s="5"/>
+      <c r="L700" s="3"/>
+    </row>
+    <row r="701" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E701" s="7"/>
+      <c r="F701" s="7"/>
+      <c r="G701" s="3"/>
+      <c r="H701" s="3"/>
+      <c r="J701" s="5"/>
+      <c r="K701" s="5"/>
+      <c r="L701" s="3"/>
+    </row>
+    <row r="702" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E702" s="7"/>
+      <c r="F702" s="7"/>
+      <c r="G702" s="3"/>
+      <c r="H702" s="3"/>
+      <c r="J702" s="5"/>
+      <c r="K702" s="5"/>
+      <c r="L702" s="3"/>
+    </row>
+    <row r="703" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E703" s="7"/>
+      <c r="F703" s="7"/>
+      <c r="G703" s="3"/>
+      <c r="H703" s="3"/>
+      <c r="J703" s="5"/>
+      <c r="K703" s="5"/>
+      <c r="L703" s="3"/>
+    </row>
+    <row r="704" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E704" s="7"/>
+      <c r="F704" s="7"/>
+      <c r="G704" s="3"/>
+      <c r="H704" s="3"/>
+      <c r="J704" s="5"/>
+      <c r="K704" s="5"/>
+      <c r="L704" s="3"/>
+    </row>
+    <row r="705" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E705" s="7"/>
+      <c r="F705" s="7"/>
+      <c r="G705" s="3"/>
+      <c r="H705" s="3"/>
+      <c r="J705" s="5"/>
+      <c r="K705" s="5"/>
+      <c r="L705" s="3"/>
+    </row>
+    <row r="706" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E706" s="7"/>
+      <c r="F706" s="7"/>
+      <c r="G706" s="3"/>
+      <c r="H706" s="3"/>
+      <c r="J706" s="5"/>
+      <c r="K706" s="5"/>
+      <c r="L706" s="3"/>
+    </row>
+    <row r="707" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E707" s="7"/>
+      <c r="F707" s="7"/>
+      <c r="G707" s="3"/>
+      <c r="H707" s="3"/>
+      <c r="J707" s="5"/>
+      <c r="K707" s="5"/>
+      <c r="L707" s="3"/>
+    </row>
+    <row r="708" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E708" s="7"/>
+      <c r="F708" s="7"/>
+      <c r="G708" s="3"/>
+      <c r="H708" s="3"/>
+      <c r="J708" s="5"/>
+      <c r="K708" s="5"/>
+      <c r="L708" s="3"/>
+    </row>
+    <row r="709" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E709" s="7"/>
+      <c r="F709" s="7"/>
+      <c r="G709" s="3"/>
+      <c r="H709" s="3"/>
+      <c r="J709" s="5"/>
+      <c r="K709" s="5"/>
+      <c r="L709" s="3"/>
+    </row>
+    <row r="710" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E710" s="7"/>
+      <c r="F710" s="7"/>
+      <c r="G710" s="3"/>
+      <c r="H710" s="3"/>
+      <c r="J710" s="5"/>
+      <c r="K710" s="5"/>
+      <c r="L710" s="3"/>
+    </row>
+    <row r="711" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E711" s="7"/>
+      <c r="F711" s="7"/>
+      <c r="G711" s="3"/>
+      <c r="H711" s="3"/>
+      <c r="J711" s="5"/>
+      <c r="K711" s="5"/>
+      <c r="L711" s="3"/>
+    </row>
+    <row r="712" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E712" s="7"/>
+      <c r="F712" s="7"/>
+      <c r="G712" s="3"/>
+      <c r="H712" s="3"/>
+      <c r="J712" s="5"/>
+      <c r="K712" s="5"/>
+      <c r="L712" s="3"/>
+    </row>
+    <row r="713" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E713" s="7"/>
+      <c r="F713" s="7"/>
+      <c r="G713" s="3"/>
+      <c r="H713" s="3"/>
+      <c r="J713" s="5"/>
+      <c r="K713" s="5"/>
+      <c r="L713" s="3"/>
+    </row>
+    <row r="714" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E714" s="7"/>
+      <c r="F714" s="7"/>
+      <c r="G714" s="3"/>
+      <c r="H714" s="3"/>
+      <c r="J714" s="5"/>
+      <c r="K714" s="5"/>
+      <c r="L714" s="3"/>
+    </row>
+    <row r="715" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E715" s="7"/>
+      <c r="F715" s="7"/>
+      <c r="G715" s="3"/>
+      <c r="H715" s="3"/>
+      <c r="J715" s="5"/>
+      <c r="K715" s="5"/>
+      <c r="L715" s="3"/>
+    </row>
+    <row r="716" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E716" s="7"/>
+      <c r="F716" s="7"/>
+      <c r="G716" s="3"/>
+      <c r="H716" s="3"/>
+      <c r="J716" s="5"/>
+      <c r="K716" s="5"/>
+      <c r="L716" s="3"/>
+    </row>
+    <row r="717" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E717" s="7"/>
+      <c r="F717" s="7"/>
+      <c r="G717" s="3"/>
+      <c r="H717" s="3"/>
+      <c r="J717" s="5"/>
+      <c r="K717" s="5"/>
+      <c r="L717" s="3"/>
+    </row>
+    <row r="718" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E718" s="7"/>
+      <c r="F718" s="7"/>
+      <c r="G718" s="3"/>
+      <c r="H718" s="3"/>
+      <c r="J718" s="5"/>
+      <c r="K718" s="5"/>
+      <c r="L718" s="3"/>
+    </row>
+    <row r="719" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E719" s="7"/>
+      <c r="F719" s="7"/>
+      <c r="G719" s="3"/>
+      <c r="H719" s="3"/>
+      <c r="J719" s="5"/>
+      <c r="K719" s="5"/>
+      <c r="L719" s="3"/>
+    </row>
+    <row r="720" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E720" s="7"/>
+      <c r="F720" s="7"/>
+      <c r="G720" s="3"/>
+      <c r="H720" s="3"/>
+      <c r="J720" s="5"/>
+      <c r="K720" s="5"/>
+      <c r="L720" s="3"/>
+    </row>
+    <row r="721" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E721" s="7"/>
+      <c r="F721" s="7"/>
+      <c r="G721" s="3"/>
+      <c r="H721" s="3"/>
+      <c r="J721" s="5"/>
+      <c r="K721" s="5"/>
+      <c r="L721" s="3"/>
+    </row>
+    <row r="722" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E722" s="7"/>
+      <c r="F722" s="7"/>
+      <c r="G722" s="3"/>
+      <c r="H722" s="3"/>
+      <c r="J722" s="5"/>
+      <c r="K722" s="5"/>
+      <c r="L722" s="3"/>
+    </row>
+    <row r="723" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E723" s="7"/>
+      <c r="F723" s="7"/>
+      <c r="G723" s="3"/>
+      <c r="H723" s="3"/>
+      <c r="J723" s="5"/>
+      <c r="K723" s="5"/>
+      <c r="L723" s="3"/>
+    </row>
+    <row r="724" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E724" s="7"/>
+      <c r="F724" s="7"/>
+      <c r="G724" s="3"/>
+      <c r="H724" s="3"/>
+      <c r="J724" s="5"/>
+      <c r="K724" s="5"/>
+      <c r="L724" s="3"/>
+    </row>
+    <row r="725" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E725" s="7"/>
+      <c r="F725" s="7"/>
+      <c r="G725" s="3"/>
+      <c r="H725" s="3"/>
+      <c r="J725" s="5"/>
+      <c r="K725" s="5"/>
+      <c r="L725" s="3"/>
+    </row>
+    <row r="726" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E726" s="7"/>
+      <c r="F726" s="7"/>
+      <c r="G726" s="3"/>
+      <c r="H726" s="3"/>
+      <c r="J726" s="5"/>
+      <c r="K726" s="5"/>
+      <c r="L726" s="3"/>
+    </row>
+    <row r="727" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E727" s="7"/>
+      <c r="F727" s="7"/>
+      <c r="G727" s="3"/>
+      <c r="H727" s="3"/>
+      <c r="J727" s="5"/>
+      <c r="K727" s="5"/>
+      <c r="L727" s="3"/>
+    </row>
+    <row r="728" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E728" s="7"/>
+      <c r="F728" s="7"/>
+      <c r="G728" s="3"/>
+      <c r="H728" s="3"/>
+      <c r="J728" s="5"/>
+      <c r="K728" s="5"/>
+      <c r="L728" s="3"/>
+    </row>
+    <row r="729" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E729" s="7"/>
+      <c r="F729" s="7"/>
+      <c r="G729" s="3"/>
+      <c r="H729" s="3"/>
+      <c r="J729" s="5"/>
+      <c r="K729" s="5"/>
+      <c r="L729" s="3"/>
+    </row>
+    <row r="730" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E730" s="7"/>
+      <c r="F730" s="7"/>
+      <c r="G730" s="3"/>
+      <c r="H730" s="3"/>
+      <c r="J730" s="5"/>
+      <c r="K730" s="5"/>
+      <c r="L730" s="3"/>
+    </row>
+    <row r="731" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E731" s="7"/>
+      <c r="F731" s="7"/>
+      <c r="G731" s="3"/>
+      <c r="H731" s="3"/>
+      <c r="J731" s="5"/>
+      <c r="K731" s="5"/>
+      <c r="L731" s="3"/>
+    </row>
+    <row r="732" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E732" s="7"/>
+      <c r="F732" s="7"/>
+      <c r="G732" s="3"/>
+      <c r="H732" s="3"/>
+      <c r="J732" s="5"/>
+      <c r="K732" s="5"/>
+      <c r="L732" s="3"/>
+    </row>
+    <row r="733" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E733" s="7"/>
+      <c r="F733" s="7"/>
+      <c r="G733" s="3"/>
+      <c r="H733" s="3"/>
+      <c r="J733" s="5"/>
+      <c r="K733" s="5"/>
+      <c r="L733" s="3"/>
+    </row>
+    <row r="734" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E734" s="7"/>
+      <c r="F734" s="7"/>
+      <c r="G734" s="3"/>
+      <c r="H734" s="3"/>
+      <c r="J734" s="5"/>
+      <c r="K734" s="5"/>
+      <c r="L734" s="3"/>
+    </row>
+    <row r="735" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E735" s="7"/>
+      <c r="F735" s="7"/>
+      <c r="G735" s="3"/>
+      <c r="H735" s="3"/>
+      <c r="J735" s="5"/>
+      <c r="K735" s="5"/>
+      <c r="L735" s="3"/>
+    </row>
+    <row r="736" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E736" s="7"/>
+      <c r="F736" s="7"/>
+      <c r="G736" s="3"/>
+      <c r="H736" s="3"/>
+      <c r="J736" s="5"/>
+      <c r="K736" s="5"/>
+      <c r="L736" s="3"/>
+    </row>
+    <row r="737" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E737" s="7"/>
+      <c r="F737" s="7"/>
+      <c r="G737" s="3"/>
+      <c r="H737" s="3"/>
+      <c r="J737" s="5"/>
+      <c r="K737" s="5"/>
+      <c r="L737" s="3"/>
+    </row>
+    <row r="738" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E738" s="7"/>
+      <c r="F738" s="7"/>
+      <c r="G738" s="3"/>
+      <c r="H738" s="3"/>
+      <c r="J738" s="5"/>
+      <c r="K738" s="5"/>
+      <c r="L738" s="3"/>
+    </row>
+    <row r="739" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E739" s="7"/>
+      <c r="F739" s="7"/>
+      <c r="G739" s="3"/>
+      <c r="H739" s="3"/>
+      <c r="J739" s="5"/>
+      <c r="K739" s="5"/>
+      <c r="L739" s="3"/>
+    </row>
+    <row r="740" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E740" s="7"/>
+      <c r="F740" s="7"/>
+      <c r="G740" s="3"/>
+      <c r="H740" s="3"/>
+      <c r="J740" s="5"/>
+      <c r="K740" s="5"/>
+      <c r="L740" s="3"/>
+    </row>
+    <row r="741" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E741" s="7"/>
+      <c r="F741" s="7"/>
+      <c r="G741" s="3"/>
+      <c r="H741" s="3"/>
+      <c r="J741" s="5"/>
+      <c r="K741" s="5"/>
+      <c r="L741" s="3"/>
+    </row>
+    <row r="742" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E742" s="7"/>
+      <c r="F742" s="7"/>
+      <c r="G742" s="3"/>
+      <c r="H742" s="3"/>
+      <c r="J742" s="5"/>
+      <c r="K742" s="5"/>
+      <c r="L742" s="3"/>
+    </row>
+    <row r="743" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E743" s="7"/>
+      <c r="F743" s="7"/>
+      <c r="G743" s="3"/>
+      <c r="H743" s="3"/>
+      <c r="J743" s="5"/>
+      <c r="K743" s="5"/>
+      <c r="L743" s="3"/>
+    </row>
+    <row r="744" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E744" s="7"/>
+      <c r="F744" s="7"/>
+      <c r="G744" s="3"/>
+      <c r="H744" s="3"/>
+      <c r="J744" s="5"/>
+      <c r="K744" s="5"/>
+      <c r="L744" s="3"/>
+    </row>
+    <row r="745" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E745" s="7"/>
+      <c r="F745" s="7"/>
+      <c r="G745" s="3"/>
+      <c r="H745" s="3"/>
+      <c r="J745" s="5"/>
+      <c r="K745" s="5"/>
+      <c r="L745" s="3"/>
+    </row>
+    <row r="746" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E746" s="7"/>
+      <c r="F746" s="7"/>
+      <c r="G746" s="3"/>
+      <c r="H746" s="3"/>
+      <c r="J746" s="5"/>
+      <c r="K746" s="5"/>
+      <c r="L746" s="3"/>
+    </row>
+    <row r="747" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E747" s="7"/>
+      <c r="F747" s="7"/>
+      <c r="G747" s="3"/>
+      <c r="H747" s="3"/>
+      <c r="J747" s="5"/>
+      <c r="K747" s="5"/>
+      <c r="L747" s="3"/>
+    </row>
+    <row r="748" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E748" s="7"/>
+      <c r="F748" s="7"/>
+      <c r="G748" s="3"/>
+      <c r="H748" s="3"/>
+      <c r="J748" s="5"/>
+      <c r="K748" s="5"/>
+      <c r="L748" s="3"/>
+    </row>
+    <row r="749" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E749" s="7"/>
+      <c r="F749" s="7"/>
+      <c r="G749" s="3"/>
+      <c r="H749" s="3"/>
+      <c r="J749" s="5"/>
+      <c r="K749" s="5"/>
+      <c r="L749" s="3"/>
+    </row>
+    <row r="750" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E750" s="7"/>
+      <c r="F750" s="7"/>
+      <c r="G750" s="3"/>
+      <c r="H750" s="3"/>
+      <c r="J750" s="5"/>
+      <c r="K750" s="5"/>
+      <c r="L750" s="3"/>
+    </row>
+    <row r="751" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E751" s="7"/>
+      <c r="F751" s="7"/>
+      <c r="G751" s="3"/>
+      <c r="H751" s="3"/>
+      <c r="J751" s="5"/>
+      <c r="K751" s="5"/>
+      <c r="L751" s="3"/>
+    </row>
+    <row r="752" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E752" s="7"/>
+      <c r="F752" s="7"/>
+      <c r="G752" s="3"/>
+      <c r="H752" s="3"/>
+      <c r="J752" s="5"/>
+      <c r="K752" s="5"/>
+      <c r="L752" s="3"/>
+    </row>
+    <row r="753" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E753" s="7"/>
+      <c r="F753" s="7"/>
+      <c r="G753" s="3"/>
+      <c r="H753" s="3"/>
+      <c r="J753" s="5"/>
+      <c r="K753" s="5"/>
+      <c r="L753" s="3"/>
+    </row>
+    <row r="754" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E754" s="7"/>
+      <c r="F754" s="7"/>
+      <c r="G754" s="3"/>
+      <c r="H754" s="3"/>
+      <c r="J754" s="5"/>
+      <c r="K754" s="5"/>
+      <c r="L754" s="3"/>
+    </row>
+    <row r="755" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E755" s="7"/>
+      <c r="F755" s="7"/>
+      <c r="G755" s="3"/>
+      <c r="H755" s="3"/>
+      <c r="J755" s="5"/>
+      <c r="K755" s="5"/>
+      <c r="L755" s="3"/>
+    </row>
+    <row r="756" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E756" s="7"/>
+      <c r="F756" s="7"/>
+      <c r="G756" s="3"/>
+      <c r="H756" s="3"/>
+      <c r="J756" s="5"/>
+      <c r="K756" s="5"/>
+      <c r="L756" s="3"/>
+    </row>
+    <row r="757" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E757" s="7"/>
+      <c r="F757" s="7"/>
+      <c r="G757" s="3"/>
+      <c r="H757" s="3"/>
+      <c r="J757" s="5"/>
+      <c r="K757" s="5"/>
+      <c r="L757" s="3"/>
+    </row>
+    <row r="758" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E758" s="7"/>
+      <c r="F758" s="7"/>
+      <c r="G758" s="3"/>
+      <c r="H758" s="3"/>
+      <c r="J758" s="5"/>
+      <c r="K758" s="5"/>
+      <c r="L758" s="3"/>
+    </row>
+    <row r="759" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E759" s="7"/>
+      <c r="F759" s="7"/>
+      <c r="G759" s="3"/>
+      <c r="H759" s="3"/>
+      <c r="J759" s="5"/>
+      <c r="K759" s="5"/>
+      <c r="L759" s="3"/>
+    </row>
+    <row r="760" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E760" s="7"/>
+      <c r="F760" s="7"/>
+      <c r="G760" s="3"/>
+      <c r="H760" s="3"/>
+      <c r="J760" s="5"/>
+      <c r="K760" s="5"/>
+      <c r="L760" s="3"/>
+    </row>
+    <row r="761" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E761" s="7"/>
+      <c r="F761" s="7"/>
+      <c r="G761" s="3"/>
+      <c r="H761" s="3"/>
+      <c r="J761" s="5"/>
+      <c r="K761" s="5"/>
+      <c r="L761" s="3"/>
+    </row>
+    <row r="762" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E762" s="7"/>
+      <c r="F762" s="7"/>
+      <c r="G762" s="3"/>
+      <c r="H762" s="3"/>
+      <c r="J762" s="5"/>
+      <c r="K762" s="5"/>
+      <c r="L762" s="3"/>
+    </row>
+    <row r="763" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E763" s="7"/>
+      <c r="F763" s="7"/>
+      <c r="G763" s="3"/>
+      <c r="H763" s="3"/>
+      <c r="J763" s="5"/>
+      <c r="K763" s="5"/>
+      <c r="L763" s="3"/>
+    </row>
+    <row r="764" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E764" s="7"/>
+      <c r="F764" s="7"/>
+      <c r="G764" s="3"/>
+      <c r="H764" s="3"/>
+      <c r="J764" s="5"/>
+      <c r="K764" s="5"/>
+      <c r="L764" s="3"/>
+    </row>
+    <row r="765" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E765" s="7"/>
+      <c r="F765" s="7"/>
+      <c r="G765" s="3"/>
+      <c r="H765" s="3"/>
+      <c r="J765" s="5"/>
+      <c r="K765" s="5"/>
+      <c r="L765" s="3"/>
+    </row>
+    <row r="766" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E766" s="7"/>
+      <c r="F766" s="7"/>
+      <c r="G766" s="3"/>
+      <c r="H766" s="3"/>
+      <c r="J766" s="5"/>
+      <c r="K766" s="5"/>
+      <c r="L766" s="3"/>
+    </row>
+    <row r="767" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E767" s="7"/>
+      <c r="F767" s="7"/>
+      <c r="G767" s="3"/>
+      <c r="H767" s="3"/>
+      <c r="J767" s="5"/>
+      <c r="K767" s="5"/>
+      <c r="L767" s="3"/>
+    </row>
+    <row r="768" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E768" s="7"/>
+      <c r="F768" s="7"/>
+      <c r="G768" s="3"/>
+      <c r="H768" s="3"/>
+      <c r="J768" s="5"/>
+      <c r="K768" s="5"/>
+      <c r="L768" s="3"/>
+    </row>
+    <row r="769" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E769" s="7"/>
+      <c r="F769" s="7"/>
+      <c r="G769" s="3"/>
+      <c r="H769" s="3"/>
+      <c r="J769" s="5"/>
+      <c r="K769" s="5"/>
+      <c r="L769" s="3"/>
+    </row>
+    <row r="770" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E770" s="7"/>
+      <c r="F770" s="7"/>
+      <c r="G770" s="3"/>
+      <c r="H770" s="3"/>
+      <c r="J770" s="5"/>
+      <c r="K770" s="5"/>
+      <c r="L770" s="3"/>
+    </row>
+    <row r="771" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E771" s="7"/>
+      <c r="F771" s="7"/>
+      <c r="G771" s="3"/>
+      <c r="H771" s="3"/>
+      <c r="J771" s="5"/>
+      <c r="K771" s="5"/>
+      <c r="L771" s="3"/>
+    </row>
+    <row r="772" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E772" s="7"/>
+      <c r="F772" s="7"/>
+      <c r="G772" s="3"/>
+      <c r="H772" s="3"/>
+      <c r="J772" s="5"/>
+      <c r="K772" s="5"/>
+      <c r="L772" s="3"/>
+    </row>
+    <row r="773" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E773" s="7"/>
+      <c r="F773" s="7"/>
+      <c r="G773" s="3"/>
+      <c r="H773" s="3"/>
+      <c r="J773" s="5"/>
+      <c r="K773" s="5"/>
+      <c r="L773" s="3"/>
+    </row>
+    <row r="774" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E774" s="7"/>
+      <c r="F774" s="7"/>
+      <c r="G774" s="3"/>
+      <c r="H774" s="3"/>
+      <c r="J774" s="5"/>
+      <c r="K774" s="5"/>
+      <c r="L774" s="3"/>
+    </row>
+    <row r="775" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E775" s="7"/>
+      <c r="F775" s="7"/>
+      <c r="G775" s="3"/>
+      <c r="H775" s="3"/>
+      <c r="J775" s="5"/>
+      <c r="K775" s="5"/>
+      <c r="L775" s="3"/>
+    </row>
+    <row r="776" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E776" s="7"/>
+      <c r="F776" s="7"/>
+      <c r="G776" s="3"/>
+      <c r="H776" s="3"/>
+      <c r="J776" s="5"/>
+      <c r="K776" s="5"/>
+      <c r="L776" s="3"/>
+    </row>
+    <row r="777" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E777" s="7"/>
+      <c r="F777" s="7"/>
+      <c r="G777" s="3"/>
+      <c r="H777" s="3"/>
+      <c r="J777" s="5"/>
+      <c r="K777" s="5"/>
+      <c r="L777" s="3"/>
+    </row>
+    <row r="778" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E778" s="7"/>
+      <c r="F778" s="7"/>
+      <c r="G778" s="3"/>
+      <c r="H778" s="3"/>
+      <c r="J778" s="5"/>
+      <c r="K778" s="5"/>
+      <c r="L778" s="3"/>
+    </row>
+    <row r="779" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E779" s="7"/>
+      <c r="F779" s="7"/>
+      <c r="G779" s="3"/>
+      <c r="H779" s="3"/>
+      <c r="J779" s="5"/>
+      <c r="K779" s="5"/>
+      <c r="L779" s="3"/>
+    </row>
+    <row r="780" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E780" s="7"/>
+      <c r="F780" s="7"/>
+      <c r="G780" s="3"/>
+      <c r="H780" s="3"/>
+      <c r="J780" s="5"/>
+      <c r="K780" s="5"/>
+      <c r="L780" s="3"/>
+    </row>
+    <row r="781" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E781" s="7"/>
+      <c r="F781" s="7"/>
+      <c r="G781" s="3"/>
+      <c r="H781" s="3"/>
+      <c r="J781" s="5"/>
+      <c r="K781" s="5"/>
+      <c r="L781" s="3"/>
+    </row>
+    <row r="782" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E782" s="7"/>
+      <c r="F782" s="7"/>
+      <c r="G782" s="3"/>
+      <c r="H782" s="3"/>
+      <c r="J782" s="5"/>
+      <c r="K782" s="5"/>
+      <c r="L782" s="3"/>
+    </row>
+    <row r="783" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E783" s="7"/>
+      <c r="F783" s="7"/>
+      <c r="G783" s="3"/>
+      <c r="H783" s="3"/>
+      <c r="J783" s="5"/>
+      <c r="K783" s="5"/>
+      <c r="L783" s="3"/>
+    </row>
+    <row r="784" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E784" s="7"/>
+      <c r="F784" s="7"/>
+      <c r="G784" s="3"/>
+      <c r="H784" s="3"/>
+      <c r="J784" s="5"/>
+      <c r="K784" s="5"/>
+      <c r="L784" s="3"/>
+    </row>
+    <row r="785" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E785" s="7"/>
+      <c r="F785" s="7"/>
+      <c r="G785" s="3"/>
+      <c r="H785" s="3"/>
+      <c r="J785" s="5"/>
+      <c r="K785" s="5"/>
+      <c r="L785" s="3"/>
+    </row>
+    <row r="786" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E786" s="7"/>
+      <c r="F786" s="7"/>
+      <c r="G786" s="3"/>
+      <c r="H786" s="3"/>
+      <c r="J786" s="5"/>
+      <c r="K786" s="5"/>
+      <c r="L786" s="3"/>
+    </row>
+    <row r="787" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E787" s="7"/>
+      <c r="F787" s="7"/>
+      <c r="G787" s="3"/>
+      <c r="H787" s="3"/>
+      <c r="J787" s="5"/>
+      <c r="K787" s="5"/>
+      <c r="L787" s="3"/>
+    </row>
+    <row r="788" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E788" s="7"/>
+      <c r="F788" s="7"/>
+      <c r="G788" s="3"/>
+      <c r="H788" s="3"/>
+      <c r="J788" s="5"/>
+      <c r="K788" s="5"/>
+      <c r="L788" s="3"/>
+    </row>
+    <row r="789" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E789" s="7"/>
+      <c r="F789" s="7"/>
+      <c r="G789" s="3"/>
+      <c r="H789" s="3"/>
+      <c r="J789" s="5"/>
+      <c r="K789" s="5"/>
+      <c r="L789" s="3"/>
+    </row>
+    <row r="790" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E790" s="7"/>
+      <c r="F790" s="7"/>
+      <c r="G790" s="3"/>
+      <c r="H790" s="3"/>
+      <c r="J790" s="5"/>
+      <c r="K790" s="5"/>
+      <c r="L790" s="3"/>
+    </row>
+    <row r="791" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E791" s="7"/>
+      <c r="F791" s="7"/>
+      <c r="G791" s="3"/>
+      <c r="H791" s="3"/>
+      <c r="J791" s="5"/>
+      <c r="K791" s="5"/>
+      <c r="L791" s="3"/>
+    </row>
+    <row r="792" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E792" s="7"/>
+      <c r="F792" s="7"/>
+      <c r="G792" s="3"/>
+      <c r="H792" s="3"/>
+      <c r="J792" s="5"/>
+      <c r="K792" s="5"/>
+      <c r="L792" s="3"/>
+    </row>
+    <row r="793" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E793" s="7"/>
+      <c r="F793" s="7"/>
+      <c r="G793" s="3"/>
+      <c r="H793" s="3"/>
+      <c r="J793" s="5"/>
+      <c r="K793" s="5"/>
+      <c r="L793" s="3"/>
+    </row>
+    <row r="794" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E794" s="7"/>
+      <c r="F794" s="7"/>
+      <c r="G794" s="3"/>
+      <c r="H794" s="3"/>
+      <c r="J794" s="5"/>
+      <c r="K794" s="5"/>
+      <c r="L794" s="3"/>
+    </row>
+    <row r="795" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E795" s="7"/>
+      <c r="F795" s="7"/>
+      <c r="G795" s="3"/>
+      <c r="H795" s="3"/>
+      <c r="J795" s="5"/>
+      <c r="K795" s="5"/>
+      <c r="L795" s="3"/>
+    </row>
+    <row r="796" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E796" s="7"/>
+      <c r="F796" s="7"/>
+      <c r="G796" s="3"/>
+      <c r="H796" s="3"/>
+      <c r="J796" s="5"/>
+      <c r="K796" s="5"/>
+      <c r="L796" s="3"/>
+    </row>
+    <row r="797" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E797" s="7"/>
+      <c r="F797" s="7"/>
+      <c r="G797" s="3"/>
+      <c r="H797" s="3"/>
+      <c r="J797" s="5"/>
+      <c r="K797" s="5"/>
+      <c r="L797" s="3"/>
+    </row>
+    <row r="798" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E798" s="7"/>
+      <c r="F798" s="7"/>
+      <c r="G798" s="3"/>
+      <c r="H798" s="3"/>
+      <c r="J798" s="5"/>
+      <c r="K798" s="5"/>
+      <c r="L798" s="3"/>
+    </row>
+    <row r="799" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E799" s="7"/>
+      <c r="F799" s="7"/>
+      <c r="G799" s="3"/>
+      <c r="H799" s="3"/>
+      <c r="J799" s="5"/>
+      <c r="K799" s="5"/>
+      <c r="L799" s="3"/>
+    </row>
+    <row r="800" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E800" s="7"/>
+      <c r="F800" s="7"/>
+      <c r="G800" s="3"/>
+      <c r="H800" s="3"/>
+      <c r="J800" s="5"/>
+      <c r="K800" s="5"/>
+      <c r="L800" s="3"/>
+    </row>
+    <row r="801" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E801" s="7"/>
+      <c r="F801" s="7"/>
+      <c r="G801" s="3"/>
+      <c r="H801" s="3"/>
+      <c r="J801" s="5"/>
+      <c r="K801" s="5"/>
+      <c r="L801" s="3"/>
+    </row>
+    <row r="802" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E802" s="7"/>
+      <c r="F802" s="7"/>
+      <c r="G802" s="3"/>
+      <c r="H802" s="3"/>
+      <c r="J802" s="5"/>
+      <c r="K802" s="5"/>
+      <c r="L802" s="3"/>
+    </row>
+    <row r="803" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E803" s="7"/>
+      <c r="F803" s="7"/>
+      <c r="G803" s="3"/>
+      <c r="H803" s="3"/>
+      <c r="J803" s="5"/>
+      <c r="K803" s="5"/>
+      <c r="L803" s="3"/>
+    </row>
+    <row r="804" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E804" s="7"/>
+      <c r="F804" s="7"/>
+      <c r="G804" s="3"/>
+      <c r="H804" s="3"/>
+      <c r="J804" s="5"/>
+      <c r="K804" s="5"/>
+      <c r="L804" s="3"/>
+    </row>
+    <row r="805" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E805" s="7"/>
+      <c r="F805" s="7"/>
+      <c r="G805" s="3"/>
+      <c r="H805" s="3"/>
+      <c r="J805" s="5"/>
+      <c r="K805" s="5"/>
+      <c r="L805" s="3"/>
+    </row>
+    <row r="806" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E806" s="7"/>
+      <c r="F806" s="7"/>
+      <c r="G806" s="3"/>
+      <c r="H806" s="3"/>
+      <c r="J806" s="5"/>
+      <c r="K806" s="5"/>
+      <c r="L806" s="3"/>
+    </row>
+    <row r="807" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E807" s="7"/>
+      <c r="F807" s="7"/>
+      <c r="G807" s="3"/>
+      <c r="H807" s="3"/>
+      <c r="J807" s="5"/>
+      <c r="K807" s="5"/>
+      <c r="L807" s="3"/>
+    </row>
+    <row r="808" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E808" s="7"/>
+      <c r="F808" s="7"/>
+      <c r="G808" s="3"/>
+      <c r="H808" s="3"/>
+      <c r="J808" s="5"/>
+      <c r="K808" s="5"/>
+      <c r="L808" s="3"/>
+    </row>
+    <row r="809" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E809" s="7"/>
+      <c r="F809" s="7"/>
+      <c r="G809" s="3"/>
+      <c r="H809" s="3"/>
+      <c r="J809" s="5"/>
+      <c r="K809" s="5"/>
+      <c r="L809" s="3"/>
+    </row>
+    <row r="810" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E810" s="7"/>
+      <c r="F810" s="7"/>
+      <c r="G810" s="3"/>
+      <c r="H810" s="3"/>
+      <c r="J810" s="5"/>
+      <c r="K810" s="5"/>
+      <c r="L810" s="3"/>
+    </row>
+    <row r="811" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E811" s="7"/>
+      <c r="F811" s="7"/>
+      <c r="G811" s="3"/>
+      <c r="H811" s="3"/>
+      <c r="J811" s="5"/>
+      <c r="K811" s="5"/>
+      <c r="L811" s="3"/>
+    </row>
+    <row r="812" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E812" s="7"/>
+      <c r="F812" s="7"/>
+      <c r="G812" s="3"/>
+      <c r="H812" s="3"/>
+      <c r="J812" s="5"/>
+      <c r="K812" s="5"/>
+      <c r="L812" s="3"/>
+    </row>
+    <row r="813" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E813" s="7"/>
+      <c r="F813" s="7"/>
+      <c r="G813" s="3"/>
+      <c r="H813" s="3"/>
+      <c r="J813" s="5"/>
+      <c r="K813" s="5"/>
+      <c r="L813" s="3"/>
+    </row>
+    <row r="814" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E814" s="7"/>
+      <c r="F814" s="7"/>
+      <c r="G814" s="3"/>
+      <c r="H814" s="3"/>
+      <c r="J814" s="5"/>
+      <c r="K814" s="5"/>
+      <c r="L814" s="3"/>
+    </row>
+    <row r="815" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E815" s="7"/>
+      <c r="F815" s="7"/>
+      <c r="G815" s="3"/>
+      <c r="H815" s="3"/>
+      <c r="J815" s="5"/>
+      <c r="K815" s="5"/>
+      <c r="L815" s="3"/>
+    </row>
+    <row r="816" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E816" s="7"/>
+      <c r="F816" s="7"/>
+      <c r="G816" s="3"/>
+      <c r="H816" s="3"/>
+      <c r="J816" s="5"/>
+      <c r="K816" s="5"/>
+      <c r="L816" s="3"/>
+    </row>
+    <row r="817" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E817" s="7"/>
+      <c r="F817" s="7"/>
+      <c r="G817" s="3"/>
+      <c r="H817" s="3"/>
+      <c r="J817" s="5"/>
+      <c r="K817" s="5"/>
+      <c r="L817" s="3"/>
+    </row>
+    <row r="818" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E818" s="7"/>
+      <c r="F818" s="7"/>
+      <c r="G818" s="3"/>
+      <c r="H818" s="3"/>
+      <c r="J818" s="5"/>
+      <c r="K818" s="5"/>
+      <c r="L818" s="3"/>
+    </row>
+    <row r="819" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E819" s="7"/>
+      <c r="F819" s="7"/>
+      <c r="G819" s="3"/>
+      <c r="H819" s="3"/>
+      <c r="J819" s="5"/>
+      <c r="K819" s="5"/>
+      <c r="L819" s="3"/>
+    </row>
+    <row r="820" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E820" s="7"/>
+      <c r="F820" s="7"/>
+      <c r="G820" s="3"/>
+      <c r="H820" s="3"/>
+      <c r="J820" s="5"/>
+      <c r="K820" s="5"/>
+      <c r="L820" s="3"/>
+    </row>
+    <row r="821" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E821" s="7"/>
+      <c r="F821" s="7"/>
+      <c r="G821" s="3"/>
+      <c r="H821" s="3"/>
+      <c r="J821" s="5"/>
+      <c r="K821" s="5"/>
+      <c r="L821" s="3"/>
+    </row>
+    <row r="822" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E822" s="7"/>
+      <c r="F822" s="7"/>
+      <c r="G822" s="3"/>
+      <c r="H822" s="3"/>
+      <c r="J822" s="5"/>
+      <c r="K822" s="5"/>
+      <c r="L822" s="3"/>
+    </row>
+    <row r="823" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E823" s="7"/>
+      <c r="F823" s="7"/>
+      <c r="G823" s="3"/>
+      <c r="H823" s="3"/>
+      <c r="J823" s="5"/>
+      <c r="K823" s="5"/>
+      <c r="L823" s="3"/>
+    </row>
+    <row r="824" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E824" s="7"/>
+      <c r="F824" s="7"/>
+      <c r="G824" s="3"/>
+      <c r="H824" s="3"/>
+      <c r="J824" s="5"/>
+      <c r="K824" s="5"/>
+      <c r="L824" s="3"/>
+    </row>
+    <row r="825" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E825" s="7"/>
+      <c r="F825" s="7"/>
+      <c r="G825" s="3"/>
+      <c r="H825" s="3"/>
+      <c r="J825" s="5"/>
+      <c r="K825" s="5"/>
+      <c r="L825" s="3"/>
+    </row>
+    <row r="826" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E826" s="7"/>
+      <c r="F826" s="7"/>
+      <c r="G826" s="3"/>
+      <c r="H826" s="3"/>
+      <c r="J826" s="5"/>
+      <c r="K826" s="5"/>
+      <c r="L826" s="3"/>
+    </row>
+    <row r="827" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E827" s="7"/>
+      <c r="F827" s="7"/>
+      <c r="G827" s="3"/>
+      <c r="H827" s="3"/>
+      <c r="J827" s="5"/>
+      <c r="K827" s="5"/>
+      <c r="L827" s="3"/>
+    </row>
+    <row r="828" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E828" s="7"/>
+      <c r="F828" s="7"/>
+      <c r="G828" s="3"/>
+      <c r="H828" s="3"/>
+      <c r="J828" s="5"/>
+      <c r="K828" s="5"/>
+      <c r="L828" s="3"/>
+    </row>
+    <row r="829" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E829" s="7"/>
+      <c r="F829" s="7"/>
+      <c r="G829" s="3"/>
+      <c r="H829" s="3"/>
+      <c r="J829" s="5"/>
+      <c r="K829" s="5"/>
+      <c r="L829" s="3"/>
+    </row>
+    <row r="830" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E830" s="7"/>
+      <c r="F830" s="7"/>
+      <c r="G830" s="3"/>
+      <c r="H830" s="3"/>
+      <c r="J830" s="5"/>
+      <c r="K830" s="5"/>
+      <c r="L830" s="3"/>
+    </row>
+    <row r="831" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E831" s="7"/>
+      <c r="F831" s="7"/>
+      <c r="G831" s="3"/>
+      <c r="H831" s="3"/>
+      <c r="J831" s="5"/>
+      <c r="K831" s="5"/>
+      <c r="L831" s="3"/>
+    </row>
+    <row r="832" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E832" s="7"/>
+      <c r="F832" s="7"/>
+      <c r="G832" s="3"/>
+      <c r="H832" s="3"/>
+      <c r="J832" s="5"/>
+      <c r="K832" s="5"/>
+      <c r="L832" s="3"/>
+    </row>
+    <row r="833" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E833" s="7"/>
+      <c r="F833" s="7"/>
+      <c r="G833" s="3"/>
+      <c r="H833" s="3"/>
+      <c r="J833" s="5"/>
+      <c r="K833" s="5"/>
+      <c r="L833" s="3"/>
+    </row>
+    <row r="834" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E834" s="7"/>
+      <c r="F834" s="7"/>
+      <c r="G834" s="3"/>
+      <c r="H834" s="3"/>
+      <c r="J834" s="5"/>
+      <c r="K834" s="5"/>
+      <c r="L834" s="3"/>
+    </row>
+    <row r="835" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E835" s="7"/>
+      <c r="F835" s="7"/>
+      <c r="G835" s="3"/>
+      <c r="H835" s="3"/>
+      <c r="J835" s="5"/>
+      <c r="K835" s="5"/>
+      <c r="L835" s="3"/>
+    </row>
+    <row r="836" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E836" s="7"/>
+      <c r="F836" s="7"/>
+      <c r="G836" s="3"/>
+      <c r="H836" s="3"/>
+      <c r="J836" s="5"/>
+      <c r="K836" s="5"/>
+      <c r="L836" s="3"/>
+    </row>
+    <row r="837" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E837" s="7"/>
+      <c r="F837" s="7"/>
+      <c r="G837" s="3"/>
+      <c r="H837" s="3"/>
+      <c r="J837" s="5"/>
+      <c r="K837" s="5"/>
+      <c r="L837" s="3"/>
+    </row>
+    <row r="838" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E838" s="7"/>
+      <c r="F838" s="7"/>
+      <c r="G838" s="3"/>
+      <c r="H838" s="3"/>
+      <c r="J838" s="5"/>
+      <c r="K838" s="5"/>
+      <c r="L838" s="3"/>
+    </row>
+    <row r="839" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E839" s="7"/>
+      <c r="F839" s="7"/>
+      <c r="G839" s="3"/>
+      <c r="H839" s="3"/>
+      <c r="J839" s="5"/>
+      <c r="K839" s="5"/>
+      <c r="L839" s="3"/>
+    </row>
+    <row r="840" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E840" s="7"/>
+      <c r="F840" s="7"/>
+      <c r="G840" s="3"/>
+      <c r="H840" s="3"/>
+      <c r="J840" s="5"/>
+      <c r="K840" s="5"/>
+      <c r="L840" s="3"/>
+    </row>
+    <row r="841" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E841" s="7"/>
+      <c r="F841" s="7"/>
+      <c r="G841" s="3"/>
+      <c r="H841" s="3"/>
+      <c r="J841" s="5"/>
+      <c r="K841" s="5"/>
+      <c r="L841" s="3"/>
+    </row>
+    <row r="842" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E842" s="7"/>
+      <c r="F842" s="7"/>
+      <c r="G842" s="3"/>
+      <c r="H842" s="3"/>
+      <c r="J842" s="5"/>
+      <c r="K842" s="5"/>
+      <c r="L842" s="3"/>
+    </row>
+    <row r="843" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E843" s="7"/>
+      <c r="F843" s="7"/>
+      <c r="G843" s="3"/>
+      <c r="H843" s="3"/>
+      <c r="J843" s="5"/>
+      <c r="K843" s="5"/>
+      <c r="L843" s="3"/>
+    </row>
+    <row r="844" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E844" s="7"/>
+      <c r="F844" s="7"/>
+      <c r="G844" s="3"/>
+      <c r="H844" s="3"/>
+      <c r="J844" s="5"/>
+      <c r="K844" s="5"/>
+      <c r="L844" s="3"/>
+    </row>
+    <row r="845" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E845" s="7"/>
+      <c r="F845" s="7"/>
+      <c r="G845" s="3"/>
+      <c r="H845" s="3"/>
+      <c r="J845" s="5"/>
+      <c r="K845" s="5"/>
+      <c r="L845" s="3"/>
+    </row>
+    <row r="846" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E846" s="7"/>
+      <c r="F846" s="7"/>
+      <c r="G846" s="3"/>
+      <c r="H846" s="3"/>
+      <c r="J846" s="5"/>
+      <c r="K846" s="5"/>
+      <c r="L846" s="3"/>
+    </row>
+    <row r="847" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E847" s="7"/>
+      <c r="F847" s="7"/>
+      <c r="G847" s="3"/>
+      <c r="H847" s="3"/>
+      <c r="J847" s="5"/>
+      <c r="K847" s="5"/>
+      <c r="L847" s="3"/>
+    </row>
+    <row r="848" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E848" s="7"/>
+      <c r="F848" s="7"/>
+      <c r="G848" s="3"/>
+      <c r="H848" s="3"/>
+      <c r="J848" s="5"/>
+      <c r="K848" s="5"/>
+      <c r="L848" s="3"/>
+    </row>
+    <row r="849" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E849" s="7"/>
+      <c r="F849" s="7"/>
+      <c r="G849" s="3"/>
+      <c r="H849" s="3"/>
+      <c r="J849" s="5"/>
+      <c r="K849" s="5"/>
+      <c r="L849" s="3"/>
+    </row>
+    <row r="850" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E850" s="7"/>
+      <c r="F850" s="7"/>
+      <c r="G850" s="3"/>
+      <c r="H850" s="3"/>
+      <c r="J850" s="5"/>
+      <c r="K850" s="5"/>
+      <c r="L850" s="3"/>
+    </row>
+    <row r="851" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E851" s="7"/>
+      <c r="F851" s="7"/>
+      <c r="G851" s="3"/>
+      <c r="H851" s="3"/>
+      <c r="J851" s="5"/>
+      <c r="K851" s="5"/>
+      <c r="L851" s="3"/>
+    </row>
+    <row r="852" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E852" s="7"/>
+      <c r="F852" s="7"/>
+      <c r="G852" s="3"/>
+      <c r="H852" s="3"/>
+      <c r="J852" s="5"/>
+      <c r="K852" s="5"/>
+      <c r="L852" s="3"/>
+    </row>
+    <row r="853" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E853" s="7"/>
+      <c r="F853" s="7"/>
+      <c r="G853" s="3"/>
+      <c r="H853" s="3"/>
+      <c r="J853" s="5"/>
+      <c r="K853" s="5"/>
+      <c r="L853" s="3"/>
+    </row>
+    <row r="854" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E854" s="7"/>
+      <c r="F854" s="7"/>
+      <c r="G854" s="3"/>
+      <c r="H854" s="3"/>
+      <c r="J854" s="5"/>
+      <c r="K854" s="5"/>
+      <c r="L854" s="3"/>
+    </row>
+    <row r="855" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E855" s="7"/>
+      <c r="F855" s="7"/>
+      <c r="G855" s="3"/>
+      <c r="H855" s="3"/>
+      <c r="J855" s="5"/>
+      <c r="K855" s="5"/>
+      <c r="L855" s="3"/>
+    </row>
+    <row r="856" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E856" s="7"/>
+      <c r="F856" s="7"/>
+      <c r="G856" s="3"/>
+      <c r="H856" s="3"/>
+      <c r="J856" s="5"/>
+      <c r="K856" s="5"/>
+      <c r="L856" s="3"/>
+    </row>
+    <row r="857" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E857" s="7"/>
+      <c r="F857" s="7"/>
+      <c r="G857" s="3"/>
+      <c r="H857" s="3"/>
+      <c r="J857" s="5"/>
+      <c r="K857" s="5"/>
+      <c r="L857" s="3"/>
+    </row>
+    <row r="858" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E858" s="7"/>
+      <c r="F858" s="7"/>
+      <c r="G858" s="3"/>
+      <c r="H858" s="3"/>
+      <c r="J858" s="5"/>
+      <c r="K858" s="5"/>
+      <c r="L858" s="3"/>
+    </row>
+    <row r="859" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E859" s="7"/>
+      <c r="F859" s="7"/>
+      <c r="G859" s="3"/>
+      <c r="H859" s="3"/>
+      <c r="J859" s="5"/>
+      <c r="K859" s="5"/>
+      <c r="L859" s="3"/>
+    </row>
+    <row r="860" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E860" s="7"/>
+      <c r="F860" s="7"/>
+      <c r="G860" s="3"/>
+      <c r="H860" s="3"/>
+      <c r="J860" s="5"/>
+      <c r="K860" s="5"/>
+      <c r="L860" s="3"/>
+    </row>
+    <row r="861" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E861" s="7"/>
+      <c r="F861" s="7"/>
+      <c r="G861" s="3"/>
+      <c r="H861" s="3"/>
+      <c r="J861" s="5"/>
+      <c r="K861" s="5"/>
+      <c r="L861" s="3"/>
+    </row>
+    <row r="862" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E862" s="7"/>
+      <c r="F862" s="7"/>
+      <c r="G862" s="3"/>
+      <c r="H862" s="3"/>
+      <c r="J862" s="5"/>
+      <c r="K862" s="5"/>
+      <c r="L862" s="3"/>
+    </row>
+    <row r="863" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E863" s="7"/>
+      <c r="F863" s="7"/>
+      <c r="G863" s="3"/>
+      <c r="H863" s="3"/>
+      <c r="J863" s="5"/>
+      <c r="K863" s="5"/>
+      <c r="L863" s="3"/>
+    </row>
+    <row r="864" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E864" s="7"/>
+      <c r="F864" s="7"/>
+      <c r="G864" s="3"/>
+      <c r="H864" s="3"/>
+      <c r="J864" s="5"/>
+      <c r="K864" s="5"/>
+      <c r="L864" s="3"/>
+    </row>
+    <row r="865" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E865" s="7"/>
+      <c r="F865" s="7"/>
+      <c r="G865" s="3"/>
+      <c r="H865" s="3"/>
+      <c r="J865" s="5"/>
+      <c r="K865" s="5"/>
+      <c r="L865" s="3"/>
+    </row>
+    <row r="866" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E866" s="7"/>
+      <c r="F866" s="7"/>
+      <c r="G866" s="3"/>
+      <c r="H866" s="3"/>
+      <c r="J866" s="5"/>
+      <c r="K866" s="5"/>
+      <c r="L866" s="3"/>
+    </row>
+    <row r="867" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E867" s="7"/>
+      <c r="F867" s="7"/>
+      <c r="G867" s="3"/>
+      <c r="H867" s="3"/>
+      <c r="J867" s="5"/>
+      <c r="K867" s="5"/>
+      <c r="L867" s="3"/>
+    </row>
+    <row r="868" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E868" s="7"/>
+      <c r="F868" s="7"/>
+      <c r="G868" s="3"/>
+      <c r="H868" s="3"/>
+      <c r="J868" s="5"/>
+      <c r="K868" s="5"/>
+      <c r="L868" s="3"/>
+    </row>
+    <row r="869" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E869" s="7"/>
+      <c r="F869" s="7"/>
+      <c r="G869" s="3"/>
+      <c r="H869" s="3"/>
+      <c r="J869" s="5"/>
+      <c r="K869" s="5"/>
+      <c r="L869" s="3"/>
+    </row>
+    <row r="870" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E870" s="7"/>
+      <c r="F870" s="7"/>
+      <c r="G870" s="3"/>
+      <c r="H870" s="3"/>
+      <c r="J870" s="5"/>
+      <c r="K870" s="5"/>
+      <c r="L870" s="3"/>
+    </row>
+    <row r="871" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E871" s="7"/>
+      <c r="F871" s="7"/>
+      <c r="G871" s="3"/>
+      <c r="H871" s="3"/>
+      <c r="J871" s="5"/>
+      <c r="K871" s="5"/>
+      <c r="L871" s="3"/>
+    </row>
+    <row r="872" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E872" s="7"/>
+      <c r="F872" s="7"/>
+      <c r="G872" s="3"/>
+      <c r="H872" s="3"/>
+      <c r="J872" s="5"/>
+      <c r="K872" s="5"/>
+      <c r="L872" s="3"/>
+    </row>
+    <row r="873" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E873" s="7"/>
+      <c r="F873" s="7"/>
+      <c r="G873" s="3"/>
+      <c r="H873" s="3"/>
+      <c r="J873" s="5"/>
+      <c r="K873" s="5"/>
+      <c r="L873" s="3"/>
+    </row>
+    <row r="874" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E874" s="7"/>
+      <c r="F874" s="7"/>
+      <c r="G874" s="3"/>
+      <c r="H874" s="3"/>
+      <c r="J874" s="5"/>
+      <c r="K874" s="5"/>
+      <c r="L874" s="3"/>
+    </row>
+    <row r="875" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E875" s="7"/>
+      <c r="F875" s="7"/>
+      <c r="G875" s="3"/>
+      <c r="H875" s="3"/>
+      <c r="J875" s="5"/>
+      <c r="K875" s="5"/>
+      <c r="L875" s="3"/>
+    </row>
+    <row r="876" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E876" s="7"/>
+      <c r="F876" s="7"/>
+      <c r="G876" s="3"/>
+      <c r="H876" s="3"/>
+      <c r="J876" s="5"/>
+      <c r="K876" s="5"/>
+      <c r="L876" s="3"/>
+    </row>
+    <row r="877" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E877" s="7"/>
+      <c r="F877" s="7"/>
+      <c r="G877" s="3"/>
+      <c r="H877" s="3"/>
+      <c r="J877" s="5"/>
+      <c r="K877" s="5"/>
+      <c r="L877" s="3"/>
+    </row>
+    <row r="878" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E878" s="7"/>
+      <c r="F878" s="7"/>
+      <c r="G878" s="3"/>
+      <c r="H878" s="3"/>
+      <c r="J878" s="5"/>
+      <c r="K878" s="5"/>
+      <c r="L878" s="3"/>
+    </row>
+    <row r="879" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E879" s="7"/>
+      <c r="F879" s="7"/>
+      <c r="G879" s="3"/>
+      <c r="H879" s="3"/>
+      <c r="J879" s="5"/>
+      <c r="K879" s="5"/>
+      <c r="L879" s="3"/>
+    </row>
+    <row r="880" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E880" s="7"/>
+      <c r="F880" s="7"/>
+      <c r="G880" s="3"/>
+      <c r="H880" s="3"/>
+      <c r="J880" s="5"/>
+      <c r="K880" s="5"/>
+      <c r="L880" s="3"/>
+    </row>
+    <row r="881" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E881" s="7"/>
+      <c r="F881" s="7"/>
+      <c r="G881" s="3"/>
+      <c r="H881" s="3"/>
+      <c r="J881" s="5"/>
+      <c r="K881" s="5"/>
+      <c r="L881" s="3"/>
+    </row>
+    <row r="882" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E882" s="7"/>
+      <c r="F882" s="7"/>
+      <c r="G882" s="3"/>
+      <c r="H882" s="3"/>
+      <c r="J882" s="5"/>
+      <c r="K882" s="5"/>
+      <c r="L882" s="3"/>
+    </row>
+    <row r="883" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E883" s="7"/>
+      <c r="F883" s="7"/>
+      <c r="G883" s="3"/>
+      <c r="H883" s="3"/>
+      <c r="J883" s="5"/>
+      <c r="K883" s="5"/>
+      <c r="L883" s="3"/>
+    </row>
+    <row r="884" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E884" s="7"/>
+      <c r="F884" s="7"/>
+      <c r="G884" s="3"/>
+      <c r="H884" s="3"/>
+      <c r="J884" s="5"/>
+      <c r="K884" s="5"/>
+      <c r="L884" s="3"/>
+    </row>
+    <row r="885" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E885" s="7"/>
+      <c r="F885" s="7"/>
+      <c r="G885" s="3"/>
+      <c r="H885" s="3"/>
+      <c r="J885" s="5"/>
+      <c r="K885" s="5"/>
+      <c r="L885" s="3"/>
+    </row>
+    <row r="886" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E886" s="7"/>
+      <c r="F886" s="7"/>
+      <c r="G886" s="3"/>
+      <c r="H886" s="3"/>
+      <c r="J886" s="5"/>
+      <c r="K886" s="5"/>
+      <c r="L886" s="3"/>
+    </row>
+    <row r="887" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E887" s="7"/>
+      <c r="F887" s="7"/>
+      <c r="G887" s="3"/>
+      <c r="H887" s="3"/>
+      <c r="J887" s="5"/>
+      <c r="K887" s="5"/>
+      <c r="L887" s="3"/>
+    </row>
+    <row r="888" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E888" s="7"/>
+      <c r="F888" s="7"/>
+      <c r="G888" s="3"/>
+      <c r="H888" s="3"/>
+      <c r="J888" s="5"/>
+      <c r="K888" s="5"/>
+      <c r="L888" s="3"/>
+    </row>
+    <row r="889" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E889" s="7"/>
+      <c r="F889" s="7"/>
+      <c r="G889" s="3"/>
+      <c r="H889" s="3"/>
+      <c r="J889" s="5"/>
+      <c r="K889" s="5"/>
+      <c r="L889" s="3"/>
+    </row>
+    <row r="890" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E890" s="7"/>
+      <c r="F890" s="7"/>
+      <c r="G890" s="3"/>
+      <c r="H890" s="3"/>
+      <c r="J890" s="5"/>
+      <c r="K890" s="5"/>
+      <c r="L890" s="3"/>
+    </row>
+    <row r="891" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E891" s="7"/>
+      <c r="F891" s="7"/>
+      <c r="G891" s="3"/>
+      <c r="H891" s="3"/>
+      <c r="J891" s="5"/>
+      <c r="K891" s="5"/>
+      <c r="L891" s="3"/>
+    </row>
+    <row r="892" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E892" s="7"/>
+      <c r="F892" s="7"/>
+      <c r="G892" s="3"/>
+      <c r="H892" s="3"/>
+      <c r="J892" s="5"/>
+      <c r="K892" s="5"/>
+      <c r="L892" s="3"/>
+    </row>
+    <row r="893" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E893" s="7"/>
+      <c r="F893" s="7"/>
+      <c r="G893" s="3"/>
+      <c r="H893" s="3"/>
+      <c r="J893" s="5"/>
+      <c r="K893" s="5"/>
+      <c r="L893" s="3"/>
+    </row>
+    <row r="894" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E894" s="7"/>
+      <c r="F894" s="7"/>
+      <c r="G894" s="3"/>
+      <c r="H894" s="3"/>
+      <c r="J894" s="5"/>
+      <c r="K894" s="5"/>
+      <c r="L894" s="3"/>
+    </row>
+    <row r="895" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E895" s="7"/>
+      <c r="F895" s="7"/>
+      <c r="G895" s="3"/>
+      <c r="H895" s="3"/>
+      <c r="J895" s="5"/>
+      <c r="K895" s="5"/>
+      <c r="L895" s="3"/>
+    </row>
+    <row r="896" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E896" s="7"/>
+      <c r="F896" s="7"/>
+      <c r="G896" s="3"/>
+      <c r="H896" s="3"/>
+      <c r="J896" s="5"/>
+      <c r="K896" s="5"/>
+      <c r="L896" s="3"/>
+    </row>
+    <row r="897" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E897" s="7"/>
+      <c r="F897" s="7"/>
+      <c r="G897" s="3"/>
+      <c r="H897" s="3"/>
+      <c r="J897" s="5"/>
+      <c r="K897" s="5"/>
+      <c r="L897" s="3"/>
+    </row>
+    <row r="898" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E898" s="7"/>
+      <c r="F898" s="7"/>
+      <c r="G898" s="3"/>
+      <c r="H898" s="3"/>
+      <c r="J898" s="5"/>
+      <c r="K898" s="5"/>
+      <c r="L898" s="3"/>
+    </row>
+    <row r="899" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E899" s="7"/>
+      <c r="F899" s="7"/>
+      <c r="G899" s="3"/>
+      <c r="H899" s="3"/>
+      <c r="J899" s="5"/>
+      <c r="K899" s="5"/>
+      <c r="L899" s="3"/>
+    </row>
+    <row r="900" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E900" s="7"/>
+      <c r="F900" s="7"/>
+      <c r="G900" s="3"/>
+      <c r="H900" s="3"/>
+      <c r="J900" s="5"/>
+      <c r="K900" s="5"/>
+      <c r="L900" s="3"/>
+    </row>
+    <row r="901" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E901" s="7"/>
+      <c r="F901" s="7"/>
+      <c r="G901" s="3"/>
+      <c r="H901" s="3"/>
+      <c r="J901" s="5"/>
+      <c r="K901" s="5"/>
+      <c r="L901" s="3"/>
+    </row>
+    <row r="902" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E902" s="7"/>
+      <c r="F902" s="7"/>
+      <c r="G902" s="3"/>
+      <c r="H902" s="3"/>
+      <c r="J902" s="5"/>
+      <c r="K902" s="5"/>
+      <c r="L902" s="3"/>
+    </row>
+    <row r="903" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E903" s="7"/>
+      <c r="F903" s="7"/>
+      <c r="G903" s="3"/>
+      <c r="H903" s="3"/>
+      <c r="J903" s="5"/>
+      <c r="K903" s="5"/>
+      <c r="L903" s="3"/>
+    </row>
+    <row r="904" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E904" s="7"/>
+      <c r="F904" s="7"/>
+      <c r="G904" s="3"/>
+      <c r="H904" s="3"/>
+      <c r="J904" s="5"/>
+      <c r="K904" s="5"/>
+      <c r="L904" s="3"/>
+    </row>
+    <row r="905" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E905" s="7"/>
+      <c r="F905" s="7"/>
+      <c r="G905" s="3"/>
+      <c r="H905" s="3"/>
+      <c r="J905" s="5"/>
+      <c r="K905" s="5"/>
+      <c r="L905" s="3"/>
+    </row>
+    <row r="906" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E906" s="7"/>
+      <c r="F906" s="7"/>
+      <c r="G906" s="3"/>
+      <c r="H906" s="3"/>
+      <c r="J906" s="5"/>
+      <c r="K906" s="5"/>
+      <c r="L906" s="3"/>
+    </row>
+    <row r="907" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E907" s="7"/>
+      <c r="F907" s="7"/>
+      <c r="G907" s="3"/>
+      <c r="H907" s="3"/>
+      <c r="J907" s="5"/>
+      <c r="K907" s="5"/>
+      <c r="L907" s="3"/>
+    </row>
+    <row r="908" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E908" s="7"/>
+      <c r="F908" s="7"/>
+      <c r="G908" s="3"/>
+      <c r="H908" s="3"/>
+      <c r="J908" s="5"/>
+      <c r="K908" s="5"/>
+      <c r="L908" s="3"/>
+    </row>
+    <row r="909" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E909" s="7"/>
+      <c r="F909" s="7"/>
+      <c r="G909" s="3"/>
+      <c r="H909" s="3"/>
+      <c r="J909" s="5"/>
+      <c r="K909" s="5"/>
+      <c r="L909" s="3"/>
+    </row>
+    <row r="910" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E910" s="7"/>
+      <c r="F910" s="7"/>
+      <c r="G910" s="3"/>
+      <c r="H910" s="3"/>
+      <c r="J910" s="5"/>
+      <c r="K910" s="5"/>
+      <c r="L910" s="3"/>
+    </row>
+    <row r="911" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E911" s="7"/>
+      <c r="F911" s="7"/>
+      <c r="G911" s="3"/>
+      <c r="H911" s="3"/>
+      <c r="J911" s="5"/>
+      <c r="K911" s="5"/>
+      <c r="L911" s="3"/>
+    </row>
+    <row r="912" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E912" s="7"/>
+      <c r="F912" s="7"/>
+      <c r="G912" s="3"/>
+      <c r="H912" s="3"/>
+      <c r="J912" s="5"/>
+      <c r="K912" s="5"/>
+      <c r="L912" s="3"/>
+    </row>
+    <row r="913" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E913" s="7"/>
+      <c r="F913" s="7"/>
+      <c r="G913" s="3"/>
+      <c r="H913" s="3"/>
+      <c r="J913" s="5"/>
+      <c r="K913" s="5"/>
+      <c r="L913" s="3"/>
+    </row>
+    <row r="914" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E914" s="7"/>
+      <c r="F914" s="7"/>
+      <c r="G914" s="3"/>
+      <c r="H914" s="3"/>
+      <c r="J914" s="5"/>
+      <c r="K914" s="5"/>
+      <c r="L914" s="3"/>
+    </row>
+    <row r="915" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E915" s="7"/>
+      <c r="F915" s="7"/>
+      <c r="G915" s="3"/>
+      <c r="H915" s="3"/>
+      <c r="J915" s="5"/>
+      <c r="K915" s="5"/>
+      <c r="L915" s="3"/>
+    </row>
+    <row r="916" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E916" s="7"/>
+      <c r="F916" s="7"/>
+      <c r="G916" s="3"/>
+      <c r="H916" s="3"/>
+      <c r="J916" s="5"/>
+      <c r="K916" s="5"/>
+      <c r="L916" s="3"/>
+    </row>
+    <row r="917" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E917" s="7"/>
+      <c r="F917" s="7"/>
+      <c r="G917" s="3"/>
+      <c r="H917" s="3"/>
+      <c r="J917" s="5"/>
+      <c r="K917" s="5"/>
+      <c r="L917" s="3"/>
+    </row>
+    <row r="918" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E918" s="7"/>
+      <c r="F918" s="7"/>
+      <c r="G918" s="3"/>
+      <c r="H918" s="3"/>
+      <c r="J918" s="5"/>
+      <c r="K918" s="5"/>
+      <c r="L918" s="3"/>
+    </row>
+    <row r="919" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E919" s="7"/>
+      <c r="F919" s="7"/>
+      <c r="G919" s="3"/>
+      <c r="H919" s="3"/>
+      <c r="J919" s="5"/>
+      <c r="K919" s="5"/>
+      <c r="L919" s="3"/>
+    </row>
+    <row r="920" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E920" s="7"/>
+      <c r="F920" s="7"/>
+      <c r="G920" s="3"/>
+      <c r="H920" s="3"/>
+      <c r="J920" s="5"/>
+      <c r="K920" s="5"/>
+      <c r="L920" s="3"/>
+    </row>
+    <row r="921" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E921" s="7"/>
+      <c r="F921" s="7"/>
+      <c r="G921" s="3"/>
+      <c r="H921" s="3"/>
+      <c r="J921" s="5"/>
+      <c r="K921" s="5"/>
+      <c r="L921" s="3"/>
+    </row>
+    <row r="922" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E922" s="7"/>
+      <c r="F922" s="7"/>
+      <c r="G922" s="3"/>
+      <c r="H922" s="3"/>
+      <c r="J922" s="5"/>
+      <c r="K922" s="5"/>
+      <c r="L922" s="3"/>
+    </row>
+    <row r="923" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E923" s="7"/>
+      <c r="F923" s="7"/>
+      <c r="G923" s="3"/>
+      <c r="H923" s="3"/>
+      <c r="J923" s="5"/>
+      <c r="K923" s="5"/>
+      <c r="L923" s="3"/>
+    </row>
+    <row r="924" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E924" s="7"/>
+      <c r="F924" s="7"/>
+      <c r="G924" s="3"/>
+      <c r="H924" s="3"/>
+      <c r="J924" s="5"/>
+      <c r="K924" s="5"/>
+      <c r="L924" s="3"/>
+    </row>
+    <row r="925" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E925" s="7"/>
+      <c r="F925" s="7"/>
+      <c r="G925" s="3"/>
+      <c r="H925" s="3"/>
+      <c r="J925" s="5"/>
+      <c r="K925" s="5"/>
+      <c r="L925" s="3"/>
+    </row>
+    <row r="926" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E926" s="7"/>
+      <c r="F926" s="7"/>
+      <c r="G926" s="3"/>
+      <c r="H926" s="3"/>
+      <c r="J926" s="5"/>
+      <c r="K926" s="5"/>
+      <c r="L926" s="3"/>
+    </row>
+    <row r="927" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E927" s="7"/>
+      <c r="F927" s="7"/>
+      <c r="G927" s="3"/>
+      <c r="H927" s="3"/>
+      <c r="J927" s="5"/>
+      <c r="K927" s="5"/>
+      <c r="L927" s="3"/>
+    </row>
+    <row r="928" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E928" s="7"/>
+      <c r="F928" s="7"/>
+      <c r="G928" s="3"/>
+      <c r="H928" s="3"/>
+      <c r="J928" s="5"/>
+      <c r="K928" s="5"/>
+      <c r="L928" s="3"/>
+    </row>
+    <row r="929" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E929" s="7"/>
+      <c r="F929" s="7"/>
+      <c r="G929" s="3"/>
+      <c r="H929" s="3"/>
+      <c r="J929" s="5"/>
+      <c r="K929" s="5"/>
+      <c r="L929" s="3"/>
+    </row>
+    <row r="930" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E930" s="7"/>
+      <c r="F930" s="7"/>
+      <c r="G930" s="3"/>
+      <c r="H930" s="3"/>
+      <c r="J930" s="5"/>
+      <c r="K930" s="5"/>
+      <c r="L930" s="3"/>
+    </row>
+    <row r="931" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E931" s="7"/>
+      <c r="F931" s="7"/>
+      <c r="G931" s="3"/>
+      <c r="H931" s="3"/>
+      <c r="J931" s="5"/>
+      <c r="K931" s="5"/>
+      <c r="L931" s="3"/>
+    </row>
+    <row r="932" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E932" s="7"/>
+      <c r="F932" s="7"/>
+      <c r="G932" s="3"/>
+      <c r="H932" s="3"/>
+      <c r="J932" s="5"/>
+      <c r="K932" s="5"/>
+      <c r="L932" s="3"/>
+    </row>
+    <row r="933" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E933" s="7"/>
+      <c r="F933" s="7"/>
+      <c r="G933" s="3"/>
+      <c r="H933" s="3"/>
+      <c r="J933" s="5"/>
+      <c r="K933" s="5"/>
+      <c r="L933" s="3"/>
+    </row>
+    <row r="934" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E934" s="7"/>
+      <c r="F934" s="7"/>
+      <c r="G934" s="3"/>
+      <c r="H934" s="3"/>
+      <c r="J934" s="5"/>
+      <c r="K934" s="5"/>
+      <c r="L934" s="3"/>
+    </row>
+    <row r="935" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E935" s="7"/>
+      <c r="F935" s="7"/>
+      <c r="G935" s="3"/>
+      <c r="H935" s="3"/>
+      <c r="J935" s="5"/>
+      <c r="K935" s="5"/>
+      <c r="L935" s="3"/>
+    </row>
+    <row r="936" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E936" s="7"/>
+      <c r="F936" s="7"/>
+      <c r="G936" s="3"/>
+      <c r="H936" s="3"/>
+      <c r="J936" s="5"/>
+      <c r="K936" s="5"/>
+      <c r="L936" s="3"/>
+    </row>
+    <row r="937" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E937" s="7"/>
+      <c r="F937" s="7"/>
+      <c r="G937" s="3"/>
+      <c r="H937" s="3"/>
+      <c r="J937" s="5"/>
+      <c r="K937" s="5"/>
+      <c r="L937" s="3"/>
+    </row>
+    <row r="938" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E938" s="7"/>
+      <c r="F938" s="7"/>
+      <c r="G938" s="3"/>
+      <c r="H938" s="3"/>
+      <c r="J938" s="5"/>
+      <c r="K938" s="5"/>
+      <c r="L938" s="3"/>
+    </row>
+    <row r="939" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E939" s="7"/>
+      <c r="F939" s="7"/>
+      <c r="G939" s="3"/>
+      <c r="H939" s="3"/>
+      <c r="J939" s="5"/>
+      <c r="K939" s="5"/>
+      <c r="L939" s="3"/>
+    </row>
+    <row r="940" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E940" s="7"/>
+      <c r="F940" s="7"/>
+      <c r="G940" s="3"/>
+      <c r="H940" s="3"/>
+      <c r="J940" s="5"/>
+      <c r="K940" s="5"/>
+      <c r="L940" s="3"/>
+    </row>
+    <row r="941" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E941" s="7"/>
+      <c r="F941" s="7"/>
+      <c r="G941" s="3"/>
+      <c r="H941" s="3"/>
+      <c r="J941" s="5"/>
+      <c r="K941" s="5"/>
+      <c r="L941" s="3"/>
+    </row>
+    <row r="942" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E942" s="7"/>
+      <c r="F942" s="7"/>
+      <c r="G942" s="3"/>
+      <c r="H942" s="3"/>
+      <c r="J942" s="5"/>
+      <c r="K942" s="5"/>
+      <c r="L942" s="3"/>
+    </row>
+    <row r="943" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E943" s="7"/>
+      <c r="F943" s="7"/>
+      <c r="G943" s="3"/>
+      <c r="H943" s="3"/>
+      <c r="J943" s="5"/>
+      <c r="K943" s="5"/>
+      <c r="L943" s="3"/>
+    </row>
+    <row r="944" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E944" s="7"/>
+      <c r="F944" s="7"/>
+      <c r="G944" s="3"/>
+      <c r="H944" s="3"/>
+      <c r="J944" s="5"/>
+      <c r="K944" s="5"/>
+      <c r="L944" s="3"/>
+    </row>
+    <row r="945" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E945" s="7"/>
+      <c r="F945" s="7"/>
+      <c r="G945" s="3"/>
+      <c r="H945" s="3"/>
+      <c r="J945" s="5"/>
+      <c r="K945" s="5"/>
+      <c r="L945" s="3"/>
+    </row>
+    <row r="946" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E946" s="7"/>
+      <c r="F946" s="7"/>
+      <c r="G946" s="3"/>
+      <c r="H946" s="3"/>
+      <c r="J946" s="5"/>
+      <c r="K946" s="5"/>
+      <c r="L946" s="3"/>
+    </row>
+    <row r="947" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E947" s="7"/>
+      <c r="F947" s="7"/>
+      <c r="G947" s="3"/>
+      <c r="H947" s="3"/>
+      <c r="J947" s="5"/>
+      <c r="K947" s="5"/>
+      <c r="L947" s="3"/>
+    </row>
+    <row r="948" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E948" s="7"/>
+      <c r="F948" s="7"/>
+      <c r="G948" s="3"/>
+      <c r="H948" s="3"/>
+      <c r="J948" s="5"/>
+      <c r="K948" s="5"/>
+      <c r="L948" s="3"/>
+    </row>
+    <row r="949" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E949" s="7"/>
+      <c r="F949" s="7"/>
+      <c r="G949" s="3"/>
+      <c r="H949" s="3"/>
+      <c r="J949" s="5"/>
+      <c r="K949" s="5"/>
+      <c r="L949" s="3"/>
+    </row>
+    <row r="950" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E950" s="7"/>
+      <c r="F950" s="7"/>
+      <c r="G950" s="3"/>
+      <c r="H950" s="3"/>
+      <c r="J950" s="5"/>
+      <c r="K950" s="5"/>
+      <c r="L950" s="3"/>
+    </row>
+    <row r="951" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E951" s="7"/>
+      <c r="F951" s="7"/>
+      <c r="G951" s="3"/>
+      <c r="H951" s="3"/>
+      <c r="J951" s="5"/>
+      <c r="K951" s="5"/>
+      <c r="L951" s="3"/>
+    </row>
+    <row r="952" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E952" s="7"/>
+      <c r="F952" s="7"/>
+      <c r="G952" s="3"/>
+      <c r="H952" s="3"/>
+      <c r="J952" s="5"/>
+      <c r="K952" s="5"/>
+      <c r="L952" s="3"/>
+    </row>
+    <row r="953" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E953" s="7"/>
+      <c r="F953" s="7"/>
+      <c r="G953" s="3"/>
+      <c r="H953" s="3"/>
+      <c r="J953" s="5"/>
+      <c r="K953" s="5"/>
+      <c r="L953" s="3"/>
+    </row>
+    <row r="954" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E954" s="7"/>
+      <c r="F954" s="7"/>
+      <c r="G954" s="3"/>
+      <c r="H954" s="3"/>
+      <c r="J954" s="5"/>
+      <c r="K954" s="5"/>
+      <c r="L954" s="3"/>
+    </row>
+    <row r="955" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E955" s="7"/>
+      <c r="F955" s="7"/>
+      <c r="G955" s="3"/>
+      <c r="H955" s="3"/>
+      <c r="J955" s="5"/>
+      <c r="K955" s="5"/>
+      <c r="L955" s="3"/>
+    </row>
+    <row r="956" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E956" s="7"/>
+      <c r="F956" s="7"/>
+      <c r="G956" s="3"/>
+      <c r="H956" s="3"/>
+      <c r="J956" s="5"/>
+      <c r="K956" s="5"/>
+      <c r="L956" s="3"/>
+    </row>
+    <row r="957" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E957" s="7"/>
+      <c r="F957" s="7"/>
+      <c r="G957" s="3"/>
+      <c r="H957" s="3"/>
+      <c r="J957" s="5"/>
+      <c r="K957" s="5"/>
+      <c r="L957" s="3"/>
+    </row>
+    <row r="958" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E958" s="7"/>
+      <c r="F958" s="7"/>
+      <c r="G958" s="3"/>
+      <c r="H958" s="3"/>
+      <c r="J958" s="5"/>
+      <c r="K958" s="5"/>
+      <c r="L958" s="3"/>
+    </row>
+    <row r="959" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E959" s="7"/>
+      <c r="F959" s="7"/>
+      <c r="G959" s="3"/>
+      <c r="H959" s="3"/>
+      <c r="J959" s="5"/>
+      <c r="K959" s="5"/>
+      <c r="L959" s="3"/>
+    </row>
+    <row r="960" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E960" s="7"/>
+      <c r="F960" s="7"/>
+      <c r="G960" s="3"/>
+      <c r="H960" s="3"/>
+      <c r="J960" s="5"/>
+      <c r="K960" s="5"/>
+      <c r="L960" s="3"/>
+    </row>
+    <row r="961" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E961" s="7"/>
+      <c r="F961" s="7"/>
+      <c r="G961" s="3"/>
+      <c r="H961" s="3"/>
+      <c r="J961" s="5"/>
+      <c r="K961" s="5"/>
+      <c r="L961" s="3"/>
+    </row>
+    <row r="962" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E962" s="7"/>
+      <c r="F962" s="7"/>
+      <c r="G962" s="3"/>
+      <c r="H962" s="3"/>
+      <c r="J962" s="5"/>
+      <c r="K962" s="5"/>
+      <c r="L962" s="3"/>
+    </row>
+    <row r="963" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E963" s="7"/>
+      <c r="F963" s="7"/>
+      <c r="G963" s="3"/>
+      <c r="H963" s="3"/>
+      <c r="J963" s="5"/>
+      <c r="K963" s="5"/>
+      <c r="L963" s="3"/>
+    </row>
+    <row r="964" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E964" s="7"/>
+      <c r="F964" s="7"/>
+      <c r="G964" s="3"/>
+      <c r="H964" s="3"/>
+      <c r="J964" s="5"/>
+      <c r="K964" s="5"/>
+      <c r="L964" s="3"/>
+    </row>
+    <row r="965" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E965" s="7"/>
+      <c r="F965" s="7"/>
+      <c r="G965" s="3"/>
+      <c r="H965" s="3"/>
+      <c r="J965" s="5"/>
+      <c r="K965" s="5"/>
+      <c r="L965" s="3"/>
+    </row>
+    <row r="966" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E966" s="7"/>
+      <c r="F966" s="7"/>
+      <c r="G966" s="3"/>
+      <c r="H966" s="3"/>
+      <c r="J966" s="5"/>
+      <c r="K966" s="5"/>
+      <c r="L966" s="3"/>
+    </row>
+    <row r="967" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E967" s="7"/>
+      <c r="F967" s="7"/>
+      <c r="G967" s="3"/>
+      <c r="H967" s="3"/>
+      <c r="J967" s="5"/>
+      <c r="K967" s="5"/>
+      <c r="L967" s="3"/>
+    </row>
+    <row r="968" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E968" s="7"/>
+      <c r="F968" s="7"/>
+      <c r="G968" s="3"/>
+      <c r="H968" s="3"/>
+      <c r="J968" s="5"/>
+      <c r="K968" s="5"/>
+      <c r="L968" s="3"/>
+    </row>
+    <row r="969" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E969" s="7"/>
+      <c r="F969" s="7"/>
+      <c r="G969" s="3"/>
+      <c r="H969" s="3"/>
+      <c r="J969" s="5"/>
+      <c r="K969" s="5"/>
+      <c r="L969" s="3"/>
+    </row>
+    <row r="970" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E970" s="7"/>
+      <c r="F970" s="7"/>
+      <c r="G970" s="3"/>
+      <c r="H970" s="3"/>
+      <c r="J970" s="5"/>
+      <c r="K970" s="5"/>
+      <c r="L970" s="3"/>
+    </row>
+    <row r="971" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E971" s="7"/>
+      <c r="F971" s="7"/>
+      <c r="G971" s="3"/>
+      <c r="H971" s="3"/>
+      <c r="J971" s="5"/>
+      <c r="K971" s="5"/>
+      <c r="L971" s="3"/>
+    </row>
+    <row r="972" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E972" s="7"/>
+      <c r="F972" s="7"/>
+      <c r="G972" s="3"/>
+      <c r="H972" s="3"/>
+      <c r="J972" s="5"/>
+      <c r="K972" s="5"/>
+      <c r="L972" s="3"/>
+    </row>
+    <row r="973" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E973" s="7"/>
+      <c r="F973" s="7"/>
+      <c r="G973" s="3"/>
+      <c r="H973" s="3"/>
+      <c r="J973" s="5"/>
+      <c r="K973" s="5"/>
+      <c r="L973" s="3"/>
+    </row>
+    <row r="974" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E974" s="7"/>
+      <c r="F974" s="7"/>
+      <c r="G974" s="3"/>
+      <c r="H974" s="3"/>
+      <c r="J974" s="5"/>
+      <c r="K974" s="5"/>
+      <c r="L974" s="3"/>
+    </row>
+    <row r="975" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E975" s="7"/>
+      <c r="F975" s="7"/>
+      <c r="G975" s="3"/>
+      <c r="H975" s="3"/>
+      <c r="J975" s="5"/>
+      <c r="K975" s="5"/>
+      <c r="L975" s="3"/>
+    </row>
+    <row r="976" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E976" s="7"/>
+      <c r="F976" s="7"/>
+      <c r="G976" s="3"/>
+      <c r="H976" s="3"/>
+      <c r="J976" s="5"/>
+      <c r="K976" s="5"/>
+      <c r="L976" s="3"/>
+    </row>
+    <row r="977" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E977" s="7"/>
+      <c r="F977" s="7"/>
+      <c r="G977" s="3"/>
+      <c r="H977" s="3"/>
+      <c r="J977" s="5"/>
+      <c r="K977" s="5"/>
+      <c r="L977" s="3"/>
+    </row>
+    <row r="978" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E978" s="7"/>
+      <c r="F978" s="7"/>
+      <c r="G978" s="3"/>
+      <c r="H978" s="3"/>
+      <c r="J978" s="5"/>
+      <c r="K978" s="5"/>
+      <c r="L978" s="3"/>
+    </row>
+    <row r="979" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E979" s="7"/>
+      <c r="F979" s="7"/>
+      <c r="G979" s="3"/>
+      <c r="H979" s="3"/>
+      <c r="J979" s="5"/>
+      <c r="K979" s="5"/>
+      <c r="L979" s="3"/>
+    </row>
+    <row r="980" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E980" s="7"/>
+      <c r="F980" s="7"/>
+      <c r="G980" s="3"/>
+      <c r="H980" s="3"/>
+      <c r="J980" s="5"/>
+      <c r="K980" s="5"/>
+      <c r="L980" s="3"/>
+    </row>
+    <row r="981" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E981" s="7"/>
+      <c r="F981" s="7"/>
+      <c r="G981" s="3"/>
+      <c r="H981" s="3"/>
+      <c r="J981" s="5"/>
+      <c r="K981" s="5"/>
+      <c r="L981" s="3"/>
+    </row>
+    <row r="982" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E982" s="7"/>
+      <c r="F982" s="7"/>
+      <c r="G982" s="3"/>
+      <c r="H982" s="3"/>
+      <c r="J982" s="5"/>
+      <c r="K982" s="5"/>
+      <c r="L982" s="3"/>
+    </row>
+    <row r="983" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E983" s="7"/>
+      <c r="F983" s="7"/>
+      <c r="G983" s="3"/>
+      <c r="H983" s="3"/>
+      <c r="J983" s="5"/>
+      <c r="K983" s="5"/>
+      <c r="L983" s="3"/>
+    </row>
+    <row r="984" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E984" s="7"/>
+      <c r="F984" s="7"/>
+      <c r="G984" s="3"/>
+      <c r="H984" s="3"/>
+      <c r="J984" s="5"/>
+      <c r="K984" s="5"/>
+      <c r="L984" s="3"/>
+    </row>
+    <row r="985" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E985" s="7"/>
+      <c r="F985" s="7"/>
+      <c r="G985" s="3"/>
+      <c r="H985" s="3"/>
+      <c r="J985" s="5"/>
+      <c r="K985" s="5"/>
+      <c r="L985" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{4717835B-6892-AF4A-B3D4-5445BD17B157}">
+          <x14:formula1>
+            <xm:f>values!$A$1:$A$2</xm:f>
+          </x14:formula1>
+          <xm:sqref>B2:B50 D2:G50</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{94A8C3CF-1FFB-0F40-8E22-962DBF30DA2E}">
+          <x14:formula1>
+            <xm:f>values!$B$1:$B$2</xm:f>
+          </x14:formula1>
+          <xm:sqref>C2:C49</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B1000"/>
   <sheetViews>
@@ -22354,7 +31558,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I1000"/>
   <sheetViews>
@@ -23662,12 +32866,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF66F836-0B90-B349-B07C-9A0CAF13F1A3}">
   <dimension ref="A1:B50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23712,7 +32916,7 @@
       <c r="A5" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="14" t="s">
         <v>143</v>
       </c>
     </row>
@@ -24081,7 +33285,9 @@
     <hyperlink ref="B2" r:id="rId1" xr:uid="{4CB4E219-C800-B445-AFF6-A75C47581C51}"/>
     <hyperlink ref="B23" r:id="rId2" xr:uid="{2BBD308C-BF5C-2947-A5D4-8BFF08720EFE}"/>
     <hyperlink ref="B37" r:id="rId3" xr:uid="{69C7F006-7F7E-CE4D-A34B-7B159337E5CF}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{99891B46-FAF4-C94F-996F-4D5876D7826C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="3" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/guestLists.xlsx
+++ b/guestLists.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jhan/Creative Cloud Files/Projects/Personal/invitation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{905D2125-317B-874B-810A-F6FEADB0B543}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6C809DE-48D9-2043-B9BC-C0278DBE5D3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="27340" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="500" windowWidth="34560" windowHeight="20140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="정훈" sheetId="5" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="values" sheetId="2" r:id="rId6"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId7"/>
     <sheet name="URLS" sheetId="4" r:id="rId8"/>
+    <sheet name="Coming" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,14 +36,14 @@
       </xcalcf:calcFeatures>
     </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataSignature="AMtx7mj49Uo4N2HqW79/Mlxlp/39yw1kUQ=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId10" roundtripDataSignature="AMtx7mj49Uo4N2HqW79/Mlxlp/39yw1kUQ=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="269">
   <si>
     <t>name</t>
   </si>
@@ -823,16 +824,50 @@
   <si>
     <t>방승호 내외분</t>
   </si>
+  <si>
+    <t>신승교 내외분</t>
+  </si>
+  <si>
+    <t>https://yeweon-junghoon.com/?id=3016&amp;pw=4869&amp;심은지</t>
+  </si>
+  <si>
+    <t>https://yeweon-junghoon.com/?id=3017&amp;pw=5482&amp;심현지</t>
+  </si>
+  <si>
+    <t>https://yeweon-junghoon.com/?id=3002&amp;pw=3480</t>
+  </si>
+  <si>
+    <t>https://yeweon-junghoon.com/?id=3007&amp;pw=2981</t>
+  </si>
+  <si>
+    <t>https://yeweon-junghoon.com/?id=3003&amp;pw=5064</t>
+  </si>
+  <si>
+    <t>세무사</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Jiwon Lim</t>
+  </si>
+  <si>
+    <t>https://yeweon-junghoon.com/?id=3008&amp;pw=9914</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1018,59 +1053,62 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="9" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="8" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="9" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="8" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="10" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="16" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="17" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="17" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="18" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1289,9 +1327,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA0C7DFC-75FC-7840-8B8C-FAC433125D3B}">
   <dimension ref="A1:M982"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B46" sqref="B46"/>
+      <selection pane="bottomLeft" activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1379,86 +1417,92 @@
         <v>1912</v>
       </c>
       <c r="L2" s="3" t="str">
-        <f t="shared" ref="L2:M39" si="0">_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J2,"&amp;pw=",K2)</f>
+        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J2,"&amp;pw=",K2)</f>
         <v>https://yeweon-junghoon.com/?id=3001&amp;pw=1912</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="3" spans="1:13" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="C3" s="1">
+      <c r="B3" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="C3" s="30">
         <v>1</v>
       </c>
-      <c r="D3" s="1" t="b">
+      <c r="D3" s="30" t="b">
         <v>1</v>
       </c>
-      <c r="E3" s="1" t="b">
+      <c r="E3" s="30" t="b">
         <v>1</v>
       </c>
-      <c r="F3" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G3" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H3" s="3">
+      <c r="F3" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="G3" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3" s="32">
         <v>2</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="38">
         <v>2</v>
       </c>
-      <c r="J3" s="5">
+      <c r="J3" s="34">
         <v>3002</v>
       </c>
-      <c r="K3" s="6">
+      <c r="K3" s="35">
         <v>3480</v>
       </c>
-      <c r="L3" s="3" t="str">
-        <f t="shared" si="0"/>
+      <c r="L3" s="32" t="str">
+        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J3,"&amp;pw=",K3)</f>
         <v>https://yeweon-junghoon.com/?id=3002&amp;pw=3480</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="M3" s="37" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="36" t="s">
         <v>192</v>
       </c>
-      <c r="B4" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="C4" s="1">
+      <c r="B4" s="38" t="b">
+        <v>0</v>
+      </c>
+      <c r="C4" s="30">
         <v>1</v>
       </c>
-      <c r="D4" s="1" t="b">
+      <c r="D4" s="30" t="b">
         <v>1</v>
       </c>
-      <c r="E4" s="1" t="b">
+      <c r="E4" s="30" t="b">
         <v>1</v>
       </c>
-      <c r="F4" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G4" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4" s="3">
+      <c r="F4" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4" s="32">
         <v>2</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="38">
         <v>2</v>
       </c>
-      <c r="J4" s="5">
+      <c r="J4" s="34">
         <v>3003</v>
       </c>
-      <c r="K4" s="6">
+      <c r="K4" s="35">
         <v>5064</v>
       </c>
-      <c r="L4" s="3" t="str">
-        <f t="shared" si="0"/>
+      <c r="L4" s="32" t="str">
+        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J4,"&amp;pw=",K4)</f>
         <v>https://yeweon-junghoon.com/?id=3003&amp;pw=5064</v>
+      </c>
+      <c r="M4" s="37" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1496,7 +1540,7 @@
         <v>1168</v>
       </c>
       <c r="L5" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J5,"&amp;pw=",K5)</f>
         <v>https://yeweon-junghoon.com/?id=3004&amp;pw=1168</v>
       </c>
     </row>
@@ -1535,7 +1579,7 @@
         <v>3499</v>
       </c>
       <c r="L6" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J6,"&amp;pw=",K6)</f>
         <v>https://yeweon-junghoon.com/?id=3005&amp;pw=3499</v>
       </c>
     </row>
@@ -1574,47 +1618,50 @@
         <v>7450</v>
       </c>
       <c r="L7" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J7,"&amp;pw=",K7)</f>
         <v>https://yeweon-junghoon.com/?id=3006&amp;pw=7450</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+    <row r="8" spans="1:13" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="36" t="s">
         <v>191</v>
       </c>
-      <c r="B8" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="C8" s="1">
+      <c r="B8" s="38" t="b">
+        <v>0</v>
+      </c>
+      <c r="C8" s="30">
         <v>1</v>
       </c>
-      <c r="D8" s="1" t="b">
+      <c r="D8" s="30" t="b">
         <v>1</v>
       </c>
-      <c r="E8" s="1" t="b">
+      <c r="E8" s="30" t="b">
         <v>1</v>
       </c>
-      <c r="F8" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G8" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8" s="3">
+      <c r="F8" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8" s="32">
         <v>2</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8" s="38">
         <v>2</v>
       </c>
-      <c r="J8" s="5">
+      <c r="J8" s="34">
         <v>3007</v>
       </c>
-      <c r="K8" s="6">
+      <c r="K8" s="35">
         <v>2981</v>
       </c>
-      <c r="L8" s="3" t="str">
-        <f t="shared" si="0"/>
+      <c r="L8" s="32" t="str">
+        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J8,"&amp;pw=",K8)</f>
         <v>https://yeweon-junghoon.com/?id=3007&amp;pw=2981</v>
+      </c>
+      <c r="M8" s="37" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1652,8 +1699,11 @@
         <v>9914</v>
       </c>
       <c r="L9" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J9,"&amp;pw=",K9)</f>
         <v>https://yeweon-junghoon.com/?id=3008&amp;pw=9914</v>
+      </c>
+      <c r="M9" s="14" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="10" spans="1:13" s="21" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1691,7 +1741,7 @@
         <v>6546</v>
       </c>
       <c r="L10" s="24" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J10,"&amp;pw=",K10)</f>
         <v>https://yeweon-junghoon.com/?id=3009&amp;pw=6546</v>
       </c>
     </row>
@@ -1730,7 +1780,7 @@
         <v>9721</v>
       </c>
       <c r="L11" s="24" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J11,"&amp;pw=",K11)</f>
         <v>https://yeweon-junghoon.com/?id=3010&amp;pw=9721</v>
       </c>
     </row>
@@ -1769,7 +1819,7 @@
         <v>2388</v>
       </c>
       <c r="L12" s="24" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J12,"&amp;pw=",K12)</f>
         <v>https://yeweon-junghoon.com/?id=3011&amp;pw=2388</v>
       </c>
     </row>
@@ -1808,7 +1858,7 @@
         <v>7541</v>
       </c>
       <c r="L13" s="32" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J13,"&amp;pw=",K13)</f>
         <v>https://yeweon-junghoon.com/?id=3012&amp;pw=7541</v>
       </c>
       <c r="M13" s="37" t="s">
@@ -1850,7 +1900,7 @@
         <v>7554</v>
       </c>
       <c r="L14" s="24" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J14,"&amp;pw=",K14)</f>
         <v>https://yeweon-junghoon.com/?id=3013&amp;pw=7554</v>
       </c>
     </row>
@@ -1859,7 +1909,7 @@
         <v>68</v>
       </c>
       <c r="B15" s="30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" s="30">
         <v>0</v>
@@ -1889,7 +1939,7 @@
         <v>2309</v>
       </c>
       <c r="L15" s="32" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J15,"&amp;pw=",K15)</f>
         <v>https://yeweon-junghoon.com/?id=3014&amp;pw=2309</v>
       </c>
     </row>
@@ -1928,86 +1978,92 @@
         <v>3690</v>
       </c>
       <c r="L16" s="24" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J16,"&amp;pw=",K16)</f>
         <v>https://yeweon-junghoon.com/?id=3015&amp;pw=3690</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="20" t="s">
+    <row r="17" spans="1:13" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="50" t="s">
         <v>121</v>
       </c>
-      <c r="B17" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="C17" s="1">
-        <v>0</v>
-      </c>
-      <c r="D17" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E17" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F17" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G17" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17" s="3">
+      <c r="B17" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="C17" s="30">
+        <v>0</v>
+      </c>
+      <c r="D17" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="E17" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="F17" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="G17" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="H17" s="32">
+        <v>1</v>
+      </c>
+      <c r="I17" s="38">
+        <v>2</v>
+      </c>
+      <c r="J17" s="34">
+        <v>3016</v>
+      </c>
+      <c r="K17" s="35">
+        <v>4869</v>
+      </c>
+      <c r="L17" s="32" t="str">
+        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J17,"&amp;pw=",K17)</f>
+        <v>https://yeweon-junghoon.com/?id=3016&amp;pw=4869</v>
+      </c>
+      <c r="M17" s="37" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="50" t="s">
+        <v>204</v>
+      </c>
+      <c r="B18" s="38" t="b">
+        <v>0</v>
+      </c>
+      <c r="C18" s="30">
+        <v>0</v>
+      </c>
+      <c r="D18" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="E18" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="F18" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="G18" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="H18" s="32">
         <v>3</v>
       </c>
-      <c r="I17" s="4">
+      <c r="I18" s="38">
         <v>3</v>
       </c>
-      <c r="J17" s="5">
-        <v>3016</v>
-      </c>
-      <c r="K17" s="6">
-        <v>4869</v>
-      </c>
-      <c r="L17" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>https://yeweon-junghoon.com/?id=3016&amp;pw=4869</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="20" t="s">
-        <v>204</v>
-      </c>
-      <c r="B18" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="C18" s="1">
-        <v>0</v>
-      </c>
-      <c r="D18" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E18" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F18" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G18" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18" s="3">
-        <v>1</v>
-      </c>
-      <c r="I18" s="4">
-        <v>2</v>
-      </c>
-      <c r="J18" s="5">
+      <c r="J18" s="34">
         <v>3017</v>
       </c>
-      <c r="K18" s="6">
+      <c r="K18" s="35">
         <v>5482</v>
       </c>
-      <c r="L18" s="3" t="str">
-        <f t="shared" si="0"/>
+      <c r="L18" s="32" t="str">
+        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J18,"&amp;pw=",K18)</f>
         <v>https://yeweon-junghoon.com/?id=3017&amp;pw=5482</v>
+      </c>
+      <c r="M18" s="37" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="19" spans="1:13" s="21" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2045,7 +2101,7 @@
         <v>6182</v>
       </c>
       <c r="L19" s="24" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J19,"&amp;pw=",K19)</f>
         <v>https://yeweon-junghoon.com/?id=3018&amp;pw=6182</v>
       </c>
     </row>
@@ -2084,7 +2140,7 @@
         <v>4195</v>
       </c>
       <c r="L20" s="24" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J20,"&amp;pw=",K20)</f>
         <v>https://yeweon-junghoon.com/?id=3019&amp;pw=4195</v>
       </c>
     </row>
@@ -2123,7 +2179,7 @@
         <v>6240</v>
       </c>
       <c r="L21" s="24" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J21,"&amp;pw=",K21)</f>
         <v>https://yeweon-junghoon.com/?id=3020&amp;pw=6240</v>
       </c>
     </row>
@@ -2162,7 +2218,7 @@
         <v>3589</v>
       </c>
       <c r="L22" s="24" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J22,"&amp;pw=",K22)</f>
         <v>https://yeweon-junghoon.com/?id=3021&amp;pw=3589</v>
       </c>
     </row>
@@ -2201,7 +2257,7 @@
         <v>9668</v>
       </c>
       <c r="L23" s="24" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J23,"&amp;pw=",K23)</f>
         <v>https://yeweon-junghoon.com/?id=3022&amp;pw=9668</v>
       </c>
     </row>
@@ -2240,7 +2296,7 @@
         <v>7769</v>
       </c>
       <c r="L24" s="24" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J24,"&amp;pw=",K24)</f>
         <v>https://yeweon-junghoon.com/?id=3023&amp;pw=7769</v>
       </c>
     </row>
@@ -2279,16 +2335,16 @@
         <v>5875</v>
       </c>
       <c r="L25" s="24" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J25,"&amp;pw=",K25)</f>
         <v>https://yeweon-junghoon.com/?id=3024&amp;pw=5875</v>
       </c>
     </row>
     <row r="26" spans="1:13" s="21" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="21" t="s">
-        <v>110</v>
+        <v>189</v>
       </c>
       <c r="B26" s="22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C26" s="22">
         <v>0</v>
@@ -2312,25 +2368,25 @@
         <v>2</v>
       </c>
       <c r="J26" s="26">
-        <v>3025</v>
+        <v>3026</v>
       </c>
       <c r="K26" s="27">
-        <v>4551</v>
+        <v>7226</v>
       </c>
       <c r="L26" s="24" t="str">
-        <f t="shared" si="0"/>
-        <v>https://yeweon-junghoon.com/?id=3025&amp;pw=4551</v>
+        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J26,"&amp;pw=",K26)</f>
+        <v>https://yeweon-junghoon.com/?id=3026&amp;pw=7226</v>
       </c>
     </row>
     <row r="27" spans="1:13" s="21" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="21" t="s">
-        <v>189</v>
+      <c r="A27" s="22" t="s">
+        <v>201</v>
       </c>
       <c r="B27" s="22" t="b">
         <v>0</v>
       </c>
       <c r="C27" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D27" s="22" t="b">
         <v>0</v>
@@ -2347,104 +2403,107 @@
       <c r="H27" s="24">
         <v>2</v>
       </c>
-      <c r="I27" s="25">
+      <c r="I27" s="28">
         <v>2</v>
       </c>
       <c r="J27" s="26">
-        <v>3026</v>
+        <v>3030</v>
       </c>
       <c r="K27" s="27">
-        <v>7226</v>
+        <v>4981</v>
       </c>
       <c r="L27" s="24" t="str">
-        <f t="shared" si="0"/>
-        <v>https://yeweon-junghoon.com/?id=3026&amp;pw=7226</v>
+        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J27,"&amp;pw=",K27)</f>
+        <v>https://yeweon-junghoon.com/?id=3030&amp;pw=4981</v>
       </c>
     </row>
     <row r="28" spans="1:13" s="21" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="22" t="s">
-        <v>201</v>
-      </c>
-      <c r="B28" s="22" t="b">
-        <v>0</v>
-      </c>
-      <c r="C28" s="22">
+      <c r="A28" s="30" t="s">
+        <v>194</v>
+      </c>
+      <c r="B28" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="C28" s="30">
         <v>1</v>
       </c>
-      <c r="D28" s="22" t="b">
-        <v>0</v>
-      </c>
-      <c r="E28" s="22" t="b">
-        <v>0</v>
-      </c>
-      <c r="F28" s="22" t="b">
-        <v>0</v>
-      </c>
-      <c r="G28" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="H28" s="24">
+      <c r="D28" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="E28" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="F28" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="G28" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="H28" s="32">
+        <v>1</v>
+      </c>
+      <c r="I28" s="33">
         <v>2</v>
       </c>
-      <c r="I28" s="28">
+      <c r="J28" s="34">
+        <v>3027</v>
+      </c>
+      <c r="K28" s="35">
+        <v>3213</v>
+      </c>
+      <c r="L28" s="32" t="str">
+        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J28,"&amp;pw=",K28)</f>
+        <v>https://yeweon-junghoon.com/?id=3027&amp;pw=3213</v>
+      </c>
+      <c r="M28" s="36" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="30" t="s">
+        <v>195</v>
+      </c>
+      <c r="B29" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="C29" s="30">
+        <v>1</v>
+      </c>
+      <c r="D29" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="E29" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="F29" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="G29" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="H29" s="32">
+        <v>1</v>
+      </c>
+      <c r="I29" s="33">
         <v>2</v>
       </c>
-      <c r="J28" s="26">
-        <v>3030</v>
-      </c>
-      <c r="K28" s="27">
-        <v>4981</v>
-      </c>
-      <c r="L28" s="24" t="str">
-        <f t="shared" si="0"/>
-        <v>https://yeweon-junghoon.com/?id=3030&amp;pw=4981</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="B29" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="C29" s="1">
-        <v>1</v>
-      </c>
-      <c r="D29" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E29" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F29" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G29" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H29" s="3">
-        <v>1</v>
-      </c>
-      <c r="I29" s="29">
-        <v>2</v>
-      </c>
-      <c r="J29" s="5">
-        <v>3027</v>
-      </c>
-      <c r="K29" s="6">
-        <v>3213</v>
-      </c>
-      <c r="L29" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>https://yeweon-junghoon.com/?id=3027&amp;pw=3213</v>
-      </c>
-      <c r="M29" t="s">
-        <v>198</v>
+      <c r="J29" s="34">
+        <v>3028</v>
+      </c>
+      <c r="K29" s="35">
+        <v>5652</v>
+      </c>
+      <c r="L29" s="32" t="str">
+        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J29,"&amp;pw=",K29)</f>
+        <v>https://yeweon-junghoon.com/?id=3028&amp;pw=5652</v>
+      </c>
+      <c r="M29" s="36" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="30" spans="1:13" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="30" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B30" s="30" t="b">
         <v>0</v>
@@ -2465,154 +2524,154 @@
         <v>0</v>
       </c>
       <c r="H30" s="32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I30" s="33">
         <v>2</v>
       </c>
       <c r="J30" s="34">
-        <v>3028</v>
+        <v>3029</v>
       </c>
       <c r="K30" s="35">
-        <v>5652</v>
+        <v>3573</v>
       </c>
       <c r="L30" s="32" t="str">
         <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J30,"&amp;pw=",K30)</f>
-        <v>https://yeweon-junghoon.com/?id=3028&amp;pw=5652</v>
+        <v>https://yeweon-junghoon.com/?id=3029&amp;pw=3573</v>
       </c>
       <c r="M30" s="36" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="B31" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="C31" s="1">
-        <v>1</v>
-      </c>
-      <c r="D31" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E31" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F31" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G31" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H31" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="30" t="s">
+        <v>214</v>
+      </c>
+      <c r="B31" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="C31" s="30">
+        <v>0</v>
+      </c>
+      <c r="D31" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="E31" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="F31" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="G31" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="H31" s="32">
         <v>2</v>
       </c>
-      <c r="I31" s="29">
-        <v>2</v>
-      </c>
-      <c r="J31" s="5">
-        <v>3029</v>
-      </c>
-      <c r="K31" s="6">
-        <v>3573</v>
-      </c>
-      <c r="L31" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>https://yeweon-junghoon.com/?id=3029&amp;pw=3573</v>
-      </c>
-      <c r="M31" t="s">
-        <v>200</v>
+      <c r="I31" s="33">
+        <v>5</v>
+      </c>
+      <c r="J31" s="34">
+        <v>3032</v>
+      </c>
+      <c r="K31" s="35">
+        <v>4568</v>
+      </c>
+      <c r="L31" s="32" t="str">
+        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J31,"&amp;pw=",K31)</f>
+        <v>https://yeweon-junghoon.com/?id=3032&amp;pw=4568</v>
+      </c>
+      <c r="M31" s="37" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="32" spans="1:13" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="30" t="s">
-        <v>214</v>
-      </c>
-      <c r="B32" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="C32" s="30">
-        <v>0</v>
-      </c>
-      <c r="D32" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="E32" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="F32" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="G32" s="31" t="b">
-        <v>0</v>
-      </c>
-      <c r="H32" s="32">
-        <v>2</v>
-      </c>
-      <c r="I32" s="33">
+      <c r="A32" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B32" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C32" s="1">
+        <v>0</v>
+      </c>
+      <c r="D32" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E32" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F32" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G32" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>5</v>
       </c>
-      <c r="J32" s="34">
-        <v>3032</v>
-      </c>
-      <c r="K32" s="35">
-        <v>4568</v>
-      </c>
-      <c r="L32" s="32" t="str">
-        <f t="shared" si="0"/>
-        <v>https://yeweon-junghoon.com/?id=3032&amp;pw=4568</v>
-      </c>
-      <c r="M32" s="37" t="s">
-        <v>224</v>
+      <c r="I32" s="29">
+        <v>5</v>
+      </c>
+      <c r="J32" s="5">
+        <v>3033</v>
+      </c>
+      <c r="K32" s="6">
+        <v>6651</v>
+      </c>
+      <c r="L32" s="3" t="str">
+        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J32,"&amp;pw=",K32)</f>
+        <v>https://yeweon-junghoon.com/?id=3033&amp;pw=6651</v>
+      </c>
+      <c r="M32" s="14" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="B33" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="C33" s="1">
-        <v>0</v>
-      </c>
-      <c r="D33" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E33" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F33" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G33" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H33" s="3">
+      <c r="A33" s="30" t="s">
+        <v>217</v>
+      </c>
+      <c r="B33" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="C33" s="30">
+        <v>0</v>
+      </c>
+      <c r="D33" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="E33" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="F33" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="G33" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="H33" s="32">
         <v>5</v>
       </c>
-      <c r="I33" s="29">
+      <c r="I33" s="33">
         <v>5</v>
       </c>
-      <c r="J33" s="5">
-        <v>3033</v>
-      </c>
-      <c r="K33" s="6">
+      <c r="J33" s="34">
+        <v>3034</v>
+      </c>
+      <c r="K33" s="35">
         <v>6651</v>
       </c>
-      <c r="L33" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>https://yeweon-junghoon.com/?id=3033&amp;pw=6651</v>
-      </c>
-      <c r="M33" s="14" t="s">
-        <v>225</v>
+      <c r="L33" s="32" t="str">
+        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J33,"&amp;pw=",K33)</f>
+        <v>https://yeweon-junghoon.com/?id=3034&amp;pw=6651</v>
+      </c>
+      <c r="M33" s="37" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="34" spans="1:13" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="30" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B34" s="30" t="b">
         <v>0</v>
@@ -2633,28 +2692,28 @@
         <v>0</v>
       </c>
       <c r="H34" s="32">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I34" s="33">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J34" s="34">
-        <v>3034</v>
+        <v>3035</v>
       </c>
       <c r="K34" s="35">
-        <v>6651</v>
+        <v>6598</v>
       </c>
       <c r="L34" s="32" t="str">
-        <f t="shared" si="0"/>
-        <v>https://yeweon-junghoon.com/?id=3034&amp;pw=6651</v>
+        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J34,"&amp;pw=",K34)</f>
+        <v>https://yeweon-junghoon.com/?id=3035&amp;pw=6598</v>
       </c>
       <c r="M34" s="37" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="35" spans="1:13" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="30" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B35" s="30" t="b">
         <v>0</v>
@@ -2675,73 +2734,71 @@
         <v>0</v>
       </c>
       <c r="H35" s="32">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I35" s="33">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J35" s="34">
-        <v>3035</v>
+        <v>3037</v>
       </c>
       <c r="K35" s="35">
-        <v>6598</v>
+        <v>3154</v>
       </c>
       <c r="L35" s="32" t="str">
-        <f t="shared" si="0"/>
-        <v>https://yeweon-junghoon.com/?id=3035&amp;pw=6598</v>
-      </c>
-      <c r="M35" s="37" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="B36" s="1" t="b">
+        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J35,"&amp;pw=",K35)</f>
+        <v>https://yeweon-junghoon.com/?id=3037&amp;pw=3154</v>
+      </c>
+      <c r="M35" s="36" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="B36" s="22" t="b">
         <v>1</v>
       </c>
-      <c r="C36" s="1">
-        <v>0</v>
-      </c>
-      <c r="D36" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E36" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F36" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G36" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H36" s="3">
-        <v>0</v>
-      </c>
-      <c r="I36" s="29">
+      <c r="C36" s="22">
+        <v>0</v>
+      </c>
+      <c r="D36" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="E36" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="F36" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="G36" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="H36" s="24">
         <v>2</v>
       </c>
-      <c r="J36" s="5">
-        <v>3036</v>
-      </c>
-      <c r="K36" s="6">
-        <v>4585</v>
-      </c>
-      <c r="L36" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>https://yeweon-junghoon.com/?id=3036&amp;pw=4585</v>
-      </c>
-      <c r="M36" s="14" t="s">
-        <v>228</v>
-      </c>
+      <c r="I36" s="25">
+        <v>2</v>
+      </c>
+      <c r="J36" s="26">
+        <v>3025</v>
+      </c>
+      <c r="K36" s="27">
+        <v>4551</v>
+      </c>
+      <c r="L36" s="24" t="str">
+        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J36,"&amp;pw=",K36)</f>
+        <v>https://yeweon-junghoon.com/?id=3025&amp;pw=4551</v>
+      </c>
+      <c r="M36" s="21"/>
     </row>
     <row r="37" spans="1:13" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="30" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B37" s="30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C37" s="30">
         <v>0</v>
@@ -2765,17 +2822,17 @@
         <v>2</v>
       </c>
       <c r="J37" s="34">
-        <v>3037</v>
+        <v>3036</v>
       </c>
       <c r="K37" s="35">
-        <v>3154</v>
+        <v>4585</v>
       </c>
       <c r="L37" s="32" t="str">
-        <f t="shared" si="0"/>
-        <v>https://yeweon-junghoon.com/?id=3037&amp;pw=3154</v>
-      </c>
-      <c r="M37" s="36" t="s">
-        <v>229</v>
+        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J37,"&amp;pw=",K37)</f>
+        <v>https://yeweon-junghoon.com/?id=3036&amp;pw=4585</v>
+      </c>
+      <c r="M37" s="37" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="38" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2813,7 +2870,7 @@
         <v>9785</v>
       </c>
       <c r="L38" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J38,"&amp;pw=",K38)</f>
         <v>https://yeweon-junghoon.com/?id=3038&amp;pw=9785</v>
       </c>
       <c r="M38" s="14" t="s">
@@ -2827,7 +2884,9 @@
       <c r="B39" s="30" t="b">
         <v>1</v>
       </c>
-      <c r="C39" s="30"/>
+      <c r="C39" s="30">
+        <v>0</v>
+      </c>
       <c r="D39" s="30" t="b">
         <v>0</v>
       </c>
@@ -2853,7 +2912,7 @@
         <v>1154</v>
       </c>
       <c r="L39" s="32" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J39,"&amp;pw=",K39)</f>
         <v>https://yeweon-junghoon.com/?id=3039&amp;pw=1154</v>
       </c>
       <c r="M39" s="37" t="s">
@@ -2903,16 +2962,36 @@
       </c>
     </row>
     <row r="41" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="3"/>
-      <c r="I41" s="4"/>
-      <c r="J41" s="5"/>
+      <c r="A41" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B41" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C41" s="1">
+        <v>1</v>
+      </c>
+      <c r="D41" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E41" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F41" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G41" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H41" s="3">
+        <v>1</v>
+      </c>
+      <c r="I41" s="52">
+        <v>2</v>
+      </c>
+      <c r="J41" s="5">
+        <v>3041</v>
+      </c>
       <c r="K41" s="6"/>
       <c r="L41" s="3"/>
     </row>
@@ -2933,7 +3012,9 @@
       <c r="L42" s="3"/>
     </row>
     <row r="43" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="1"/>
+      <c r="A43" s="1" t="s">
+        <v>260</v>
+      </c>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -11418,19 +11499,25 @@
       <c r="L982" s="3"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L982">
-    <sortCondition ref="A1:A982"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M982">
+    <sortCondition ref="B1:B982"/>
   </sortState>
   <hyperlinks>
     <hyperlink ref="M39" r:id="rId1" xr:uid="{63D03B50-4EA3-FD4A-90CB-521D7656D7C5}"/>
     <hyperlink ref="M38" r:id="rId2" xr:uid="{B3344D01-F9E6-5A4E-B3DF-34DDCFEED5B0}"/>
     <hyperlink ref="M40" r:id="rId3" xr:uid="{36D33770-C2BC-3744-A547-A2354F717DF2}"/>
-    <hyperlink ref="M32" r:id="rId4" xr:uid="{56E2B0C5-FF3C-D24F-9E14-BB3FE3BEEC35}"/>
-    <hyperlink ref="M34" r:id="rId5" xr:uid="{A51A9883-1D71-4944-9781-9B18907D1BEB}"/>
-    <hyperlink ref="M36" r:id="rId6" xr:uid="{7808E987-0F34-7047-A64D-4B8054B2AAD9}"/>
-    <hyperlink ref="M35" r:id="rId7" xr:uid="{B2ACD2E3-680C-A94F-95E7-DE0A5EB1647E}"/>
+    <hyperlink ref="M31" r:id="rId4" xr:uid="{56E2B0C5-FF3C-D24F-9E14-BB3FE3BEEC35}"/>
+    <hyperlink ref="M33" r:id="rId5" xr:uid="{A51A9883-1D71-4944-9781-9B18907D1BEB}"/>
+    <hyperlink ref="M37" r:id="rId6" xr:uid="{7808E987-0F34-7047-A64D-4B8054B2AAD9}"/>
+    <hyperlink ref="M34" r:id="rId7" xr:uid="{B2ACD2E3-680C-A94F-95E7-DE0A5EB1647E}"/>
     <hyperlink ref="M13" r:id="rId8" xr:uid="{54C17E1A-2DA9-184B-A797-41FC71E8DA48}"/>
-    <hyperlink ref="M33" r:id="rId9" xr:uid="{31117501-47D1-4346-8525-FD3618DBC9AB}"/>
+    <hyperlink ref="M32" r:id="rId9" xr:uid="{31117501-47D1-4346-8525-FD3618DBC9AB}"/>
+    <hyperlink ref="M17" r:id="rId10" xr:uid="{5E30416F-5452-7E4C-A0FA-49A5F201E50E}"/>
+    <hyperlink ref="M18" r:id="rId11" xr:uid="{E45AA1FE-E9EC-A748-A664-A6C128A06789}"/>
+    <hyperlink ref="M3" r:id="rId12" xr:uid="{EEADBF90-D72A-F04A-9888-8C688995D4B0}"/>
+    <hyperlink ref="M8" r:id="rId13" xr:uid="{A28B7F45-51F5-D74D-82C8-379547DF72E0}"/>
+    <hyperlink ref="M4" r:id="rId14" xr:uid="{95902FB6-2C71-524C-92ED-633B5ACCBEB7}"/>
+    <hyperlink ref="M9" r:id="rId15" xr:uid="{6E35B948-B98B-D24D-841A-CBAA0EA5EF56}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -11460,7 +11547,7 @@
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E68" sqref="E68"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -11547,7 +11634,7 @@
         <v>7554</v>
       </c>
       <c r="L2" s="3" t="str">
-        <f t="shared" ref="L2:L33" si="0">_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J2,"&amp;pw=",K2)</f>
+        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J2,"&amp;pw=",K2)</f>
         <v>https://yeweon-junghoon.com/?id=2001&amp;pw=7554</v>
       </c>
     </row>
@@ -11586,7 +11673,7 @@
         <v>9721</v>
       </c>
       <c r="L3" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J3,"&amp;pw=",K3)</f>
         <v>https://yeweon-junghoon.com/?id=2002&amp;pw=9721</v>
       </c>
     </row>
@@ -11625,7 +11712,7 @@
         <v>2388</v>
       </c>
       <c r="L4" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J4,"&amp;pw=",K4)</f>
         <v>https://yeweon-junghoon.com/?id=2003&amp;pw=2388</v>
       </c>
     </row>
@@ -11664,22 +11751,22 @@
         <v>6546</v>
       </c>
       <c r="L5" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J5,"&amp;pw=",K5)</f>
         <v>https://yeweon-junghoon.com/?id=2004&amp;pw=6546</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B6" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
       </c>
       <c r="D6" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" s="1" t="b">
         <v>1</v>
@@ -11691,25 +11778,25 @@
         <v>0</v>
       </c>
       <c r="H6" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J6" s="5">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="K6" s="6">
-        <v>4551</v>
+        <v>6182</v>
       </c>
       <c r="L6" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>https://yeweon-junghoon.com/?id=2005&amp;pw=4551</v>
+        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J6,"&amp;pw=",K6)</f>
+        <v>https://yeweon-junghoon.com/?id=2006&amp;pw=6182</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B7" s="1" t="b">
         <v>0</v>
@@ -11736,19 +11823,19 @@
         <v>2</v>
       </c>
       <c r="J7" s="5">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="K7" s="6">
-        <v>6182</v>
+        <v>7226</v>
       </c>
       <c r="L7" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>https://yeweon-junghoon.com/?id=2006&amp;pw=6182</v>
+        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J7,"&amp;pw=",K7)</f>
+        <v>https://yeweon-junghoon.com/?id=2007&amp;pw=7226</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>43</v>
+      <c r="A8" s="12" t="s">
+        <v>137</v>
       </c>
       <c r="B8" s="1" t="b">
         <v>0</v>
@@ -11771,23 +11858,23 @@
       <c r="H8" s="3">
         <v>1</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8" s="11">
         <v>2</v>
       </c>
       <c r="J8" s="5">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="K8" s="6">
-        <v>7226</v>
+        <v>7541</v>
       </c>
       <c r="L8" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>https://yeweon-junghoon.com/?id=2007&amp;pw=7226</v>
+        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J8,"&amp;pw=",K8)</f>
+        <v>https://yeweon-junghoon.com/?id=2008&amp;pw=7541</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="12" t="s">
-        <v>137</v>
+      <c r="A9" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B9" s="1" t="b">
         <v>0</v>
@@ -11810,35 +11897,35 @@
       <c r="H9" s="3">
         <v>1</v>
       </c>
-      <c r="I9" s="11">
+      <c r="I9" s="4">
         <v>2</v>
       </c>
       <c r="J9" s="5">
-        <v>2008</v>
+        <v>2010</v>
       </c>
       <c r="K9" s="6">
-        <v>7541</v>
+        <v>3690</v>
       </c>
       <c r="L9" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>https://yeweon-junghoon.com/?id=2008&amp;pw=7541</v>
+        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J9,"&amp;pw=",K9)</f>
+        <v>https://yeweon-junghoon.com/?id=2010&amp;pw=3690</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="12" t="s">
-        <v>39</v>
+      <c r="A10" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="B10" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1" t="b">
         <v>0</v>
@@ -11847,37 +11934,37 @@
         <v>0</v>
       </c>
       <c r="H10" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" s="4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J10" s="5">
-        <v>2009</v>
+        <v>2011</v>
       </c>
       <c r="K10" s="6">
-        <v>2309</v>
+        <v>6240</v>
       </c>
       <c r="L10" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>https://yeweon-junghoon.com/?id=2009&amp;pw=2309</v>
+        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J10,"&amp;pw=",K10)</f>
+        <v>https://yeweon-junghoon.com/?id=2011&amp;pw=6240</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="B11" s="1" t="b">
         <v>0</v>
       </c>
       <c r="C11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E11" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1" t="b">
         <v>0</v>
@@ -11886,30 +11973,30 @@
         <v>0</v>
       </c>
       <c r="H11" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I11" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J11" s="5">
-        <v>2010</v>
+        <v>2012</v>
       </c>
       <c r="K11" s="6">
-        <v>3690</v>
+        <v>4869</v>
       </c>
       <c r="L11" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>https://yeweon-junghoon.com/?id=2010&amp;pw=3690</v>
+        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J11,"&amp;pw=",K11)</f>
+        <v>https://yeweon-junghoon.com/?id=2012&amp;pw=4869</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="C12" s="1">
+      <c r="A12" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="B12" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="C12" s="12">
         <v>0</v>
       </c>
       <c r="D12" s="1" t="b">
@@ -11928,22 +12015,22 @@
         <v>2</v>
       </c>
       <c r="I12" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J12" s="5">
-        <v>2011</v>
+        <v>2013</v>
       </c>
       <c r="K12" s="6">
-        <v>6240</v>
+        <v>5482</v>
       </c>
       <c r="L12" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>https://yeweon-junghoon.com/?id=2011&amp;pw=6240</v>
+        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J12,"&amp;pw=",K12)</f>
+        <v>https://yeweon-junghoon.com/?id=2013&amp;pw=5482</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B13" s="1" t="b">
         <v>0</v>
@@ -11964,30 +12051,30 @@
         <v>0</v>
       </c>
       <c r="H13" s="3">
+        <v>1</v>
+      </c>
+      <c r="I13" s="4">
         <v>2</v>
       </c>
-      <c r="I13" s="4">
-        <v>4</v>
-      </c>
       <c r="J13" s="5">
-        <v>2012</v>
+        <v>2014</v>
       </c>
       <c r="K13" s="6">
-        <v>4869</v>
+        <v>3589</v>
       </c>
       <c r="L13" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>https://yeweon-junghoon.com/?id=2012&amp;pw=4869</v>
+        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J13,"&amp;pw=",K13)</f>
+        <v>https://yeweon-junghoon.com/?id=2014&amp;pw=3589</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="B14" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="C14" s="12">
+      <c r="A14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C14" s="1">
         <v>0</v>
       </c>
       <c r="D14" s="1" t="b">
@@ -12003,30 +12090,30 @@
         <v>0</v>
       </c>
       <c r="H14" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" s="4">
         <v>2</v>
       </c>
       <c r="J14" s="5">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="K14" s="6">
-        <v>5482</v>
+        <v>4195</v>
       </c>
       <c r="L14" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>https://yeweon-junghoon.com/?id=2013&amp;pw=5482</v>
+        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J14,"&amp;pw=",K14)</f>
+        <v>https://yeweon-junghoon.com/?id=2015&amp;pw=4195</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="C15" s="1">
+      <c r="A15" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="B15" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="C15" s="12">
         <v>0</v>
       </c>
       <c r="D15" s="1" t="b">
@@ -12048,19 +12135,19 @@
         <v>2</v>
       </c>
       <c r="J15" s="5">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="K15" s="6">
-        <v>3589</v>
+        <v>7769</v>
       </c>
       <c r="L15" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>https://yeweon-junghoon.com/?id=2014&amp;pw=3589</v>
+        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J15,"&amp;pw=",K15)</f>
+        <v>https://yeweon-junghoon.com/?id=2016&amp;pw=7769</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B16" s="1" t="b">
         <v>0</v>
@@ -12087,31 +12174,31 @@
         <v>2</v>
       </c>
       <c r="J16" s="5">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="K16" s="6">
-        <v>4195</v>
+        <v>5875</v>
       </c>
       <c r="L16" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>https://yeweon-junghoon.com/?id=2015&amp;pw=4195</v>
+        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J16,"&amp;pw=",K16)</f>
+        <v>https://yeweon-junghoon.com/?id=2017&amp;pw=5875</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="B17" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="C17" s="12">
-        <v>0</v>
+      <c r="A17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1</v>
       </c>
       <c r="D17" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" s="1" t="b">
         <v>0</v>
@@ -12126,31 +12213,31 @@
         <v>2</v>
       </c>
       <c r="J17" s="5">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="K17" s="6">
-        <v>7769</v>
+        <v>9668</v>
       </c>
       <c r="L17" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>https://yeweon-junghoon.com/?id=2016&amp;pw=7769</v>
+        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J17,"&amp;pw=",K17)</f>
+        <v>https://yeweon-junghoon.com/?id=2018&amp;pw=9668</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="B18" s="1" t="b">
         <v>0</v>
       </c>
       <c r="C18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" s="1" t="b">
         <v>0</v>
@@ -12165,31 +12252,31 @@
         <v>2</v>
       </c>
       <c r="J18" s="5">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="K18" s="6">
-        <v>5875</v>
+        <v>3480</v>
       </c>
       <c r="L18" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>https://yeweon-junghoon.com/?id=2017&amp;pw=5875</v>
+        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J18,"&amp;pw=",K18)</f>
+        <v>https://yeweon-junghoon.com/?id=2019&amp;pw=3480</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B19" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="C19" s="1">
-        <v>1</v>
+      <c r="A19" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="B19" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="C19" s="12">
+        <v>0</v>
       </c>
       <c r="D19" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1" t="b">
         <v>0</v>
@@ -12198,25 +12285,25 @@
         <v>0</v>
       </c>
       <c r="H19" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I19" s="4">
         <v>2</v>
       </c>
       <c r="J19" s="5">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="K19" s="6">
-        <v>9668</v>
+        <v>7450</v>
       </c>
       <c r="L19" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>https://yeweon-junghoon.com/?id=2018&amp;pw=9668</v>
+        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J19,"&amp;pw=",K19)</f>
+        <v>https://yeweon-junghoon.com/?id=2020&amp;pw=7450</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B20" s="1" t="b">
         <v>0</v>
@@ -12225,10 +12312,10 @@
         <v>1</v>
       </c>
       <c r="D20" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1" t="b">
         <v>0</v>
@@ -12237,30 +12324,30 @@
         <v>0</v>
       </c>
       <c r="H20" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I20" s="4">
         <v>2</v>
       </c>
       <c r="J20" s="5">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="K20" s="6">
-        <v>3480</v>
+        <v>9914</v>
       </c>
       <c r="L20" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>https://yeweon-junghoon.com/?id=2019&amp;pw=3480</v>
+        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J20,"&amp;pw=",K20)</f>
+        <v>https://yeweon-junghoon.com/?id=2021&amp;pw=9914</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="B21" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="C21" s="12">
+      <c r="A21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C21" s="1">
         <v>0</v>
       </c>
       <c r="D21" s="1" t="b">
@@ -12276,64 +12363,64 @@
         <v>0</v>
       </c>
       <c r="H21" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I21" s="4">
         <v>2</v>
       </c>
       <c r="J21" s="5">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="K21" s="6">
-        <v>7450</v>
+        <v>1912</v>
       </c>
       <c r="L21" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>https://yeweon-junghoon.com/?id=2020&amp;pw=7450</v>
+        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J21,"&amp;pw=",K21)</f>
+        <v>https://yeweon-junghoon.com/?id=2022&amp;pw=1912</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="B22" s="1" t="b">
         <v>0</v>
       </c>
       <c r="C22" s="1">
+        <v>0</v>
+      </c>
+      <c r="D22" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E22" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F22" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G22" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
         <v>1</v>
-      </c>
-      <c r="D22" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E22" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F22" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G22" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3">
-        <v>2</v>
       </c>
       <c r="I22" s="4">
         <v>2</v>
       </c>
       <c r="J22" s="5">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="K22" s="6">
-        <v>9914</v>
+        <v>3499</v>
       </c>
       <c r="L22" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>https://yeweon-junghoon.com/?id=2021&amp;pw=9914</v>
+        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J22,"&amp;pw=",K22)</f>
+        <v>https://yeweon-junghoon.com/?id=2023&amp;pw=3499</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B23" s="1" t="b">
         <v>0</v>
@@ -12360,24 +12447,24 @@
         <v>2</v>
       </c>
       <c r="J23" s="5">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="K23" s="6">
-        <v>1912</v>
+        <v>1168</v>
       </c>
       <c r="L23" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>https://yeweon-junghoon.com/?id=2022&amp;pw=1912</v>
+        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J23,"&amp;pw=",K23)</f>
+        <v>https://yeweon-junghoon.com/?id=2024&amp;pw=1168</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B24" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="C24" s="1">
+      <c r="A24" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="B24" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="C24" s="12">
         <v>0</v>
       </c>
       <c r="D24" s="1" t="b">
@@ -12393,69 +12480,69 @@
         <v>0</v>
       </c>
       <c r="H24" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I24" s="4">
+        <v>3</v>
+      </c>
+      <c r="J24" s="5">
+        <v>2026</v>
+      </c>
+      <c r="K24" s="6">
+        <v>2981</v>
+      </c>
+      <c r="L24" s="3" t="str">
+        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J24,"&amp;pw=",K24)</f>
+        <v>https://yeweon-junghoon.com/?id=2026&amp;pw=2981</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="B25" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="C25" s="12">
+        <v>0</v>
+      </c>
+      <c r="D25" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E25" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F25" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G25" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H25" s="3">
         <v>2</v>
-      </c>
-      <c r="J24" s="5">
-        <v>2023</v>
-      </c>
-      <c r="K24" s="6">
-        <v>3499</v>
-      </c>
-      <c r="L24" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>https://yeweon-junghoon.com/?id=2023&amp;pw=3499</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B25" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="C25" s="1">
-        <v>0</v>
-      </c>
-      <c r="D25" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E25" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F25" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G25" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H25" s="3">
-        <v>1</v>
       </c>
       <c r="I25" s="4">
         <v>2</v>
       </c>
       <c r="J25" s="5">
-        <v>2024</v>
+        <v>2027</v>
       </c>
       <c r="K25" s="6">
-        <v>1168</v>
+        <v>5064</v>
       </c>
       <c r="L25" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>https://yeweon-junghoon.com/?id=2024&amp;pw=1168</v>
+        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J25,"&amp;pw=",K25)</f>
+        <v>https://yeweon-junghoon.com/?id=2027&amp;pw=5064</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="B26" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="C26" s="12">
+      <c r="A26" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C26" s="1">
         <v>0</v>
       </c>
       <c r="D26" s="1" t="b">
@@ -12471,30 +12558,30 @@
         <v>0</v>
       </c>
       <c r="H26" s="3">
+        <v>1</v>
+      </c>
+      <c r="I26" s="4">
         <v>2</v>
       </c>
-      <c r="I26" s="4">
-        <v>3</v>
-      </c>
       <c r="J26" s="5">
-        <v>2026</v>
+        <v>2028</v>
       </c>
       <c r="K26" s="6">
-        <v>2981</v>
+        <v>6205</v>
       </c>
       <c r="L26" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>https://yeweon-junghoon.com/?id=2026&amp;pw=2981</v>
+        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J26,"&amp;pw=",K26)</f>
+        <v>https://yeweon-junghoon.com/?id=2028&amp;pw=6205</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="B27" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="C27" s="12">
+      <c r="A27" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C27" s="1">
         <v>0</v>
       </c>
       <c r="D27" s="1" t="b">
@@ -12516,19 +12603,19 @@
         <v>2</v>
       </c>
       <c r="J27" s="5">
-        <v>2027</v>
+        <v>2031</v>
       </c>
       <c r="K27" s="6">
-        <v>5064</v>
+        <v>2258</v>
       </c>
       <c r="L27" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>https://yeweon-junghoon.com/?id=2027&amp;pw=5064</v>
+        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J27,"&amp;pw=",K27)</f>
+        <v>https://yeweon-junghoon.com/?id=2031&amp;pw=2258</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B28" s="1" t="b">
         <v>0</v>
@@ -12555,19 +12642,19 @@
         <v>2</v>
       </c>
       <c r="J28" s="5">
-        <v>2028</v>
+        <v>2032</v>
       </c>
       <c r="K28" s="6">
-        <v>6205</v>
+        <v>4587</v>
       </c>
       <c r="L28" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>https://yeweon-junghoon.com/?id=2028&amp;pw=6205</v>
+        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J28,"&amp;pw=",K28)</f>
+        <v>https://yeweon-junghoon.com/?id=2032&amp;pw=4587</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B29" s="1" t="b">
         <v>0</v>
@@ -12594,25 +12681,25 @@
         <v>2</v>
       </c>
       <c r="J29" s="5">
-        <v>2031</v>
+        <v>2033</v>
       </c>
       <c r="K29" s="6">
-        <v>2258</v>
+        <v>9621</v>
       </c>
       <c r="L29" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>https://yeweon-junghoon.com/?id=2031&amp;pw=2258</v>
+        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J29,"&amp;pw=",K29)</f>
+        <v>https://yeweon-junghoon.com/?id=2033&amp;pw=9621</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="B30" s="1" t="b">
         <v>0</v>
       </c>
       <c r="C30" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D30" s="1" t="b">
         <v>0</v>
@@ -12633,19 +12720,19 @@
         <v>2</v>
       </c>
       <c r="J30" s="5">
-        <v>2032</v>
+        <v>2034</v>
       </c>
       <c r="K30" s="6">
-        <v>4587</v>
+        <v>6805</v>
       </c>
       <c r="L30" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>https://yeweon-junghoon.com/?id=2032&amp;pw=4587</v>
+        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J30,"&amp;pw=",K30)</f>
+        <v>https://yeweon-junghoon.com/?id=2034&amp;pw=6805</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B31" s="1" t="b">
         <v>0</v>
@@ -12666,31 +12753,31 @@
         <v>0</v>
       </c>
       <c r="H31" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I31" s="4">
         <v>2</v>
       </c>
       <c r="J31" s="5">
-        <v>2033</v>
+        <v>2035</v>
       </c>
       <c r="K31" s="6">
-        <v>9621</v>
+        <v>6916</v>
       </c>
       <c r="L31" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>https://yeweon-junghoon.com/?id=2033&amp;pw=9621</v>
+        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J31,"&amp;pw=",K31)</f>
+        <v>https://yeweon-junghoon.com/?id=2035&amp;pw=6916</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B32" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="C32" s="1">
-        <v>1</v>
+      <c r="A32" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="B32" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="C32" s="12">
+        <v>0</v>
       </c>
       <c r="D32" s="1" t="b">
         <v>0</v>
@@ -12705,25 +12792,25 @@
         <v>0</v>
       </c>
       <c r="H32" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I32" s="4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J32" s="5">
-        <v>2034</v>
+        <v>2036</v>
       </c>
       <c r="K32" s="6">
-        <v>6805</v>
+        <v>4987</v>
       </c>
       <c r="L32" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>https://yeweon-junghoon.com/?id=2034&amp;pw=6805</v>
+        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J32,"&amp;pw=",K32)</f>
+        <v>https://yeweon-junghoon.com/?id=2036&amp;pw=4987</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B33" s="1" t="b">
         <v>0</v>
@@ -12750,24 +12837,24 @@
         <v>2</v>
       </c>
       <c r="J33" s="5">
-        <v>2035</v>
+        <v>2037</v>
       </c>
       <c r="K33" s="6">
-        <v>6916</v>
+        <v>2174</v>
       </c>
       <c r="L33" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>https://yeweon-junghoon.com/?id=2035&amp;pw=6916</v>
+        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J33,"&amp;pw=",K33)</f>
+        <v>https://yeweon-junghoon.com/?id=2037&amp;pw=2174</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="B34" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="C34" s="12">
+      <c r="A34" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B34" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C34" s="1">
         <v>0</v>
       </c>
       <c r="D34" s="1" t="b">
@@ -12783,25 +12870,25 @@
         <v>0</v>
       </c>
       <c r="H34" s="3">
+        <v>1</v>
+      </c>
+      <c r="I34" s="4">
         <v>2</v>
       </c>
-      <c r="I34" s="4">
-        <v>5</v>
-      </c>
       <c r="J34" s="5">
-        <v>2036</v>
+        <v>2038</v>
       </c>
       <c r="K34" s="6">
-        <v>4987</v>
+        <v>5990</v>
       </c>
       <c r="L34" s="3" t="str">
-        <f t="shared" ref="L34:L54" si="1">_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J34,"&amp;pw=",K34)</f>
-        <v>https://yeweon-junghoon.com/?id=2036&amp;pw=4987</v>
+        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J34,"&amp;pw=",K34)</f>
+        <v>https://yeweon-junghoon.com/?id=2038&amp;pw=5990</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B35" s="1" t="b">
         <v>0</v>
@@ -12822,25 +12909,25 @@
         <v>0</v>
       </c>
       <c r="H35" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I35" s="4">
         <v>2</v>
       </c>
       <c r="J35" s="5">
-        <v>2037</v>
+        <v>2039</v>
       </c>
       <c r="K35" s="6">
-        <v>2174</v>
+        <v>6040</v>
       </c>
       <c r="L35" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>https://yeweon-junghoon.com/?id=2037&amp;pw=2174</v>
+        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J35,"&amp;pw=",K35)</f>
+        <v>https://yeweon-junghoon.com/?id=2039&amp;pw=6040</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B36" s="1" t="b">
         <v>0</v>
@@ -12867,19 +12954,19 @@
         <v>2</v>
       </c>
       <c r="J36" s="5">
-        <v>2038</v>
+        <v>2040</v>
       </c>
       <c r="K36" s="6">
-        <v>5990</v>
+        <v>4250</v>
       </c>
       <c r="L36" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>https://yeweon-junghoon.com/?id=2038&amp;pw=5990</v>
+        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J36,"&amp;pw=",K36)</f>
+        <v>https://yeweon-junghoon.com/?id=2040&amp;pw=4250</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B37" s="1" t="b">
         <v>0</v>
@@ -12900,25 +12987,25 @@
         <v>0</v>
       </c>
       <c r="H37" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I37" s="4">
         <v>2</v>
       </c>
       <c r="J37" s="5">
-        <v>2039</v>
+        <v>2043</v>
       </c>
       <c r="K37" s="6">
-        <v>6040</v>
+        <v>2653</v>
       </c>
       <c r="L37" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>https://yeweon-junghoon.com/?id=2039&amp;pw=6040</v>
+        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J37,"&amp;pw=",K37)</f>
+        <v>https://yeweon-junghoon.com/?id=2043&amp;pw=2653</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B38" s="1" t="b">
         <v>0</v>
@@ -12927,7 +13014,7 @@
         <v>0</v>
       </c>
       <c r="D38" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E38" s="1" t="b">
         <v>0</v>
@@ -12945,24 +13032,24 @@
         <v>2</v>
       </c>
       <c r="J38" s="5">
-        <v>2040</v>
+        <v>2044</v>
       </c>
       <c r="K38" s="6">
-        <v>4250</v>
+        <v>1786</v>
       </c>
       <c r="L38" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>https://yeweon-junghoon.com/?id=2040&amp;pw=4250</v>
+        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J38,"&amp;pw=",K38)</f>
+        <v>https://yeweon-junghoon.com/?id=2044&amp;pw=1786</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B39" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="C39" s="1">
+      <c r="A39" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="B39" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="C39" s="12">
         <v>0</v>
       </c>
       <c r="D39" s="1" t="b">
@@ -12984,19 +13071,19 @@
         <v>2</v>
       </c>
       <c r="J39" s="5">
-        <v>2043</v>
+        <v>2046</v>
       </c>
       <c r="K39" s="6">
-        <v>2653</v>
+        <v>1602</v>
       </c>
       <c r="L39" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>https://yeweon-junghoon.com/?id=2043&amp;pw=2653</v>
+        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J39,"&amp;pw=",K39)</f>
+        <v>https://yeweon-junghoon.com/?id=2046&amp;pw=1602</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B40" s="1" t="b">
         <v>0</v>
@@ -13005,7 +13092,7 @@
         <v>0</v>
       </c>
       <c r="D40" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E40" s="1" t="b">
         <v>0</v>
@@ -13017,30 +13104,30 @@
         <v>0</v>
       </c>
       <c r="H40" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I40" s="4">
         <v>2</v>
       </c>
       <c r="J40" s="5">
-        <v>2044</v>
+        <v>2048</v>
       </c>
       <c r="K40" s="6">
-        <v>1786</v>
+        <v>9424</v>
       </c>
       <c r="L40" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>https://yeweon-junghoon.com/?id=2044&amp;pw=1786</v>
+        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J40,"&amp;pw=",K40)</f>
+        <v>https://yeweon-junghoon.com/?id=2048&amp;pw=9424</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="B41" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="C41" s="12">
+      <c r="A41" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B41" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C41" s="1">
         <v>0</v>
       </c>
       <c r="D41" s="1" t="b">
@@ -13062,19 +13149,19 @@
         <v>2</v>
       </c>
       <c r="J41" s="5">
-        <v>2046</v>
+        <v>2049</v>
       </c>
       <c r="K41" s="6">
-        <v>1602</v>
+        <v>7131</v>
       </c>
       <c r="L41" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>https://yeweon-junghoon.com/?id=2046&amp;pw=1602</v>
+        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J41,"&amp;pw=",K41)</f>
+        <v>https://yeweon-junghoon.com/?id=2049&amp;pw=7131</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B42" s="1" t="b">
         <v>0</v>
@@ -13095,25 +13182,25 @@
         <v>0</v>
       </c>
       <c r="H42" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I42" s="4">
         <v>2</v>
       </c>
       <c r="J42" s="5">
-        <v>2048</v>
+        <v>2050</v>
       </c>
       <c r="K42" s="6">
-        <v>9424</v>
+        <v>2659</v>
       </c>
       <c r="L42" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>https://yeweon-junghoon.com/?id=2048&amp;pw=9424</v>
+        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J42,"&amp;pw=",K42)</f>
+        <v>https://yeweon-junghoon.com/?id=2050&amp;pw=2659</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B43" s="1" t="b">
         <v>0</v>
@@ -13140,19 +13227,19 @@
         <v>2</v>
       </c>
       <c r="J43" s="5">
-        <v>2049</v>
+        <v>2052</v>
       </c>
       <c r="K43" s="6">
-        <v>7131</v>
+        <v>3869</v>
       </c>
       <c r="L43" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>https://yeweon-junghoon.com/?id=2049&amp;pw=7131</v>
+        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J43,"&amp;pw=",K43)</f>
+        <v>https://yeweon-junghoon.com/?id=2052&amp;pw=3869</v>
       </c>
     </row>
     <row r="44" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B44" s="1" t="b">
         <v>0</v>
@@ -13179,19 +13266,19 @@
         <v>2</v>
       </c>
       <c r="J44" s="5">
-        <v>2050</v>
+        <v>2053</v>
       </c>
       <c r="K44" s="6">
-        <v>2659</v>
+        <v>5767</v>
       </c>
       <c r="L44" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>https://yeweon-junghoon.com/?id=2050&amp;pw=2659</v>
+        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J44,"&amp;pw=",K44)</f>
+        <v>https://yeweon-junghoon.com/?id=2053&amp;pw=5767</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B45" s="1" t="b">
         <v>0</v>
@@ -13212,25 +13299,25 @@
         <v>0</v>
       </c>
       <c r="H45" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I45" s="4">
         <v>2</v>
       </c>
       <c r="J45" s="5">
-        <v>2052</v>
+        <v>2055</v>
       </c>
       <c r="K45" s="6">
-        <v>3869</v>
+        <v>1255</v>
       </c>
       <c r="L45" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>https://yeweon-junghoon.com/?id=2052&amp;pw=3869</v>
+        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J45,"&amp;pw=",K45)</f>
+        <v>https://yeweon-junghoon.com/?id=2055&amp;pw=1255</v>
       </c>
     </row>
     <row r="46" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B46" s="1" t="b">
         <v>0</v>
@@ -13251,31 +13338,31 @@
         <v>0</v>
       </c>
       <c r="H46" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I46" s="4">
         <v>2</v>
       </c>
       <c r="J46" s="5">
-        <v>2053</v>
+        <v>2056</v>
       </c>
       <c r="K46" s="6">
-        <v>5767</v>
+        <v>2271</v>
       </c>
       <c r="L46" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>https://yeweon-junghoon.com/?id=2053&amp;pw=5767</v>
+        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J46,"&amp;pw=",K46)</f>
+        <v>https://yeweon-junghoon.com/?id=2056&amp;pw=2271</v>
       </c>
     </row>
     <row r="47" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="B47" s="1" t="b">
         <v>0</v>
       </c>
       <c r="C47" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D47" s="1" t="b">
         <v>0</v>
@@ -13290,25 +13377,25 @@
         <v>0</v>
       </c>
       <c r="H47" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I47" s="4">
         <v>2</v>
       </c>
       <c r="J47" s="5">
-        <v>2055</v>
+        <v>2058</v>
       </c>
       <c r="K47" s="6">
-        <v>1255</v>
+        <v>8119</v>
       </c>
       <c r="L47" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>https://yeweon-junghoon.com/?id=2055&amp;pw=1255</v>
+        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J47,"&amp;pw=",K47)</f>
+        <v>https://yeweon-junghoon.com/?id=2058&amp;pw=8119</v>
       </c>
     </row>
     <row r="48" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="B48" s="1" t="b">
         <v>0</v>
@@ -13317,10 +13404,10 @@
         <v>0</v>
       </c>
       <c r="D48" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E48" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F48" s="1" t="b">
         <v>0</v>
@@ -13329,25 +13416,25 @@
         <v>0</v>
       </c>
       <c r="H48" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I48" s="4">
         <v>2</v>
       </c>
       <c r="J48" s="5">
-        <v>2056</v>
+        <v>2059</v>
       </c>
       <c r="K48" s="6">
-        <v>2271</v>
+        <v>3233</v>
       </c>
       <c r="L48" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>https://yeweon-junghoon.com/?id=2056&amp;pw=2271</v>
+        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J48,"&amp;pw=",K48)</f>
+        <v>https://yeweon-junghoon.com/?id=2059&amp;pw=3233</v>
       </c>
     </row>
     <row r="49" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>49</v>
+        <v>205</v>
       </c>
       <c r="B49" s="1" t="b">
         <v>0</v>
@@ -13368,103 +13455,103 @@
         <v>0</v>
       </c>
       <c r="H49" s="3">
-        <v>1</v>
-      </c>
-      <c r="I49" s="4">
         <v>2</v>
       </c>
+      <c r="I49" s="20">
+        <v>2</v>
+      </c>
       <c r="J49" s="5">
-        <v>2058</v>
-      </c>
-      <c r="K49" s="6">
-        <v>8119</v>
+        <v>2061</v>
+      </c>
+      <c r="K49" s="5">
+        <v>6154</v>
       </c>
       <c r="L49" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>https://yeweon-junghoon.com/?id=2058&amp;pw=8119</v>
+        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J49,"&amp;pw=",K49)</f>
+        <v>https://yeweon-junghoon.com/?id=2061&amp;pw=6154</v>
       </c>
     </row>
     <row r="50" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>78</v>
+        <v>208</v>
       </c>
       <c r="B50" s="1" t="b">
         <v>0</v>
       </c>
       <c r="C50" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D50" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E50" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F50" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G50" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H50" s="3">
+        <v>2</v>
+      </c>
+      <c r="I50">
+        <v>2</v>
+      </c>
+      <c r="J50" s="5">
+        <v>2062</v>
+      </c>
+      <c r="K50" s="5">
+        <v>6154</v>
+      </c>
+      <c r="L50" s="3" t="str">
+        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J50,"&amp;pw=",K50)</f>
+        <v>https://yeweon-junghoon.com/?id=2062&amp;pw=6154</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>207</v>
+      </c>
+      <c r="B51" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C51" s="1">
         <v>1</v>
       </c>
-      <c r="E50" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F50" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G50" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H50" s="3">
-        <v>1</v>
-      </c>
-      <c r="I50" s="4">
+      <c r="D51" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E51" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F51" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G51" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H51" s="3">
         <v>2</v>
       </c>
-      <c r="J50" s="5">
-        <v>2059</v>
-      </c>
-      <c r="K50" s="6">
-        <v>3233</v>
-      </c>
-      <c r="L50" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>https://yeweon-junghoon.com/?id=2059&amp;pw=3233</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="B51" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="C51" s="1">
-        <v>0</v>
-      </c>
-      <c r="D51" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E51" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F51" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G51" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H51" s="3">
-        <v>0</v>
-      </c>
-      <c r="I51" s="20">
-        <v>0</v>
+      <c r="I51">
+        <v>2</v>
       </c>
       <c r="J51" s="5">
-        <v>2060</v>
+        <v>2063</v>
       </c>
       <c r="K51" s="5">
-        <v>6481</v>
+        <v>6154</v>
       </c>
       <c r="L51" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>https://yeweon-junghoon.com/?id=2060&amp;pw=6481</v>
+        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J51,"&amp;pw=",K51)</f>
+        <v>https://yeweon-junghoon.com/?id=2063&amp;pw=6154</v>
       </c>
     </row>
     <row r="52" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B52" s="1" t="b">
         <v>0</v>
@@ -13485,37 +13572,37 @@
         <v>0</v>
       </c>
       <c r="H52" s="3">
-        <v>2</v>
-      </c>
-      <c r="I52" s="20">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="I52" s="29">
+        <v>1</v>
       </c>
       <c r="J52" s="5">
-        <v>2061</v>
+        <v>2064</v>
       </c>
       <c r="K52" s="5">
         <v>6154</v>
       </c>
       <c r="L52" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>https://yeweon-junghoon.com/?id=2061&amp;pw=6154</v>
+        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J52,"&amp;pw=",K52)</f>
+        <v>https://yeweon-junghoon.com/?id=2064&amp;pw=6154</v>
       </c>
     </row>
     <row r="53" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>208</v>
+        <v>41</v>
       </c>
       <c r="B53" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C53" s="1">
         <v>1</v>
       </c>
       <c r="D53" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E53" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F53" s="1" t="b">
         <v>0</v>
@@ -13524,37 +13611,37 @@
         <v>0</v>
       </c>
       <c r="H53" s="3">
-        <v>2</v>
-      </c>
-      <c r="I53">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="I53" s="4">
+        <v>0</v>
       </c>
       <c r="J53" s="5">
-        <v>2062</v>
-      </c>
-      <c r="K53" s="5">
-        <v>6154</v>
+        <v>2005</v>
+      </c>
+      <c r="K53" s="6">
+        <v>4551</v>
       </c>
       <c r="L53" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>https://yeweon-junghoon.com/?id=2062&amp;pw=6154</v>
+        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J53,"&amp;pw=",K53)</f>
+        <v>https://yeweon-junghoon.com/?id=2005&amp;pw=4551</v>
       </c>
     </row>
     <row r="54" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>207</v>
+      <c r="A54" s="12" t="s">
+        <v>39</v>
       </c>
       <c r="B54" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C54" s="1">
         <v>1</v>
       </c>
       <c r="D54" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E54" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F54" s="1" t="b">
         <v>0</v>
@@ -13563,31 +13650,31 @@
         <v>0</v>
       </c>
       <c r="H54" s="3">
-        <v>2</v>
-      </c>
-      <c r="I54">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="I54" s="4">
+        <v>0</v>
       </c>
       <c r="J54" s="5">
-        <v>2063</v>
-      </c>
-      <c r="K54" s="5">
-        <v>6154</v>
+        <v>2009</v>
+      </c>
+      <c r="K54" s="6">
+        <v>2309</v>
       </c>
       <c r="L54" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>https://yeweon-junghoon.com/?id=2063&amp;pw=6154</v>
+        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J54,"&amp;pw=",K54)</f>
+        <v>https://yeweon-junghoon.com/?id=2009&amp;pw=2309</v>
       </c>
     </row>
     <row r="55" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B55" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C55" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D55" s="1" t="b">
         <v>0</v>
@@ -13602,20 +13689,20 @@
         <v>0</v>
       </c>
       <c r="H55" s="3">
-        <v>1</v>
-      </c>
-      <c r="I55" s="29">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I55" s="20">
+        <v>0</v>
       </c>
       <c r="J55" s="5">
-        <v>2064</v>
+        <v>2060</v>
       </c>
       <c r="K55" s="5">
-        <v>6154</v>
+        <v>6481</v>
       </c>
       <c r="L55" s="3" t="str">
         <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J55,"&amp;pw=",K55)</f>
-        <v>https://yeweon-junghoon.com/?id=2064&amp;pw=6154</v>
+        <v>https://yeweon-junghoon.com/?id=2060&amp;pw=6481</v>
       </c>
     </row>
     <row r="56" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -21981,7 +22068,7 @@
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L984">
-    <sortCondition ref="J1:J984"/>
+    <sortCondition ref="B1:B984"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -22011,7 +22098,7 @@
   <dimension ref="A1:L983"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="A2" sqref="A2:XFD19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22766,7 +22853,9 @@
       </c>
     </row>
     <row r="20" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="11"/>
+      <c r="A20" s="1" t="s">
+        <v>266</v>
+      </c>
       <c r="B20" s="4"/>
       <c r="C20" s="12"/>
       <c r="D20" s="1"/>
@@ -31640,8 +31729,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6429DC8D-D224-1B4D-80E1-E72ED45ECA61}">
   <dimension ref="A1:L982"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -58026,4 +58115,4556 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="3" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12571A01-8B36-4D4A-AD4E-5550A63D1F00}">
+  <dimension ref="A1:M122"/>
+  <sheetViews>
+    <sheetView topLeftCell="A93" workbookViewId="0">
+      <selection activeCell="K127" sqref="K127"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="32.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="13"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="3"/>
+    </row>
+    <row r="2" spans="1:13" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="C2" s="30">
+        <v>1</v>
+      </c>
+      <c r="D2" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="F2" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="G2" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2" s="32">
+        <v>2</v>
+      </c>
+      <c r="I2" s="38">
+        <v>2</v>
+      </c>
+      <c r="J2" s="34">
+        <v>3002</v>
+      </c>
+      <c r="K2" s="35">
+        <v>3480</v>
+      </c>
+      <c r="L2" s="32" t="str">
+        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J2,"&amp;pw=",K2)</f>
+        <v>https://yeweon-junghoon.com/?id=3002&amp;pw=3480</v>
+      </c>
+      <c r="M2" s="37" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="36" t="s">
+        <v>192</v>
+      </c>
+      <c r="B3" s="38" t="b">
+        <v>0</v>
+      </c>
+      <c r="C3" s="30">
+        <v>1</v>
+      </c>
+      <c r="D3" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="E3" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="F3" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="G3" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3" s="32">
+        <v>2</v>
+      </c>
+      <c r="I3" s="38">
+        <v>2</v>
+      </c>
+      <c r="J3" s="34">
+        <v>3003</v>
+      </c>
+      <c r="K3" s="35">
+        <v>5064</v>
+      </c>
+      <c r="L3" s="32" t="str">
+        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J3,"&amp;pw=",K3)</f>
+        <v>https://yeweon-junghoon.com/?id=3003&amp;pw=5064</v>
+      </c>
+      <c r="M3" s="37" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4" s="3">
+        <v>2</v>
+      </c>
+      <c r="I4" s="4">
+        <v>2</v>
+      </c>
+      <c r="J4" s="5">
+        <v>3004</v>
+      </c>
+      <c r="K4" s="6">
+        <v>1168</v>
+      </c>
+      <c r="L4" s="3" t="str">
+        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J4,"&amp;pw=",K4)</f>
+        <v>https://yeweon-junghoon.com/?id=3004&amp;pw=1168</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5" s="3">
+        <v>2</v>
+      </c>
+      <c r="I5" s="4">
+        <v>2</v>
+      </c>
+      <c r="J5" s="5">
+        <v>3005</v>
+      </c>
+      <c r="K5" s="6">
+        <v>3499</v>
+      </c>
+      <c r="L5" s="3" t="str">
+        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J5,"&amp;pw=",K5)</f>
+        <v>https://yeweon-junghoon.com/?id=3005&amp;pw=3499</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="4"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="3"/>
+    </row>
+    <row r="7" spans="1:13" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="36" t="s">
+        <v>191</v>
+      </c>
+      <c r="B7" s="38" t="b">
+        <v>0</v>
+      </c>
+      <c r="C7" s="30">
+        <v>1</v>
+      </c>
+      <c r="D7" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="E7" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="F7" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7" s="32">
+        <v>2</v>
+      </c>
+      <c r="I7" s="38">
+        <v>2</v>
+      </c>
+      <c r="J7" s="34">
+        <v>3007</v>
+      </c>
+      <c r="K7" s="35">
+        <v>2981</v>
+      </c>
+      <c r="L7" s="32" t="str">
+        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J7,"&amp;pw=",K7)</f>
+        <v>https://yeweon-junghoon.com/?id=3007&amp;pw=2981</v>
+      </c>
+      <c r="M7" s="37" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" s="21" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="B9" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="C9" s="22">
+        <v>0</v>
+      </c>
+      <c r="D9" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="E9" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="G9" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9" s="24">
+        <v>1</v>
+      </c>
+      <c r="I9" s="51">
+        <v>1</v>
+      </c>
+      <c r="J9" s="26">
+        <v>3009</v>
+      </c>
+      <c r="K9" s="27">
+        <v>6546</v>
+      </c>
+      <c r="L9" s="24" t="str">
+        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J9,"&amp;pw=",K9)</f>
+        <v>https://yeweon-junghoon.com/?id=3009&amp;pw=6546</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" s="21" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="B10" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="C10" s="22">
+        <v>0</v>
+      </c>
+      <c r="D10" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="E10" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="F10" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="G10" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10" s="24">
+        <v>1</v>
+      </c>
+      <c r="I10" s="51">
+        <v>1</v>
+      </c>
+      <c r="J10" s="26">
+        <v>3010</v>
+      </c>
+      <c r="K10" s="27">
+        <v>9721</v>
+      </c>
+      <c r="L10" s="24" t="str">
+        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J10,"&amp;pw=",K10)</f>
+        <v>https://yeweon-junghoon.com/?id=3010&amp;pw=9721</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" s="21" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="B11" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="C11" s="22">
+        <v>0</v>
+      </c>
+      <c r="D11" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="E11" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="F11" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="G11" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="H11" s="24">
+        <v>1</v>
+      </c>
+      <c r="I11" s="51">
+        <v>1</v>
+      </c>
+      <c r="J11" s="26">
+        <v>3011</v>
+      </c>
+      <c r="K11" s="27">
+        <v>2388</v>
+      </c>
+      <c r="L11" s="24" t="str">
+        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J11,"&amp;pw=",K11)</f>
+        <v>https://yeweon-junghoon.com/?id=3011&amp;pw=2388</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="36" t="s">
+        <v>128</v>
+      </c>
+      <c r="B12" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="C12" s="30">
+        <v>0</v>
+      </c>
+      <c r="D12" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="E12" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="F12" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="G12" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12" s="32">
+        <v>1</v>
+      </c>
+      <c r="I12" s="38">
+        <v>0</v>
+      </c>
+      <c r="J12" s="34">
+        <v>3012</v>
+      </c>
+      <c r="K12" s="35">
+        <v>7541</v>
+      </c>
+      <c r="L12" s="32" t="str">
+        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J12,"&amp;pw=",K12)</f>
+        <v>https://yeweon-junghoon.com/?id=3012&amp;pw=7541</v>
+      </c>
+      <c r="M12" s="37" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" s="21" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="B13" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="C13" s="22">
+        <v>0</v>
+      </c>
+      <c r="D13" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="E13" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="F13" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="G13" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13" s="24">
+        <v>2</v>
+      </c>
+      <c r="I13" s="25">
+        <v>2</v>
+      </c>
+      <c r="J13" s="26">
+        <v>3013</v>
+      </c>
+      <c r="K13" s="27">
+        <v>7554</v>
+      </c>
+      <c r="L13" s="24" t="str">
+        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J13,"&amp;pw=",K13)</f>
+        <v>https://yeweon-junghoon.com/?id=3013&amp;pw=7554</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="C14" s="30">
+        <v>0</v>
+      </c>
+      <c r="D14" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="E14" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="F14" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="G14" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14" s="32">
+        <v>1</v>
+      </c>
+      <c r="I14" s="38">
+        <v>1</v>
+      </c>
+      <c r="J14" s="34">
+        <v>3014</v>
+      </c>
+      <c r="K14" s="35">
+        <v>2309</v>
+      </c>
+      <c r="L14" s="32" t="str">
+        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J14,"&amp;pw=",K14)</f>
+        <v>https://yeweon-junghoon.com/?id=3014&amp;pw=2309</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" s="21" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="B15" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="C15" s="22">
+        <v>0</v>
+      </c>
+      <c r="D15" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="E15" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="F15" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="G15" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15" s="24">
+        <v>1</v>
+      </c>
+      <c r="I15" s="25">
+        <v>1</v>
+      </c>
+      <c r="J15" s="26">
+        <v>3015</v>
+      </c>
+      <c r="K15" s="27">
+        <v>3690</v>
+      </c>
+      <c r="L15" s="24" t="str">
+        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J15,"&amp;pw=",K15)</f>
+        <v>https://yeweon-junghoon.com/?id=3015&amp;pw=3690</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="50" t="s">
+        <v>121</v>
+      </c>
+      <c r="B16" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="C16" s="30">
+        <v>0</v>
+      </c>
+      <c r="D16" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="E16" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="F16" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="G16" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="H16" s="32">
+        <v>1</v>
+      </c>
+      <c r="I16" s="38">
+        <v>1</v>
+      </c>
+      <c r="J16" s="34">
+        <v>3016</v>
+      </c>
+      <c r="K16" s="35">
+        <v>4869</v>
+      </c>
+      <c r="L16" s="32" t="str">
+        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J16,"&amp;pw=",K16)</f>
+        <v>https://yeweon-junghoon.com/?id=3016&amp;pw=4869</v>
+      </c>
+      <c r="M16" s="37" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="50" t="s">
+        <v>204</v>
+      </c>
+      <c r="B17" s="38" t="b">
+        <v>0</v>
+      </c>
+      <c r="C17" s="30">
+        <v>0</v>
+      </c>
+      <c r="D17" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="E17" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="F17" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="G17" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="H17" s="32">
+        <v>3</v>
+      </c>
+      <c r="I17" s="38">
+        <v>4</v>
+      </c>
+      <c r="J17" s="34">
+        <v>3017</v>
+      </c>
+      <c r="K17" s="35">
+        <v>5482</v>
+      </c>
+      <c r="L17" s="32" t="str">
+        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J17,"&amp;pw=",K17)</f>
+        <v>https://yeweon-junghoon.com/?id=3017&amp;pw=5482</v>
+      </c>
+      <c r="M17" s="37" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" s="21" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="B18" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="C18" s="22">
+        <v>0</v>
+      </c>
+      <c r="D18" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="E18" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="F18" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="G18" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="H18" s="24">
+        <v>1</v>
+      </c>
+      <c r="I18" s="25">
+        <v>1</v>
+      </c>
+      <c r="J18" s="26">
+        <v>3018</v>
+      </c>
+      <c r="K18" s="27">
+        <v>6182</v>
+      </c>
+      <c r="L18" s="24" t="str">
+        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J18,"&amp;pw=",K18)</f>
+        <v>https://yeweon-junghoon.com/?id=3018&amp;pw=6182</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" s="21" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="B19" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="C19" s="22">
+        <v>0</v>
+      </c>
+      <c r="D19" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="E19" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="F19" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="G19" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="H19" s="24">
+        <v>2</v>
+      </c>
+      <c r="I19" s="25">
+        <v>2</v>
+      </c>
+      <c r="J19" s="26">
+        <v>3019</v>
+      </c>
+      <c r="K19" s="27">
+        <v>4195</v>
+      </c>
+      <c r="L19" s="24" t="str">
+        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J19,"&amp;pw=",K19)</f>
+        <v>https://yeweon-junghoon.com/?id=3019&amp;pw=4195</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" s="21" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="21" t="s">
+        <v>190</v>
+      </c>
+      <c r="B20" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="C20" s="22">
+        <v>0</v>
+      </c>
+      <c r="D20" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="E20" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="F20" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="G20" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="H20" s="24">
+        <v>2</v>
+      </c>
+      <c r="I20" s="25">
+        <v>2</v>
+      </c>
+      <c r="J20" s="26">
+        <v>3020</v>
+      </c>
+      <c r="K20" s="27">
+        <v>6240</v>
+      </c>
+      <c r="L20" s="24" t="str">
+        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J20,"&amp;pw=",K20)</f>
+        <v>https://yeweon-junghoon.com/?id=3020&amp;pw=6240</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" s="21" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="B21" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="C21" s="22">
+        <v>0</v>
+      </c>
+      <c r="D21" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="E21" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="F21" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="G21" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="H21" s="24">
+        <v>1</v>
+      </c>
+      <c r="I21" s="25">
+        <v>1</v>
+      </c>
+      <c r="J21" s="26">
+        <v>3021</v>
+      </c>
+      <c r="K21" s="27">
+        <v>3589</v>
+      </c>
+      <c r="L21" s="24" t="str">
+        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J21,"&amp;pw=",K21)</f>
+        <v>https://yeweon-junghoon.com/?id=3021&amp;pw=3589</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" s="21" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="B22" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="C22" s="22">
+        <v>0</v>
+      </c>
+      <c r="D22" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="E22" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="F22" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="G22" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="H22" s="24">
+        <v>1</v>
+      </c>
+      <c r="I22" s="25">
+        <v>1</v>
+      </c>
+      <c r="J22" s="26">
+        <v>3022</v>
+      </c>
+      <c r="K22" s="27">
+        <v>9668</v>
+      </c>
+      <c r="L22" s="24" t="str">
+        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J22,"&amp;pw=",K22)</f>
+        <v>https://yeweon-junghoon.com/?id=3022&amp;pw=9668</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" s="21" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="B23" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="C23" s="22">
+        <v>0</v>
+      </c>
+      <c r="D23" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="E23" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="F23" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="G23" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="H23" s="24">
+        <v>1</v>
+      </c>
+      <c r="I23" s="25">
+        <v>1</v>
+      </c>
+      <c r="J23" s="26">
+        <v>3023</v>
+      </c>
+      <c r="K23" s="27">
+        <v>7769</v>
+      </c>
+      <c r="L23" s="24" t="str">
+        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J23,"&amp;pw=",K23)</f>
+        <v>https://yeweon-junghoon.com/?id=3023&amp;pw=7769</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" s="21" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="B24" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="C24" s="22">
+        <v>0</v>
+      </c>
+      <c r="D24" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="E24" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="F24" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="G24" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="H24" s="24">
+        <v>1</v>
+      </c>
+      <c r="I24" s="25">
+        <v>1</v>
+      </c>
+      <c r="J24" s="26">
+        <v>3024</v>
+      </c>
+      <c r="K24" s="27">
+        <v>5875</v>
+      </c>
+      <c r="L24" s="24" t="str">
+        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J24,"&amp;pw=",K24)</f>
+        <v>https://yeweon-junghoon.com/?id=3024&amp;pw=5875</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" s="21" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="21" t="s">
+        <v>189</v>
+      </c>
+      <c r="B25" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="C25" s="22">
+        <v>0</v>
+      </c>
+      <c r="D25" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="E25" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="F25" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="G25" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="H25" s="24">
+        <v>2</v>
+      </c>
+      <c r="I25" s="25">
+        <v>2</v>
+      </c>
+      <c r="J25" s="26">
+        <v>3026</v>
+      </c>
+      <c r="K25" s="27">
+        <v>7226</v>
+      </c>
+      <c r="L25" s="24" t="str">
+        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J25,"&amp;pw=",K25)</f>
+        <v>https://yeweon-junghoon.com/?id=3026&amp;pw=7226</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" s="21" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="22"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="26"/>
+      <c r="K26" s="27"/>
+      <c r="L26" s="24"/>
+    </row>
+    <row r="27" spans="1:13" s="21" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="30" t="s">
+        <v>194</v>
+      </c>
+      <c r="B27" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="C27" s="30">
+        <v>1</v>
+      </c>
+      <c r="D27" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="E27" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="F27" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="G27" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="H27" s="32">
+        <v>1</v>
+      </c>
+      <c r="I27" s="33">
+        <v>1</v>
+      </c>
+      <c r="J27" s="34">
+        <v>3027</v>
+      </c>
+      <c r="K27" s="35">
+        <v>3213</v>
+      </c>
+      <c r="L27" s="32" t="str">
+        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J27,"&amp;pw=",K27)</f>
+        <v>https://yeweon-junghoon.com/?id=3027&amp;pw=3213</v>
+      </c>
+      <c r="M27" s="36" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="30" t="s">
+        <v>195</v>
+      </c>
+      <c r="B28" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="C28" s="30">
+        <v>1</v>
+      </c>
+      <c r="D28" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="E28" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="F28" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="G28" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="H28" s="32">
+        <v>1</v>
+      </c>
+      <c r="I28" s="33">
+        <v>2</v>
+      </c>
+      <c r="J28" s="34">
+        <v>3028</v>
+      </c>
+      <c r="K28" s="35">
+        <v>5652</v>
+      </c>
+      <c r="L28" s="32" t="str">
+        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J28,"&amp;pw=",K28)</f>
+        <v>https://yeweon-junghoon.com/?id=3028&amp;pw=5652</v>
+      </c>
+      <c r="M28" s="36" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="30" t="s">
+        <v>196</v>
+      </c>
+      <c r="B29" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="C29" s="30">
+        <v>1</v>
+      </c>
+      <c r="D29" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="E29" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="F29" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="G29" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="H29" s="32">
+        <v>2</v>
+      </c>
+      <c r="I29" s="33">
+        <v>2</v>
+      </c>
+      <c r="J29" s="34">
+        <v>3029</v>
+      </c>
+      <c r="K29" s="35">
+        <v>3573</v>
+      </c>
+      <c r="L29" s="32" t="str">
+        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J29,"&amp;pw=",K29)</f>
+        <v>https://yeweon-junghoon.com/?id=3029&amp;pw=3573</v>
+      </c>
+      <c r="M29" s="36" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="30" t="s">
+        <v>214</v>
+      </c>
+      <c r="B30" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="C30" s="30">
+        <v>0</v>
+      </c>
+      <c r="D30" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="E30" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="F30" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="G30" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="H30" s="32">
+        <v>2</v>
+      </c>
+      <c r="I30" s="33">
+        <v>1</v>
+      </c>
+      <c r="J30" s="34">
+        <v>3032</v>
+      </c>
+      <c r="K30" s="35">
+        <v>4568</v>
+      </c>
+      <c r="L30" s="32" t="str">
+        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J30,"&amp;pw=",K30)</f>
+        <v>https://yeweon-junghoon.com/?id=3032&amp;pw=4568</v>
+      </c>
+      <c r="M30" s="37" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B31" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C31" s="1">
+        <v>0</v>
+      </c>
+      <c r="D31" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E31" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F31" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G31" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H31" s="3">
+        <v>5</v>
+      </c>
+      <c r="I31" s="29">
+        <v>5</v>
+      </c>
+      <c r="J31" s="5">
+        <v>3033</v>
+      </c>
+      <c r="K31" s="6">
+        <v>6651</v>
+      </c>
+      <c r="L31" s="3" t="str">
+        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J31,"&amp;pw=",K31)</f>
+        <v>https://yeweon-junghoon.com/?id=3033&amp;pw=6651</v>
+      </c>
+      <c r="M31" s="14" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C32" s="1">
+        <v>1</v>
+      </c>
+      <c r="D32" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E32" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F32" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G32" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
+        <v>1</v>
+      </c>
+      <c r="I32" s="4">
+        <v>1</v>
+      </c>
+      <c r="J32" s="5">
+        <v>2001</v>
+      </c>
+      <c r="K32" s="6">
+        <v>7554</v>
+      </c>
+      <c r="L32" s="3" t="str">
+        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J32,"&amp;pw=",K32)</f>
+        <v>https://yeweon-junghoon.com/?id=2001&amp;pw=7554</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="B33" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C33" s="1">
+        <v>1</v>
+      </c>
+      <c r="D33" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E33" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F33" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G33" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H33" s="3">
+        <v>2</v>
+      </c>
+      <c r="I33" s="4">
+        <v>2</v>
+      </c>
+      <c r="J33" s="5">
+        <v>2002</v>
+      </c>
+      <c r="K33" s="6">
+        <v>9721</v>
+      </c>
+      <c r="L33" s="3" t="str">
+        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J33,"&amp;pw=",K33)</f>
+        <v>https://yeweon-junghoon.com/?id=2002&amp;pw=9721</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B34" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C34" s="1">
+        <v>1</v>
+      </c>
+      <c r="D34" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E34" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F34" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G34" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H34" s="3">
+        <v>1</v>
+      </c>
+      <c r="I34" s="4">
+        <v>2</v>
+      </c>
+      <c r="J34" s="5">
+        <v>2003</v>
+      </c>
+      <c r="K34" s="6">
+        <v>2388</v>
+      </c>
+      <c r="L34" s="3" t="str">
+        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J34,"&amp;pw=",K34)</f>
+        <v>https://yeweon-junghoon.com/?id=2003&amp;pw=2388</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B35" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C35" s="1">
+        <v>1</v>
+      </c>
+      <c r="D35" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E35" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F35" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G35" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H35" s="3">
+        <v>3</v>
+      </c>
+      <c r="I35" s="4">
+        <v>3</v>
+      </c>
+      <c r="J35" s="5">
+        <v>2004</v>
+      </c>
+      <c r="K35" s="6">
+        <v>6546</v>
+      </c>
+      <c r="L35" s="3" t="str">
+        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J35,"&amp;pw=",K35)</f>
+        <v>https://yeweon-junghoon.com/?id=2004&amp;pw=6546</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B36" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C36" s="1">
+        <v>1</v>
+      </c>
+      <c r="D36" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E36" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F36" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G36" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H36" s="3">
+        <v>1</v>
+      </c>
+      <c r="I36" s="4">
+        <v>0</v>
+      </c>
+      <c r="J36" s="5">
+        <v>2006</v>
+      </c>
+      <c r="K36" s="6">
+        <v>6182</v>
+      </c>
+      <c r="L36" s="3" t="str">
+        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J36,"&amp;pw=",K36)</f>
+        <v>https://yeweon-junghoon.com/?id=2006&amp;pw=6182</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B37" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C37" s="1">
+        <v>1</v>
+      </c>
+      <c r="D37" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E37" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F37" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G37" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H37" s="3">
+        <v>1</v>
+      </c>
+      <c r="I37" s="4">
+        <v>1</v>
+      </c>
+      <c r="J37" s="5">
+        <v>2007</v>
+      </c>
+      <c r="K37" s="6">
+        <v>7226</v>
+      </c>
+      <c r="L37" s="3" t="str">
+        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J37,"&amp;pw=",K37)</f>
+        <v>https://yeweon-junghoon.com/?id=2007&amp;pw=7226</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="B38" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C38" s="1">
+        <v>1</v>
+      </c>
+      <c r="D38" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E38" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F38" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G38" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H38" s="3">
+        <v>1</v>
+      </c>
+      <c r="I38" s="11">
+        <v>1</v>
+      </c>
+      <c r="J38" s="5">
+        <v>2008</v>
+      </c>
+      <c r="K38" s="6">
+        <v>7541</v>
+      </c>
+      <c r="L38" s="3" t="str">
+        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J38,"&amp;pw=",K38)</f>
+        <v>https://yeweon-junghoon.com/?id=2008&amp;pw=7541</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B39" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C39" s="1">
+        <v>1</v>
+      </c>
+      <c r="D39" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E39" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F39" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G39" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H39" s="3">
+        <v>1</v>
+      </c>
+      <c r="I39" s="4">
+        <v>1</v>
+      </c>
+      <c r="J39" s="5">
+        <v>2010</v>
+      </c>
+      <c r="K39" s="6">
+        <v>3690</v>
+      </c>
+      <c r="L39" s="3" t="str">
+        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J39,"&amp;pw=",K39)</f>
+        <v>https://yeweon-junghoon.com/?id=2010&amp;pw=3690</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B40" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C40" s="1">
+        <v>0</v>
+      </c>
+      <c r="D40" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E40" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F40" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G40" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H40" s="3">
+        <v>2</v>
+      </c>
+      <c r="I40" s="4">
+        <v>0</v>
+      </c>
+      <c r="J40" s="5">
+        <v>2011</v>
+      </c>
+      <c r="K40" s="6">
+        <v>6240</v>
+      </c>
+      <c r="L40" s="3" t="str">
+        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J40,"&amp;pw=",K40)</f>
+        <v>https://yeweon-junghoon.com/?id=2011&amp;pw=6240</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B41" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C41" s="1">
+        <v>0</v>
+      </c>
+      <c r="D41" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E41" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F41" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G41" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H41" s="3">
+        <v>2</v>
+      </c>
+      <c r="I41" s="4">
+        <v>0</v>
+      </c>
+      <c r="J41" s="5">
+        <v>2012</v>
+      </c>
+      <c r="K41" s="6">
+        <v>4869</v>
+      </c>
+      <c r="L41" s="3" t="str">
+        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J41,"&amp;pw=",K41)</f>
+        <v>https://yeweon-junghoon.com/?id=2012&amp;pw=4869</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="B42" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="C42" s="12">
+        <v>0</v>
+      </c>
+      <c r="D42" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E42" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F42" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G42" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H42" s="3">
+        <v>2</v>
+      </c>
+      <c r="I42" s="4">
+        <v>2</v>
+      </c>
+      <c r="J42" s="5">
+        <v>2013</v>
+      </c>
+      <c r="K42" s="6">
+        <v>5482</v>
+      </c>
+      <c r="L42" s="3" t="str">
+        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J42,"&amp;pw=",K42)</f>
+        <v>https://yeweon-junghoon.com/?id=2013&amp;pw=5482</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B43" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C43" s="1">
+        <v>0</v>
+      </c>
+      <c r="D43" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E43" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F43" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G43" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H43" s="3">
+        <v>1</v>
+      </c>
+      <c r="I43" s="4">
+        <v>1</v>
+      </c>
+      <c r="J43" s="5">
+        <v>2014</v>
+      </c>
+      <c r="K43" s="6">
+        <v>3589</v>
+      </c>
+      <c r="L43" s="3" t="str">
+        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J43,"&amp;pw=",K43)</f>
+        <v>https://yeweon-junghoon.com/?id=2014&amp;pw=3589</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B44" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C44" s="1">
+        <v>0</v>
+      </c>
+      <c r="D44" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E44" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F44" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G44" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H44" s="3">
+        <v>1</v>
+      </c>
+      <c r="I44" s="4">
+        <v>1</v>
+      </c>
+      <c r="J44" s="5">
+        <v>2015</v>
+      </c>
+      <c r="K44" s="6">
+        <v>4195</v>
+      </c>
+      <c r="L44" s="3" t="str">
+        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J44,"&amp;pw=",K44)</f>
+        <v>https://yeweon-junghoon.com/?id=2015&amp;pw=4195</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="11"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="12"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="3"/>
+      <c r="I45" s="4"/>
+      <c r="J45" s="5"/>
+      <c r="K45" s="6"/>
+      <c r="L45" s="3"/>
+    </row>
+    <row r="46" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B46" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C46" s="1">
+        <v>0</v>
+      </c>
+      <c r="D46" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E46" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F46" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G46" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H46" s="3">
+        <v>1</v>
+      </c>
+      <c r="I46" s="4">
+        <v>1</v>
+      </c>
+      <c r="J46" s="5">
+        <v>2017</v>
+      </c>
+      <c r="K46" s="6">
+        <v>5875</v>
+      </c>
+      <c r="L46" s="3" t="str">
+        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J46,"&amp;pw=",K46)</f>
+        <v>https://yeweon-junghoon.com/?id=2017&amp;pw=5875</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B47" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C47" s="1">
+        <v>1</v>
+      </c>
+      <c r="D47" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E47" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F47" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G47" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H47" s="3">
+        <v>1</v>
+      </c>
+      <c r="I47" s="4">
+        <v>1</v>
+      </c>
+      <c r="J47" s="5">
+        <v>2018</v>
+      </c>
+      <c r="K47" s="6">
+        <v>9668</v>
+      </c>
+      <c r="L47" s="3" t="str">
+        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J47,"&amp;pw=",K47)</f>
+        <v>https://yeweon-junghoon.com/?id=2018&amp;pw=9668</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B48" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C48" s="1">
+        <v>1</v>
+      </c>
+      <c r="D48" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E48" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F48" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G48" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H48" s="3">
+        <v>1</v>
+      </c>
+      <c r="I48" s="4">
+        <v>1</v>
+      </c>
+      <c r="J48" s="5">
+        <v>2019</v>
+      </c>
+      <c r="K48" s="6">
+        <v>3480</v>
+      </c>
+      <c r="L48" s="3" t="str">
+        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J48,"&amp;pw=",K48)</f>
+        <v>https://yeweon-junghoon.com/?id=2019&amp;pw=3480</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="11"/>
+      <c r="B49" s="4"/>
+      <c r="C49" s="12"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="3"/>
+      <c r="I49" s="4"/>
+      <c r="J49" s="5"/>
+      <c r="K49" s="6"/>
+      <c r="L49" s="3"/>
+    </row>
+    <row r="50" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B50" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C50" s="1">
+        <v>1</v>
+      </c>
+      <c r="D50" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E50" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F50" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G50" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H50" s="3">
+        <v>2</v>
+      </c>
+      <c r="I50" s="4">
+        <v>1</v>
+      </c>
+      <c r="J50" s="5">
+        <v>2021</v>
+      </c>
+      <c r="K50" s="6">
+        <v>9914</v>
+      </c>
+      <c r="L50" s="3" t="str">
+        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J50,"&amp;pw=",K50)</f>
+        <v>https://yeweon-junghoon.com/?id=2021&amp;pw=9914</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B51" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C51" s="1">
+        <v>0</v>
+      </c>
+      <c r="D51" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E51" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F51" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G51" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H51" s="3">
+        <v>1</v>
+      </c>
+      <c r="I51" s="4">
+        <v>1</v>
+      </c>
+      <c r="J51" s="5">
+        <v>2022</v>
+      </c>
+      <c r="K51" s="6">
+        <v>1912</v>
+      </c>
+      <c r="L51" s="3" t="str">
+        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J51,"&amp;pw=",K51)</f>
+        <v>https://yeweon-junghoon.com/?id=2022&amp;pw=1912</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B52" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C52" s="1">
+        <v>0</v>
+      </c>
+      <c r="D52" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E52" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F52" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G52" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H52" s="3">
+        <v>1</v>
+      </c>
+      <c r="I52" s="4">
+        <v>1</v>
+      </c>
+      <c r="J52" s="5">
+        <v>2023</v>
+      </c>
+      <c r="K52" s="6">
+        <v>3499</v>
+      </c>
+      <c r="L52" s="3" t="str">
+        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J52,"&amp;pw=",K52)</f>
+        <v>https://yeweon-junghoon.com/?id=2023&amp;pw=3499</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B53" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C53" s="1">
+        <v>0</v>
+      </c>
+      <c r="D53" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E53" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F53" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G53" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H53" s="3">
+        <v>1</v>
+      </c>
+      <c r="I53" s="4">
+        <v>0</v>
+      </c>
+      <c r="J53" s="5">
+        <v>2024</v>
+      </c>
+      <c r="K53" s="6">
+        <v>1168</v>
+      </c>
+      <c r="L53" s="3" t="str">
+        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J53,"&amp;pw=",K53)</f>
+        <v>https://yeweon-junghoon.com/?id=2024&amp;pw=1168</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="11"/>
+      <c r="B54" s="4"/>
+      <c r="C54" s="12"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="3"/>
+      <c r="I54" s="4"/>
+      <c r="J54" s="5"/>
+      <c r="K54" s="6"/>
+      <c r="L54" s="3"/>
+    </row>
+    <row r="55" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="11"/>
+      <c r="B55" s="4"/>
+      <c r="C55" s="12"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="2"/>
+      <c r="H55" s="3"/>
+      <c r="I55" s="4"/>
+      <c r="J55" s="5"/>
+      <c r="K55" s="6"/>
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B56" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C56" s="1">
+        <v>0</v>
+      </c>
+      <c r="D56" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E56" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F56" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G56" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H56" s="3">
+        <v>1</v>
+      </c>
+      <c r="I56" s="4">
+        <v>1</v>
+      </c>
+      <c r="J56" s="5">
+        <v>2028</v>
+      </c>
+      <c r="K56" s="6">
+        <v>6205</v>
+      </c>
+      <c r="L56" s="3" t="str">
+        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J56,"&amp;pw=",K56)</f>
+        <v>https://yeweon-junghoon.com/?id=2028&amp;pw=6205</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B57" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C57" s="1">
+        <v>0</v>
+      </c>
+      <c r="D57" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E57" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F57" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G57" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H57" s="3">
+        <v>2</v>
+      </c>
+      <c r="I57" s="4">
+        <v>1</v>
+      </c>
+      <c r="J57" s="5">
+        <v>2031</v>
+      </c>
+      <c r="K57" s="6">
+        <v>2258</v>
+      </c>
+      <c r="L57" s="3" t="str">
+        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J57,"&amp;pw=",K57)</f>
+        <v>https://yeweon-junghoon.com/?id=2031&amp;pw=2258</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B58" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C58" s="1">
+        <v>0</v>
+      </c>
+      <c r="D58" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E58" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F58" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G58" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
+        <v>1</v>
+      </c>
+      <c r="I58" s="4">
+        <v>1</v>
+      </c>
+      <c r="J58" s="5">
+        <v>2032</v>
+      </c>
+      <c r="K58" s="6">
+        <v>4587</v>
+      </c>
+      <c r="L58" s="3" t="str">
+        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J58,"&amp;pw=",K58)</f>
+        <v>https://yeweon-junghoon.com/?id=2032&amp;pw=4587</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B59" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C59" s="1">
+        <v>0</v>
+      </c>
+      <c r="D59" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E59" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F59" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G59" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H59" s="3">
+        <v>2</v>
+      </c>
+      <c r="I59" s="4">
+        <v>1</v>
+      </c>
+      <c r="J59" s="5">
+        <v>2033</v>
+      </c>
+      <c r="K59" s="6">
+        <v>9621</v>
+      </c>
+      <c r="L59" s="3" t="str">
+        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J59,"&amp;pw=",K59)</f>
+        <v>https://yeweon-junghoon.com/?id=2033&amp;pw=9621</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B60" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C60" s="1">
+        <v>1</v>
+      </c>
+      <c r="D60" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E60" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F60" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G60" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H60" s="3">
+        <v>1</v>
+      </c>
+      <c r="I60" s="4">
+        <v>1</v>
+      </c>
+      <c r="J60" s="5">
+        <v>2034</v>
+      </c>
+      <c r="K60" s="6">
+        <v>6805</v>
+      </c>
+      <c r="L60" s="3" t="str">
+        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J60,"&amp;pw=",K60)</f>
+        <v>https://yeweon-junghoon.com/?id=2034&amp;pw=6805</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B61" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C61" s="1">
+        <v>0</v>
+      </c>
+      <c r="D61" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E61" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F61" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G61" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H61" s="3">
+        <v>1</v>
+      </c>
+      <c r="I61" s="4">
+        <v>1</v>
+      </c>
+      <c r="J61" s="5">
+        <v>2035</v>
+      </c>
+      <c r="K61" s="6">
+        <v>6916</v>
+      </c>
+      <c r="L61" s="3" t="str">
+        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J61,"&amp;pw=",K61)</f>
+        <v>https://yeweon-junghoon.com/?id=2035&amp;pw=6916</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="11"/>
+      <c r="B62" s="4"/>
+      <c r="C62" s="12"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="2"/>
+      <c r="H62" s="3"/>
+      <c r="I62" s="4"/>
+      <c r="J62" s="5"/>
+      <c r="K62" s="6"/>
+      <c r="L62" s="3"/>
+    </row>
+    <row r="63" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B63" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C63" s="1">
+        <v>0</v>
+      </c>
+      <c r="D63" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E63" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F63" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G63" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H63" s="3">
+        <v>1</v>
+      </c>
+      <c r="I63" s="4">
+        <v>0</v>
+      </c>
+      <c r="J63" s="5">
+        <v>2037</v>
+      </c>
+      <c r="K63" s="6">
+        <v>2174</v>
+      </c>
+      <c r="L63" s="3" t="str">
+        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J63,"&amp;pw=",K63)</f>
+        <v>https://yeweon-junghoon.com/?id=2037&amp;pw=2174</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B64" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C64" s="1">
+        <v>0</v>
+      </c>
+      <c r="D64" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E64" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F64" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G64" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H64" s="3">
+        <v>1</v>
+      </c>
+      <c r="I64" s="4">
+        <v>1</v>
+      </c>
+      <c r="J64" s="5">
+        <v>2038</v>
+      </c>
+      <c r="K64" s="6">
+        <v>5990</v>
+      </c>
+      <c r="L64" s="3" t="str">
+        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J64,"&amp;pw=",K64)</f>
+        <v>https://yeweon-junghoon.com/?id=2038&amp;pw=5990</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B65" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C65" s="1">
+        <v>0</v>
+      </c>
+      <c r="D65" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E65" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F65" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G65" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H65" s="3">
+        <v>2</v>
+      </c>
+      <c r="I65" s="4">
+        <v>2</v>
+      </c>
+      <c r="J65" s="5">
+        <v>2039</v>
+      </c>
+      <c r="K65" s="6">
+        <v>6040</v>
+      </c>
+      <c r="L65" s="3" t="str">
+        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J65,"&amp;pw=",K65)</f>
+        <v>https://yeweon-junghoon.com/?id=2039&amp;pw=6040</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B66" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C66" s="1">
+        <v>0</v>
+      </c>
+      <c r="D66" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E66" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F66" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G66" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H66" s="3">
+        <v>1</v>
+      </c>
+      <c r="I66" s="4">
+        <v>1</v>
+      </c>
+      <c r="J66" s="5">
+        <v>2040</v>
+      </c>
+      <c r="K66" s="6">
+        <v>4250</v>
+      </c>
+      <c r="L66" s="3" t="str">
+        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J66,"&amp;pw=",K66)</f>
+        <v>https://yeweon-junghoon.com/?id=2040&amp;pw=4250</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B67" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C67" s="1">
+        <v>0</v>
+      </c>
+      <c r="D67" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E67" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F67" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G67" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H67" s="3">
+        <v>1</v>
+      </c>
+      <c r="I67" s="4">
+        <v>1</v>
+      </c>
+      <c r="J67" s="5">
+        <v>2043</v>
+      </c>
+      <c r="K67" s="6">
+        <v>2653</v>
+      </c>
+      <c r="L67" s="3" t="str">
+        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J67,"&amp;pw=",K67)</f>
+        <v>https://yeweon-junghoon.com/?id=2043&amp;pw=2653</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B68" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C68" s="1">
+        <v>0</v>
+      </c>
+      <c r="D68" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E68" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F68" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G68" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H68" s="3">
+        <v>1</v>
+      </c>
+      <c r="I68" s="4">
+        <v>1</v>
+      </c>
+      <c r="J68" s="5">
+        <v>2044</v>
+      </c>
+      <c r="K68" s="6">
+        <v>1786</v>
+      </c>
+      <c r="L68" s="3" t="str">
+        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J68,"&amp;pw=",K68)</f>
+        <v>https://yeweon-junghoon.com/?id=2044&amp;pw=1786</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="11"/>
+      <c r="B69" s="4"/>
+      <c r="C69" s="12"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1"/>
+      <c r="G69" s="2"/>
+      <c r="H69" s="3"/>
+      <c r="I69" s="4"/>
+      <c r="J69" s="5"/>
+      <c r="K69" s="6"/>
+      <c r="L69" s="3"/>
+    </row>
+    <row r="70" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B70" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C70" s="1">
+        <v>0</v>
+      </c>
+      <c r="D70" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E70" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F70" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G70" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H70" s="3">
+        <v>2</v>
+      </c>
+      <c r="I70" s="4">
+        <v>2</v>
+      </c>
+      <c r="J70" s="5">
+        <v>2048</v>
+      </c>
+      <c r="K70" s="6">
+        <v>9424</v>
+      </c>
+      <c r="L70" s="3" t="str">
+        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J70,"&amp;pw=",K70)</f>
+        <v>https://yeweon-junghoon.com/?id=2048&amp;pw=9424</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B71" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C71" s="1">
+        <v>0</v>
+      </c>
+      <c r="D71" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E71" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F71" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G71" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H71" s="3">
+        <v>1</v>
+      </c>
+      <c r="I71" s="4">
+        <v>0</v>
+      </c>
+      <c r="J71" s="5">
+        <v>2049</v>
+      </c>
+      <c r="K71" s="6">
+        <v>7131</v>
+      </c>
+      <c r="L71" s="3" t="str">
+        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J71,"&amp;pw=",K71)</f>
+        <v>https://yeweon-junghoon.com/?id=2049&amp;pw=7131</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B72" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C72" s="1">
+        <v>0</v>
+      </c>
+      <c r="D72" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E72" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F72" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G72" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H72" s="3">
+        <v>1</v>
+      </c>
+      <c r="I72" s="4">
+        <v>1</v>
+      </c>
+      <c r="J72" s="5">
+        <v>2050</v>
+      </c>
+      <c r="K72" s="6">
+        <v>2659</v>
+      </c>
+      <c r="L72" s="3" t="str">
+        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J72,"&amp;pw=",K72)</f>
+        <v>https://yeweon-junghoon.com/?id=2050&amp;pw=2659</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B73" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C73" s="1">
+        <v>0</v>
+      </c>
+      <c r="D73" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E73" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F73" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G73" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H73" s="3">
+        <v>1</v>
+      </c>
+      <c r="I73" s="4">
+        <v>1</v>
+      </c>
+      <c r="J73" s="5">
+        <v>2052</v>
+      </c>
+      <c r="K73" s="6">
+        <v>3869</v>
+      </c>
+      <c r="L73" s="3" t="str">
+        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J73,"&amp;pw=",K73)</f>
+        <v>https://yeweon-junghoon.com/?id=2052&amp;pw=3869</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B74" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C74" s="1">
+        <v>0</v>
+      </c>
+      <c r="D74" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E74" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F74" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G74" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H74" s="3">
+        <v>1</v>
+      </c>
+      <c r="I74" s="4">
+        <v>1</v>
+      </c>
+      <c r="J74" s="5">
+        <v>2053</v>
+      </c>
+      <c r="K74" s="6">
+        <v>5767</v>
+      </c>
+      <c r="L74" s="3" t="str">
+        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J74,"&amp;pw=",K74)</f>
+        <v>https://yeweon-junghoon.com/?id=2053&amp;pw=5767</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B75" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C75" s="1">
+        <v>0</v>
+      </c>
+      <c r="D75" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E75" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F75" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G75" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H75" s="3">
+        <v>2</v>
+      </c>
+      <c r="I75" s="4">
+        <v>2</v>
+      </c>
+      <c r="J75" s="5">
+        <v>2055</v>
+      </c>
+      <c r="K75" s="6">
+        <v>1255</v>
+      </c>
+      <c r="L75" s="3" t="str">
+        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J75,"&amp;pw=",K75)</f>
+        <v>https://yeweon-junghoon.com/?id=2055&amp;pw=1255</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B76" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C76" s="1">
+        <v>0</v>
+      </c>
+      <c r="D76" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E76" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F76" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G76" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H76" s="3">
+        <v>2</v>
+      </c>
+      <c r="I76" s="4">
+        <v>2</v>
+      </c>
+      <c r="J76" s="5">
+        <v>2056</v>
+      </c>
+      <c r="K76" s="6">
+        <v>2271</v>
+      </c>
+      <c r="L76" s="3" t="str">
+        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J76,"&amp;pw=",K76)</f>
+        <v>https://yeweon-junghoon.com/?id=2056&amp;pw=2271</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B77" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C77" s="1">
+        <v>1</v>
+      </c>
+      <c r="D77" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E77" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F77" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G77" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H77" s="3">
+        <v>1</v>
+      </c>
+      <c r="I77" s="4">
+        <v>1</v>
+      </c>
+      <c r="J77" s="5">
+        <v>2058</v>
+      </c>
+      <c r="K77" s="6">
+        <v>8119</v>
+      </c>
+      <c r="L77" s="3" t="str">
+        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J77,"&amp;pw=",K77)</f>
+        <v>https://yeweon-junghoon.com/?id=2058&amp;pw=8119</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B78" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C78" s="1">
+        <v>0</v>
+      </c>
+      <c r="D78" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E78" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F78" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G78" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H78" s="3">
+        <v>1</v>
+      </c>
+      <c r="I78" s="4">
+        <v>0</v>
+      </c>
+      <c r="J78" s="5">
+        <v>2059</v>
+      </c>
+      <c r="K78" s="6">
+        <v>3233</v>
+      </c>
+      <c r="L78" s="3" t="str">
+        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J78,"&amp;pw=",K78)</f>
+        <v>https://yeweon-junghoon.com/?id=2059&amp;pw=3233</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B79" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C79" s="1">
+        <v>1</v>
+      </c>
+      <c r="D79" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E79" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F79" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G79" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H79" s="3">
+        <v>2</v>
+      </c>
+      <c r="I79" s="20">
+        <v>0</v>
+      </c>
+      <c r="J79" s="5">
+        <v>2061</v>
+      </c>
+      <c r="K79" s="5">
+        <v>6154</v>
+      </c>
+      <c r="L79" s="3" t="str">
+        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J79,"&amp;pw=",K79)</f>
+        <v>https://yeweon-junghoon.com/?id=2061&amp;pw=6154</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B80" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C80" s="1">
+        <v>1</v>
+      </c>
+      <c r="D80" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E80" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F80" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G80" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H80" s="3">
+        <v>2</v>
+      </c>
+      <c r="I80">
+        <v>1</v>
+      </c>
+      <c r="J80" s="5">
+        <v>2062</v>
+      </c>
+      <c r="K80" s="5">
+        <v>6154</v>
+      </c>
+      <c r="L80" s="3" t="str">
+        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J80,"&amp;pw=",K80)</f>
+        <v>https://yeweon-junghoon.com/?id=2062&amp;pw=6154</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>207</v>
+      </c>
+      <c r="B81" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C81" s="1">
+        <v>1</v>
+      </c>
+      <c r="D81" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E81" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F81" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G81" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H81" s="3">
+        <v>2</v>
+      </c>
+      <c r="I81">
+        <v>1</v>
+      </c>
+      <c r="J81" s="5">
+        <v>2063</v>
+      </c>
+      <c r="K81" s="5">
+        <v>6154</v>
+      </c>
+      <c r="L81" s="3" t="str">
+        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J81,"&amp;pw=",K81)</f>
+        <v>https://yeweon-junghoon.com/?id=2063&amp;pw=6154</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B82" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C82" s="1">
+        <v>1</v>
+      </c>
+      <c r="D82" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E82" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F82" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G82" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H82" s="3">
+        <v>1</v>
+      </c>
+      <c r="I82" s="29">
+        <v>1</v>
+      </c>
+      <c r="J82" s="5">
+        <v>2064</v>
+      </c>
+      <c r="K82" s="5">
+        <v>6154</v>
+      </c>
+      <c r="L82" s="3" t="str">
+        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J82,"&amp;pw=",K82)</f>
+        <v>https://yeweon-junghoon.com/?id=2064&amp;pw=6154</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B83" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C83" s="1">
+        <v>0</v>
+      </c>
+      <c r="D83" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E83" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F83" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G83" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H83" s="3">
+        <v>2</v>
+      </c>
+      <c r="I83" s="4">
+        <v>2</v>
+      </c>
+      <c r="J83" s="5">
+        <v>4001</v>
+      </c>
+      <c r="K83" s="6">
+        <v>7554</v>
+      </c>
+      <c r="L83" s="3" t="str">
+        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J83,"&amp;pw=",K83)</f>
+        <v>https://yeweon-junghoon.com/?id=4001&amp;pw=7554</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="29" t="s">
+        <v>209</v>
+      </c>
+      <c r="B84" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C84" s="1">
+        <v>0</v>
+      </c>
+      <c r="D84" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E84" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F84" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G84" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H84" s="3">
+        <v>3</v>
+      </c>
+      <c r="I84" s="4">
+        <v>3</v>
+      </c>
+      <c r="J84" s="5">
+        <v>4002</v>
+      </c>
+      <c r="K84" s="6">
+        <v>2134</v>
+      </c>
+      <c r="L84" s="3" t="str">
+        <f t="shared" ref="L84:L100" si="0">_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J84,"&amp;pw=",K84)</f>
+        <v>https://yeweon-junghoon.com/?id=4002&amp;pw=2134</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="29" t="s">
+        <v>223</v>
+      </c>
+      <c r="B85" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C85" s="1">
+        <v>0</v>
+      </c>
+      <c r="D85" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E85" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F85" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G85" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H85" s="3">
+        <v>5</v>
+      </c>
+      <c r="I85" s="4">
+        <v>2</v>
+      </c>
+      <c r="J85" s="5">
+        <v>4003</v>
+      </c>
+      <c r="K85" s="6">
+        <v>5431</v>
+      </c>
+      <c r="L85" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>https://yeweon-junghoon.com/?id=4003&amp;pw=5431</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B86" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C86" s="1">
+        <v>0</v>
+      </c>
+      <c r="D86" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E86" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F86" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G86" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H86" s="3">
+        <v>2</v>
+      </c>
+      <c r="I86" s="29">
+        <v>2</v>
+      </c>
+      <c r="J86" s="5">
+        <v>4004</v>
+      </c>
+      <c r="K86" s="6">
+        <v>2138</v>
+      </c>
+      <c r="L86" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>https://yeweon-junghoon.com/?id=4004&amp;pw=2138</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B87" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C87" s="1">
+        <v>0</v>
+      </c>
+      <c r="D87" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E87" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F87" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G87" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H87" s="3">
+        <v>2</v>
+      </c>
+      <c r="I87" s="29">
+        <v>2</v>
+      </c>
+      <c r="J87" s="5">
+        <v>4005</v>
+      </c>
+      <c r="K87" s="6">
+        <v>2348</v>
+      </c>
+      <c r="L87" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>https://yeweon-junghoon.com/?id=4005&amp;pw=2348</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="B88" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C88" s="1">
+        <v>0</v>
+      </c>
+      <c r="D88" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E88" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F88" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G88" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H88" s="3">
+        <v>3</v>
+      </c>
+      <c r="I88" s="29">
+        <v>3</v>
+      </c>
+      <c r="J88" s="5">
+        <v>4006</v>
+      </c>
+      <c r="K88" s="6">
+        <v>3548</v>
+      </c>
+      <c r="L88" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>https://yeweon-junghoon.com/?id=4006&amp;pw=3548</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B89" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C89" s="1">
+        <v>0</v>
+      </c>
+      <c r="D89" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E89" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F89" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G89" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H89" s="3">
+        <v>2</v>
+      </c>
+      <c r="I89" s="29">
+        <v>2</v>
+      </c>
+      <c r="J89" s="5">
+        <v>4007</v>
+      </c>
+      <c r="K89" s="6">
+        <v>2157</v>
+      </c>
+      <c r="L89" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>https://yeweon-junghoon.com/?id=4007&amp;pw=2157</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="B90" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C90" s="1">
+        <v>0</v>
+      </c>
+      <c r="D90" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E90" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F90" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G90" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H90" s="3">
+        <v>1</v>
+      </c>
+      <c r="I90" s="29">
+        <v>1</v>
+      </c>
+      <c r="J90" s="5">
+        <v>4008</v>
+      </c>
+      <c r="K90" s="6">
+        <v>3577</v>
+      </c>
+      <c r="L90" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>https://yeweon-junghoon.com/?id=4008&amp;pw=3577</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="29" t="s">
+        <v>236</v>
+      </c>
+      <c r="B91" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C91" s="1">
+        <v>0</v>
+      </c>
+      <c r="D91" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E91" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F91" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G91" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>2</v>
+      </c>
+      <c r="I91" s="29">
+        <v>2</v>
+      </c>
+      <c r="J91" s="5">
+        <v>4009</v>
+      </c>
+      <c r="K91" s="6">
+        <v>2123</v>
+      </c>
+      <c r="L91" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>https://yeweon-junghoon.com/?id=4009&amp;pw=2123</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="29" t="s">
+        <v>237</v>
+      </c>
+      <c r="B92" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C92" s="1">
+        <v>0</v>
+      </c>
+      <c r="D92" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E92" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F92" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G92" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H92" s="3">
+        <v>2</v>
+      </c>
+      <c r="I92" s="29">
+        <v>2</v>
+      </c>
+      <c r="J92" s="5">
+        <v>4010</v>
+      </c>
+      <c r="K92" s="6">
+        <v>2188</v>
+      </c>
+      <c r="L92" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>https://yeweon-junghoon.com/?id=4010&amp;pw=2188</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="29" t="s">
+        <v>213</v>
+      </c>
+      <c r="B93" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C93" s="1">
+        <v>0</v>
+      </c>
+      <c r="D93" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E93" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F93" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G93" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H93" s="3">
+        <v>2</v>
+      </c>
+      <c r="I93" s="29">
+        <v>2</v>
+      </c>
+      <c r="J93" s="5">
+        <v>4011</v>
+      </c>
+      <c r="K93" s="6">
+        <v>3892</v>
+      </c>
+      <c r="L93" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>https://yeweon-junghoon.com/?id=4011&amp;pw=3892</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="29" t="s">
+        <v>210</v>
+      </c>
+      <c r="B94" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C94" s="1">
+        <v>0</v>
+      </c>
+      <c r="D94" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E94" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F94" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G94" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
+        <v>3</v>
+      </c>
+      <c r="I94" s="29">
+        <v>3</v>
+      </c>
+      <c r="J94" s="5">
+        <v>4012</v>
+      </c>
+      <c r="K94" s="6">
+        <v>8789</v>
+      </c>
+      <c r="L94" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>https://yeweon-junghoon.com/?id=4012&amp;pw=8789</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="B95" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C95" s="1">
+        <v>0</v>
+      </c>
+      <c r="D95" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E95" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F95" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G95" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H95" s="3">
+        <v>2</v>
+      </c>
+      <c r="I95" s="29">
+        <v>1</v>
+      </c>
+      <c r="J95" s="5">
+        <v>4014</v>
+      </c>
+      <c r="K95" s="6">
+        <v>9978</v>
+      </c>
+      <c r="L95" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>https://yeweon-junghoon.com/?id=4014&amp;pw=9978</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="29" t="s">
+        <v>212</v>
+      </c>
+      <c r="B96" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C96" s="1">
+        <v>0</v>
+      </c>
+      <c r="D96" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E96" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F96" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G96" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H96" s="3">
+        <v>2</v>
+      </c>
+      <c r="I96" s="29">
+        <v>2</v>
+      </c>
+      <c r="J96" s="5">
+        <v>4015</v>
+      </c>
+      <c r="K96" s="6">
+        <v>8123</v>
+      </c>
+      <c r="L96" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>https://yeweon-junghoon.com/?id=4015&amp;pw=8123</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="29" t="s">
+        <v>211</v>
+      </c>
+      <c r="B97" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C97" s="1">
+        <v>0</v>
+      </c>
+      <c r="D97" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E97" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F97" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G97" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H97" s="3">
+        <v>2</v>
+      </c>
+      <c r="I97" s="29">
+        <v>2</v>
+      </c>
+      <c r="J97" s="5">
+        <v>4016</v>
+      </c>
+      <c r="K97" s="6">
+        <v>3248</v>
+      </c>
+      <c r="L97" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>https://yeweon-junghoon.com/?id=4016&amp;pw=3248</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B98" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C98" s="1">
+        <v>0</v>
+      </c>
+      <c r="D98" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E98" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F98" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G98" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H98" s="3">
+        <v>1</v>
+      </c>
+      <c r="I98" s="29">
+        <v>1</v>
+      </c>
+      <c r="J98" s="5">
+        <v>4017</v>
+      </c>
+      <c r="K98" s="6">
+        <v>4585</v>
+      </c>
+      <c r="L98" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>https://yeweon-junghoon.com/?id=4017&amp;pw=4585</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B99" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C99" s="1">
+        <v>1</v>
+      </c>
+      <c r="D99" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E99" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F99" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G99" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H99" s="3">
+        <v>2</v>
+      </c>
+      <c r="I99" s="29">
+        <v>2</v>
+      </c>
+      <c r="J99" s="5">
+        <v>4018</v>
+      </c>
+      <c r="K99" s="6">
+        <v>4684</v>
+      </c>
+      <c r="L99" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>https://yeweon-junghoon.com/?id=4018&amp;pw=4684</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B100" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C100" s="1">
+        <v>2</v>
+      </c>
+      <c r="D100" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E100" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F100" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G100" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
+        <v>2</v>
+      </c>
+      <c r="I100" s="29">
+        <v>2</v>
+      </c>
+      <c r="J100" s="5">
+        <v>4019</v>
+      </c>
+      <c r="K100" s="6">
+        <v>4681</v>
+      </c>
+      <c r="L100" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>https://yeweon-junghoon.com/?id=4019&amp;pw=4681</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A101" s="43" t="s">
+        <v>238</v>
+      </c>
+      <c r="B101" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="C101" s="44">
+        <v>0</v>
+      </c>
+      <c r="D101" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="E101" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="F101" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="G101" s="45" t="b">
+        <v>0</v>
+      </c>
+      <c r="H101" s="46">
+        <v>2</v>
+      </c>
+      <c r="I101" s="43">
+        <v>2</v>
+      </c>
+      <c r="J101" s="47">
+        <v>5001</v>
+      </c>
+      <c r="K101" s="48">
+        <v>7013</v>
+      </c>
+      <c r="L101" s="3" t="str">
+        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J101,"&amp;pw=",K101)</f>
+        <v>https://yeweon-junghoon.com/?id=5001&amp;pw=7013</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A102" s="43" t="s">
+        <v>239</v>
+      </c>
+      <c r="B102" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="C102" s="44">
+        <v>0</v>
+      </c>
+      <c r="D102" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="E102" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="F102" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="G102" s="45" t="b">
+        <v>0</v>
+      </c>
+      <c r="H102" s="46">
+        <v>2</v>
+      </c>
+      <c r="I102" s="43">
+        <v>2</v>
+      </c>
+      <c r="J102" s="47">
+        <v>5002</v>
+      </c>
+      <c r="K102" s="48">
+        <v>2586</v>
+      </c>
+      <c r="L102" s="3" t="str">
+        <f t="shared" ref="L102:L121" si="1">_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J102,"&amp;pw=",K102)</f>
+        <v>https://yeweon-junghoon.com/?id=5002&amp;pw=2586</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A103" s="43" t="s">
+        <v>240</v>
+      </c>
+      <c r="B103" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="C103" s="44">
+        <v>0</v>
+      </c>
+      <c r="D103" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="E103" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="F103" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="G103" s="45" t="b">
+        <v>0</v>
+      </c>
+      <c r="H103" s="46">
+        <v>2</v>
+      </c>
+      <c r="I103" s="43">
+        <v>2</v>
+      </c>
+      <c r="J103" s="47">
+        <v>5003</v>
+      </c>
+      <c r="K103" s="48">
+        <v>5135</v>
+      </c>
+      <c r="L103" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>https://yeweon-junghoon.com/?id=5003&amp;pw=5135</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A104" s="43" t="s">
+        <v>241</v>
+      </c>
+      <c r="B104" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="C104" s="44">
+        <v>0</v>
+      </c>
+      <c r="D104" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="E104" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="F104" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="G104" s="45" t="b">
+        <v>0</v>
+      </c>
+      <c r="H104" s="46">
+        <v>2</v>
+      </c>
+      <c r="I104" s="43">
+        <v>2</v>
+      </c>
+      <c r="J104" s="47">
+        <v>5004</v>
+      </c>
+      <c r="K104" s="48">
+        <v>1120</v>
+      </c>
+      <c r="L104" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>https://yeweon-junghoon.com/?id=5004&amp;pw=1120</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A105" s="43" t="s">
+        <v>242</v>
+      </c>
+      <c r="B105" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="C105" s="44">
+        <v>0</v>
+      </c>
+      <c r="D105" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="E105" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="F105" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="G105" s="45" t="b">
+        <v>0</v>
+      </c>
+      <c r="H105" s="46">
+        <v>2</v>
+      </c>
+      <c r="I105" s="43">
+        <v>2</v>
+      </c>
+      <c r="J105" s="47">
+        <v>5005</v>
+      </c>
+      <c r="K105" s="48">
+        <v>2714</v>
+      </c>
+      <c r="L105" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>https://yeweon-junghoon.com/?id=5005&amp;pw=2714</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A106" s="43" t="s">
+        <v>243</v>
+      </c>
+      <c r="B106" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="C106" s="44">
+        <v>0</v>
+      </c>
+      <c r="D106" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="E106" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="F106" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="G106" s="45" t="b">
+        <v>0</v>
+      </c>
+      <c r="H106" s="46">
+        <v>2</v>
+      </c>
+      <c r="I106" s="43">
+        <v>2</v>
+      </c>
+      <c r="J106" s="47">
+        <v>5006</v>
+      </c>
+      <c r="K106" s="48">
+        <v>8260</v>
+      </c>
+      <c r="L106" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>https://yeweon-junghoon.com/?id=5006&amp;pw=8260</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A107" s="43" t="s">
+        <v>245</v>
+      </c>
+      <c r="B107" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="C107" s="44">
+        <v>0</v>
+      </c>
+      <c r="D107" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="E107" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="F107" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="G107" s="45" t="b">
+        <v>0</v>
+      </c>
+      <c r="H107" s="46">
+        <v>2</v>
+      </c>
+      <c r="I107" s="43">
+        <v>2</v>
+      </c>
+      <c r="J107" s="47">
+        <v>5007</v>
+      </c>
+      <c r="K107" s="48">
+        <v>1941</v>
+      </c>
+      <c r="L107" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>https://yeweon-junghoon.com/?id=5007&amp;pw=1941</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A108" s="43" t="s">
+        <v>246</v>
+      </c>
+      <c r="B108" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="C108" s="44">
+        <v>0</v>
+      </c>
+      <c r="D108" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="E108" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="F108" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="G108" s="45" t="b">
+        <v>0</v>
+      </c>
+      <c r="H108" s="46">
+        <v>2</v>
+      </c>
+      <c r="I108" s="43">
+        <v>2</v>
+      </c>
+      <c r="J108" s="47">
+        <v>5008</v>
+      </c>
+      <c r="K108" s="48">
+        <v>9967</v>
+      </c>
+      <c r="L108" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>https://yeweon-junghoon.com/?id=5008&amp;pw=9967</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A109" s="43" t="s">
+        <v>247</v>
+      </c>
+      <c r="B109" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="C109" s="44">
+        <v>0</v>
+      </c>
+      <c r="D109" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="E109" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="F109" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="G109" s="45" t="b">
+        <v>0</v>
+      </c>
+      <c r="H109" s="46">
+        <v>2</v>
+      </c>
+      <c r="I109" s="43">
+        <v>2</v>
+      </c>
+      <c r="J109" s="47">
+        <v>5009</v>
+      </c>
+      <c r="K109" s="48">
+        <v>4485</v>
+      </c>
+      <c r="L109" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>https://yeweon-junghoon.com/?id=5009&amp;pw=4485</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A110" s="43" t="s">
+        <v>257</v>
+      </c>
+      <c r="B110" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="C110" s="44">
+        <v>0</v>
+      </c>
+      <c r="D110" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="E110" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="F110" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="G110" s="45" t="b">
+        <v>0</v>
+      </c>
+      <c r="H110" s="46">
+        <v>2</v>
+      </c>
+      <c r="I110" s="43">
+        <v>3</v>
+      </c>
+      <c r="J110" s="47">
+        <v>5010</v>
+      </c>
+      <c r="K110" s="48">
+        <v>4158</v>
+      </c>
+      <c r="L110" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>https://yeweon-junghoon.com/?id=5010&amp;pw=4158</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A111" s="43" t="s">
+        <v>248</v>
+      </c>
+      <c r="B111" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="C111" s="44">
+        <v>0</v>
+      </c>
+      <c r="D111" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="E111" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="F111" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="G111" s="45" t="b">
+        <v>0</v>
+      </c>
+      <c r="H111" s="46">
+        <v>2</v>
+      </c>
+      <c r="I111" s="43">
+        <v>2</v>
+      </c>
+      <c r="J111" s="47">
+        <v>5011</v>
+      </c>
+      <c r="K111" s="48">
+        <v>9891</v>
+      </c>
+      <c r="L111" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>https://yeweon-junghoon.com/?id=5011&amp;pw=9891</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A112" s="43" t="s">
+        <v>249</v>
+      </c>
+      <c r="B112" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="C112" s="44">
+        <v>0</v>
+      </c>
+      <c r="D112" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="E112" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="F112" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="G112" s="45" t="b">
+        <v>0</v>
+      </c>
+      <c r="H112" s="46">
+        <v>2</v>
+      </c>
+      <c r="I112" s="43">
+        <v>2</v>
+      </c>
+      <c r="J112" s="47">
+        <v>5012</v>
+      </c>
+      <c r="K112" s="48">
+        <v>7436</v>
+      </c>
+      <c r="L112" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>https://yeweon-junghoon.com/?id=5012&amp;pw=7436</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A113" s="43" t="s">
+        <v>250</v>
+      </c>
+      <c r="B113" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="C113" s="44">
+        <v>0</v>
+      </c>
+      <c r="D113" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="E113" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="F113" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="G113" s="45" t="b">
+        <v>0</v>
+      </c>
+      <c r="H113" s="46">
+        <v>2</v>
+      </c>
+      <c r="I113" s="43">
+        <v>2</v>
+      </c>
+      <c r="J113" s="47">
+        <v>5013</v>
+      </c>
+      <c r="K113" s="48">
+        <v>1299</v>
+      </c>
+      <c r="L113" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>https://yeweon-junghoon.com/?id=5013&amp;pw=1299</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A114" s="43" t="s">
+        <v>251</v>
+      </c>
+      <c r="B114" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="C114" s="44">
+        <v>0</v>
+      </c>
+      <c r="D114" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="E114" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="F114" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="G114" s="45" t="b">
+        <v>0</v>
+      </c>
+      <c r="H114" s="46">
+        <v>2</v>
+      </c>
+      <c r="I114" s="43">
+        <v>2</v>
+      </c>
+      <c r="J114" s="47">
+        <v>5014</v>
+      </c>
+      <c r="K114" s="48">
+        <v>6902</v>
+      </c>
+      <c r="L114" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>https://yeweon-junghoon.com/?id=5014&amp;pw=6902</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A115" s="44" t="s">
+        <v>252</v>
+      </c>
+      <c r="B115" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="C115" s="44">
+        <v>0</v>
+      </c>
+      <c r="D115" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="E115" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="F115" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="G115" s="45" t="b">
+        <v>0</v>
+      </c>
+      <c r="H115" s="46">
+        <v>2</v>
+      </c>
+      <c r="I115" s="43">
+        <v>2</v>
+      </c>
+      <c r="J115" s="47">
+        <v>5015</v>
+      </c>
+      <c r="K115" s="48">
+        <v>5773</v>
+      </c>
+      <c r="L115" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>https://yeweon-junghoon.com/?id=5015&amp;pw=5773</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A116" s="44" t="s">
+        <v>253</v>
+      </c>
+      <c r="B116" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="C116" s="44">
+        <v>0</v>
+      </c>
+      <c r="D116" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="E116" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="F116" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="G116" s="45" t="b">
+        <v>0</v>
+      </c>
+      <c r="H116" s="46">
+        <v>2</v>
+      </c>
+      <c r="I116" s="43">
+        <v>2</v>
+      </c>
+      <c r="J116" s="47">
+        <v>5016</v>
+      </c>
+      <c r="K116" s="48">
+        <v>2925</v>
+      </c>
+      <c r="L116" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>https://yeweon-junghoon.com/?id=5016&amp;pw=2925</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A117" s="44" t="s">
+        <v>254</v>
+      </c>
+      <c r="B117" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="C117" s="44">
+        <v>0</v>
+      </c>
+      <c r="D117" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="E117" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="F117" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="G117" s="45" t="b">
+        <v>0</v>
+      </c>
+      <c r="H117" s="46">
+        <v>2</v>
+      </c>
+      <c r="I117" s="43">
+        <v>2</v>
+      </c>
+      <c r="J117" s="47">
+        <v>5017</v>
+      </c>
+      <c r="K117" s="48">
+        <v>1395</v>
+      </c>
+      <c r="L117" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>https://yeweon-junghoon.com/?id=5017&amp;pw=1395</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A118" s="43" t="s">
+        <v>255</v>
+      </c>
+      <c r="B118" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="C118" s="44">
+        <v>0</v>
+      </c>
+      <c r="D118" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="E118" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="F118" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="G118" s="45" t="b">
+        <v>0</v>
+      </c>
+      <c r="H118" s="46">
+        <v>2</v>
+      </c>
+      <c r="I118" s="43">
+        <v>2</v>
+      </c>
+      <c r="J118" s="47">
+        <v>5018</v>
+      </c>
+      <c r="K118" s="48">
+        <v>4408</v>
+      </c>
+      <c r="L118" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>https://yeweon-junghoon.com/?id=5018&amp;pw=4408</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A119" s="44" t="s">
+        <v>256</v>
+      </c>
+      <c r="B119" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="C119" s="44">
+        <v>0</v>
+      </c>
+      <c r="D119" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="E119" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="F119" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="G119" s="45" t="b">
+        <v>0</v>
+      </c>
+      <c r="H119" s="46">
+        <v>2</v>
+      </c>
+      <c r="I119" s="43">
+        <v>5</v>
+      </c>
+      <c r="J119" s="47">
+        <v>5019</v>
+      </c>
+      <c r="K119" s="48">
+        <v>8758</v>
+      </c>
+      <c r="L119" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>https://yeweon-junghoon.com/?id=5019&amp;pw=8758</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A120" s="44" t="s">
+        <v>258</v>
+      </c>
+      <c r="B120" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="C120" s="44">
+        <v>0</v>
+      </c>
+      <c r="D120" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="E120" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="F120" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="G120" s="45" t="b">
+        <v>0</v>
+      </c>
+      <c r="H120" s="46">
+        <v>2</v>
+      </c>
+      <c r="I120" s="43">
+        <v>2</v>
+      </c>
+      <c r="J120" s="47">
+        <v>5020</v>
+      </c>
+      <c r="K120" s="48">
+        <v>7042</v>
+      </c>
+      <c r="L120" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>https://yeweon-junghoon.com/?id=5020&amp;pw=7042</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A121" s="44" t="s">
+        <v>259</v>
+      </c>
+      <c r="B121" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="C121" s="44">
+        <v>0</v>
+      </c>
+      <c r="D121" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="E121" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="F121" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="G121" s="45" t="b">
+        <v>0</v>
+      </c>
+      <c r="H121" s="46">
+        <v>2</v>
+      </c>
+      <c r="I121" s="43">
+        <v>2</v>
+      </c>
+      <c r="J121" s="47">
+        <v>5021</v>
+      </c>
+      <c r="K121" s="48">
+        <v>2476</v>
+      </c>
+      <c r="L121" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>https://yeweon-junghoon.com/?id=5021&amp;pw=2476</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I122">
+        <f>SUM(I1:I121)</f>
+        <v>172</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="M30" r:id="rId1" xr:uid="{83328974-6BF6-A741-987D-B9F61B2D677D}"/>
+    <hyperlink ref="M12" r:id="rId2" xr:uid="{86B236CF-B61B-A24A-AE79-3971FE4F4DDB}"/>
+    <hyperlink ref="M31" r:id="rId3" xr:uid="{4342A138-195B-014F-AD7C-AE490A51FB2E}"/>
+    <hyperlink ref="M16" r:id="rId4" xr:uid="{A5AA5AF4-7FFA-C74E-87D9-419745D023B6}"/>
+    <hyperlink ref="M17" r:id="rId5" xr:uid="{7DC4934D-4404-1A41-B7E7-1EE482CAB159}"/>
+    <hyperlink ref="M2" r:id="rId6" xr:uid="{A139BC79-E2A1-7C4E-ABD2-2DA491A14453}"/>
+    <hyperlink ref="M7" r:id="rId7" xr:uid="{F675B4FB-A4FB-F84A-A260-9DB2AE2BA069}"/>
+    <hyperlink ref="M3" r:id="rId8" xr:uid="{C8F25393-22C9-814D-B66B-A416B4DCC27F}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{687385EF-1BEF-3B45-96EC-83B91B14A73C}">
+          <x14:formula1>
+            <xm:f>values!$A$1:$A$2</xm:f>
+          </x14:formula1>
+          <xm:sqref>B1:B100 D1:G100</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{C1D1849D-B775-A544-88F4-C10034AEEB4F}">
+          <x14:formula1>
+            <xm:f>values!$B$1:$B$2</xm:f>
+          </x14:formula1>
+          <xm:sqref>C1:C79 C83:C100</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/guestLists.xlsx
+++ b/guestLists.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jhan/Creative Cloud Files/Projects/Personal/invitation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA166F76-EEE8-E744-A2D7-CA3856B935F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6D7AB77-7122-8145-BD94-53C18AB462B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="27340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="51200" yWindow="-4980" windowWidth="24000" windowHeight="37900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="예원" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="275">
   <si>
     <t>name</t>
   </si>
@@ -774,9 +774,6 @@
     <t>전도종 내외분</t>
   </si>
   <si>
-    <t>전덕종 내외분</t>
-  </si>
-  <si>
     <t>이규철 내외분</t>
   </si>
   <si>
@@ -822,9 +819,6 @@
     <t>방승호 내외분</t>
   </si>
   <si>
-    <t>신승교 내외분</t>
-  </si>
-  <si>
     <t>https://yeweon-junghoon.com/?id=3016&amp;pw=4869&amp;심은지</t>
   </si>
   <si>
@@ -838,9 +832,6 @@
   </si>
   <si>
     <t>https://yeweon-junghoon.com/?id=3003&amp;pw=5064</t>
-  </si>
-  <si>
-    <t>세무사</t>
   </si>
   <si>
     <t xml:space="preserve"> Jiwon Lim</t>
@@ -865,6 +856,18 @@
   </si>
   <si>
     <t>에이미 내외분</t>
+  </si>
+  <si>
+    <t>David Song</t>
+  </si>
+  <si>
+    <t>김창만 내외분</t>
+  </si>
+  <si>
+    <t>Susie Romanowski</t>
+  </si>
+  <si>
+    <t>Mairin &amp; Casey</t>
   </si>
 </sst>
 </file>
@@ -1342,9 +1345,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L984"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P27" sqref="P27"/>
+      <selection pane="bottomLeft" activeCell="D65" sqref="D65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1431,7 +1434,7 @@
         <v>7554</v>
       </c>
       <c r="L2" s="3" t="str">
-        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J2,"&amp;pw=",K2)</f>
+        <f t="shared" ref="L2:L33" si="0">_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J2,"&amp;pw=",K2)</f>
         <v>https://yeweon-junghoon.com/?id=2001&amp;pw=7554</v>
       </c>
     </row>
@@ -1470,7 +1473,7 @@
         <v>9721</v>
       </c>
       <c r="L3" s="3" t="str">
-        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J3,"&amp;pw=",K3)</f>
+        <f t="shared" si="0"/>
         <v>https://yeweon-junghoon.com/?id=2002&amp;pw=9721</v>
       </c>
     </row>
@@ -1509,7 +1512,7 @@
         <v>2388</v>
       </c>
       <c r="L4" s="3" t="str">
-        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J4,"&amp;pw=",K4)</f>
+        <f t="shared" si="0"/>
         <v>https://yeweon-junghoon.com/?id=2003&amp;pw=2388</v>
       </c>
     </row>
@@ -1548,7 +1551,7 @@
         <v>6546</v>
       </c>
       <c r="L5" s="3" t="str">
-        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J5,"&amp;pw=",K5)</f>
+        <f t="shared" si="0"/>
         <v>https://yeweon-junghoon.com/?id=2004&amp;pw=6546</v>
       </c>
     </row>
@@ -1587,7 +1590,7 @@
         <v>4551</v>
       </c>
       <c r="L6" s="3" t="str">
-        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J6,"&amp;pw=",K6)</f>
+        <f t="shared" si="0"/>
         <v>https://yeweon-junghoon.com/?id=2005&amp;pw=4551</v>
       </c>
     </row>
@@ -1626,7 +1629,7 @@
         <v>6182</v>
       </c>
       <c r="L7" s="3" t="str">
-        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J7,"&amp;pw=",K7)</f>
+        <f t="shared" si="0"/>
         <v>https://yeweon-junghoon.com/?id=2006&amp;pw=6182</v>
       </c>
     </row>
@@ -1665,7 +1668,7 @@
         <v>7226</v>
       </c>
       <c r="L8" s="3" t="str">
-        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J8,"&amp;pw=",K8)</f>
+        <f t="shared" si="0"/>
         <v>https://yeweon-junghoon.com/?id=2007&amp;pw=7226</v>
       </c>
     </row>
@@ -1704,7 +1707,7 @@
         <v>7541</v>
       </c>
       <c r="L9" s="3" t="str">
-        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J9,"&amp;pw=",K9)</f>
+        <f t="shared" si="0"/>
         <v>https://yeweon-junghoon.com/?id=2008&amp;pw=7541</v>
       </c>
     </row>
@@ -1743,7 +1746,7 @@
         <v>2309</v>
       </c>
       <c r="L10" s="3" t="str">
-        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J10,"&amp;pw=",K10)</f>
+        <f t="shared" si="0"/>
         <v>https://yeweon-junghoon.com/?id=2009&amp;pw=2309</v>
       </c>
     </row>
@@ -1782,13 +1785,13 @@
         <v>3690</v>
       </c>
       <c r="L11" s="3" t="str">
-        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J11,"&amp;pw=",K11)</f>
+        <f t="shared" si="0"/>
         <v>https://yeweon-junghoon.com/?id=2010&amp;pw=3690</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B12" s="1" t="b">
         <v>0</v>
@@ -1821,13 +1824,13 @@
         <v>6240</v>
       </c>
       <c r="L12" s="3" t="str">
-        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J12,"&amp;pw=",K12)</f>
+        <f t="shared" si="0"/>
         <v>https://yeweon-junghoon.com/?id=2011&amp;pw=6240</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B13" s="1" t="b">
         <v>0</v>
@@ -1860,7 +1863,7 @@
         <v>4869</v>
       </c>
       <c r="L13" s="3" t="str">
-        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J13,"&amp;pw=",K13)</f>
+        <f t="shared" si="0"/>
         <v>https://yeweon-junghoon.com/?id=2012&amp;pw=4869</v>
       </c>
     </row>
@@ -1899,7 +1902,7 @@
         <v>5482</v>
       </c>
       <c r="L14" s="3" t="str">
-        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J14,"&amp;pw=",K14)</f>
+        <f t="shared" si="0"/>
         <v>https://yeweon-junghoon.com/?id=2013&amp;pw=5482</v>
       </c>
     </row>
@@ -1938,7 +1941,7 @@
         <v>3589</v>
       </c>
       <c r="L15" s="3" t="str">
-        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J15,"&amp;pw=",K15)</f>
+        <f t="shared" si="0"/>
         <v>https://yeweon-junghoon.com/?id=2014&amp;pw=3589</v>
       </c>
     </row>
@@ -1977,7 +1980,7 @@
         <v>4195</v>
       </c>
       <c r="L16" s="3" t="str">
-        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J16,"&amp;pw=",K16)</f>
+        <f t="shared" si="0"/>
         <v>https://yeweon-junghoon.com/?id=2015&amp;pw=4195</v>
       </c>
     </row>
@@ -2016,7 +2019,7 @@
         <v>7769</v>
       </c>
       <c r="L17" s="3" t="str">
-        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J17,"&amp;pw=",K17)</f>
+        <f t="shared" si="0"/>
         <v>https://yeweon-junghoon.com/?id=2016&amp;pw=7769</v>
       </c>
     </row>
@@ -2055,7 +2058,7 @@
         <v>5875</v>
       </c>
       <c r="L18" s="3" t="str">
-        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J18,"&amp;pw=",K18)</f>
+        <f t="shared" si="0"/>
         <v>https://yeweon-junghoon.com/?id=2017&amp;pw=5875</v>
       </c>
     </row>
@@ -2094,7 +2097,7 @@
         <v>9668</v>
       </c>
       <c r="L19" s="3" t="str">
-        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J19,"&amp;pw=",K19)</f>
+        <f t="shared" si="0"/>
         <v>https://yeweon-junghoon.com/?id=2018&amp;pw=9668</v>
       </c>
     </row>
@@ -2133,7 +2136,7 @@
         <v>3480</v>
       </c>
       <c r="L20" s="3" t="str">
-        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J20,"&amp;pw=",K20)</f>
+        <f t="shared" si="0"/>
         <v>https://yeweon-junghoon.com/?id=2019&amp;pw=3480</v>
       </c>
     </row>
@@ -2172,7 +2175,7 @@
         <v>7450</v>
       </c>
       <c r="L21" s="3" t="str">
-        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J21,"&amp;pw=",K21)</f>
+        <f t="shared" si="0"/>
         <v>https://yeweon-junghoon.com/?id=2020&amp;pw=7450</v>
       </c>
     </row>
@@ -2211,7 +2214,7 @@
         <v>9914</v>
       </c>
       <c r="L22" s="3" t="str">
-        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J22,"&amp;pw=",K22)</f>
+        <f t="shared" si="0"/>
         <v>https://yeweon-junghoon.com/?id=2021&amp;pw=9914</v>
       </c>
     </row>
@@ -2250,7 +2253,7 @@
         <v>1912</v>
       </c>
       <c r="L23" s="3" t="str">
-        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J23,"&amp;pw=",K23)</f>
+        <f t="shared" si="0"/>
         <v>https://yeweon-junghoon.com/?id=2022&amp;pw=1912</v>
       </c>
     </row>
@@ -2289,7 +2292,7 @@
         <v>3499</v>
       </c>
       <c r="L24" s="3" t="str">
-        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J24,"&amp;pw=",K24)</f>
+        <f t="shared" si="0"/>
         <v>https://yeweon-junghoon.com/?id=2023&amp;pw=3499</v>
       </c>
     </row>
@@ -2328,7 +2331,7 @@
         <v>1168</v>
       </c>
       <c r="L25" s="3" t="str">
-        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J25,"&amp;pw=",K25)</f>
+        <f t="shared" si="0"/>
         <v>https://yeweon-junghoon.com/?id=2024&amp;pw=1168</v>
       </c>
     </row>
@@ -2367,7 +2370,7 @@
         <v>2981</v>
       </c>
       <c r="L26" s="3" t="str">
-        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J26,"&amp;pw=",K26)</f>
+        <f t="shared" si="0"/>
         <v>https://yeweon-junghoon.com/?id=2026&amp;pw=2981</v>
       </c>
     </row>
@@ -2406,7 +2409,7 @@
         <v>5064</v>
       </c>
       <c r="L27" s="3" t="str">
-        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J27,"&amp;pw=",K27)</f>
+        <f t="shared" si="0"/>
         <v>https://yeweon-junghoon.com/?id=2027&amp;pw=5064</v>
       </c>
     </row>
@@ -2445,7 +2448,7 @@
         <v>6205</v>
       </c>
       <c r="L28" s="3" t="str">
-        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J28,"&amp;pw=",K28)</f>
+        <f t="shared" si="0"/>
         <v>https://yeweon-junghoon.com/?id=2028&amp;pw=6205</v>
       </c>
     </row>
@@ -2484,7 +2487,7 @@
         <v>2258</v>
       </c>
       <c r="L29" s="3" t="str">
-        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J29,"&amp;pw=",K29)</f>
+        <f t="shared" si="0"/>
         <v>https://yeweon-junghoon.com/?id=2031&amp;pw=2258</v>
       </c>
     </row>
@@ -2523,7 +2526,7 @@
         <v>4587</v>
       </c>
       <c r="L30" s="3" t="str">
-        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J30,"&amp;pw=",K30)</f>
+        <f t="shared" si="0"/>
         <v>https://yeweon-junghoon.com/?id=2032&amp;pw=4587</v>
       </c>
     </row>
@@ -2562,7 +2565,7 @@
         <v>9621</v>
       </c>
       <c r="L31" s="3" t="str">
-        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J31,"&amp;pw=",K31)</f>
+        <f t="shared" si="0"/>
         <v>https://yeweon-junghoon.com/?id=2033&amp;pw=9621</v>
       </c>
     </row>
@@ -2601,7 +2604,7 @@
         <v>6805</v>
       </c>
       <c r="L32" s="3" t="str">
-        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J32,"&amp;pw=",K32)</f>
+        <f t="shared" si="0"/>
         <v>https://yeweon-junghoon.com/?id=2034&amp;pw=6805</v>
       </c>
     </row>
@@ -2640,7 +2643,7 @@
         <v>6916</v>
       </c>
       <c r="L33" s="3" t="str">
-        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J33,"&amp;pw=",K33)</f>
+        <f t="shared" si="0"/>
         <v>https://yeweon-junghoon.com/?id=2035&amp;pw=6916</v>
       </c>
     </row>
@@ -2679,7 +2682,7 @@
         <v>4987</v>
       </c>
       <c r="L34" s="3" t="str">
-        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J34,"&amp;pw=",K34)</f>
+        <f t="shared" ref="L34:L65" si="1">_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J34,"&amp;pw=",K34)</f>
         <v>https://yeweon-junghoon.com/?id=2036&amp;pw=4987</v>
       </c>
     </row>
@@ -2718,7 +2721,7 @@
         <v>2174</v>
       </c>
       <c r="L35" s="3" t="str">
-        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J35,"&amp;pw=",K35)</f>
+        <f t="shared" si="1"/>
         <v>https://yeweon-junghoon.com/?id=2037&amp;pw=2174</v>
       </c>
     </row>
@@ -2757,7 +2760,7 @@
         <v>5990</v>
       </c>
       <c r="L36" s="3" t="str">
-        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J36,"&amp;pw=",K36)</f>
+        <f t="shared" si="1"/>
         <v>https://yeweon-junghoon.com/?id=2038&amp;pw=5990</v>
       </c>
     </row>
@@ -2796,7 +2799,7 @@
         <v>6040</v>
       </c>
       <c r="L37" s="3" t="str">
-        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J37,"&amp;pw=",K37)</f>
+        <f t="shared" si="1"/>
         <v>https://yeweon-junghoon.com/?id=2039&amp;pw=6040</v>
       </c>
     </row>
@@ -2835,7 +2838,7 @@
         <v>4250</v>
       </c>
       <c r="L38" s="3" t="str">
-        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J38,"&amp;pw=",K38)</f>
+        <f t="shared" si="1"/>
         <v>https://yeweon-junghoon.com/?id=2040&amp;pw=4250</v>
       </c>
     </row>
@@ -2874,7 +2877,7 @@
         <v>2653</v>
       </c>
       <c r="L39" s="3" t="str">
-        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J39,"&amp;pw=",K39)</f>
+        <f t="shared" si="1"/>
         <v>https://yeweon-junghoon.com/?id=2043&amp;pw=2653</v>
       </c>
     </row>
@@ -2913,7 +2916,7 @@
         <v>1786</v>
       </c>
       <c r="L40" s="3" t="str">
-        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J40,"&amp;pw=",K40)</f>
+        <f t="shared" si="1"/>
         <v>https://yeweon-junghoon.com/?id=2044&amp;pw=1786</v>
       </c>
     </row>
@@ -2952,7 +2955,7 @@
         <v>1602</v>
       </c>
       <c r="L41" s="3" t="str">
-        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J41,"&amp;pw=",K41)</f>
+        <f t="shared" si="1"/>
         <v>https://yeweon-junghoon.com/?id=2046&amp;pw=1602</v>
       </c>
     </row>
@@ -2991,7 +2994,7 @@
         <v>9424</v>
       </c>
       <c r="L42" s="3" t="str">
-        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J42,"&amp;pw=",K42)</f>
+        <f t="shared" si="1"/>
         <v>https://yeweon-junghoon.com/?id=2048&amp;pw=9424</v>
       </c>
     </row>
@@ -3030,7 +3033,7 @@
         <v>7131</v>
       </c>
       <c r="L43" s="3" t="str">
-        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J43,"&amp;pw=",K43)</f>
+        <f t="shared" si="1"/>
         <v>https://yeweon-junghoon.com/?id=2049&amp;pw=7131</v>
       </c>
     </row>
@@ -3069,7 +3072,7 @@
         <v>2659</v>
       </c>
       <c r="L44" s="3" t="str">
-        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J44,"&amp;pw=",K44)</f>
+        <f t="shared" si="1"/>
         <v>https://yeweon-junghoon.com/?id=2050&amp;pw=2659</v>
       </c>
     </row>
@@ -3108,7 +3111,7 @@
         <v>3869</v>
       </c>
       <c r="L45" s="3" t="str">
-        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J45,"&amp;pw=",K45)</f>
+        <f t="shared" si="1"/>
         <v>https://yeweon-junghoon.com/?id=2052&amp;pw=3869</v>
       </c>
     </row>
@@ -3147,13 +3150,13 @@
         <v>5767</v>
       </c>
       <c r="L46" s="3" t="str">
-        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J46,"&amp;pw=",K46)</f>
+        <f t="shared" si="1"/>
         <v>https://yeweon-junghoon.com/?id=2053&amp;pw=5767</v>
       </c>
     </row>
     <row r="47" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B47" s="1" t="b">
         <v>0</v>
@@ -3186,7 +3189,7 @@
         <v>1255</v>
       </c>
       <c r="L47" s="3" t="str">
-        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J47,"&amp;pw=",K47)</f>
+        <f t="shared" si="1"/>
         <v>https://yeweon-junghoon.com/?id=2055&amp;pw=1255</v>
       </c>
     </row>
@@ -3225,7 +3228,7 @@
         <v>2271</v>
       </c>
       <c r="L48" s="3" t="str">
-        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J48,"&amp;pw=",K48)</f>
+        <f t="shared" si="1"/>
         <v>https://yeweon-junghoon.com/?id=2056&amp;pw=2271</v>
       </c>
     </row>
@@ -3264,7 +3267,7 @@
         <v>8119</v>
       </c>
       <c r="L49" s="3" t="str">
-        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J49,"&amp;pw=",K49)</f>
+        <f t="shared" si="1"/>
         <v>https://yeweon-junghoon.com/?id=2058&amp;pw=8119</v>
       </c>
     </row>
@@ -3303,13 +3306,13 @@
         <v>3233</v>
       </c>
       <c r="L50" s="3" t="str">
-        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J50,"&amp;pw=",K50)</f>
+        <f t="shared" si="1"/>
         <v>https://yeweon-junghoon.com/?id=2059&amp;pw=3233</v>
       </c>
     </row>
     <row r="51" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B51" s="1" t="b">
         <v>1</v>
@@ -3342,7 +3345,7 @@
         <v>6481</v>
       </c>
       <c r="L51" s="3" t="str">
-        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J51,"&amp;pw=",K51)</f>
+        <f t="shared" si="1"/>
         <v>https://yeweon-junghoon.com/?id=2060&amp;pw=6481</v>
       </c>
     </row>
@@ -3381,7 +3384,7 @@
         <v>6154</v>
       </c>
       <c r="L52" s="3" t="str">
-        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J52,"&amp;pw=",K52)</f>
+        <f t="shared" si="1"/>
         <v>https://yeweon-junghoon.com/?id=2061&amp;pw=6154</v>
       </c>
     </row>
@@ -3420,7 +3423,7 @@
         <v>6154</v>
       </c>
       <c r="L53" s="3" t="str">
-        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J53,"&amp;pw=",K53)</f>
+        <f t="shared" si="1"/>
         <v>https://yeweon-junghoon.com/?id=2062&amp;pw=6154</v>
       </c>
     </row>
@@ -3459,7 +3462,7 @@
         <v>6154</v>
       </c>
       <c r="L54" s="3" t="str">
-        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J54,"&amp;pw=",K54)</f>
+        <f t="shared" si="1"/>
         <v>https://yeweon-junghoon.com/?id=2063&amp;pw=6154</v>
       </c>
     </row>
@@ -3498,13 +3501,13 @@
         <v>6154</v>
       </c>
       <c r="L55" s="3" t="str">
-        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J55,"&amp;pw=",K55)</f>
+        <f t="shared" si="1"/>
         <v>https://yeweon-junghoon.com/?id=2064&amp;pw=6154</v>
       </c>
     </row>
     <row r="56" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B56" s="1" t="b">
         <v>0</v>
@@ -3537,13 +3540,13 @@
         <v>3231</v>
       </c>
       <c r="L56" s="3" t="str">
-        <f t="shared" ref="L56:L57" si="0">_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J56,"&amp;pw=",K56)</f>
+        <f t="shared" ref="L56:L57" si="2">_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J56,"&amp;pw=",K56)</f>
         <v>https://yeweon-junghoon.com/?id=2065&amp;pw=3231</v>
       </c>
     </row>
     <row r="57" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B57" s="1" t="b">
         <v>0</v>
@@ -3576,7 +3579,7 @@
         <v>3231</v>
       </c>
       <c r="L57" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>https://yeweon-junghoon.com/?id=2066&amp;pw=3231</v>
       </c>
     </row>
@@ -11954,9 +11957,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA0C7DFC-75FC-7840-8B8C-FAC433125D3B}">
   <dimension ref="A1:M982"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E56" sqref="E56"/>
+      <selection pane="bottomLeft" activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12044,7 +12047,7 @@
         <v>1912</v>
       </c>
       <c r="L2" s="3" t="str">
-        <f t="shared" ref="L2:L40" si="0">_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J2,"&amp;pw=",K2)</f>
+        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J2,"&amp;pw=",K2)</f>
         <v>https://yeweon-junghoon.com/?id=3001&amp;pw=1912</v>
       </c>
     </row>
@@ -12083,11 +12086,11 @@
         <v>3480</v>
       </c>
       <c r="L3" s="32" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J3,"&amp;pw=",K3)</f>
         <v>https://yeweon-junghoon.com/?id=3002&amp;pw=3480</v>
       </c>
       <c r="M3" s="37" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="4" spans="1:13" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12125,11 +12128,11 @@
         <v>5064</v>
       </c>
       <c r="L4" s="32" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J4,"&amp;pw=",K4)</f>
         <v>https://yeweon-junghoon.com/?id=3003&amp;pw=5064</v>
       </c>
       <c r="M4" s="37" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12167,7 +12170,7 @@
         <v>1168</v>
       </c>
       <c r="L5" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J5,"&amp;pw=",K5)</f>
         <v>https://yeweon-junghoon.com/?id=3004&amp;pw=1168</v>
       </c>
     </row>
@@ -12206,7 +12209,7 @@
         <v>3499</v>
       </c>
       <c r="L6" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J6,"&amp;pw=",K6)</f>
         <v>https://yeweon-junghoon.com/?id=3005&amp;pw=3499</v>
       </c>
     </row>
@@ -12245,7 +12248,7 @@
         <v>7450</v>
       </c>
       <c r="L7" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J7,"&amp;pw=",K7)</f>
         <v>https://yeweon-junghoon.com/?id=3006&amp;pw=7450</v>
       </c>
     </row>
@@ -12284,11 +12287,11 @@
         <v>2981</v>
       </c>
       <c r="L8" s="32" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J8,"&amp;pw=",K8)</f>
         <v>https://yeweon-junghoon.com/?id=3007&amp;pw=2981</v>
       </c>
       <c r="M8" s="37" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12326,11 +12329,11 @@
         <v>9914</v>
       </c>
       <c r="L9" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J9,"&amp;pw=",K9)</f>
         <v>https://yeweon-junghoon.com/?id=3008&amp;pw=9914</v>
       </c>
       <c r="M9" s="14" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="10" spans="1:13" s="21" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12368,7 +12371,7 @@
         <v>6546</v>
       </c>
       <c r="L10" s="24" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J10,"&amp;pw=",K10)</f>
         <v>https://yeweon-junghoon.com/?id=3009&amp;pw=6546</v>
       </c>
     </row>
@@ -12407,7 +12410,7 @@
         <v>9721</v>
       </c>
       <c r="L11" s="24" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J11,"&amp;pw=",K11)</f>
         <v>https://yeweon-junghoon.com/?id=3010&amp;pw=9721</v>
       </c>
     </row>
@@ -12446,7 +12449,7 @@
         <v>2388</v>
       </c>
       <c r="L12" s="24" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J12,"&amp;pw=",K12)</f>
         <v>https://yeweon-junghoon.com/?id=3011&amp;pw=2388</v>
       </c>
     </row>
@@ -12485,7 +12488,7 @@
         <v>7541</v>
       </c>
       <c r="L13" s="32" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J13,"&amp;pw=",K13)</f>
         <v>https://yeweon-junghoon.com/?id=3012&amp;pw=7541</v>
       </c>
       <c r="M13" s="37" t="s">
@@ -12527,7 +12530,7 @@
         <v>7554</v>
       </c>
       <c r="L14" s="24" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J14,"&amp;pw=",K14)</f>
         <v>https://yeweon-junghoon.com/?id=3013&amp;pw=7554</v>
       </c>
     </row>
@@ -12566,7 +12569,7 @@
         <v>2309</v>
       </c>
       <c r="L15" s="32" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J15,"&amp;pw=",K15)</f>
         <v>https://yeweon-junghoon.com/?id=3014&amp;pw=2309</v>
       </c>
     </row>
@@ -12605,7 +12608,7 @@
         <v>3690</v>
       </c>
       <c r="L16" s="24" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J16,"&amp;pw=",K16)</f>
         <v>https://yeweon-junghoon.com/?id=3015&amp;pw=3690</v>
       </c>
     </row>
@@ -12644,11 +12647,11 @@
         <v>4869</v>
       </c>
       <c r="L17" s="32" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J17,"&amp;pw=",K17)</f>
         <v>https://yeweon-junghoon.com/?id=3016&amp;pw=4869</v>
       </c>
       <c r="M17" s="37" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="18" spans="1:13" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12686,11 +12689,11 @@
         <v>5482</v>
       </c>
       <c r="L18" s="32" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J18,"&amp;pw=",K18)</f>
         <v>https://yeweon-junghoon.com/?id=3017&amp;pw=5482</v>
       </c>
       <c r="M18" s="37" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="19" spans="1:13" s="21" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12728,7 +12731,7 @@
         <v>6182</v>
       </c>
       <c r="L19" s="24" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J19,"&amp;pw=",K19)</f>
         <v>https://yeweon-junghoon.com/?id=3018&amp;pw=6182</v>
       </c>
     </row>
@@ -12767,7 +12770,7 @@
         <v>4195</v>
       </c>
       <c r="L20" s="24" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J20,"&amp;pw=",K20)</f>
         <v>https://yeweon-junghoon.com/?id=3019&amp;pw=4195</v>
       </c>
     </row>
@@ -12806,7 +12809,7 @@
         <v>6240</v>
       </c>
       <c r="L21" s="24" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J21,"&amp;pw=",K21)</f>
         <v>https://yeweon-junghoon.com/?id=3020&amp;pw=6240</v>
       </c>
     </row>
@@ -12845,7 +12848,7 @@
         <v>3589</v>
       </c>
       <c r="L22" s="24" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J22,"&amp;pw=",K22)</f>
         <v>https://yeweon-junghoon.com/?id=3021&amp;pw=3589</v>
       </c>
     </row>
@@ -12884,7 +12887,7 @@
         <v>9668</v>
       </c>
       <c r="L23" s="24" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J23,"&amp;pw=",K23)</f>
         <v>https://yeweon-junghoon.com/?id=3022&amp;pw=9668</v>
       </c>
     </row>
@@ -12923,7 +12926,7 @@
         <v>7769</v>
       </c>
       <c r="L24" s="24" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J24,"&amp;pw=",K24)</f>
         <v>https://yeweon-junghoon.com/?id=3023&amp;pw=7769</v>
       </c>
     </row>
@@ -12962,16 +12965,16 @@
         <v>5875</v>
       </c>
       <c r="L25" s="24" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J25,"&amp;pw=",K25)</f>
         <v>https://yeweon-junghoon.com/?id=3024&amp;pw=5875</v>
       </c>
     </row>
     <row r="26" spans="1:13" s="21" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="21" t="s">
-        <v>189</v>
+        <v>110</v>
       </c>
       <c r="B26" s="22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C26" s="22">
         <v>0</v>
@@ -12995,25 +12998,25 @@
         <v>2</v>
       </c>
       <c r="J26" s="26">
-        <v>3026</v>
+        <v>3025</v>
       </c>
       <c r="K26" s="27">
-        <v>7226</v>
+        <v>4551</v>
       </c>
       <c r="L26" s="24" t="str">
-        <f t="shared" si="0"/>
-        <v>https://yeweon-junghoon.com/?id=3026&amp;pw=7226</v>
+        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J26,"&amp;pw=",K26)</f>
+        <v>https://yeweon-junghoon.com/?id=3025&amp;pw=4551</v>
       </c>
     </row>
     <row r="27" spans="1:13" s="21" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="22" t="s">
-        <v>201</v>
+      <c r="A27" s="21" t="s">
+        <v>189</v>
       </c>
       <c r="B27" s="22" t="b">
         <v>0</v>
       </c>
       <c r="C27" s="22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D27" s="22" t="b">
         <v>0</v>
@@ -13030,18 +13033,18 @@
       <c r="H27" s="24">
         <v>2</v>
       </c>
-      <c r="I27" s="28">
+      <c r="I27" s="25">
         <v>2</v>
       </c>
       <c r="J27" s="26">
-        <v>3030</v>
+        <v>3026</v>
       </c>
       <c r="K27" s="27">
-        <v>4981</v>
+        <v>7226</v>
       </c>
       <c r="L27" s="24" t="str">
-        <f t="shared" si="0"/>
-        <v>https://yeweon-junghoon.com/?id=3030&amp;pw=4981</v>
+        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J27,"&amp;pw=",K27)</f>
+        <v>https://yeweon-junghoon.com/?id=3026&amp;pw=7226</v>
       </c>
     </row>
     <row r="28" spans="1:13" s="21" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -13079,7 +13082,7 @@
         <v>3213</v>
       </c>
       <c r="L28" s="32" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J28,"&amp;pw=",K28)</f>
         <v>https://yeweon-junghoon.com/?id=3027&amp;pw=3213</v>
       </c>
       <c r="M28" s="36" t="s">
@@ -13121,7 +13124,7 @@
         <v>5652</v>
       </c>
       <c r="L29" s="32" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J29,"&amp;pw=",K29)</f>
         <v>https://yeweon-junghoon.com/?id=3028&amp;pw=5652</v>
       </c>
       <c r="M29" s="36" t="s">
@@ -13163,7 +13166,7 @@
         <v>3573</v>
       </c>
       <c r="L30" s="32" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J30,"&amp;pw=",K30)</f>
         <v>https://yeweon-junghoon.com/?id=3029&amp;pw=3573</v>
       </c>
       <c r="M30" s="36" t="s">
@@ -13171,92 +13174,67 @@
       </c>
     </row>
     <row r="31" spans="1:13" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="30" t="s">
-        <v>213</v>
-      </c>
-      <c r="B31" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="C31" s="30">
-        <v>0</v>
-      </c>
-      <c r="D31" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="E31" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="F31" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="G31" s="31" t="b">
-        <v>0</v>
-      </c>
-      <c r="H31" s="32">
+      <c r="A31" s="22" t="s">
+        <v>201</v>
+      </c>
+      <c r="B31" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="C31" s="22">
+        <v>1</v>
+      </c>
+      <c r="D31" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="E31" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="F31" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="G31" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="H31" s="24">
         <v>2</v>
       </c>
-      <c r="I31" s="33">
-        <v>5</v>
-      </c>
-      <c r="J31" s="34">
-        <v>3032</v>
-      </c>
-      <c r="K31" s="35">
-        <v>4568</v>
-      </c>
-      <c r="L31" s="32" t="str">
-        <f t="shared" si="0"/>
-        <v>https://yeweon-junghoon.com/?id=3032&amp;pw=4568</v>
-      </c>
-      <c r="M31" s="37" t="s">
-        <v>223</v>
-      </c>
+      <c r="I31" s="28">
+        <v>2</v>
+      </c>
+      <c r="J31" s="26">
+        <v>3030</v>
+      </c>
+      <c r="K31" s="27">
+        <v>4981</v>
+      </c>
+      <c r="L31" s="24" t="str">
+        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J31,"&amp;pw=",K31)</f>
+        <v>https://yeweon-junghoon.com/?id=3030&amp;pw=4981</v>
+      </c>
+      <c r="M31" s="21"/>
     </row>
     <row r="32" spans="1:13" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="B32" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="C32" s="1">
-        <v>0</v>
-      </c>
-      <c r="D32" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E32" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F32" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G32" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H32" s="3">
-        <v>5</v>
-      </c>
-      <c r="I32" s="29">
-        <v>5</v>
-      </c>
-      <c r="J32" s="5">
-        <v>3033</v>
-      </c>
-      <c r="K32" s="6">
-        <v>6651</v>
-      </c>
-      <c r="L32" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>https://yeweon-junghoon.com/?id=3033&amp;pw=6651</v>
-      </c>
-      <c r="M32" s="14" t="s">
-        <v>224</v>
-      </c>
+      <c r="A32" t="s">
+        <v>271</v>
+      </c>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="4"/>
+      <c r="J32">
+        <v>3031</v>
+      </c>
+      <c r="K32" s="6"/>
+      <c r="L32" s="3"/>
+      <c r="M32"/>
     </row>
     <row r="33" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="30" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B33" s="30" t="b">
         <v>0</v>
@@ -13277,70 +13255,70 @@
         <v>0</v>
       </c>
       <c r="H33" s="32">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I33" s="33">
         <v>5</v>
       </c>
       <c r="J33" s="34">
-        <v>3034</v>
+        <v>3032</v>
       </c>
       <c r="K33" s="35">
+        <v>4568</v>
+      </c>
+      <c r="L33" s="32" t="str">
+        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J33,"&amp;pw=",K33)</f>
+        <v>https://yeweon-junghoon.com/?id=3032&amp;pw=4568</v>
+      </c>
+      <c r="M33" s="37" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B34" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C34" s="1">
+        <v>0</v>
+      </c>
+      <c r="D34" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E34" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F34" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G34" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H34" s="3">
+        <v>5</v>
+      </c>
+      <c r="I34" s="29">
+        <v>5</v>
+      </c>
+      <c r="J34" s="5">
+        <v>3033</v>
+      </c>
+      <c r="K34" s="6">
         <v>6651</v>
       </c>
-      <c r="L33" s="32" t="str">
-        <f t="shared" si="0"/>
-        <v>https://yeweon-junghoon.com/?id=3034&amp;pw=6651</v>
-      </c>
-      <c r="M33" s="37" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="30" t="s">
-        <v>217</v>
-      </c>
-      <c r="B34" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="C34" s="30">
-        <v>0</v>
-      </c>
-      <c r="D34" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="E34" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="F34" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="G34" s="31" t="b">
-        <v>0</v>
-      </c>
-      <c r="H34" s="32">
-        <v>4</v>
-      </c>
-      <c r="I34" s="33">
-        <v>4</v>
-      </c>
-      <c r="J34" s="34">
-        <v>3035</v>
-      </c>
-      <c r="K34" s="35">
-        <v>6598</v>
-      </c>
-      <c r="L34" s="32" t="str">
-        <f t="shared" si="0"/>
-        <v>https://yeweon-junghoon.com/?id=3035&amp;pw=6598</v>
-      </c>
-      <c r="M34" s="37" t="s">
-        <v>226</v>
+      <c r="L34" s="3" t="str">
+        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J34,"&amp;pw=",K34)</f>
+        <v>https://yeweon-junghoon.com/?id=3033&amp;pw=6651</v>
+      </c>
+      <c r="M34" s="14" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="35" spans="1:13" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="30" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B35" s="30" t="b">
         <v>0</v>
@@ -13361,64 +13339,66 @@
         <v>0</v>
       </c>
       <c r="H35" s="32">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I35" s="33">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J35" s="34">
-        <v>3037</v>
+        <v>3034</v>
       </c>
       <c r="K35" s="35">
-        <v>3154</v>
+        <v>6651</v>
       </c>
       <c r="L35" s="32" t="str">
-        <f t="shared" si="0"/>
-        <v>https://yeweon-junghoon.com/?id=3037&amp;pw=3154</v>
-      </c>
-      <c r="M35" s="36" t="s">
-        <v>228</v>
+        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J35,"&amp;pw=",K35)</f>
+        <v>https://yeweon-junghoon.com/?id=3034&amp;pw=6651</v>
+      </c>
+      <c r="M35" s="37" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="36" spans="1:13" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="B36" s="22" t="b">
-        <v>1</v>
-      </c>
-      <c r="C36" s="22">
-        <v>0</v>
-      </c>
-      <c r="D36" s="22" t="b">
-        <v>0</v>
-      </c>
-      <c r="E36" s="22" t="b">
-        <v>0</v>
-      </c>
-      <c r="F36" s="22" t="b">
-        <v>0</v>
-      </c>
-      <c r="G36" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="H36" s="24">
-        <v>2</v>
-      </c>
-      <c r="I36" s="25">
-        <v>2</v>
-      </c>
-      <c r="J36" s="26">
-        <v>3025</v>
-      </c>
-      <c r="K36" s="27">
-        <v>4551</v>
-      </c>
-      <c r="L36" s="24" t="str">
-        <f t="shared" si="0"/>
-        <v>https://yeweon-junghoon.com/?id=3025&amp;pw=4551</v>
-      </c>
-      <c r="M36" s="21"/>
+      <c r="A36" s="30" t="s">
+        <v>217</v>
+      </c>
+      <c r="B36" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="C36" s="30">
+        <v>0</v>
+      </c>
+      <c r="D36" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="E36" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="F36" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="G36" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="H36" s="32">
+        <v>4</v>
+      </c>
+      <c r="I36" s="33">
+        <v>4</v>
+      </c>
+      <c r="J36" s="34">
+        <v>3035</v>
+      </c>
+      <c r="K36" s="35">
+        <v>6598</v>
+      </c>
+      <c r="L36" s="32" t="str">
+        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J36,"&amp;pw=",K36)</f>
+        <v>https://yeweon-junghoon.com/?id=3035&amp;pw=6598</v>
+      </c>
+      <c r="M36" s="37" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="37" spans="1:13" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="30" t="s">
@@ -13455,7 +13435,7 @@
         <v>4585</v>
       </c>
       <c r="L37" s="32" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J37,"&amp;pw=",K37)</f>
         <v>https://yeweon-junghoon.com/?id=3036&amp;pw=4585</v>
       </c>
       <c r="M37" s="37" t="s">
@@ -13463,184 +13443,210 @@
       </c>
     </row>
     <row r="38" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
+      <c r="A38" s="30" t="s">
+        <v>219</v>
+      </c>
+      <c r="B38" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="C38" s="30">
+        <v>0</v>
+      </c>
+      <c r="D38" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="E38" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="F38" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="G38" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="H38" s="32">
+        <v>0</v>
+      </c>
+      <c r="I38" s="33">
+        <v>2</v>
+      </c>
+      <c r="J38" s="34">
+        <v>3037</v>
+      </c>
+      <c r="K38" s="35">
+        <v>3154</v>
+      </c>
+      <c r="L38" s="32" t="str">
+        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J38,"&amp;pw=",K38)</f>
+        <v>https://yeweon-junghoon.com/?id=3037&amp;pw=3154</v>
+      </c>
+      <c r="M38" s="36" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="B38" s="1" t="b">
+      <c r="B39" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="C38" s="1">
-        <v>0</v>
-      </c>
-      <c r="D38" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E38" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F38" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G38" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H38" s="3">
-        <v>0</v>
-      </c>
-      <c r="I38" s="29">
+      <c r="C39" s="1">
+        <v>0</v>
+      </c>
+      <c r="D39" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E39" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F39" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G39" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H39" s="3">
+        <v>0</v>
+      </c>
+      <c r="I39" s="29">
         <v>2</v>
       </c>
-      <c r="J38" s="5">
+      <c r="J39" s="5">
         <v>3038</v>
       </c>
-      <c r="K38" s="6">
+      <c r="K39" s="6">
         <v>9785</v>
       </c>
-      <c r="L38" s="3" t="str">
-        <f t="shared" si="0"/>
+      <c r="L39" s="3" t="str">
+        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J39,"&amp;pw=",K39)</f>
         <v>https://yeweon-junghoon.com/?id=3038&amp;pw=9785</v>
       </c>
-      <c r="M38" s="14" t="s">
+      <c r="M39" s="14" t="s">
         <v>229</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="30" t="s">
-        <v>221</v>
-      </c>
-      <c r="B39" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="C39" s="30">
-        <v>0</v>
-      </c>
-      <c r="D39" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="E39" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="F39" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="G39" s="31" t="b">
-        <v>0</v>
-      </c>
-      <c r="H39" s="32">
-        <v>0</v>
-      </c>
-      <c r="I39" s="33">
-        <v>2</v>
-      </c>
-      <c r="J39" s="34">
-        <v>3039</v>
-      </c>
-      <c r="K39" s="35">
-        <v>1154</v>
-      </c>
-      <c r="L39" s="32" t="str">
-        <f t="shared" si="0"/>
-        <v>https://yeweon-junghoon.com/?id=3039&amp;pw=1154</v>
-      </c>
-      <c r="M39" s="37" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="40" spans="1:13" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="30" t="s">
+        <v>221</v>
+      </c>
+      <c r="B40" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="C40" s="30">
+        <v>0</v>
+      </c>
+      <c r="D40" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="E40" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="F40" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="G40" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="H40" s="32">
+        <v>0</v>
+      </c>
+      <c r="I40" s="33">
+        <v>2</v>
+      </c>
+      <c r="J40" s="34">
+        <v>3039</v>
+      </c>
+      <c r="K40" s="35">
+        <v>1154</v>
+      </c>
+      <c r="L40" s="32" t="str">
+        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J40,"&amp;pw=",K40)</f>
+        <v>https://yeweon-junghoon.com/?id=3039&amp;pw=1154</v>
+      </c>
+      <c r="M40" s="37" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="30" t="s">
         <v>214</v>
       </c>
-      <c r="B40" s="33" t="b">
+      <c r="B41" s="33" t="b">
         <v>1</v>
       </c>
-      <c r="C40" s="30">
-        <v>0</v>
-      </c>
-      <c r="D40" s="30" t="b">
+      <c r="C41" s="30">
+        <v>0</v>
+      </c>
+      <c r="D41" s="30" t="b">
         <v>1</v>
       </c>
-      <c r="E40" s="30" t="b">
+      <c r="E41" s="30" t="b">
         <v>1</v>
       </c>
-      <c r="F40" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="G40" s="31" t="b">
-        <v>0</v>
-      </c>
-      <c r="H40" s="32">
+      <c r="F41" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="G41" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="H41" s="32">
         <v>2</v>
       </c>
-      <c r="I40" s="33">
+      <c r="I41" s="33">
         <v>5</v>
       </c>
-      <c r="J40" s="34">
+      <c r="J41" s="34">
         <v>3040</v>
       </c>
-      <c r="K40" s="35">
+      <c r="K41" s="35">
         <v>4568</v>
       </c>
-      <c r="L40" s="32" t="str">
-        <f t="shared" si="0"/>
+      <c r="L41" s="32" t="str">
+        <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",J41,"&amp;pw=",K41)</f>
         <v>https://yeweon-junghoon.com/?id=3040&amp;pw=4568</v>
       </c>
-      <c r="M40" s="37" t="s">
+      <c r="M41" s="37" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="41" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="B41" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="C41" s="1">
-        <v>1</v>
-      </c>
-      <c r="D41" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E41" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F41" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G41" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H41" s="3">
-        <v>1</v>
-      </c>
-      <c r="I41" s="52">
-        <v>2</v>
-      </c>
-      <c r="J41" s="5">
-        <v>3041</v>
-      </c>
-      <c r="K41" s="6"/>
-      <c r="L41" s="3"/>
     </row>
     <row r="42" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="3"/>
-      <c r="I42" s="4"/>
-      <c r="J42" s="5"/>
+        <v>263</v>
+      </c>
+      <c r="B42" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C42" s="1">
+        <v>1</v>
+      </c>
+      <c r="D42" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E42" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F42" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G42" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H42" s="3">
+        <v>1</v>
+      </c>
+      <c r="I42" s="52">
+        <v>2</v>
+      </c>
+      <c r="J42" s="5">
+        <v>3041</v>
+      </c>
       <c r="K42" s="6"/>
       <c r="L42" s="3"/>
     </row>
     <row r="43" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="1" t="s">
-        <v>259</v>
+      <c r="A43" t="s">
+        <v>274</v>
       </c>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -13650,7 +13656,9 @@
       <c r="G43" s="2"/>
       <c r="H43" s="3"/>
       <c r="I43" s="4"/>
-      <c r="J43" s="5"/>
+      <c r="J43">
+        <v>3042</v>
+      </c>
       <c r="K43" s="6"/>
       <c r="L43" s="3"/>
     </row>
@@ -22126,19 +22134,19 @@
       <c r="L982" s="3"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M982">
-    <sortCondition ref="B1:B982"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M983">
+    <sortCondition ref="J1:J983"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="M39" r:id="rId1" xr:uid="{63D03B50-4EA3-FD4A-90CB-521D7656D7C5}"/>
-    <hyperlink ref="M38" r:id="rId2" xr:uid="{B3344D01-F9E6-5A4E-B3DF-34DDCFEED5B0}"/>
-    <hyperlink ref="M40" r:id="rId3" xr:uid="{36D33770-C2BC-3744-A547-A2354F717DF2}"/>
-    <hyperlink ref="M31" r:id="rId4" xr:uid="{56E2B0C5-FF3C-D24F-9E14-BB3FE3BEEC35}"/>
-    <hyperlink ref="M33" r:id="rId5" xr:uid="{A51A9883-1D71-4944-9781-9B18907D1BEB}"/>
+    <hyperlink ref="M40" r:id="rId1" xr:uid="{63D03B50-4EA3-FD4A-90CB-521D7656D7C5}"/>
+    <hyperlink ref="M39" r:id="rId2" xr:uid="{B3344D01-F9E6-5A4E-B3DF-34DDCFEED5B0}"/>
+    <hyperlink ref="M41" r:id="rId3" xr:uid="{36D33770-C2BC-3744-A547-A2354F717DF2}"/>
+    <hyperlink ref="M33" r:id="rId4" xr:uid="{56E2B0C5-FF3C-D24F-9E14-BB3FE3BEEC35}"/>
+    <hyperlink ref="M35" r:id="rId5" xr:uid="{A51A9883-1D71-4944-9781-9B18907D1BEB}"/>
     <hyperlink ref="M37" r:id="rId6" xr:uid="{7808E987-0F34-7047-A64D-4B8054B2AAD9}"/>
-    <hyperlink ref="M34" r:id="rId7" xr:uid="{B2ACD2E3-680C-A94F-95E7-DE0A5EB1647E}"/>
+    <hyperlink ref="M36" r:id="rId7" xr:uid="{B2ACD2E3-680C-A94F-95E7-DE0A5EB1647E}"/>
     <hyperlink ref="M13" r:id="rId8" xr:uid="{54C17E1A-2DA9-184B-A797-41FC71E8DA48}"/>
-    <hyperlink ref="M32" r:id="rId9" xr:uid="{31117501-47D1-4346-8525-FD3618DBC9AB}"/>
+    <hyperlink ref="M34" r:id="rId9" xr:uid="{31117501-47D1-4346-8525-FD3618DBC9AB}"/>
     <hyperlink ref="M17" r:id="rId10" xr:uid="{5E30416F-5452-7E4C-A0FA-49A5F201E50E}"/>
     <hyperlink ref="M18" r:id="rId11" xr:uid="{E45AA1FE-E9EC-A748-A664-A6C128A06789}"/>
     <hyperlink ref="M3" r:id="rId12" xr:uid="{EEADBF90-D72A-F04A-9888-8C688995D4B0}"/>
@@ -22173,7 +22181,7 @@
   <dimension ref="A1:L983"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD19"/>
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22928,19 +22936,39 @@
       </c>
     </row>
     <row r="20" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="6"/>
+      <c r="A20" t="s">
+        <v>273</v>
+      </c>
+      <c r="B20" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C20" s="1">
+        <v>2</v>
+      </c>
+      <c r="D20" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E20" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F20" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G20" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
+        <v>1</v>
+      </c>
+      <c r="I20" s="29">
+        <v>2</v>
+      </c>
+      <c r="J20">
+        <v>4020</v>
+      </c>
+      <c r="K20">
+        <v>3152</v>
+      </c>
       <c r="L20" s="3"/>
     </row>
     <row r="21" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -31786,7 +31814,7 @@
           <x14:formula1>
             <xm:f>values!$A$1:$A$2</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:G54 B2:B54</xm:sqref>
+          <xm:sqref>B2:B54 D2:G54</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{6CF9C01C-15DB-2648-972F-2A329B2330C4}">
           <x14:formula1>
@@ -31805,7 +31833,7 @@
   <dimension ref="A1:L982"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD22"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -31853,7 +31881,7 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="43" t="s">
+      <c r="A2" t="s">
         <v>237</v>
       </c>
       <c r="B2" s="44" t="b">
@@ -31892,7 +31920,7 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="43" t="s">
+      <c r="A3" t="s">
         <v>238</v>
       </c>
       <c r="B3" s="44" t="b">
@@ -31931,7 +31959,7 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="43" t="s">
+      <c r="A4" t="s">
         <v>239</v>
       </c>
       <c r="B4" s="44" t="b">
@@ -31970,7 +31998,7 @@
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="43" t="s">
+      <c r="A5" t="s">
         <v>240</v>
       </c>
       <c r="B5" s="44" t="b">
@@ -32009,7 +32037,7 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="43" t="s">
+      <c r="A6" t="s">
         <v>241</v>
       </c>
       <c r="B6" s="44" t="b">
@@ -32048,7 +32076,7 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="43" t="s">
+      <c r="A7" t="s">
         <v>242</v>
       </c>
       <c r="B7" s="44" t="b">
@@ -32087,8 +32115,8 @@
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="43" t="s">
-        <v>244</v>
+      <c r="A8" t="s">
+        <v>243</v>
       </c>
       <c r="B8" s="44" t="b">
         <v>0</v>
@@ -32126,8 +32154,8 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="43" t="s">
-        <v>245</v>
+      <c r="A9" t="s">
+        <v>244</v>
       </c>
       <c r="B9" s="44" t="b">
         <v>0</v>
@@ -32165,8 +32193,8 @@
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="43" t="s">
-        <v>246</v>
+      <c r="A10" t="s">
+        <v>245</v>
       </c>
       <c r="B10" s="44" t="b">
         <v>0</v>
@@ -32204,8 +32232,8 @@
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="43" t="s">
-        <v>256</v>
+      <c r="A11" t="s">
+        <v>255</v>
       </c>
       <c r="B11" s="44" t="b">
         <v>0</v>
@@ -32243,8 +32271,8 @@
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="43" t="s">
-        <v>247</v>
+      <c r="A12" t="s">
+        <v>246</v>
       </c>
       <c r="B12" s="44" t="b">
         <v>0</v>
@@ -32282,8 +32310,8 @@
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="43" t="s">
-        <v>248</v>
+      <c r="A13" t="s">
+        <v>247</v>
       </c>
       <c r="B13" s="44" t="b">
         <v>0</v>
@@ -32321,8 +32349,8 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="43" t="s">
-        <v>249</v>
+      <c r="A14" t="s">
+        <v>248</v>
       </c>
       <c r="B14" s="44" t="b">
         <v>0</v>
@@ -32360,8 +32388,8 @@
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="43" t="s">
-        <v>250</v>
+      <c r="A15" t="s">
+        <v>249</v>
       </c>
       <c r="B15" s="44" t="b">
         <v>0</v>
@@ -32399,8 +32427,8 @@
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="44" t="s">
-        <v>251</v>
+      <c r="A16" t="s">
+        <v>250</v>
       </c>
       <c r="B16" s="44" t="b">
         <v>0</v>
@@ -32438,8 +32466,8 @@
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="44" t="s">
-        <v>252</v>
+      <c r="A17" t="s">
+        <v>251</v>
       </c>
       <c r="B17" s="44" t="b">
         <v>0</v>
@@ -32477,8 +32505,8 @@
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" s="44" t="s">
-        <v>253</v>
+      <c r="A18" t="s">
+        <v>252</v>
       </c>
       <c r="B18" s="44" t="b">
         <v>0</v>
@@ -32516,8 +32544,8 @@
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="43" t="s">
-        <v>254</v>
+      <c r="A19" t="s">
+        <v>253</v>
       </c>
       <c r="B19" s="44" t="b">
         <v>0</v>
@@ -32555,8 +32583,8 @@
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="44" t="s">
-        <v>255</v>
+      <c r="A20" t="s">
+        <v>254</v>
       </c>
       <c r="B20" s="44" t="b">
         <v>0</v>
@@ -32594,8 +32622,8 @@
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" s="44" t="s">
-        <v>257</v>
+      <c r="A21" t="s">
+        <v>256</v>
       </c>
       <c r="B21" s="44" t="b">
         <v>0</v>
@@ -32633,8 +32661,8 @@
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" s="44" t="s">
-        <v>258</v>
+      <c r="A22" t="s">
+        <v>257</v>
       </c>
       <c r="B22" s="44" t="b">
         <v>0</v>
@@ -32672,17 +32700,39 @@
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" s="44"/>
-      <c r="B23" s="44"/>
-      <c r="C23" s="44"/>
-      <c r="D23" s="44"/>
-      <c r="E23" s="44"/>
-      <c r="F23" s="44"/>
-      <c r="G23" s="45"/>
-      <c r="H23" s="46"/>
-      <c r="I23" s="43"/>
-      <c r="J23" s="47"/>
-      <c r="K23" s="48"/>
+      <c r="A23" t="s">
+        <v>272</v>
+      </c>
+      <c r="B23" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="C23" s="44">
+        <v>0</v>
+      </c>
+      <c r="D23" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="E23" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="F23" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="G23" s="45" t="b">
+        <v>0</v>
+      </c>
+      <c r="H23" s="46">
+        <v>2</v>
+      </c>
+      <c r="I23" s="43">
+        <v>2</v>
+      </c>
+      <c r="J23">
+        <v>5022</v>
+      </c>
+      <c r="K23">
+        <v>2323</v>
+      </c>
       <c r="L23" s="46"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
@@ -58258,7 +58308,7 @@
         <v>https://yeweon-junghoon.com/?id=3002&amp;pw=3480</v>
       </c>
       <c r="M2" s="37" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="3" spans="1:13" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -58300,7 +58350,7 @@
         <v>https://yeweon-junghoon.com/?id=3003&amp;pw=5064</v>
       </c>
       <c r="M3" s="37" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -58433,7 +58483,7 @@
         <v>https://yeweon-junghoon.com/?id=3007&amp;pw=2981</v>
       </c>
       <c r="M7" s="37" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -58764,7 +58814,7 @@
         <v>https://yeweon-junghoon.com/?id=3016&amp;pw=4869</v>
       </c>
       <c r="M16" s="37" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="17" spans="1:13" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -58806,7 +58856,7 @@
         <v>https://yeweon-junghoon.com/?id=3017&amp;pw=5482</v>
       </c>
       <c r="M17" s="37" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="18" spans="1:13" s="21" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -62122,7 +62172,7 @@
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A107" s="43" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B107" s="44" t="b">
         <v>0</v>
@@ -62161,7 +62211,7 @@
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A108" s="43" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B108" s="44" t="b">
         <v>0</v>
@@ -62200,7 +62250,7 @@
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A109" s="43" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B109" s="44" t="b">
         <v>0</v>
@@ -62239,7 +62289,7 @@
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A110" s="43" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B110" s="44" t="b">
         <v>0</v>
@@ -62278,7 +62328,7 @@
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A111" s="43" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B111" s="44" t="b">
         <v>0</v>
@@ -62317,7 +62367,7 @@
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A112" s="43" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B112" s="44" t="b">
         <v>0</v>
@@ -62356,7 +62406,7 @@
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A113" s="43" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B113" s="44" t="b">
         <v>0</v>
@@ -62395,7 +62445,7 @@
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A114" s="43" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B114" s="44" t="b">
         <v>0</v>
@@ -62434,7 +62484,7 @@
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A115" s="44" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B115" s="44" t="b">
         <v>0</v>
@@ -62473,7 +62523,7 @@
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A116" s="44" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B116" s="44" t="b">
         <v>0</v>
@@ -62512,7 +62562,7 @@
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A117" s="44" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B117" s="44" t="b">
         <v>0</v>
@@ -62551,7 +62601,7 @@
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A118" s="43" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B118" s="44" t="b">
         <v>0</v>
@@ -62590,7 +62640,7 @@
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A119" s="44" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B119" s="44" t="b">
         <v>0</v>
@@ -62629,7 +62679,7 @@
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A120" s="44" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B120" s="44" t="b">
         <v>0</v>
@@ -62668,7 +62718,7 @@
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A121" s="44" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B121" s="44" t="b">
         <v>0</v>
